--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{60430132-97E6-42F1-B325-ABC7F6561C2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D9D91CE6-20DE-4295-84A2-2DD965E3D856}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>Nomar Mazara</t>
   </si>
   <si>
-    <t>Michael Foltynewicz</t>
-  </si>
-  <si>
     <t>Robbie Ray</t>
   </si>
   <si>
@@ -524,12 +521,6 @@
     <t>Raisel Iglesias</t>
   </si>
   <si>
-    <t>Vladimir Guerrero, Jr.</t>
-  </si>
-  <si>
-    <t>Fernando Tatis, Jr.</t>
-  </si>
-  <si>
     <t>J.T. Realmuto</t>
   </si>
   <si>
@@ -650,9 +641,6 @@
     <t>Johan Camargo</t>
   </si>
   <si>
-    <t>Ronald Acuna</t>
-  </si>
-  <si>
     <t>Brian Anderson</t>
   </si>
   <si>
@@ -705,12 +693,24 @@
   </si>
   <si>
     <t>Willie Calhoun</t>
+  </si>
+  <si>
+    <t>Ronald Acuna Jr.</t>
+  </si>
+  <si>
+    <t>Mike Foltynewicz</t>
+  </si>
+  <si>
+    <t>Vladimir Guerrero Jr.</t>
+  </si>
+  <si>
+    <t>Fernando Tatis Jr.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -1549,11 +1549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="H195" sqref="H195"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2229,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
@@ -2246,7 +2246,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2">
         <v>13</v>
@@ -2263,7 +2263,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="2">
         <v>8</v>
@@ -2280,7 +2280,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="2">
         <v>8</v>
@@ -2297,7 +2297,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="2">
         <v>10</v>
@@ -2328,10 +2328,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="2">
         <v>18</v>
@@ -2362,16 +2362,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="2">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="E48" s="1">
         <v>43465</v>
@@ -2379,16 +2379,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="2">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1">
         <v>43465</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="2">
         <v>8</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="2">
         <v>8</v>
@@ -2430,10 +2430,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2">
         <v>13</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="2">
         <v>8</v>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="2">
         <v>20</v>
@@ -2518,13 +2518,13 @@
         <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="2">
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E57" s="1">
         <v>43465</v>
@@ -2535,7 +2535,7 @@
         <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="2">
         <v>5</v>
@@ -2552,7 +2552,7 @@
         <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="2">
         <v>9</v>
@@ -2569,7 +2569,7 @@
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2">
         <v>37</v>
@@ -2586,7 +2586,7 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2">
         <v>23</v>
@@ -2603,7 +2603,7 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2">
         <v>23</v>
@@ -2620,7 +2620,7 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2">
         <v>19</v>
@@ -2637,7 +2637,7 @@
         <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2">
         <v>23</v>
@@ -2654,7 +2654,7 @@
         <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="2">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E66" s="1">
         <v>43465</v>
@@ -2688,7 +2688,7 @@
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2">
         <v>5</v>
@@ -2705,7 +2705,7 @@
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2">
         <v>8</v>
@@ -2722,7 +2722,7 @@
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2">
         <v>19</v>
@@ -2739,7 +2739,7 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2">
         <v>7</v>
@@ -2756,7 +2756,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2">
         <v>26</v>
@@ -2773,7 +2773,7 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2">
         <v>8</v>
@@ -2790,7 +2790,7 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2">
         <v>5</v>
@@ -2824,7 +2824,7 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2">
         <v>10</v>
@@ -2841,7 +2841,7 @@
         <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2">
         <v>7</v>
@@ -2858,7 +2858,7 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2">
         <v>6</v>
@@ -2875,7 +2875,7 @@
         <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2">
         <v>8</v>
@@ -2892,7 +2892,7 @@
         <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2">
         <v>23</v>
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2">
         <v>22</v>
@@ -2926,7 +2926,7 @@
         <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2">
         <v>43</v>
@@ -2943,7 +2943,7 @@
         <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2">
         <v>16</v>
@@ -2960,7 +2960,7 @@
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2">
         <v>5</v>
@@ -2977,7 +2977,7 @@
         <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2">
         <v>7</v>
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2">
         <v>15</v>
@@ -3028,7 +3028,7 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2">
         <v>11</v>
@@ -3045,7 +3045,7 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2">
         <v>10</v>
@@ -3062,7 +3062,7 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2">
         <v>7</v>
@@ -3079,7 +3079,7 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C90" s="2">
         <v>24</v>
@@ -3096,7 +3096,7 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="2">
         <v>6</v>
@@ -3113,7 +3113,7 @@
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2">
         <v>5</v>
@@ -3130,7 +3130,7 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2">
         <v>5</v>
@@ -3147,7 +3147,7 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C94" s="2">
         <v>15</v>
@@ -3164,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2">
         <v>22</v>
@@ -3181,13 +3181,13 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" s="2">
         <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E96" s="1">
         <v>43465</v>
@@ -3198,7 +3198,7 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2">
         <v>29</v>
@@ -3215,7 +3215,7 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="2">
         <v>5</v>
@@ -3232,7 +3232,7 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" s="2">
         <v>8</v>
@@ -3249,7 +3249,7 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2">
         <v>13</v>
@@ -3266,7 +3266,7 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2">
         <v>11</v>
@@ -3283,7 +3283,7 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2">
         <v>7</v>
@@ -3300,7 +3300,7 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103" s="2">
         <v>8</v>
@@ -3317,7 +3317,7 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C104" s="2">
         <v>13</v>
@@ -3334,7 +3334,7 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2">
         <v>8</v>
@@ -3351,7 +3351,7 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2">
         <v>12</v>
@@ -3368,7 +3368,7 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2">
         <v>12</v>
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2">
         <v>23</v>
@@ -3402,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="2">
         <v>5</v>
@@ -3419,7 +3419,7 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C110" s="2">
         <v>12</v>
@@ -3436,7 +3436,7 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2">
         <v>10</v>
@@ -3453,7 +3453,7 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C112" s="2">
         <v>5</v>
@@ -3470,7 +3470,7 @@
         <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C113" s="2">
         <v>16</v>
@@ -3487,7 +3487,7 @@
         <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C114" s="2">
         <v>5</v>
@@ -3504,7 +3504,7 @@
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C115" s="2">
         <v>14</v>
@@ -3521,7 +3521,7 @@
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C116" s="2">
         <v>13</v>
@@ -3538,7 +3538,7 @@
         <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C117" s="2">
         <v>7</v>
@@ -3555,7 +3555,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C118" s="2">
         <v>13</v>
@@ -3572,7 +3572,7 @@
         <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C119" s="2">
         <v>8</v>
@@ -3589,7 +3589,7 @@
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C120" s="2">
         <v>6</v>
@@ -3606,7 +3606,7 @@
         <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C121" s="2">
         <v>8</v>
@@ -3623,7 +3623,7 @@
         <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C122" s="2">
         <v>9</v>
@@ -3640,7 +3640,7 @@
         <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C125" s="2">
         <v>8</v>
@@ -3691,7 +3691,7 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C126" s="2">
         <v>13</v>
@@ -3708,7 +3708,7 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C127" s="2">
         <v>18</v>
@@ -3725,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C128" s="2">
         <v>7</v>
@@ -3742,7 +3742,7 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C129" s="2">
         <v>29</v>
@@ -3759,7 +3759,7 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C130" s="2">
         <v>8</v>
@@ -3776,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C131" s="2">
         <v>6</v>
@@ -3793,7 +3793,7 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C132" s="2">
         <v>8</v>
@@ -3810,7 +3810,7 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C133" s="2">
         <v>5</v>
@@ -3827,7 +3827,7 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C134" s="2">
         <v>14</v>
@@ -3844,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="C136" s="2">
         <v>3</v>
@@ -3878,13 +3878,13 @@
         <v>39</v>
       </c>
       <c r="B137" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C137" s="2">
         <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E137" s="1">
         <v>43465</v>
@@ -3895,7 +3895,7 @@
         <v>39</v>
       </c>
       <c r="B138" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C138" s="2">
         <v>8</v>
@@ -3912,7 +3912,7 @@
         <v>39</v>
       </c>
       <c r="B139" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C139" s="2">
         <v>35</v>
@@ -3929,7 +3929,7 @@
         <v>39</v>
       </c>
       <c r="B140" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C140" s="2">
         <v>18</v>
@@ -3946,7 +3946,7 @@
         <v>39</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C141" s="2">
         <v>13</v>
@@ -3963,7 +3963,7 @@
         <v>39</v>
       </c>
       <c r="B142" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C142" s="2">
         <v>28</v>
@@ -3980,7 +3980,7 @@
         <v>39</v>
       </c>
       <c r="B143" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C143" s="2">
         <v>18</v>
@@ -3997,7 +3997,7 @@
         <v>39</v>
       </c>
       <c r="B144" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C144" s="2">
         <v>23</v>
@@ -4014,7 +4014,7 @@
         <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C145" s="2">
         <v>8</v>
@@ -4031,7 +4031,7 @@
         <v>39</v>
       </c>
       <c r="B146" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C146" s="2">
         <v>5</v>
@@ -4048,7 +4048,7 @@
         <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -4082,13 +4082,13 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C149" s="2">
         <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E149" s="1">
         <v>43465</v>
@@ -4099,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C150" s="2">
         <v>14</v>
@@ -4116,7 +4116,7 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C151" s="2">
         <v>8</v>
@@ -4133,7 +4133,7 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C152" s="2">
         <v>8</v>
@@ -4150,7 +4150,7 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C153" s="2">
         <v>23</v>
@@ -4167,7 +4167,7 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C154" s="2">
         <v>9</v>
@@ -4184,7 +4184,7 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C155" s="2">
         <v>11</v>
@@ -4201,7 +4201,7 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C156" s="2">
         <v>6</v>
@@ -4218,7 +4218,7 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C157" s="2">
         <v>20</v>
@@ -4235,7 +4235,7 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C158" s="2">
         <v>7</v>
@@ -4252,7 +4252,7 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -4269,13 +4269,13 @@
         <v>37</v>
       </c>
       <c r="B160" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C160" s="2">
         <v>13</v>
       </c>
       <c r="D160" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E160" s="1">
         <v>43465</v>
@@ -4286,7 +4286,7 @@
         <v>37</v>
       </c>
       <c r="B161" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C161" s="2">
         <v>5</v>
@@ -4303,7 +4303,7 @@
         <v>37</v>
       </c>
       <c r="B162" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C162" s="2">
         <v>5</v>
@@ -4320,7 +4320,7 @@
         <v>37</v>
       </c>
       <c r="B163" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C163" s="2">
         <v>28</v>
@@ -4337,7 +4337,7 @@
         <v>37</v>
       </c>
       <c r="B164" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C164" s="2">
         <v>18</v>
@@ -4354,7 +4354,7 @@
         <v>37</v>
       </c>
       <c r="B165" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C165" s="2">
         <v>23</v>
@@ -4371,7 +4371,7 @@
         <v>37</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C166" s="2">
         <v>25</v>
@@ -4388,7 +4388,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C167" s="2">
         <v>18</v>
@@ -4405,7 +4405,7 @@
         <v>37</v>
       </c>
       <c r="B168" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C168" s="2">
         <v>9</v>
@@ -4422,7 +4422,7 @@
         <v>37</v>
       </c>
       <c r="B169" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C169" s="2">
         <v>14</v>
@@ -4439,7 +4439,7 @@
         <v>37</v>
       </c>
       <c r="B170" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>37</v>
       </c>
       <c r="B171" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>35</v>
       </c>
       <c r="B172" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C172" s="2">
         <v>10</v>
@@ -4490,7 +4490,7 @@
         <v>35</v>
       </c>
       <c r="B173" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C173" s="2">
         <v>8</v>
@@ -4507,7 +4507,7 @@
         <v>35</v>
       </c>
       <c r="B174" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C174" s="2">
         <v>13</v>
@@ -4524,7 +4524,7 @@
         <v>35</v>
       </c>
       <c r="B175" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C175" s="2">
         <v>33</v>
@@ -4541,13 +4541,13 @@
         <v>35</v>
       </c>
       <c r="B176" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C176" s="2">
         <v>5</v>
       </c>
       <c r="D176" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E176" s="1">
         <v>43465</v>
@@ -4558,7 +4558,7 @@
         <v>35</v>
       </c>
       <c r="B177" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C177" s="2">
         <v>5</v>
@@ -4575,7 +4575,7 @@
         <v>35</v>
       </c>
       <c r="B178" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C178" s="2">
         <v>5</v>
@@ -4592,7 +4592,7 @@
         <v>35</v>
       </c>
       <c r="B179" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C179" s="2">
         <v>33</v>
@@ -4609,7 +4609,7 @@
         <v>35</v>
       </c>
       <c r="B180" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C180" s="2">
         <v>8</v>
@@ -4626,7 +4626,7 @@
         <v>35</v>
       </c>
       <c r="B181" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C181" s="2">
         <v>48</v>
@@ -4643,7 +4643,7 @@
         <v>35</v>
       </c>
       <c r="B182" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C182" s="2">
         <v>2</v>
@@ -4660,7 +4660,7 @@
         <v>35</v>
       </c>
       <c r="B183" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C183" s="2">
         <v>3</v>
@@ -4677,7 +4677,7 @@
         <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C184" s="2">
         <v>13</v>
@@ -4694,7 +4694,7 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C185" s="2">
         <v>13</v>
@@ -4711,7 +4711,7 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C186" s="2">
         <v>12</v>
@@ -4728,7 +4728,7 @@
         <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C187" s="2">
         <v>22</v>
@@ -4745,7 +4745,7 @@
         <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C188" s="2">
         <v>22</v>
@@ -4762,7 +4762,7 @@
         <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C189" s="2">
         <v>5</v>
@@ -4779,7 +4779,7 @@
         <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C190" s="2">
         <v>5</v>
@@ -4796,7 +4796,7 @@
         <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C191" s="2">
         <v>5</v>
@@ -4813,7 +4813,7 @@
         <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C192" s="2">
         <v>29</v>
@@ -4830,7 +4830,7 @@
         <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C193" s="2">
         <v>6</v>
@@ -4847,7 +4847,7 @@
         <v>5</v>
       </c>
       <c r="B194" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C194" s="2">
         <v>3</v>
@@ -4864,7 +4864,7 @@
         <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C195" s="2">
         <v>4</v>
@@ -4883,7 +4883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D9D91CE6-20DE-4295-84A2-2DD965E3D856}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{02028A75-CB38-4465-BA5C-54EC645167C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="232">
   <si>
     <t>team</t>
   </si>
@@ -705,6 +705,18 @@
   </si>
   <si>
     <t>Fernando Tatis Jr.</t>
+  </si>
+  <si>
+    <t>Willy Adames</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Jean Segura</t>
   </si>
 </sst>
 </file>
@@ -1550,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4873,6 +4885,57 @@
         <v>48</v>
       </c>
       <c r="E195" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" t="s">
+        <v>228</v>
+      </c>
+      <c r="C196" s="2">
+        <v>5</v>
+      </c>
+      <c r="D196" t="s">
+        <v>229</v>
+      </c>
+      <c r="E196" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>24</v>
+      </c>
+      <c r="B197" t="s">
+        <v>230</v>
+      </c>
+      <c r="C197" s="2">
+        <v>18</v>
+      </c>
+      <c r="D197" t="s">
+        <v>21</v>
+      </c>
+      <c r="E197" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>26</v>
+      </c>
+      <c r="B198" t="s">
+        <v>231</v>
+      </c>
+      <c r="C198" s="2">
+        <v>22</v>
+      </c>
+      <c r="D198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="1">
         <v>43465</v>
       </c>
     </row>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{02028A75-CB38-4465-BA5C-54EC645167C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BA82F97-A659-410A-B3AF-24FBBEE1381F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="238">
   <si>
     <t>team</t>
   </si>
@@ -717,6 +717,24 @@
   </si>
   <si>
     <t>Jean Segura</t>
+  </si>
+  <si>
+    <t>Ross Stripling</t>
+  </si>
+  <si>
+    <t>Jorge Polanco</t>
+  </si>
+  <si>
+    <t>Michael Kopech</t>
+  </si>
+  <si>
+    <t>Niko Goodrum</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Lourdes Gurriel Jr.</t>
   </si>
 </sst>
 </file>
@@ -1562,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="E198" sqref="E198"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2180,7 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1">
         <v>43465</v>
@@ -2179,7 +2197,7 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1">
         <v>43465</v>
@@ -3692,7 +3710,7 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E125" s="1">
         <v>43465</v>
@@ -4321,7 +4339,7 @@
         <v>5</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E162" s="1">
         <v>43465</v>
@@ -4937,6 +4955,108 @@
       </c>
       <c r="E198" s="1">
         <v>43465</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" t="s">
+        <v>237</v>
+      </c>
+      <c r="C199" s="2">
+        <v>7</v>
+      </c>
+      <c r="D199" t="s">
+        <v>29</v>
+      </c>
+      <c r="E199" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" t="s">
+        <v>232</v>
+      </c>
+      <c r="C200" s="2">
+        <v>5</v>
+      </c>
+      <c r="D200" t="s">
+        <v>21</v>
+      </c>
+      <c r="E200" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>84</v>
+      </c>
+      <c r="B201" t="s">
+        <v>233</v>
+      </c>
+      <c r="C201" s="2">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202" t="s">
+        <v>234</v>
+      </c>
+      <c r="C202" s="2">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>48</v>
+      </c>
+      <c r="E202" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" t="s">
+        <v>235</v>
+      </c>
+      <c r="C203" s="2">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>29</v>
+      </c>
+      <c r="E203" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>236</v>
+      </c>
+      <c r="C204" s="2">
+        <v>5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>21</v>
+      </c>
+      <c r="E204" s="1">
+        <v>43103</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BA82F97-A659-410A-B3AF-24FBBEE1381F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D878B45D-6CDE-4556-9932-DA97DFF81C66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="246">
   <si>
     <t>team</t>
   </si>
@@ -735,6 +735,30 @@
   </si>
   <si>
     <t>Lourdes Gurriel Jr.</t>
+  </si>
+  <si>
+    <t>Max Scherzer</t>
+  </si>
+  <si>
+    <t>Giancarlo Stanton</t>
+  </si>
+  <si>
+    <t>Paul Goldschmidt</t>
+  </si>
+  <si>
+    <t>Aroldis Chapman</t>
+  </si>
+  <si>
+    <t>Buster Posey</t>
+  </si>
+  <si>
+    <t>Kenley Jansen</t>
+  </si>
+  <si>
+    <t>Shin-Soo Choo</t>
+  </si>
+  <si>
+    <t>Willians Astudillo</t>
   </si>
 </sst>
 </file>
@@ -1580,14 +1604,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+      <selection activeCell="E206" sqref="E206:E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1598,7 +1624,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1615,7 +1641,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1632,7 +1658,7 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>18</v>
       </c>
       <c r="D3" t="s">
@@ -1649,7 +1675,7 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -1666,7 +1692,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -1683,7 +1709,7 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>18</v>
       </c>
       <c r="D6" t="s">
@@ -1700,7 +1726,7 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>18</v>
       </c>
       <c r="D7" t="s">
@@ -1717,7 +1743,7 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" t="s">
@@ -1734,7 +1760,7 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>19</v>
       </c>
       <c r="D9" t="s">
@@ -1751,7 +1777,7 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>13</v>
       </c>
       <c r="D10" t="s">
@@ -1768,7 +1794,7 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>8</v>
       </c>
       <c r="D11" t="s">
@@ -1785,7 +1811,7 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>8</v>
       </c>
       <c r="D12" t="s">
@@ -1802,7 +1828,7 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>11</v>
       </c>
       <c r="D13" t="s">
@@ -1819,7 +1845,7 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>19</v>
       </c>
       <c r="D14" t="s">
@@ -1836,7 +1862,7 @@
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>7</v>
       </c>
       <c r="D15" t="s">
@@ -1853,7 +1879,7 @@
       <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>14</v>
       </c>
       <c r="D16" t="s">
@@ -1870,7 +1896,7 @@
       <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>12</v>
       </c>
       <c r="D17" t="s">
@@ -1887,7 +1913,7 @@
       <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>8</v>
       </c>
       <c r="D18" t="s">
@@ -1904,7 +1930,7 @@
       <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>7</v>
       </c>
       <c r="D19" t="s">
@@ -1921,7 +1947,7 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" t="s">
@@ -1938,7 +1964,7 @@
       <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>6</v>
       </c>
       <c r="D21" t="s">
@@ -5057,6 +5083,142 @@
       </c>
       <c r="E204" s="1">
         <v>43103</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>238</v>
+      </c>
+      <c r="C205" s="2">
+        <v>48</v>
+      </c>
+      <c r="D205" t="s">
+        <v>21</v>
+      </c>
+      <c r="E205" s="1">
+        <v>43108</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>26</v>
+      </c>
+      <c r="B206" t="s">
+        <v>239</v>
+      </c>
+      <c r="C206" s="2">
+        <v>43</v>
+      </c>
+      <c r="D206" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206" s="1">
+        <v>43108</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>43</v>
+      </c>
+      <c r="B207" t="s">
+        <v>240</v>
+      </c>
+      <c r="C207" s="2">
+        <v>15</v>
+      </c>
+      <c r="D207" t="s">
+        <v>33</v>
+      </c>
+      <c r="E207" s="1">
+        <v>43108</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" t="s">
+        <v>241</v>
+      </c>
+      <c r="C208" s="2">
+        <v>37</v>
+      </c>
+      <c r="D208" t="s">
+        <v>21</v>
+      </c>
+      <c r="E208" s="1">
+        <v>43108</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>242</v>
+      </c>
+      <c r="C209" s="2">
+        <v>25</v>
+      </c>
+      <c r="D209" t="s">
+        <v>106</v>
+      </c>
+      <c r="E209" s="1">
+        <v>43108</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>243</v>
+      </c>
+      <c r="C210" s="2">
+        <v>20</v>
+      </c>
+      <c r="D210" t="s">
+        <v>21</v>
+      </c>
+      <c r="E210" s="1">
+        <v>43108</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
+        <v>244</v>
+      </c>
+      <c r="C211" s="2">
+        <v>20</v>
+      </c>
+      <c r="D211" t="s">
+        <v>14</v>
+      </c>
+      <c r="E211" s="1">
+        <v>43108</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>37</v>
+      </c>
+      <c r="B212" t="s">
+        <v>245</v>
+      </c>
+      <c r="C212" s="2">
+        <v>9</v>
+      </c>
+      <c r="D212" t="s">
+        <v>106</v>
+      </c>
+      <c r="E212" s="1">
+        <v>43108</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D878B45D-6CDE-4556-9932-DA97DFF81C66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{793A5BD4-172C-4D87-A4DC-137851F70532}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="254">
   <si>
     <t>team</t>
   </si>
@@ -759,6 +759,30 @@
   </si>
   <si>
     <t>Willians Astudillo</t>
+  </si>
+  <si>
+    <t>Tyler Austin</t>
+  </si>
+  <si>
+    <t>Kenta Maeda</t>
+  </si>
+  <si>
+    <t>Anthony Rendon</t>
+  </si>
+  <si>
+    <t>Elvis Andrus</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Yasiel Puig</t>
+  </si>
+  <si>
+    <t>Nelson Cruz</t>
   </si>
 </sst>
 </file>
@@ -1604,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="E206" sqref="E206:E212"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="E34" s="1">
         <v>43465</v>
@@ -5219,6 +5243,142 @@
       </c>
       <c r="E212" s="1">
         <v>43108</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>246</v>
+      </c>
+      <c r="C213" s="2">
+        <v>3</v>
+      </c>
+      <c r="D213" t="s">
+        <v>61</v>
+      </c>
+      <c r="E213" s="1">
+        <v>43109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" t="s">
+        <v>247</v>
+      </c>
+      <c r="C214" s="2">
+        <v>14</v>
+      </c>
+      <c r="D214" t="s">
+        <v>21</v>
+      </c>
+      <c r="E214" s="1">
+        <v>43109</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>45</v>
+      </c>
+      <c r="B215" t="s">
+        <v>248</v>
+      </c>
+      <c r="C215" s="2">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>33</v>
+      </c>
+      <c r="E215" s="1">
+        <v>43109</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" t="s">
+        <v>249</v>
+      </c>
+      <c r="C216" s="2">
+        <v>17</v>
+      </c>
+      <c r="D216" t="s">
+        <v>95</v>
+      </c>
+      <c r="E216" s="1">
+        <v>43109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>41</v>
+      </c>
+      <c r="B217" t="s">
+        <v>250</v>
+      </c>
+      <c r="C217" s="2">
+        <v>34</v>
+      </c>
+      <c r="D217" t="s">
+        <v>21</v>
+      </c>
+      <c r="E217" s="1">
+        <v>43109</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>251</v>
+      </c>
+      <c r="C218" s="2">
+        <v>35</v>
+      </c>
+      <c r="D218" t="s">
+        <v>61</v>
+      </c>
+      <c r="E218" s="1">
+        <v>43109</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>12</v>
+      </c>
+      <c r="B219" t="s">
+        <v>252</v>
+      </c>
+      <c r="C219" s="2">
+        <v>32</v>
+      </c>
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219" s="1">
+        <v>43109</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" t="s">
+        <v>253</v>
+      </c>
+      <c r="C220" s="2">
+        <v>29</v>
+      </c>
+      <c r="D220" t="s">
+        <v>229</v>
+      </c>
+      <c r="E220" s="1">
+        <v>43109</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{793A5BD4-172C-4D87-A4DC-137851F70532}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB803CB6-FC17-4583-B117-4DE21BBA9067}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="270">
   <si>
     <t>team</t>
   </si>
@@ -783,6 +783,54 @@
   </si>
   <si>
     <t>Nelson Cruz</t>
+  </si>
+  <si>
+    <t>Tyler White</t>
+  </si>
+  <si>
+    <t>Jake Arrieta</t>
+  </si>
+  <si>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
+    <t>Marcell Ozuna</t>
+  </si>
+  <si>
+    <t>Madison Bumgarner</t>
+  </si>
+  <si>
+    <t>Josh Donaldson</t>
+  </si>
+  <si>
+    <t>Jon Lester</t>
+  </si>
+  <si>
+    <t>Stephen Strasburg</t>
+  </si>
+  <si>
+    <t>Masahiro Tanaka</t>
+  </si>
+  <si>
+    <t>Khris Davis</t>
+  </si>
+  <si>
+    <t>Yadier Molina</t>
+  </si>
+  <si>
+    <t>Adam Jones</t>
+  </si>
+  <si>
+    <t>J.P. Crawford</t>
+  </si>
+  <si>
+    <t>David Freese</t>
+  </si>
+  <si>
+    <t>Chris Archer</t>
+  </si>
+  <si>
+    <t>Starling Marte</t>
   </si>
 </sst>
 </file>
@@ -1628,14 +1676,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E220"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="D219" sqref="D219"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="L233" sqref="L233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -5379,6 +5428,278 @@
       </c>
       <c r="E220" s="1">
         <v>43109</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" t="s">
+        <v>254</v>
+      </c>
+      <c r="C221" s="2">
+        <v>10</v>
+      </c>
+      <c r="D221" t="s">
+        <v>33</v>
+      </c>
+      <c r="E221" s="1">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>17</v>
+      </c>
+      <c r="B222" t="s">
+        <v>255</v>
+      </c>
+      <c r="C222" s="2">
+        <v>14</v>
+      </c>
+      <c r="D222" t="s">
+        <v>21</v>
+      </c>
+      <c r="E222" s="1">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" t="s">
+        <v>256</v>
+      </c>
+      <c r="C223" s="2">
+        <v>33</v>
+      </c>
+      <c r="D223" t="s">
+        <v>21</v>
+      </c>
+      <c r="E223" s="1">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>27</v>
+      </c>
+      <c r="B224" t="s">
+        <v>257</v>
+      </c>
+      <c r="C224" s="2">
+        <v>24</v>
+      </c>
+      <c r="D224" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" s="1">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225" t="s">
+        <v>258</v>
+      </c>
+      <c r="C225" s="2">
+        <v>27</v>
+      </c>
+      <c r="D225" t="s">
+        <v>21</v>
+      </c>
+      <c r="E225" s="1">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" t="s">
+        <v>259</v>
+      </c>
+      <c r="C226" s="2">
+        <v>27</v>
+      </c>
+      <c r="D226" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226" s="1">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>17</v>
+      </c>
+      <c r="B227" t="s">
+        <v>260</v>
+      </c>
+      <c r="C227" s="2">
+        <v>17</v>
+      </c>
+      <c r="D227" t="s">
+        <v>21</v>
+      </c>
+      <c r="E227" s="1">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" t="s">
+        <v>261</v>
+      </c>
+      <c r="C228" s="2">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>21</v>
+      </c>
+      <c r="E228" s="1">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>84</v>
+      </c>
+      <c r="B229" t="s">
+        <v>265</v>
+      </c>
+      <c r="C229" s="2">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" s="1">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" t="s">
+        <v>266</v>
+      </c>
+      <c r="C230" s="2">
+        <v>3</v>
+      </c>
+      <c r="D230" t="s">
+        <v>95</v>
+      </c>
+      <c r="E230" s="1">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" t="s">
+        <v>267</v>
+      </c>
+      <c r="C231" s="2">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" s="1">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>84</v>
+      </c>
+      <c r="B232" t="s">
+        <v>268</v>
+      </c>
+      <c r="C232" s="2">
+        <v>20</v>
+      </c>
+      <c r="D232" t="s">
+        <v>21</v>
+      </c>
+      <c r="E232" s="1">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>43</v>
+      </c>
+      <c r="B233" t="s">
+        <v>269</v>
+      </c>
+      <c r="C233" s="2">
+        <v>35</v>
+      </c>
+      <c r="D233" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233" s="1">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" t="s">
+        <v>264</v>
+      </c>
+      <c r="C234" s="2">
+        <v>16</v>
+      </c>
+      <c r="D234" t="s">
+        <v>106</v>
+      </c>
+      <c r="E234" s="1">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>27</v>
+      </c>
+      <c r="B235" t="s">
+        <v>263</v>
+      </c>
+      <c r="C235" s="2">
+        <v>32</v>
+      </c>
+      <c r="D235" t="s">
+        <v>229</v>
+      </c>
+      <c r="E235" s="1">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>41</v>
+      </c>
+      <c r="B236" t="s">
+        <v>262</v>
+      </c>
+      <c r="C236" s="2">
+        <v>19</v>
+      </c>
+      <c r="D236" t="s">
+        <v>21</v>
+      </c>
+      <c r="E236" s="1">
+        <v>43111</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB803CB6-FC17-4583-B117-4DE21BBA9067}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C059CB16-3E48-4591-ABAB-E7FDCA74E4F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="278">
   <si>
     <t>team</t>
   </si>
@@ -831,6 +831,30 @@
   </si>
   <si>
     <t>Starling Marte</t>
+  </si>
+  <si>
+    <t>Eric Hosmer</t>
+  </si>
+  <si>
+    <t>Robinson Cano</t>
+  </si>
+  <si>
+    <t>Albert Pujols</t>
+  </si>
+  <si>
+    <t>Dallas Keuchel</t>
+  </si>
+  <si>
+    <t>Joshua James</t>
+  </si>
+  <si>
+    <t>Jonathan Schoop</t>
+  </si>
+  <si>
+    <t>Edwin Encarnacion</t>
+  </si>
+  <si>
+    <t>Asdrubal Cabrera</t>
   </si>
 </sst>
 </file>
@@ -840,7 +864,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,6 +998,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF55595C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1317,10 +1347,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1676,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="L233" sqref="L233"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5700,6 +5731,142 @@
       </c>
       <c r="E236" s="1">
         <v>43111</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>84</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C237" s="2">
+        <v>14</v>
+      </c>
+      <c r="D237" t="s">
+        <v>33</v>
+      </c>
+      <c r="E237" s="1">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>17</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C238" s="2">
+        <v>17</v>
+      </c>
+      <c r="D238" t="s">
+        <v>29</v>
+      </c>
+      <c r="E238" s="1">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>27</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C239" s="2">
+        <v>10</v>
+      </c>
+      <c r="D239" t="s">
+        <v>61</v>
+      </c>
+      <c r="E239" s="1">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>41</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C240" s="2">
+        <v>16</v>
+      </c>
+      <c r="D240" t="s">
+        <v>21</v>
+      </c>
+      <c r="E240" s="1">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C241" s="2">
+        <v>16</v>
+      </c>
+      <c r="D241" t="s">
+        <v>21</v>
+      </c>
+      <c r="E241" s="1">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>27</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C242" s="2">
+        <v>10</v>
+      </c>
+      <c r="D242" t="s">
+        <v>95</v>
+      </c>
+      <c r="E242" s="1">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C243" s="2">
+        <v>23</v>
+      </c>
+      <c r="D243" t="s">
+        <v>61</v>
+      </c>
+      <c r="E243" s="1">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>27</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C244" s="2">
+        <v>5</v>
+      </c>
+      <c r="D244" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244" s="1">
+        <v>43114</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C059CB16-3E48-4591-ABAB-E7FDCA74E4F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2596DE6F-BE88-441E-9AFD-FEE056BE3928}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="286">
   <si>
     <t>team</t>
   </si>
@@ -855,6 +855,30 @@
   </si>
   <si>
     <t>Asdrubal Cabrera</t>
+  </si>
+  <si>
+    <t>Ryan Brasier</t>
+  </si>
+  <si>
+    <t>Jason Heyward</t>
+  </si>
+  <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
+    <t>Joey Votto</t>
+  </si>
+  <si>
+    <t>Andrew Toles</t>
+  </si>
+  <si>
+    <t>Jose Quintana</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Nate Jones</t>
   </si>
 </sst>
 </file>
@@ -864,7 +888,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,12 +1022,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF55595C"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1347,11 +1365,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1707,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5737,7 +5754,7 @@
       <c r="A237" t="s">
         <v>84</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" t="s">
         <v>270</v>
       </c>
       <c r="C237" s="2">
@@ -5754,7 +5771,7 @@
       <c r="A238" t="s">
         <v>17</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" t="s">
         <v>271</v>
       </c>
       <c r="C238" s="2">
@@ -5771,7 +5788,7 @@
       <c r="A239" t="s">
         <v>27</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" t="s">
         <v>272</v>
       </c>
       <c r="C239" s="2">
@@ -5788,7 +5805,7 @@
       <c r="A240" t="s">
         <v>41</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" t="s">
         <v>273</v>
       </c>
       <c r="C240" s="2">
@@ -5805,7 +5822,7 @@
       <c r="A241" t="s">
         <v>9</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" t="s">
         <v>274</v>
       </c>
       <c r="C241" s="2">
@@ -5822,7 +5839,7 @@
       <c r="A242" t="s">
         <v>27</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" t="s">
         <v>275</v>
       </c>
       <c r="C242" s="2">
@@ -5839,7 +5856,7 @@
       <c r="A243" t="s">
         <v>19</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" t="s">
         <v>276</v>
       </c>
       <c r="C243" s="2">
@@ -5856,7 +5873,7 @@
       <c r="A244" t="s">
         <v>27</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" t="s">
         <v>277</v>
       </c>
       <c r="C244" s="2">
@@ -5868,6 +5885,145 @@
       <c r="E244" s="1">
         <v>43114</v>
       </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>41</v>
+      </c>
+      <c r="B245" t="s">
+        <v>278</v>
+      </c>
+      <c r="C245" s="2">
+        <v>3</v>
+      </c>
+      <c r="D245" t="s">
+        <v>21</v>
+      </c>
+      <c r="E245" s="1">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>41</v>
+      </c>
+      <c r="B246" t="s">
+        <v>279</v>
+      </c>
+      <c r="C246" s="2">
+        <v>4</v>
+      </c>
+      <c r="D246" t="s">
+        <v>14</v>
+      </c>
+      <c r="E246" s="1">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>45</v>
+      </c>
+      <c r="B247" t="s">
+        <v>280</v>
+      </c>
+      <c r="C247" s="2">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>14</v>
+      </c>
+      <c r="E247" s="1">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" t="s">
+        <v>281</v>
+      </c>
+      <c r="C248" s="2">
+        <v>21</v>
+      </c>
+      <c r="D248" t="s">
+        <v>61</v>
+      </c>
+      <c r="E248" s="1">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" t="s">
+        <v>282</v>
+      </c>
+      <c r="C249" s="2">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="1">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>45</v>
+      </c>
+      <c r="B250" t="s">
+        <v>283</v>
+      </c>
+      <c r="C250" s="2">
+        <v>14</v>
+      </c>
+      <c r="D250" t="s">
+        <v>21</v>
+      </c>
+      <c r="E250" s="1">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>35</v>
+      </c>
+      <c r="B251" t="s">
+        <v>284</v>
+      </c>
+      <c r="C251" s="2">
+        <v>15</v>
+      </c>
+      <c r="D251" t="s">
+        <v>21</v>
+      </c>
+      <c r="E251" s="1">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>35</v>
+      </c>
+      <c r="B252" t="s">
+        <v>285</v>
+      </c>
+      <c r="C252" s="2">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s">
+        <v>21</v>
+      </c>
+      <c r="E252" s="1">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E253" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2596DE6F-BE88-441E-9AFD-FEE056BE3928}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D0CBEE02-A9B3-492B-89E5-0F4E40AA13AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="294">
   <si>
     <t>team</t>
   </si>
@@ -323,9 +323,6 @@
     <t>Mike Moustakas</t>
   </si>
   <si>
-    <t>Cedric Mullins</t>
-  </si>
-  <si>
     <t>Zack Greinke</t>
   </si>
   <si>
@@ -879,6 +876,33 @@
   </si>
   <si>
     <t>Nate Jones</t>
+  </si>
+  <si>
+    <t>Billy Hamilton</t>
+  </si>
+  <si>
+    <t>Ken Giles</t>
+  </si>
+  <si>
+    <t>A.J. Pollock</t>
+  </si>
+  <si>
+    <t>Jose Abreu</t>
+  </si>
+  <si>
+    <t>Miguel Cabrera</t>
+  </si>
+  <si>
+    <t>Brian Dozier</t>
+  </si>
+  <si>
+    <t>Craig Kimbrel</t>
+  </si>
+  <si>
+    <t>Ryan Braun</t>
+  </si>
+  <si>
+    <t>Cedric Mullins II</t>
   </si>
 </sst>
 </file>
@@ -1724,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="D249" sqref="D249"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2334,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" s="1">
         <v>43465</v>
@@ -2406,7 +2430,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
@@ -2854,7 +2878,7 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E66" s="1">
         <v>43465</v>
@@ -2916,7 +2940,7 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="C70" s="2">
         <v>7</v>
@@ -2933,7 +2957,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2">
         <v>26</v>
@@ -2950,7 +2974,7 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2">
         <v>8</v>
@@ -2967,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2">
         <v>10</v>
@@ -2984,7 +3008,7 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2">
         <v>5</v>
@@ -3001,7 +3025,7 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2">
         <v>10</v>
@@ -3018,7 +3042,7 @@
         <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2">
         <v>7</v>
@@ -3035,7 +3059,7 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2">
         <v>6</v>
@@ -3052,7 +3076,7 @@
         <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2">
         <v>8</v>
@@ -3069,7 +3093,7 @@
         <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2">
         <v>23</v>
@@ -3086,7 +3110,7 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2">
         <v>22</v>
@@ -3103,7 +3127,7 @@
         <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2">
         <v>43</v>
@@ -3120,7 +3144,7 @@
         <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2">
         <v>16</v>
@@ -3137,7 +3161,7 @@
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2">
         <v>5</v>
@@ -3154,7 +3178,7 @@
         <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2">
         <v>7</v>
@@ -3171,7 +3195,7 @@
         <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -3188,7 +3212,7 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2">
         <v>15</v>
@@ -3205,7 +3229,7 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2">
         <v>11</v>
@@ -3222,7 +3246,7 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2">
         <v>10</v>
@@ -3239,7 +3263,7 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C89" s="2">
         <v>7</v>
@@ -3256,7 +3280,7 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2">
         <v>24</v>
@@ -3273,7 +3297,7 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2">
         <v>6</v>
@@ -3290,7 +3314,7 @@
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" s="2">
         <v>5</v>
@@ -3307,7 +3331,7 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93" s="2">
         <v>5</v>
@@ -3324,7 +3348,7 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94" s="2">
         <v>15</v>
@@ -3341,7 +3365,7 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C95" s="2">
         <v>22</v>
@@ -3358,7 +3382,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2">
         <v>10</v>
@@ -3375,7 +3399,7 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="2">
         <v>29</v>
@@ -3392,7 +3416,7 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2">
         <v>5</v>
@@ -3409,7 +3433,7 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2">
         <v>8</v>
@@ -3426,7 +3450,7 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2">
         <v>13</v>
@@ -3443,7 +3467,7 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="2">
         <v>11</v>
@@ -3460,7 +3484,7 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C102" s="2">
         <v>7</v>
@@ -3477,7 +3501,7 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="2">
         <v>8</v>
@@ -3494,7 +3518,7 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2">
         <v>13</v>
@@ -3511,7 +3535,7 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2">
         <v>8</v>
@@ -3528,7 +3552,7 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2">
         <v>12</v>
@@ -3545,7 +3569,7 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="2">
         <v>12</v>
@@ -3562,7 +3586,7 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108" s="2">
         <v>23</v>
@@ -3579,7 +3603,7 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" s="2">
         <v>5</v>
@@ -3596,7 +3620,7 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" s="2">
         <v>12</v>
@@ -3613,7 +3637,7 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C111" s="2">
         <v>10</v>
@@ -3630,7 +3654,7 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C112" s="2">
         <v>5</v>
@@ -3647,7 +3671,7 @@
         <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C113" s="2">
         <v>16</v>
@@ -3664,7 +3688,7 @@
         <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C114" s="2">
         <v>5</v>
@@ -3681,7 +3705,7 @@
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C115" s="2">
         <v>14</v>
@@ -3698,7 +3722,7 @@
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C116" s="2">
         <v>13</v>
@@ -3715,7 +3739,7 @@
         <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C117" s="2">
         <v>7</v>
@@ -3732,7 +3756,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C118" s="2">
         <v>13</v>
@@ -3749,7 +3773,7 @@
         <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C119" s="2">
         <v>8</v>
@@ -3766,7 +3790,7 @@
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C120" s="2">
         <v>6</v>
@@ -3783,7 +3807,7 @@
         <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C121" s="2">
         <v>8</v>
@@ -3800,7 +3824,7 @@
         <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C122" s="2">
         <v>9</v>
@@ -3817,7 +3841,7 @@
         <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -3834,7 +3858,7 @@
         <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -3851,7 +3875,7 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2">
         <v>8</v>
@@ -3868,7 +3892,7 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2">
         <v>13</v>
@@ -3885,7 +3909,7 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C127" s="2">
         <v>18</v>
@@ -3902,7 +3926,7 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C128" s="2">
         <v>7</v>
@@ -3919,7 +3943,7 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C129" s="2">
         <v>29</v>
@@ -3936,7 +3960,7 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C130" s="2">
         <v>8</v>
@@ -3953,7 +3977,7 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C131" s="2">
         <v>6</v>
@@ -3970,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C132" s="2">
         <v>8</v>
@@ -3987,7 +4011,7 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C133" s="2">
         <v>5</v>
@@ -4004,7 +4028,7 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C134" s="2">
         <v>14</v>
@@ -4021,7 +4045,7 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -4038,7 +4062,7 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C136" s="2">
         <v>3</v>
@@ -4055,13 +4079,13 @@
         <v>39</v>
       </c>
       <c r="B137" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C137" s="2">
         <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E137" s="1">
         <v>43465</v>
@@ -4072,7 +4096,7 @@
         <v>39</v>
       </c>
       <c r="B138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C138" s="2">
         <v>8</v>
@@ -4089,7 +4113,7 @@
         <v>39</v>
       </c>
       <c r="B139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C139" s="2">
         <v>35</v>
@@ -4106,7 +4130,7 @@
         <v>39</v>
       </c>
       <c r="B140" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C140" s="2">
         <v>18</v>
@@ -4123,7 +4147,7 @@
         <v>39</v>
       </c>
       <c r="B141" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C141" s="2">
         <v>13</v>
@@ -4140,7 +4164,7 @@
         <v>39</v>
       </c>
       <c r="B142" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C142" s="2">
         <v>28</v>
@@ -4157,7 +4181,7 @@
         <v>39</v>
       </c>
       <c r="B143" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C143" s="2">
         <v>18</v>
@@ -4174,7 +4198,7 @@
         <v>39</v>
       </c>
       <c r="B144" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C144" s="2">
         <v>23</v>
@@ -4191,7 +4215,7 @@
         <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C145" s="2">
         <v>8</v>
@@ -4208,7 +4232,7 @@
         <v>39</v>
       </c>
       <c r="B146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C146" s="2">
         <v>5</v>
@@ -4225,7 +4249,7 @@
         <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -4242,7 +4266,7 @@
         <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -4259,13 +4283,13 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C149" s="2">
         <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E149" s="1">
         <v>43465</v>
@@ -4276,7 +4300,7 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C150" s="2">
         <v>14</v>
@@ -4293,7 +4317,7 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C151" s="2">
         <v>8</v>
@@ -4310,7 +4334,7 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C152" s="2">
         <v>8</v>
@@ -4327,7 +4351,7 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C153" s="2">
         <v>23</v>
@@ -4344,7 +4368,7 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C154" s="2">
         <v>9</v>
@@ -4361,7 +4385,7 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C155" s="2">
         <v>11</v>
@@ -4378,7 +4402,7 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C156" s="2">
         <v>6</v>
@@ -4395,7 +4419,7 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C157" s="2">
         <v>20</v>
@@ -4412,7 +4436,7 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C158" s="2">
         <v>7</v>
@@ -4429,7 +4453,7 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -4446,13 +4470,13 @@
         <v>37</v>
       </c>
       <c r="B160" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C160" s="2">
         <v>13</v>
       </c>
       <c r="D160" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E160" s="1">
         <v>43465</v>
@@ -4463,7 +4487,7 @@
         <v>37</v>
       </c>
       <c r="B161" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C161" s="2">
         <v>5</v>
@@ -4480,7 +4504,7 @@
         <v>37</v>
       </c>
       <c r="B162" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C162" s="2">
         <v>5</v>
@@ -4497,7 +4521,7 @@
         <v>37</v>
       </c>
       <c r="B163" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C163" s="2">
         <v>28</v>
@@ -4514,7 +4538,7 @@
         <v>37</v>
       </c>
       <c r="B164" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C164" s="2">
         <v>18</v>
@@ -4531,7 +4555,7 @@
         <v>37</v>
       </c>
       <c r="B165" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C165" s="2">
         <v>23</v>
@@ -4548,7 +4572,7 @@
         <v>37</v>
       </c>
       <c r="B166" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C166" s="2">
         <v>25</v>
@@ -4565,7 +4589,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C167" s="2">
         <v>18</v>
@@ -4582,7 +4606,7 @@
         <v>37</v>
       </c>
       <c r="B168" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C168" s="2">
         <v>9</v>
@@ -4599,7 +4623,7 @@
         <v>37</v>
       </c>
       <c r="B169" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C169" s="2">
         <v>14</v>
@@ -4616,7 +4640,7 @@
         <v>37</v>
       </c>
       <c r="B170" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -4633,7 +4657,7 @@
         <v>37</v>
       </c>
       <c r="B171" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -4650,7 +4674,7 @@
         <v>35</v>
       </c>
       <c r="B172" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C172" s="2">
         <v>10</v>
@@ -4667,7 +4691,7 @@
         <v>35</v>
       </c>
       <c r="B173" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C173" s="2">
         <v>8</v>
@@ -4684,7 +4708,7 @@
         <v>35</v>
       </c>
       <c r="B174" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C174" s="2">
         <v>13</v>
@@ -4701,7 +4725,7 @@
         <v>35</v>
       </c>
       <c r="B175" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C175" s="2">
         <v>33</v>
@@ -4718,7 +4742,7 @@
         <v>35</v>
       </c>
       <c r="B176" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C176" s="2">
         <v>5</v>
@@ -4735,7 +4759,7 @@
         <v>35</v>
       </c>
       <c r="B177" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C177" s="2">
         <v>5</v>
@@ -4752,7 +4776,7 @@
         <v>35</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C178" s="2">
         <v>5</v>
@@ -4769,7 +4793,7 @@
         <v>35</v>
       </c>
       <c r="B179" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C179" s="2">
         <v>33</v>
@@ -4786,7 +4810,7 @@
         <v>35</v>
       </c>
       <c r="B180" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C180" s="2">
         <v>8</v>
@@ -4803,7 +4827,7 @@
         <v>35</v>
       </c>
       <c r="B181" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C181" s="2">
         <v>48</v>
@@ -4820,7 +4844,7 @@
         <v>35</v>
       </c>
       <c r="B182" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C182" s="2">
         <v>2</v>
@@ -4837,7 +4861,7 @@
         <v>35</v>
       </c>
       <c r="B183" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C183" s="2">
         <v>3</v>
@@ -4854,7 +4878,7 @@
         <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C184" s="2">
         <v>13</v>
@@ -4871,7 +4895,7 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C185" s="2">
         <v>13</v>
@@ -4888,7 +4912,7 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C186" s="2">
         <v>12</v>
@@ -4905,7 +4929,7 @@
         <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C187" s="2">
         <v>22</v>
@@ -4922,7 +4946,7 @@
         <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C188" s="2">
         <v>22</v>
@@ -4939,7 +4963,7 @@
         <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C189" s="2">
         <v>5</v>
@@ -4956,7 +4980,7 @@
         <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C190" s="2">
         <v>5</v>
@@ -4973,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C191" s="2">
         <v>5</v>
@@ -4990,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C192" s="2">
         <v>29</v>
@@ -5007,7 +5031,7 @@
         <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C193" s="2">
         <v>6</v>
@@ -5024,7 +5048,7 @@
         <v>5</v>
       </c>
       <c r="B194" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C194" s="2">
         <v>3</v>
@@ -5041,7 +5065,7 @@
         <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C195" s="2">
         <v>4</v>
@@ -5058,13 +5082,13 @@
         <v>15</v>
       </c>
       <c r="B196" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C196" s="2">
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E196" s="1">
         <v>43465</v>
@@ -5075,7 +5099,7 @@
         <v>24</v>
       </c>
       <c r="B197" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C197" s="2">
         <v>18</v>
@@ -5092,7 +5116,7 @@
         <v>26</v>
       </c>
       <c r="B198" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C198" s="2">
         <v>22</v>
@@ -5109,7 +5133,7 @@
         <v>19</v>
       </c>
       <c r="B199" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C199" s="2">
         <v>7</v>
@@ -5126,7 +5150,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C200" s="2">
         <v>5</v>
@@ -5143,7 +5167,7 @@
         <v>84</v>
       </c>
       <c r="B201" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C201" s="2">
         <v>13</v>
@@ -5160,7 +5184,7 @@
         <v>24</v>
       </c>
       <c r="B202" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -5177,7 +5201,7 @@
         <v>19</v>
       </c>
       <c r="B203" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C203" s="2">
         <v>5</v>
@@ -5194,7 +5218,7 @@
         <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C204" s="2">
         <v>5</v>
@@ -5211,7 +5235,7 @@
         <v>5</v>
       </c>
       <c r="B205" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C205" s="2">
         <v>48</v>
@@ -5228,7 +5252,7 @@
         <v>26</v>
       </c>
       <c r="B206" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C206" s="2">
         <v>43</v>
@@ -5245,7 +5269,7 @@
         <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C207" s="2">
         <v>15</v>
@@ -5262,7 +5286,7 @@
         <v>17</v>
       </c>
       <c r="B208" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C208" s="2">
         <v>37</v>
@@ -5279,13 +5303,13 @@
         <v>5</v>
       </c>
       <c r="B209" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C209" s="2">
         <v>25</v>
       </c>
       <c r="D209" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E209" s="1">
         <v>43108</v>
@@ -5296,7 +5320,7 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C210" s="2">
         <v>20</v>
@@ -5313,7 +5337,7 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C211" s="2">
         <v>20</v>
@@ -5330,13 +5354,13 @@
         <v>37</v>
       </c>
       <c r="B212" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C212" s="2">
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E212" s="1">
         <v>43108</v>
@@ -5347,7 +5371,7 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C213" s="2">
         <v>3</v>
@@ -5364,7 +5388,7 @@
         <v>15</v>
       </c>
       <c r="B214" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C214" s="2">
         <v>14</v>
@@ -5381,7 +5405,7 @@
         <v>45</v>
       </c>
       <c r="B215" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C215" s="2">
         <v>28</v>
@@ -5398,7 +5422,7 @@
         <v>12</v>
       </c>
       <c r="B216" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C216" s="2">
         <v>17</v>
@@ -5415,7 +5439,7 @@
         <v>41</v>
       </c>
       <c r="B217" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C217" s="2">
         <v>34</v>
@@ -5432,7 +5456,7 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C218" s="2">
         <v>35</v>
@@ -5449,7 +5473,7 @@
         <v>12</v>
       </c>
       <c r="B219" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C219" s="2">
         <v>32</v>
@@ -5466,13 +5490,13 @@
         <v>19</v>
       </c>
       <c r="B220" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C220" s="2">
         <v>29</v>
       </c>
       <c r="D220" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E220" s="1">
         <v>43109</v>
@@ -5483,7 +5507,7 @@
         <v>17</v>
       </c>
       <c r="B221" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C221" s="2">
         <v>10</v>
@@ -5500,7 +5524,7 @@
         <v>17</v>
       </c>
       <c r="B222" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C222" s="2">
         <v>14</v>
@@ -5517,7 +5541,7 @@
         <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C223" s="2">
         <v>33</v>
@@ -5534,7 +5558,7 @@
         <v>27</v>
       </c>
       <c r="B224" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C224" s="2">
         <v>24</v>
@@ -5551,7 +5575,7 @@
         <v>17</v>
       </c>
       <c r="B225" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C225" s="2">
         <v>27</v>
@@ -5568,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="B226" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C226" s="2">
         <v>27</v>
@@ -5585,7 +5609,7 @@
         <v>17</v>
       </c>
       <c r="B227" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C227" s="2">
         <v>17</v>
@@ -5602,7 +5626,7 @@
         <v>19</v>
       </c>
       <c r="B228" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C228" s="2">
         <v>28</v>
@@ -5619,7 +5643,7 @@
         <v>84</v>
       </c>
       <c r="B229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C229" s="2">
         <v>11</v>
@@ -5636,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C230" s="2">
         <v>3</v>
@@ -5653,7 +5677,7 @@
         <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C231" s="2">
         <v>1</v>
@@ -5670,7 +5694,7 @@
         <v>84</v>
       </c>
       <c r="B232" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C232" s="2">
         <v>20</v>
@@ -5687,7 +5711,7 @@
         <v>43</v>
       </c>
       <c r="B233" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C233" s="2">
         <v>35</v>
@@ -5704,13 +5728,13 @@
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C234" s="2">
         <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E234" s="1">
         <v>43111</v>
@@ -5721,13 +5745,13 @@
         <v>27</v>
       </c>
       <c r="B235" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C235" s="2">
         <v>32</v>
       </c>
       <c r="D235" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E235" s="1">
         <v>43111</v>
@@ -5738,7 +5762,7 @@
         <v>41</v>
       </c>
       <c r="B236" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C236" s="2">
         <v>19</v>
@@ -5755,7 +5779,7 @@
         <v>84</v>
       </c>
       <c r="B237" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C237" s="2">
         <v>14</v>
@@ -5772,7 +5796,7 @@
         <v>17</v>
       </c>
       <c r="B238" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C238" s="2">
         <v>17</v>
@@ -5789,7 +5813,7 @@
         <v>27</v>
       </c>
       <c r="B239" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C239" s="2">
         <v>10</v>
@@ -5806,7 +5830,7 @@
         <v>41</v>
       </c>
       <c r="B240" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C240" s="2">
         <v>16</v>
@@ -5823,7 +5847,7 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C241" s="2">
         <v>16</v>
@@ -5840,7 +5864,7 @@
         <v>27</v>
       </c>
       <c r="B242" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C242" s="2">
         <v>10</v>
@@ -5857,7 +5881,7 @@
         <v>19</v>
       </c>
       <c r="B243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C243" s="2">
         <v>23</v>
@@ -5874,7 +5898,7 @@
         <v>27</v>
       </c>
       <c r="B244" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C244" s="2">
         <v>5</v>
@@ -5891,7 +5915,7 @@
         <v>41</v>
       </c>
       <c r="B245" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C245" s="2">
         <v>3</v>
@@ -5908,7 +5932,7 @@
         <v>41</v>
       </c>
       <c r="B246" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C246" s="2">
         <v>4</v>
@@ -5925,7 +5949,7 @@
         <v>45</v>
       </c>
       <c r="B247" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C247" s="2">
         <v>1</v>
@@ -5942,7 +5966,7 @@
         <v>15</v>
       </c>
       <c r="B248" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C248" s="2">
         <v>21</v>
@@ -5959,7 +5983,7 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C249" s="2">
         <v>1</v>
@@ -5976,7 +6000,7 @@
         <v>45</v>
       </c>
       <c r="B250" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C250" s="2">
         <v>14</v>
@@ -5993,7 +6017,7 @@
         <v>35</v>
       </c>
       <c r="B251" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C251" s="2">
         <v>15</v>
@@ -6010,7 +6034,7 @@
         <v>35</v>
       </c>
       <c r="B252" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C252" s="2">
         <v>11</v>
@@ -6023,7 +6047,140 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E253" s="1"/>
+      <c r="A253" t="s">
+        <v>37</v>
+      </c>
+      <c r="B253" t="s">
+        <v>285</v>
+      </c>
+      <c r="C253" s="2">
+        <v>18</v>
+      </c>
+      <c r="D253" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253" s="1">
+        <v>43116</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>26</v>
+      </c>
+      <c r="B254" t="s">
+        <v>286</v>
+      </c>
+      <c r="C254" s="2">
+        <v>15</v>
+      </c>
+      <c r="D254" t="s">
+        <v>21</v>
+      </c>
+      <c r="E254" s="1">
+        <v>43116</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>84</v>
+      </c>
+      <c r="B255" t="s">
+        <v>287</v>
+      </c>
+      <c r="C255" s="2">
+        <v>27</v>
+      </c>
+      <c r="D255" t="s">
+        <v>14</v>
+      </c>
+      <c r="E255" s="1">
+        <v>43116</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>19</v>
+      </c>
+      <c r="B256" t="s">
+        <v>288</v>
+      </c>
+      <c r="C256" s="2">
+        <v>31</v>
+      </c>
+      <c r="D256" t="s">
+        <v>33</v>
+      </c>
+      <c r="E256" s="1">
+        <v>43116</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" t="s">
+        <v>289</v>
+      </c>
+      <c r="C257" s="2">
+        <v>13</v>
+      </c>
+      <c r="D257" t="s">
+        <v>61</v>
+      </c>
+      <c r="E257" s="1">
+        <v>43116</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>37</v>
+      </c>
+      <c r="B258" t="s">
+        <v>290</v>
+      </c>
+      <c r="C258" s="2">
+        <v>15</v>
+      </c>
+      <c r="D258" t="s">
+        <v>29</v>
+      </c>
+      <c r="E258" s="1">
+        <v>43116</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>41</v>
+      </c>
+      <c r="B259" t="s">
+        <v>291</v>
+      </c>
+      <c r="C259" s="2">
+        <v>24</v>
+      </c>
+      <c r="D259" t="s">
+        <v>21</v>
+      </c>
+      <c r="E259" s="1">
+        <v>43116</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>84</v>
+      </c>
+      <c r="B260" t="s">
+        <v>292</v>
+      </c>
+      <c r="C260" s="2">
+        <v>15</v>
+      </c>
+      <c r="D260" t="s">
+        <v>14</v>
+      </c>
+      <c r="E260" s="1">
+        <v>43116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D0CBEE02-A9B3-492B-89E5-0F4E40AA13AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74B0925-397B-45FC-B6CF-3024FB753F9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,19 @@
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
     <sheet name="teams" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="318">
   <si>
     <t>team</t>
   </si>
@@ -903,6 +910,78 @@
   </si>
   <si>
     <t>Cedric Mullins II</t>
+  </si>
+  <si>
+    <t>Jon Gray</t>
+  </si>
+  <si>
+    <t>Starlin Castro</t>
+  </si>
+  <si>
+    <t>Daniel Murphy</t>
+  </si>
+  <si>
+    <t>Max Kepler</t>
+  </si>
+  <si>
+    <t>Dylan Bundy</t>
+  </si>
+  <si>
+    <t>Salvador Perez</t>
+  </si>
+  <si>
+    <t>Joc Pederson</t>
+  </si>
+  <si>
+    <t>Yu Darvish</t>
+  </si>
+  <si>
+    <t>Justus Sheffield</t>
+  </si>
+  <si>
+    <t>Seranthony Dominguez</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Kyle Schwarber</t>
+  </si>
+  <si>
+    <t>Marcus Semien</t>
+  </si>
+  <si>
+    <t>Shane Bieber</t>
+  </si>
+  <si>
+    <t>DJ LeMahieu</t>
+  </si>
+  <si>
+    <t>Archie Bradley</t>
+  </si>
+  <si>
+    <t>Justin Upton</t>
+  </si>
+  <si>
+    <t>Ender Inciarte</t>
+  </si>
+  <si>
+    <t>Yoan Moncada</t>
+  </si>
+  <si>
+    <t>Adam Eaton</t>
+  </si>
+  <si>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
+    <t>Byron Buxton</t>
+  </si>
+  <si>
+    <t>David Robertson</t>
+  </si>
+  <si>
+    <t>Rich Hill</t>
   </si>
 </sst>
 </file>
@@ -1748,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="E284" sqref="A276:E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3201,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E85" s="1">
         <v>43465</v>
@@ -5272,7 +5351,7 @@
         <v>239</v>
       </c>
       <c r="C207" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D207" t="s">
         <v>33</v>
@@ -5289,7 +5368,7 @@
         <v>240</v>
       </c>
       <c r="C208" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D208" t="s">
         <v>21</v>
@@ -5306,7 +5385,7 @@
         <v>241</v>
       </c>
       <c r="C209" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D209" t="s">
         <v>105</v>
@@ -5340,7 +5419,7 @@
         <v>243</v>
       </c>
       <c r="C211" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D211" t="s">
         <v>14</v>
@@ -6182,7 +6261,418 @@
         <v>43116</v>
       </c>
     </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" t="s">
+        <v>294</v>
+      </c>
+      <c r="C261" s="2">
+        <v>12</v>
+      </c>
+      <c r="D261" t="s">
+        <v>21</v>
+      </c>
+      <c r="E261" s="1">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" t="s">
+        <v>295</v>
+      </c>
+      <c r="C262" s="2">
+        <v>9</v>
+      </c>
+      <c r="D262" t="s">
+        <v>29</v>
+      </c>
+      <c r="E262" s="1">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>22</v>
+      </c>
+      <c r="B263" t="s">
+        <v>297</v>
+      </c>
+      <c r="C263" s="2">
+        <v>14</v>
+      </c>
+      <c r="D263" t="s">
+        <v>14</v>
+      </c>
+      <c r="E263" s="1">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>22</v>
+      </c>
+      <c r="B264" t="s">
+        <v>299</v>
+      </c>
+      <c r="C264" s="2">
+        <v>20</v>
+      </c>
+      <c r="D264" t="s">
+        <v>105</v>
+      </c>
+      <c r="E264" s="1">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>17</v>
+      </c>
+      <c r="B265" t="s">
+        <v>298</v>
+      </c>
+      <c r="C265" s="2">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>21</v>
+      </c>
+      <c r="E265" s="1">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>17</v>
+      </c>
+      <c r="B266" t="s">
+        <v>300</v>
+      </c>
+      <c r="C266" s="2">
+        <v>17</v>
+      </c>
+      <c r="D266" t="s">
+        <v>14</v>
+      </c>
+      <c r="E266" s="1">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>39</v>
+      </c>
+      <c r="B267" t="s">
+        <v>301</v>
+      </c>
+      <c r="C267" s="2">
+        <v>15</v>
+      </c>
+      <c r="D267" t="s">
+        <v>21</v>
+      </c>
+      <c r="E267" s="1">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>37</v>
+      </c>
+      <c r="B268" t="s">
+        <v>296</v>
+      </c>
+      <c r="C268" s="2">
+        <v>19</v>
+      </c>
+      <c r="D268" t="s">
+        <v>95</v>
+      </c>
+      <c r="E268" s="1">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" t="s">
+        <v>302</v>
+      </c>
+      <c r="C269" s="2">
+        <v>4</v>
+      </c>
+      <c r="D269" t="s">
+        <v>21</v>
+      </c>
+      <c r="E269" s="1">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" t="s">
+        <v>304</v>
+      </c>
+      <c r="C270" s="2">
+        <v>21</v>
+      </c>
+      <c r="D270" t="s">
+        <v>21</v>
+      </c>
+      <c r="E270" s="1">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>84</v>
+      </c>
+      <c r="B271" t="s">
+        <v>307</v>
+      </c>
+      <c r="C271" s="2">
+        <v>13</v>
+      </c>
+      <c r="D271" t="s">
+        <v>21</v>
+      </c>
+      <c r="E271" s="1">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>41</v>
+      </c>
+      <c r="B272" t="s">
+        <v>305</v>
+      </c>
+      <c r="C272" s="2">
+        <v>18</v>
+      </c>
+      <c r="D272" t="s">
+        <v>14</v>
+      </c>
+      <c r="E272" s="1">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>41</v>
+      </c>
+      <c r="B273" t="s">
+        <v>306</v>
+      </c>
+      <c r="C273" s="2">
+        <v>9</v>
+      </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" s="1">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>22</v>
+      </c>
+      <c r="B274" t="s">
+        <v>303</v>
+      </c>
+      <c r="C274" s="2">
+        <v>12</v>
+      </c>
+      <c r="D274" t="s">
+        <v>21</v>
+      </c>
+      <c r="E274" s="1">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>22</v>
+      </c>
+      <c r="B275" t="s">
+        <v>309</v>
+      </c>
+      <c r="C275" s="2">
+        <v>12</v>
+      </c>
+      <c r="D275" t="s">
+        <v>21</v>
+      </c>
+      <c r="E275" s="1">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>9</v>
+      </c>
+      <c r="B276" t="s">
+        <v>308</v>
+      </c>
+      <c r="C276" s="2">
+        <v>10</v>
+      </c>
+      <c r="D276" t="s">
+        <v>95</v>
+      </c>
+      <c r="E276" s="1">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>22</v>
+      </c>
+      <c r="B277" t="s">
+        <v>310</v>
+      </c>
+      <c r="C277" s="2">
+        <v>26</v>
+      </c>
+      <c r="D277" t="s">
+        <v>14</v>
+      </c>
+      <c r="E277" s="1">
+        <v>43121</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278" t="s">
+        <v>311</v>
+      </c>
+      <c r="C278" s="2">
+        <v>19</v>
+      </c>
+      <c r="D278" t="s">
+        <v>14</v>
+      </c>
+      <c r="E278" s="1">
+        <v>43121</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279" t="s">
+        <v>312</v>
+      </c>
+      <c r="C279" s="2">
+        <v>15</v>
+      </c>
+      <c r="D279" t="s">
+        <v>29</v>
+      </c>
+      <c r="E279" s="1">
+        <v>43121</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>84</v>
+      </c>
+      <c r="B280" t="s">
+        <v>313</v>
+      </c>
+      <c r="C280" s="2">
+        <v>13</v>
+      </c>
+      <c r="D280" t="s">
+        <v>14</v>
+      </c>
+      <c r="E280" s="1">
+        <v>43121</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" t="s">
+        <v>314</v>
+      </c>
+      <c r="C281" s="2">
+        <v>15</v>
+      </c>
+      <c r="D281" t="s">
+        <v>33</v>
+      </c>
+      <c r="E281" s="1">
+        <v>43121</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>39</v>
+      </c>
+      <c r="B282" t="s">
+        <v>315</v>
+      </c>
+      <c r="C282" s="2">
+        <v>15</v>
+      </c>
+      <c r="D282" t="s">
+        <v>14</v>
+      </c>
+      <c r="E282" s="1">
+        <v>43121</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>43</v>
+      </c>
+      <c r="B283" t="s">
+        <v>316</v>
+      </c>
+      <c r="C283" s="2">
+        <v>8</v>
+      </c>
+      <c r="D283" t="s">
+        <v>21</v>
+      </c>
+      <c r="E283" s="1">
+        <v>43121</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" t="s">
+        <v>317</v>
+      </c>
+      <c r="C284" s="2">
+        <v>15</v>
+      </c>
+      <c r="D284" t="s">
+        <v>21</v>
+      </c>
+      <c r="E284" s="1">
+        <v>43121</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A261:E276">
+    <sortCondition ref="E261:E276"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74B0925-397B-45FC-B6CF-3024FB753F9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438827C5-8681-4FEC-896A-B3EE4B0B3529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="326">
   <si>
     <t>team</t>
   </si>
@@ -982,6 +982,30 @@
   </si>
   <si>
     <t>Rich Hill</t>
+  </si>
+  <si>
+    <t>Russell Martin</t>
+  </si>
+  <si>
+    <t>Jackie Bradley Jr.</t>
+  </si>
+  <si>
+    <t>Kyle Seager</t>
+  </si>
+  <si>
+    <t>Matt Wieters</t>
+  </si>
+  <si>
+    <t>Miguel Sano</t>
+  </si>
+  <si>
+    <t>Cody Allen</t>
+  </si>
+  <si>
+    <t>Yan Gomes</t>
+  </si>
+  <si>
+    <t>Mitch Garver</t>
   </si>
 </sst>
 </file>
@@ -1827,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="E284" sqref="A276:E284"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="N290" sqref="N290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6667,6 +6691,142 @@
       </c>
       <c r="E284" s="1">
         <v>43121</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>24</v>
+      </c>
+      <c r="B285" t="s">
+        <v>318</v>
+      </c>
+      <c r="C285" s="2">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s">
+        <v>105</v>
+      </c>
+      <c r="E285" s="1">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>19</v>
+      </c>
+      <c r="B286" t="s">
+        <v>319</v>
+      </c>
+      <c r="C286" s="2">
+        <v>15</v>
+      </c>
+      <c r="D286" t="s">
+        <v>14</v>
+      </c>
+      <c r="E286" s="1">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>19</v>
+      </c>
+      <c r="B287" t="s">
+        <v>320</v>
+      </c>
+      <c r="C287" s="2">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s">
+        <v>11</v>
+      </c>
+      <c r="E287" s="1">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>17</v>
+      </c>
+      <c r="B288" t="s">
+        <v>321</v>
+      </c>
+      <c r="C288" s="2">
+        <v>3</v>
+      </c>
+      <c r="D288" t="s">
+        <v>105</v>
+      </c>
+      <c r="E288" s="1">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>84</v>
+      </c>
+      <c r="B289" t="s">
+        <v>322</v>
+      </c>
+      <c r="C289" s="2">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289" s="1">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>9</v>
+      </c>
+      <c r="B290" t="s">
+        <v>323</v>
+      </c>
+      <c r="C290" s="2">
+        <v>14</v>
+      </c>
+      <c r="D290" t="s">
+        <v>21</v>
+      </c>
+      <c r="E290" s="1">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>41</v>
+      </c>
+      <c r="B291" t="s">
+        <v>324</v>
+      </c>
+      <c r="C291" s="2">
+        <v>7</v>
+      </c>
+      <c r="D291" t="s">
+        <v>105</v>
+      </c>
+      <c r="E291" s="1">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>27</v>
+      </c>
+      <c r="B292" t="s">
+        <v>325</v>
+      </c>
+      <c r="C292" s="2">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>105</v>
+      </c>
+      <c r="E292" s="1">
+        <v>43122</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438827C5-8681-4FEC-896A-B3EE4B0B3529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFA116D-61BD-4F41-9653-E6230A689ED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="334">
   <si>
     <t>team</t>
   </si>
@@ -1006,6 +1006,30 @@
   </si>
   <si>
     <t>Mitch Garver</t>
+  </si>
+  <si>
+    <t>Adam Duvall</t>
+  </si>
+  <si>
+    <t>Brandon Crawford</t>
+  </si>
+  <si>
+    <t>Brad Peacock</t>
+  </si>
+  <si>
+    <t>Kyle Gibson</t>
+  </si>
+  <si>
+    <t>Peter Alonso</t>
+  </si>
+  <si>
+    <t>Odubel Herrera</t>
+  </si>
+  <si>
+    <t>Andrew Miller</t>
+  </si>
+  <si>
+    <t>Jakob Junis</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1039,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,6 +1173,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF55595C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1492,10 +1522,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1851,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="N290" sqref="N290"/>
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6827,6 +6861,142 @@
       </c>
       <c r="E292" s="1">
         <v>43122</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>41</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C293" s="2">
+        <v>5</v>
+      </c>
+      <c r="D293" t="s">
+        <v>14</v>
+      </c>
+      <c r="E293" s="1">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>17</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C294" s="2">
+        <v>4</v>
+      </c>
+      <c r="D294" t="s">
+        <v>8</v>
+      </c>
+      <c r="E294" s="1">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>35</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C295" s="2">
+        <v>5</v>
+      </c>
+      <c r="D295" t="s">
+        <v>21</v>
+      </c>
+      <c r="E295" s="1">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>27</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C296" s="2">
+        <v>8</v>
+      </c>
+      <c r="D296" t="s">
+        <v>21</v>
+      </c>
+      <c r="E296" s="1">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>35</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C297" s="2">
+        <v>9</v>
+      </c>
+      <c r="D297" t="s">
+        <v>33</v>
+      </c>
+      <c r="E297" s="1">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>19</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C298" s="2">
+        <v>13</v>
+      </c>
+      <c r="D298" t="s">
+        <v>14</v>
+      </c>
+      <c r="E298" s="1">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>27</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C299" s="2">
+        <v>9</v>
+      </c>
+      <c r="D299" t="s">
+        <v>21</v>
+      </c>
+      <c r="E299" s="1">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>6</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C300" s="2">
+        <v>9</v>
+      </c>
+      <c r="D300" t="s">
+        <v>21</v>
+      </c>
+      <c r="E300" s="1">
+        <v>43123</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFA116D-61BD-4F41-9653-E6230A689ED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B5C71-8569-45AA-A2FC-EF5940D2955B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="342">
   <si>
     <t>team</t>
   </si>
@@ -1030,6 +1030,30 @@
   </si>
   <si>
     <t>Jakob Junis</t>
+  </si>
+  <si>
+    <t>Rougned Odor</t>
+  </si>
+  <si>
+    <t>Andrew McCutchen</t>
+  </si>
+  <si>
+    <t>Alex Verdugo</t>
+  </si>
+  <si>
+    <t>Avisail Garcia</t>
+  </si>
+  <si>
+    <t>Hunter Renfroe</t>
+  </si>
+  <si>
+    <t>Tyler Flowers</t>
+  </si>
+  <si>
+    <t>Corey Knebel</t>
+  </si>
+  <si>
+    <t>Mike Zunino</t>
   </si>
 </sst>
 </file>
@@ -1885,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="B300" sqref="B300"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="I295" sqref="I295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6997,6 +7021,142 @@
       </c>
       <c r="E300" s="1">
         <v>43123</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>22</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C301" s="2">
+        <v>19</v>
+      </c>
+      <c r="D301" t="s">
+        <v>95</v>
+      </c>
+      <c r="E301" s="1">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>45</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C302" s="2">
+        <v>23</v>
+      </c>
+      <c r="D302" t="s">
+        <v>14</v>
+      </c>
+      <c r="E302" s="1">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>9</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C303" s="2">
+        <v>8</v>
+      </c>
+      <c r="D303" t="s">
+        <v>14</v>
+      </c>
+      <c r="E303" s="1">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>24</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C304" s="2">
+        <v>8</v>
+      </c>
+      <c r="D304" t="s">
+        <v>14</v>
+      </c>
+      <c r="E304" s="1">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>12</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C305" s="2">
+        <v>14</v>
+      </c>
+      <c r="D305" t="s">
+        <v>14</v>
+      </c>
+      <c r="E305" s="1">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>84</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C306" s="2">
+        <v>3</v>
+      </c>
+      <c r="D306" t="s">
+        <v>105</v>
+      </c>
+      <c r="E306" s="1">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>24</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C307" s="2">
+        <v>16</v>
+      </c>
+      <c r="D307" t="s">
+        <v>21</v>
+      </c>
+      <c r="E307" s="1">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C308" s="2">
+        <v>8</v>
+      </c>
+      <c r="D308" t="s">
+        <v>105</v>
+      </c>
+      <c r="E308" s="1">
+        <v>43124</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B5C71-8569-45AA-A2FC-EF5940D2955B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6AFF84-9B77-40BB-A478-3924B6047931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="350">
   <si>
     <t>team</t>
   </si>
@@ -1054,6 +1054,30 @@
   </si>
   <si>
     <t>Mike Zunino</t>
+  </si>
+  <si>
+    <t>Adam Ottavino</t>
+  </si>
+  <si>
+    <t>Anthony Swarzak</t>
+  </si>
+  <si>
+    <t>Manuel Margot</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Robinson Chirinos</t>
+  </si>
+  <si>
+    <t>Ian Happ</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Dustin Pedroia</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1087,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,12 +1221,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF55595C"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1546,14 +1564,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1909,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="I295" sqref="I295"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="A293" sqref="A293:E316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6891,7 +6905,7 @@
       <c r="A293" t="s">
         <v>41</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" t="s">
         <v>326</v>
       </c>
       <c r="C293" s="2">
@@ -6908,7 +6922,7 @@
       <c r="A294" t="s">
         <v>17</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" t="s">
         <v>327</v>
       </c>
       <c r="C294" s="2">
@@ -6925,7 +6939,7 @@
       <c r="A295" t="s">
         <v>35</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" t="s">
         <v>328</v>
       </c>
       <c r="C295" s="2">
@@ -6942,7 +6956,7 @@
       <c r="A296" t="s">
         <v>27</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B296" t="s">
         <v>329</v>
       </c>
       <c r="C296" s="2">
@@ -6959,7 +6973,7 @@
       <c r="A297" t="s">
         <v>35</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" t="s">
         <v>330</v>
       </c>
       <c r="C297" s="2">
@@ -6976,7 +6990,7 @@
       <c r="A298" t="s">
         <v>19</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B298" t="s">
         <v>331</v>
       </c>
       <c r="C298" s="2">
@@ -6993,7 +7007,7 @@
       <c r="A299" t="s">
         <v>27</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B299" t="s">
         <v>333</v>
       </c>
       <c r="C299" s="2">
@@ -7010,7 +7024,7 @@
       <c r="A300" t="s">
         <v>6</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B300" t="s">
         <v>332</v>
       </c>
       <c r="C300" s="2">
@@ -7027,7 +7041,7 @@
       <c r="A301" t="s">
         <v>22</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" t="s">
         <v>334</v>
       </c>
       <c r="C301" s="2">
@@ -7044,7 +7058,7 @@
       <c r="A302" t="s">
         <v>45</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" t="s">
         <v>335</v>
       </c>
       <c r="C302" s="2">
@@ -7061,7 +7075,7 @@
       <c r="A303" t="s">
         <v>9</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" t="s">
         <v>336</v>
       </c>
       <c r="C303" s="2">
@@ -7078,7 +7092,7 @@
       <c r="A304" t="s">
         <v>24</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" t="s">
         <v>337</v>
       </c>
       <c r="C304" s="2">
@@ -7095,7 +7109,7 @@
       <c r="A305" t="s">
         <v>12</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" t="s">
         <v>338</v>
       </c>
       <c r="C305" s="2">
@@ -7112,7 +7126,7 @@
       <c r="A306" t="s">
         <v>84</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" t="s">
         <v>339</v>
       </c>
       <c r="C306" s="2">
@@ -7129,7 +7143,7 @@
       <c r="A307" t="s">
         <v>24</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" t="s">
         <v>340</v>
       </c>
       <c r="C307" s="2">
@@ -7146,7 +7160,7 @@
       <c r="A308" t="s">
         <v>12</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" t="s">
         <v>341</v>
       </c>
       <c r="C308" s="2">
@@ -7157,6 +7171,142 @@
       </c>
       <c r="E308" s="1">
         <v>43124</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>37</v>
+      </c>
+      <c r="B309" t="s">
+        <v>342</v>
+      </c>
+      <c r="C309" s="2">
+        <v>4</v>
+      </c>
+      <c r="D309" t="s">
+        <v>21</v>
+      </c>
+      <c r="E309" s="1">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" t="s">
+        <v>343</v>
+      </c>
+      <c r="C310" s="2">
+        <v>7</v>
+      </c>
+      <c r="D310" t="s">
+        <v>21</v>
+      </c>
+      <c r="E310" s="1">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>27</v>
+      </c>
+      <c r="B311" t="s">
+        <v>344</v>
+      </c>
+      <c r="C311" s="2">
+        <v>9</v>
+      </c>
+      <c r="D311" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311" s="1">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" t="s">
+        <v>345</v>
+      </c>
+      <c r="C312" s="2">
+        <v>5</v>
+      </c>
+      <c r="D312" t="s">
+        <v>21</v>
+      </c>
+      <c r="E312" s="1">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313" t="s">
+        <v>346</v>
+      </c>
+      <c r="C313" s="2">
+        <v>7</v>
+      </c>
+      <c r="D313" t="s">
+        <v>105</v>
+      </c>
+      <c r="E313" s="1">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>27</v>
+      </c>
+      <c r="B314" t="s">
+        <v>347</v>
+      </c>
+      <c r="C314" s="2">
+        <v>9</v>
+      </c>
+      <c r="D314" t="s">
+        <v>14</v>
+      </c>
+      <c r="E314" s="1">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>9</v>
+      </c>
+      <c r="B315" t="s">
+        <v>348</v>
+      </c>
+      <c r="C315" s="2">
+        <v>7</v>
+      </c>
+      <c r="D315" t="s">
+        <v>21</v>
+      </c>
+      <c r="E315" s="1">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>17</v>
+      </c>
+      <c r="B316" t="s">
+        <v>349</v>
+      </c>
+      <c r="C316" s="2">
+        <v>4</v>
+      </c>
+      <c r="D316" t="s">
+        <v>95</v>
+      </c>
+      <c r="E316" s="1">
+        <v>43125</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6AFF84-9B77-40BB-A478-3924B6047931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3E98BB-8207-48B4-B263-74099F2C6554}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1925,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="A293" sqref="A293:E316"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="G204" sqref="G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5334,7 +5334,7 @@
         <v>21</v>
       </c>
       <c r="E200" s="1">
-        <v>43103</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5351,7 +5351,7 @@
         <v>8</v>
       </c>
       <c r="E201" s="1">
-        <v>43103</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5368,7 +5368,7 @@
         <v>48</v>
       </c>
       <c r="E202" s="1">
-        <v>43103</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5385,7 +5385,7 @@
         <v>29</v>
       </c>
       <c r="E203" s="1">
-        <v>43103</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5402,7 +5402,7 @@
         <v>21</v>
       </c>
       <c r="E204" s="1">
-        <v>43103</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5419,7 +5419,7 @@
         <v>21</v>
       </c>
       <c r="E205" s="1">
-        <v>43108</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5436,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="E206" s="1">
-        <v>43108</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5453,7 +5453,7 @@
         <v>33</v>
       </c>
       <c r="E207" s="1">
-        <v>43108</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5470,7 +5470,7 @@
         <v>21</v>
       </c>
       <c r="E208" s="1">
-        <v>43108</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
         <v>105</v>
       </c>
       <c r="E209" s="1">
-        <v>43108</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5504,7 +5504,7 @@
         <v>21</v>
       </c>
       <c r="E210" s="1">
-        <v>43108</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5521,7 +5521,7 @@
         <v>14</v>
       </c>
       <c r="E211" s="1">
-        <v>43108</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5538,7 +5538,7 @@
         <v>105</v>
       </c>
       <c r="E212" s="1">
-        <v>43108</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5555,7 +5555,7 @@
         <v>61</v>
       </c>
       <c r="E213" s="1">
-        <v>43109</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5572,7 +5572,7 @@
         <v>21</v>
       </c>
       <c r="E214" s="1">
-        <v>43109</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5589,7 +5589,7 @@
         <v>33</v>
       </c>
       <c r="E215" s="1">
-        <v>43109</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5606,7 +5606,7 @@
         <v>95</v>
       </c>
       <c r="E216" s="1">
-        <v>43109</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5623,7 +5623,7 @@
         <v>21</v>
       </c>
       <c r="E217" s="1">
-        <v>43109</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5640,7 +5640,7 @@
         <v>61</v>
       </c>
       <c r="E218" s="1">
-        <v>43109</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5657,7 +5657,7 @@
         <v>14</v>
       </c>
       <c r="E219" s="1">
-        <v>43109</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5674,7 +5674,7 @@
         <v>228</v>
       </c>
       <c r="E220" s="1">
-        <v>43109</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
         <v>33</v>
       </c>
       <c r="E221" s="1">
-        <v>43110</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -5708,7 +5708,7 @@
         <v>21</v>
       </c>
       <c r="E222" s="1">
-        <v>43110</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5725,7 +5725,7 @@
         <v>21</v>
       </c>
       <c r="E223" s="1">
-        <v>43110</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5742,7 +5742,7 @@
         <v>14</v>
       </c>
       <c r="E224" s="1">
-        <v>43110</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5759,7 +5759,7 @@
         <v>21</v>
       </c>
       <c r="E225" s="1">
-        <v>43110</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5776,7 +5776,7 @@
         <v>11</v>
       </c>
       <c r="E226" s="1">
-        <v>43110</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5793,7 +5793,7 @@
         <v>21</v>
       </c>
       <c r="E227" s="1">
-        <v>43110</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5810,7 +5810,7 @@
         <v>21</v>
       </c>
       <c r="E228" s="1">
-        <v>43110</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5827,7 +5827,7 @@
         <v>14</v>
       </c>
       <c r="E229" s="1">
-        <v>43111</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5844,7 +5844,7 @@
         <v>95</v>
       </c>
       <c r="E230" s="1">
-        <v>43111</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5861,7 +5861,7 @@
         <v>11</v>
       </c>
       <c r="E231" s="1">
-        <v>43111</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5878,7 +5878,7 @@
         <v>21</v>
       </c>
       <c r="E232" s="1">
-        <v>43111</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5895,7 +5895,7 @@
         <v>14</v>
       </c>
       <c r="E233" s="1">
-        <v>43111</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
         <v>105</v>
       </c>
       <c r="E234" s="1">
-        <v>43111</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5929,7 +5929,7 @@
         <v>228</v>
       </c>
       <c r="E235" s="1">
-        <v>43111</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5946,7 +5946,7 @@
         <v>21</v>
       </c>
       <c r="E236" s="1">
-        <v>43111</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5963,7 +5963,7 @@
         <v>33</v>
       </c>
       <c r="E237" s="1">
-        <v>43114</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5980,7 +5980,7 @@
         <v>29</v>
       </c>
       <c r="E238" s="1">
-        <v>43114</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5997,7 +5997,7 @@
         <v>61</v>
       </c>
       <c r="E239" s="1">
-        <v>43114</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6014,7 +6014,7 @@
         <v>21</v>
       </c>
       <c r="E240" s="1">
-        <v>43114</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6031,7 +6031,7 @@
         <v>21</v>
       </c>
       <c r="E241" s="1">
-        <v>43114</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6048,7 +6048,7 @@
         <v>95</v>
       </c>
       <c r="E242" s="1">
-        <v>43114</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6065,7 +6065,7 @@
         <v>61</v>
       </c>
       <c r="E243" s="1">
-        <v>43114</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6082,7 +6082,7 @@
         <v>8</v>
       </c>
       <c r="E244" s="1">
-        <v>43114</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6099,7 +6099,7 @@
         <v>21</v>
       </c>
       <c r="E245" s="1">
-        <v>43115</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6116,7 +6116,7 @@
         <v>14</v>
       </c>
       <c r="E246" s="1">
-        <v>43115</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6133,7 +6133,7 @@
         <v>14</v>
       </c>
       <c r="E247" s="1">
-        <v>43115</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6150,7 +6150,7 @@
         <v>61</v>
       </c>
       <c r="E248" s="1">
-        <v>43115</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6167,7 +6167,7 @@
         <v>14</v>
       </c>
       <c r="E249" s="1">
-        <v>43115</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6184,7 +6184,7 @@
         <v>21</v>
       </c>
       <c r="E250" s="1">
-        <v>43115</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6201,7 +6201,7 @@
         <v>21</v>
       </c>
       <c r="E251" s="1">
-        <v>43115</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6218,7 +6218,7 @@
         <v>21</v>
       </c>
       <c r="E252" s="1">
-        <v>43115</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6235,7 +6235,7 @@
         <v>14</v>
       </c>
       <c r="E253" s="1">
-        <v>43116</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6252,7 +6252,7 @@
         <v>21</v>
       </c>
       <c r="E254" s="1">
-        <v>43116</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6269,7 +6269,7 @@
         <v>14</v>
       </c>
       <c r="E255" s="1">
-        <v>43116</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6286,7 +6286,7 @@
         <v>33</v>
       </c>
       <c r="E256" s="1">
-        <v>43116</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6303,7 +6303,7 @@
         <v>61</v>
       </c>
       <c r="E257" s="1">
-        <v>43116</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6320,7 +6320,7 @@
         <v>29</v>
       </c>
       <c r="E258" s="1">
-        <v>43116</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6337,7 +6337,7 @@
         <v>21</v>
       </c>
       <c r="E259" s="1">
-        <v>43116</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6354,7 +6354,7 @@
         <v>14</v>
       </c>
       <c r="E260" s="1">
-        <v>43116</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6371,7 +6371,7 @@
         <v>21</v>
       </c>
       <c r="E261" s="1">
-        <v>43117</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6388,7 +6388,7 @@
         <v>29</v>
       </c>
       <c r="E262" s="1">
-        <v>43117</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6405,7 +6405,7 @@
         <v>14</v>
       </c>
       <c r="E263" s="1">
-        <v>43117</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6422,7 +6422,7 @@
         <v>105</v>
       </c>
       <c r="E264" s="1">
-        <v>43117</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6439,7 +6439,7 @@
         <v>21</v>
       </c>
       <c r="E265" s="1">
-        <v>43117</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6456,7 +6456,7 @@
         <v>14</v>
       </c>
       <c r="E266" s="1">
-        <v>43117</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6473,7 +6473,7 @@
         <v>21</v>
       </c>
       <c r="E267" s="1">
-        <v>43117</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6490,7 +6490,7 @@
         <v>95</v>
       </c>
       <c r="E268" s="1">
-        <v>43117</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6507,7 +6507,7 @@
         <v>21</v>
       </c>
       <c r="E269" s="1">
-        <v>43118</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6524,7 +6524,7 @@
         <v>21</v>
       </c>
       <c r="E270" s="1">
-        <v>43118</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6541,7 +6541,7 @@
         <v>21</v>
       </c>
       <c r="E271" s="1">
-        <v>43118</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6558,7 +6558,7 @@
         <v>14</v>
       </c>
       <c r="E272" s="1">
-        <v>43118</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6575,7 +6575,7 @@
         <v>8</v>
       </c>
       <c r="E273" s="1">
-        <v>43118</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6592,7 +6592,7 @@
         <v>21</v>
       </c>
       <c r="E274" s="1">
-        <v>43118</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6609,7 +6609,7 @@
         <v>21</v>
       </c>
       <c r="E275" s="1">
-        <v>43118</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6626,7 +6626,7 @@
         <v>95</v>
       </c>
       <c r="E276" s="1">
-        <v>43118</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -6643,7 +6643,7 @@
         <v>14</v>
       </c>
       <c r="E277" s="1">
-        <v>43121</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6660,7 +6660,7 @@
         <v>14</v>
       </c>
       <c r="E278" s="1">
-        <v>43121</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6677,7 +6677,7 @@
         <v>29</v>
       </c>
       <c r="E279" s="1">
-        <v>43121</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6694,7 +6694,7 @@
         <v>14</v>
       </c>
       <c r="E280" s="1">
-        <v>43121</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6711,7 +6711,7 @@
         <v>33</v>
       </c>
       <c r="E281" s="1">
-        <v>43121</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6728,7 +6728,7 @@
         <v>14</v>
       </c>
       <c r="E282" s="1">
-        <v>43121</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6745,7 +6745,7 @@
         <v>21</v>
       </c>
       <c r="E283" s="1">
-        <v>43121</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -6762,7 +6762,7 @@
         <v>21</v>
       </c>
       <c r="E284" s="1">
-        <v>43121</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -6779,7 +6779,7 @@
         <v>105</v>
       </c>
       <c r="E285" s="1">
-        <v>43122</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -6796,7 +6796,7 @@
         <v>14</v>
       </c>
       <c r="E286" s="1">
-        <v>43122</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -6813,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="E287" s="1">
-        <v>43122</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -6830,7 +6830,7 @@
         <v>105</v>
       </c>
       <c r="E288" s="1">
-        <v>43122</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -6847,7 +6847,7 @@
         <v>11</v>
       </c>
       <c r="E289" s="1">
-        <v>43122</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -6864,7 +6864,7 @@
         <v>21</v>
       </c>
       <c r="E290" s="1">
-        <v>43122</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -6881,7 +6881,7 @@
         <v>105</v>
       </c>
       <c r="E291" s="1">
-        <v>43122</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -6898,7 +6898,7 @@
         <v>105</v>
       </c>
       <c r="E292" s="1">
-        <v>43122</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -6915,7 +6915,7 @@
         <v>14</v>
       </c>
       <c r="E293" s="1">
-        <v>43123</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -6932,7 +6932,7 @@
         <v>8</v>
       </c>
       <c r="E294" s="1">
-        <v>43123</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -6949,7 +6949,7 @@
         <v>21</v>
       </c>
       <c r="E295" s="1">
-        <v>43123</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -6966,7 +6966,7 @@
         <v>21</v>
       </c>
       <c r="E296" s="1">
-        <v>43123</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -6983,7 +6983,7 @@
         <v>33</v>
       </c>
       <c r="E297" s="1">
-        <v>43123</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -7000,7 +7000,7 @@
         <v>14</v>
       </c>
       <c r="E298" s="1">
-        <v>43123</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -7017,7 +7017,7 @@
         <v>21</v>
       </c>
       <c r="E299" s="1">
-        <v>43123</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -7034,7 +7034,7 @@
         <v>21</v>
       </c>
       <c r="E300" s="1">
-        <v>43123</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7051,7 +7051,7 @@
         <v>95</v>
       </c>
       <c r="E301" s="1">
-        <v>43124</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -7068,7 +7068,7 @@
         <v>14</v>
       </c>
       <c r="E302" s="1">
-        <v>43124</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7085,7 +7085,7 @@
         <v>14</v>
       </c>
       <c r="E303" s="1">
-        <v>43124</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7102,7 +7102,7 @@
         <v>14</v>
       </c>
       <c r="E304" s="1">
-        <v>43124</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7119,7 +7119,7 @@
         <v>14</v>
       </c>
       <c r="E305" s="1">
-        <v>43124</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7136,7 +7136,7 @@
         <v>105</v>
       </c>
       <c r="E306" s="1">
-        <v>43124</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7153,7 +7153,7 @@
         <v>21</v>
       </c>
       <c r="E307" s="1">
-        <v>43124</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7170,7 +7170,7 @@
         <v>105</v>
       </c>
       <c r="E308" s="1">
-        <v>43124</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7187,7 +7187,7 @@
         <v>21</v>
       </c>
       <c r="E309" s="1">
-        <v>43125</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7204,7 +7204,7 @@
         <v>21</v>
       </c>
       <c r="E310" s="1">
-        <v>43125</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7221,7 +7221,7 @@
         <v>14</v>
       </c>
       <c r="E311" s="1">
-        <v>43125</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7238,7 +7238,7 @@
         <v>21</v>
       </c>
       <c r="E312" s="1">
-        <v>43125</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7255,7 +7255,7 @@
         <v>105</v>
       </c>
       <c r="E313" s="1">
-        <v>43125</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
         <v>14</v>
       </c>
       <c r="E314" s="1">
-        <v>43125</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7289,7 +7289,7 @@
         <v>21</v>
       </c>
       <c r="E315" s="1">
-        <v>43125</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7306,7 +7306,7 @@
         <v>95</v>
       </c>
       <c r="E316" s="1">
-        <v>43125</v>
+        <v>43490</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3E98BB-8207-48B4-B263-74099F2C6554}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC2BEF-3EBA-4D08-BABD-A2B1B08086AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="358">
   <si>
     <t>team</t>
   </si>
@@ -1078,6 +1078,30 @@
   </si>
   <si>
     <t>Dustin Pedroia</t>
+  </si>
+  <si>
+    <t>Kurt Suzuki</t>
+  </si>
+  <si>
+    <t>Welington Castillo</t>
+  </si>
+  <si>
+    <t>Gregory Polanco</t>
+  </si>
+  <si>
+    <t>Marco Gonzales</t>
+  </si>
+  <si>
+    <t>Enrique Hernandez</t>
+  </si>
+  <si>
+    <t>Austin Hedges</t>
+  </si>
+  <si>
+    <t>Yuli Gurriel</t>
+  </si>
+  <si>
+    <t>Jorge Alfaro</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1221,6 +1245,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Material Icons"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1564,10 +1593,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1923,13 +1961,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E316"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="G204" sqref="G204"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="E318" sqref="E318:E324"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -1937,7 +1975,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1954,7 +1992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +2009,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1988,7 +2026,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2005,7 +2043,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2060,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2077,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2056,7 +2094,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2073,7 +2111,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2090,7 +2128,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2107,7 +2145,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2124,7 +2162,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2141,7 +2179,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2158,7 +2196,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2175,7 +2213,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2192,7 +2230,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2209,7 +2247,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2226,7 +2264,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2243,7 +2281,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2260,7 +2298,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2277,7 +2315,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2294,7 +2332,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2311,7 +2349,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2328,7 +2366,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2345,7 +2383,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2362,7 +2400,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2379,7 +2417,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2396,7 +2434,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2413,7 +2451,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2430,7 +2468,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2447,7 +2485,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2464,7 +2502,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2481,7 +2519,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2498,7 +2536,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2515,7 +2553,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2532,7 +2570,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2549,7 +2587,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2566,7 +2604,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2583,7 +2621,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2600,7 +2638,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2617,7 +2655,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2634,7 +2672,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2651,7 +2689,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2668,7 +2706,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2685,7 +2723,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -2702,7 +2740,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -2719,7 +2757,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2736,7 +2774,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -2753,7 +2791,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -2770,7 +2808,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -2787,7 +2825,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -2804,7 +2842,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -2821,7 +2859,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -2838,7 +2876,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -2855,7 +2893,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -2872,7 +2910,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -2889,7 +2927,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -2906,7 +2944,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -2923,7 +2961,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -2940,7 +2978,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -2957,7 +2995,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -2974,7 +3012,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -2991,7 +3029,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3008,7 +3046,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -3025,7 +3063,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -3042,7 +3080,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -3059,7 +3097,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -3076,7 +3114,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -3093,7 +3131,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -3110,7 +3148,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -3127,7 +3165,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -3144,7 +3182,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -3161,7 +3199,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -3178,7 +3216,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -3195,7 +3233,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -3212,7 +3250,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -3229,7 +3267,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -3246,7 +3284,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -3263,7 +3301,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -3280,7 +3318,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -3297,7 +3335,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -3314,7 +3352,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3331,7 +3369,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -3348,7 +3386,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="24" customHeight="1">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -3365,7 +3403,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -3382,7 +3420,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -3399,7 +3437,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -3416,7 +3454,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -3433,7 +3471,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -3450,7 +3488,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -3467,7 +3505,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -3484,7 +3522,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -3501,7 +3539,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -3518,7 +3556,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3573,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -3552,7 +3590,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -3569,7 +3607,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -3586,7 +3624,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -3603,7 +3641,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -3620,7 +3658,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -3637,7 +3675,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -3654,7 +3692,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -3671,7 +3709,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -3688,7 +3726,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -3705,7 +3743,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -3722,7 +3760,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -3739,7 +3777,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -3756,7 +3794,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -3773,7 +3811,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -3790,7 +3828,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -3807,7 +3845,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -3824,7 +3862,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -3841,7 +3879,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -3858,7 +3896,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -3875,7 +3913,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -3892,7 +3930,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -3909,7 +3947,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3926,7 +3964,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -3943,7 +3981,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -3960,7 +3998,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -3977,7 +4015,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -3994,7 +4032,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -4011,7 +4049,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -4028,7 +4066,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -4045,7 +4083,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -4062,7 +4100,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -4079,7 +4117,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -4096,7 +4134,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -4113,7 +4151,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -4130,7 +4168,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -4147,7 +4185,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4164,7 +4202,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -4181,7 +4219,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4198,7 +4236,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4215,7 +4253,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -4232,7 +4270,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -4249,7 +4287,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>39</v>
       </c>
@@ -4266,7 +4304,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -4283,7 +4321,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -4300,7 +4338,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -4317,7 +4355,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -4334,7 +4372,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -4351,7 +4389,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -4368,7 +4406,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -4385,7 +4423,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -4402,7 +4440,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -4419,7 +4457,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -4436,7 +4474,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -4453,7 +4491,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -4470,7 +4508,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -4487,7 +4525,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -4504,7 +4542,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -4521,7 +4559,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -4538,7 +4576,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -4555,7 +4593,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -4572,7 +4610,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -4589,7 +4627,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -4606,7 +4644,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4623,7 +4661,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -4640,7 +4678,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>37</v>
       </c>
@@ -4657,7 +4695,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -4674,7 +4712,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -4691,7 +4729,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -4708,7 +4746,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -4725,7 +4763,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>37</v>
       </c>
@@ -4742,7 +4780,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -4759,7 +4797,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -4776,7 +4814,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -4793,7 +4831,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -4810,7 +4848,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -4827,7 +4865,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -4844,7 +4882,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>35</v>
       </c>
@@ -4861,7 +4899,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -4878,7 +4916,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>35</v>
       </c>
@@ -4895,7 +4933,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>35</v>
       </c>
@@ -4912,7 +4950,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>35</v>
       </c>
@@ -4929,7 +4967,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>35</v>
       </c>
@@ -4946,7 +4984,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -4963,7 +5001,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>35</v>
       </c>
@@ -4980,7 +5018,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -4997,7 +5035,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -5014,7 +5052,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -5031,7 +5069,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -5048,7 +5086,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -5065,7 +5103,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -5082,7 +5120,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -5099,7 +5137,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -5116,7 +5154,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5133,7 +5171,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -5150,7 +5188,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -5167,7 +5205,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -5184,7 +5222,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -5201,7 +5239,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -5218,7 +5256,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -5235,7 +5273,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5252,7 +5290,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -5269,7 +5307,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -5286,7 +5324,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -5303,7 +5341,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -5320,7 +5358,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -5337,7 +5375,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>84</v>
       </c>
@@ -5354,7 +5392,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -5371,7 +5409,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -5388,7 +5426,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -5405,7 +5443,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -5422,7 +5460,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -5439,7 +5477,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -5456,7 +5494,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -5473,7 +5511,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -5490,7 +5528,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -5507,7 +5545,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -5524,7 +5562,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -5541,7 +5579,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -5558,7 +5596,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -5575,7 +5613,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>45</v>
       </c>
@@ -5592,7 +5630,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -5609,7 +5647,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>41</v>
       </c>
@@ -5626,7 +5664,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -5643,7 +5681,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -5660,7 +5698,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -5677,7 +5715,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -5694,7 +5732,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -5711,7 +5749,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -5728,7 +5766,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>27</v>
       </c>
@@ -5745,7 +5783,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -5762,7 +5800,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -5779,7 +5817,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -5796,7 +5834,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -5813,7 +5851,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>84</v>
       </c>
@@ -5830,7 +5868,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5847,7 +5885,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -5864,7 +5902,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>84</v>
       </c>
@@ -5881,7 +5919,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -5898,7 +5936,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -5915,7 +5953,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>27</v>
       </c>
@@ -5932,7 +5970,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -5949,7 +5987,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>84</v>
       </c>
@@ -5966,7 +6004,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -5983,7 +6021,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -6000,7 +6038,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>41</v>
       </c>
@@ -6017,7 +6055,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -6034,7 +6072,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>27</v>
       </c>
@@ -6051,7 +6089,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -6068,7 +6106,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>27</v>
       </c>
@@ -6085,7 +6123,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>41</v>
       </c>
@@ -6102,7 +6140,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>41</v>
       </c>
@@ -6119,7 +6157,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>45</v>
       </c>
@@ -6136,7 +6174,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -6153,7 +6191,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -6170,7 +6208,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>45</v>
       </c>
@@ -6187,7 +6225,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>35</v>
       </c>
@@ -6204,7 +6242,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>35</v>
       </c>
@@ -6221,7 +6259,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>37</v>
       </c>
@@ -6238,7 +6276,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>26</v>
       </c>
@@ -6255,7 +6293,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>84</v>
       </c>
@@ -6272,7 +6310,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -6289,7 +6327,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -6306,7 +6344,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>37</v>
       </c>
@@ -6323,7 +6361,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>41</v>
       </c>
@@ -6340,7 +6378,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>84</v>
       </c>
@@ -6357,7 +6395,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>24</v>
       </c>
@@ -6374,7 +6412,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -6391,7 +6429,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -6408,7 +6446,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -6425,7 +6463,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -6442,7 +6480,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -6459,7 +6497,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>39</v>
       </c>
@@ -6476,7 +6514,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>37</v>
       </c>
@@ -6493,7 +6531,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -6510,7 +6548,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -6527,7 +6565,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>84</v>
       </c>
@@ -6544,7 +6582,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>41</v>
       </c>
@@ -6561,7 +6599,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>41</v>
       </c>
@@ -6578,7 +6616,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>22</v>
       </c>
@@ -6595,7 +6633,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>22</v>
       </c>
@@ -6612,7 +6650,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -6629,7 +6667,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>22</v>
       </c>
@@ -6646,7 +6684,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>22</v>
       </c>
@@ -6663,7 +6701,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -6680,7 +6718,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>84</v>
       </c>
@@ -6697,7 +6735,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -6714,7 +6752,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>39</v>
       </c>
@@ -6731,7 +6769,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>43</v>
       </c>
@@ -6748,7 +6786,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -6765,7 +6803,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>24</v>
       </c>
@@ -6782,7 +6820,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -6799,7 +6837,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -6816,7 +6854,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -6833,7 +6871,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>84</v>
       </c>
@@ -6850,7 +6888,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -6867,7 +6905,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>41</v>
       </c>
@@ -6884,7 +6922,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -6901,7 +6939,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>41</v>
       </c>
@@ -6918,7 +6956,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -6935,7 +6973,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>35</v>
       </c>
@@ -6952,7 +6990,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -6969,7 +7007,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>35</v>
       </c>
@@ -6986,7 +7024,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -7003,7 +7041,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -7020,7 +7058,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -7037,7 +7075,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -7054,7 +7092,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>45</v>
       </c>
@@ -7071,7 +7109,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -7088,7 +7126,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>24</v>
       </c>
@@ -7105,7 +7143,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -7122,7 +7160,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>84</v>
       </c>
@@ -7139,7 +7177,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>24</v>
       </c>
@@ -7156,7 +7194,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -7173,7 +7211,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>37</v>
       </c>
@@ -7190,7 +7228,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -7207,7 +7245,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -7224,7 +7262,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -7241,7 +7279,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -7258,7 +7296,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>27</v>
       </c>
@@ -7275,7 +7313,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -7292,7 +7330,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -7308,6 +7346,148 @@
       <c r="E316" s="1">
         <v>43490</v>
       </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C317" s="2">
+        <v>4</v>
+      </c>
+      <c r="D317" t="s">
+        <v>105</v>
+      </c>
+      <c r="E317" s="1">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>22</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C318" s="2">
+        <v>9</v>
+      </c>
+      <c r="D318" t="s">
+        <v>105</v>
+      </c>
+      <c r="E318" s="1">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>45</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C319" s="2">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s">
+        <v>14</v>
+      </c>
+      <c r="E319" s="1">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C320" s="2">
+        <v>8</v>
+      </c>
+      <c r="D320" t="s">
+        <v>21</v>
+      </c>
+      <c r="E320" s="1">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C321" s="2">
+        <v>7</v>
+      </c>
+      <c r="D321" t="s">
+        <v>228</v>
+      </c>
+      <c r="E321" s="1">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C322" s="2">
+        <v>5</v>
+      </c>
+      <c r="D322" t="s">
+        <v>105</v>
+      </c>
+      <c r="E322" s="1">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>43</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C323" s="2">
+        <v>9</v>
+      </c>
+      <c r="D323" t="s">
+        <v>29</v>
+      </c>
+      <c r="E323" s="1">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>39</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C324" s="2">
+        <v>9</v>
+      </c>
+      <c r="D324" t="s">
+        <v>105</v>
+      </c>
+      <c r="E324" s="1">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="B325" s="4"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="B326" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A261:E276">
@@ -7326,94 +7506,94 @@
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>45</v>
       </c>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC2BEF-3EBA-4D08-BABD-A2B1B08086AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE8D09F-3216-44EA-933B-6498BDAC448F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1963,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="E318" sqref="E318:E324"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE8D09F-3216-44EA-933B-6498BDAC448F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222B5598-B442-4305-933C-C78EA1A7D5F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="366">
   <si>
     <t>team</t>
   </si>
@@ -1102,6 +1102,30 @@
   </si>
   <si>
     <t>Jorge Alfaro</t>
+  </si>
+  <si>
+    <t>Pedro Strop</t>
+  </si>
+  <si>
+    <t>Didi Gregorius</t>
+  </si>
+  <si>
+    <t>Jeimer Candelario</t>
+  </si>
+  <si>
+    <t>Drew Steckenrider</t>
+  </si>
+  <si>
+    <t>Aaron Altherr</t>
+  </si>
+  <si>
+    <t>Jonathan Lucroy</t>
+  </si>
+  <si>
+    <t>Joe Musgrove</t>
+  </si>
+  <si>
+    <t>Domingo Santana</t>
   </si>
 </sst>
 </file>
@@ -1961,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:E334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7361,7 +7385,7 @@
         <v>105</v>
       </c>
       <c r="E317" s="1">
-        <v>43491</v>
+        <v>43493</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7378,7 +7402,7 @@
         <v>105</v>
       </c>
       <c r="E318" s="1">
-        <v>43491</v>
+        <v>43493</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7395,7 +7419,7 @@
         <v>14</v>
       </c>
       <c r="E319" s="1">
-        <v>43491</v>
+        <v>43493</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7412,7 +7436,7 @@
         <v>21</v>
       </c>
       <c r="E320" s="1">
-        <v>43491</v>
+        <v>43493</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7429,7 +7453,7 @@
         <v>228</v>
       </c>
       <c r="E321" s="1">
-        <v>43491</v>
+        <v>43493</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7446,7 +7470,7 @@
         <v>105</v>
       </c>
       <c r="E322" s="1">
-        <v>43491</v>
+        <v>43493</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7463,7 +7487,7 @@
         <v>29</v>
       </c>
       <c r="E323" s="1">
-        <v>43491</v>
+        <v>43493</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7480,14 +7504,150 @@
         <v>105</v>
       </c>
       <c r="E324" s="1">
-        <v>43491</v>
+        <v>43493</v>
       </c>
     </row>
     <row r="325" spans="1:5">
-      <c r="B325" s="4"/>
+      <c r="A325" t="s">
+        <v>22</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C325" s="2">
+        <v>5</v>
+      </c>
+      <c r="D325" t="s">
+        <v>21</v>
+      </c>
+      <c r="E325" s="1">
+        <v>43494</v>
+      </c>
     </row>
     <row r="326" spans="1:5">
-      <c r="B326" s="5"/>
+      <c r="A326" t="s">
+        <v>26</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C326" s="2">
+        <v>12</v>
+      </c>
+      <c r="D326" t="s">
+        <v>95</v>
+      </c>
+      <c r="E326" s="1">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>12</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C327" s="2">
+        <v>5</v>
+      </c>
+      <c r="D327" t="s">
+        <v>33</v>
+      </c>
+      <c r="E327" s="1">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>15</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C328" s="2">
+        <v>10</v>
+      </c>
+      <c r="D328" t="s">
+        <v>21</v>
+      </c>
+      <c r="E328" s="1">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>41</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C329" s="2">
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" s="1">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>19</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C330" s="2">
+        <v>4</v>
+      </c>
+      <c r="D330" t="s">
+        <v>105</v>
+      </c>
+      <c r="E330" s="1">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>39</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C331" s="2">
+        <v>8</v>
+      </c>
+      <c r="D331" t="s">
+        <v>21</v>
+      </c>
+      <c r="E331" s="1">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>27</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C332" s="2">
+        <v>9</v>
+      </c>
+      <c r="D332" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332" s="1">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="B333" s="4"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="B334" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A261:E276">

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222B5598-B442-4305-933C-C78EA1A7D5F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3E6655-04AA-458E-8EDE-C85AB3140E5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="374">
   <si>
     <t>team</t>
   </si>
@@ -1126,6 +1126,30 @@
   </si>
   <si>
     <t>Domingo Santana</t>
+  </si>
+  <si>
+    <t>Corey Dickerson</t>
+  </si>
+  <si>
+    <t>Nick Markakis</t>
+  </si>
+  <si>
+    <t>Ryan McMahon</t>
+  </si>
+  <si>
+    <t>Dansby Swanson</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Joe Kelly</t>
+  </si>
+  <si>
+    <t>Justin Bour</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,9 +1295,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Material Icons"/>
+      <sz val="10"/>
+      <color rgb="FF55595C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1617,19 +1642,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1985,21 +2005,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E334"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="D332" sqref="D332"/>
+      <selection activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2033,7 +2053,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2070,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2087,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +2104,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2101,7 +2121,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2118,7 +2138,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2135,7 +2155,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2152,7 +2172,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2169,7 +2189,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2186,7 +2206,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2223,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2220,7 +2240,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2237,7 +2257,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2254,7 +2274,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2271,7 +2291,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2288,7 +2308,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2305,7 +2325,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2322,7 +2342,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2339,7 +2359,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2356,7 +2376,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2373,7 +2393,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2390,7 +2410,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2407,7 +2427,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2424,7 +2444,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2441,7 +2461,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2458,7 +2478,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2475,7 +2495,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2492,7 +2512,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2509,7 +2529,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2526,7 +2546,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2543,7 +2563,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2560,7 +2580,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2577,7 +2597,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2594,7 +2614,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2611,7 +2631,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2628,7 +2648,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2645,7 +2665,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2662,7 +2682,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2679,7 +2699,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2696,7 +2716,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2713,7 +2733,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2730,7 +2750,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2747,7 +2767,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -2764,7 +2784,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -2781,7 +2801,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2798,7 +2818,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -2815,7 +2835,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -2832,7 +2852,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -2849,7 +2869,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -2866,7 +2886,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -2883,7 +2903,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -2900,7 +2920,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -2917,7 +2937,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -2934,7 +2954,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -2951,7 +2971,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -2968,7 +2988,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -2985,7 +3005,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -3002,7 +3022,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -3019,7 +3039,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -3036,7 +3056,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -3053,7 +3073,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3070,7 +3090,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -3087,7 +3107,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -3104,7 +3124,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -3121,7 +3141,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -3138,7 +3158,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -3155,7 +3175,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -3172,7 +3192,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -3189,7 +3209,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -3206,7 +3226,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -3223,7 +3243,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -3240,7 +3260,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -3257,7 +3277,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -3274,7 +3294,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -3291,7 +3311,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -3308,7 +3328,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -3325,7 +3345,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -3342,7 +3362,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -3359,7 +3379,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -3376,7 +3396,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3393,7 +3413,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -3410,7 +3430,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="24" customHeight="1">
+    <row r="84" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -3427,7 +3447,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -3444,7 +3464,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -3461,7 +3481,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -3478,7 +3498,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -3495,7 +3515,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -3512,7 +3532,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -3529,7 +3549,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -3546,7 +3566,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -3563,7 +3583,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -3580,7 +3600,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -3597,7 +3617,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -3614,7 +3634,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -3631,7 +3651,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -3648,7 +3668,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -3665,7 +3685,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -3682,7 +3702,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -3699,7 +3719,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -3716,7 +3736,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -3733,7 +3753,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -3750,7 +3770,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -3767,7 +3787,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -3784,7 +3804,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -3801,7 +3821,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -3818,7 +3838,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -3835,7 +3855,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -3852,7 +3872,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -3869,7 +3889,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -3886,7 +3906,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -3903,7 +3923,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -3920,7 +3940,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -3937,7 +3957,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -3954,7 +3974,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -3971,7 +3991,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3988,7 +4008,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -4005,7 +4025,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -4022,7 +4042,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -4039,7 +4059,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -4056,7 +4076,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -4073,7 +4093,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -4090,7 +4110,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -4107,7 +4127,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -4124,7 +4144,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -4141,7 +4161,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -4158,7 +4178,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -4175,7 +4195,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -4192,7 +4212,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -4209,7 +4229,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4226,7 +4246,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -4243,7 +4263,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4260,7 +4280,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4277,7 +4297,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -4294,7 +4314,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -4311,7 +4331,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>39</v>
       </c>
@@ -4328,7 +4348,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -4345,7 +4365,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -4362,7 +4382,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -4379,7 +4399,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -4396,7 +4416,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -4413,7 +4433,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -4430,7 +4450,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -4447,7 +4467,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -4464,7 +4484,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -4481,7 +4501,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -4498,7 +4518,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -4515,7 +4535,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -4532,7 +4552,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -4549,7 +4569,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -4566,7 +4586,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -4583,7 +4603,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -4600,7 +4620,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -4617,7 +4637,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -4634,7 +4654,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -4651,7 +4671,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -4668,7 +4688,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4685,7 +4705,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -4702,7 +4722,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>37</v>
       </c>
@@ -4719,7 +4739,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -4736,7 +4756,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -4753,7 +4773,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -4770,7 +4790,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -4787,7 +4807,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>37</v>
       </c>
@@ -4804,7 +4824,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -4821,7 +4841,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -4838,7 +4858,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -4855,7 +4875,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -4872,7 +4892,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -4889,7 +4909,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -4906,7 +4926,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>35</v>
       </c>
@@ -4923,7 +4943,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -4940,7 +4960,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>35</v>
       </c>
@@ -4957,7 +4977,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>35</v>
       </c>
@@ -4974,7 +4994,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>35</v>
       </c>
@@ -4991,7 +5011,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>35</v>
       </c>
@@ -5008,7 +5028,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -5025,7 +5045,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>35</v>
       </c>
@@ -5042,7 +5062,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -5059,7 +5079,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -5076,7 +5096,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -5093,7 +5113,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -5110,7 +5130,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -5127,7 +5147,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -5144,7 +5164,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -5161,7 +5181,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -5178,7 +5198,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5195,7 +5215,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -5212,7 +5232,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -5229,7 +5249,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -5246,7 +5266,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -5263,7 +5283,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -5280,7 +5300,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -5297,7 +5317,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5314,7 +5334,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -5331,7 +5351,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -5348,7 +5368,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -5365,7 +5385,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -5382,7 +5402,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -5399,7 +5419,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>84</v>
       </c>
@@ -5416,7 +5436,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -5433,7 +5453,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -5450,7 +5470,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -5467,7 +5487,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -5484,7 +5504,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -5501,7 +5521,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -5518,7 +5538,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -5535,7 +5555,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -5552,7 +5572,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -5569,7 +5589,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -5586,7 +5606,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -5603,7 +5623,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -5620,7 +5640,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -5637,7 +5657,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>45</v>
       </c>
@@ -5654,7 +5674,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -5671,7 +5691,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>41</v>
       </c>
@@ -5688,7 +5708,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -5705,7 +5725,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -5722,7 +5742,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -5739,7 +5759,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -5756,7 +5776,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -5773,7 +5793,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -5790,7 +5810,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>27</v>
       </c>
@@ -5807,7 +5827,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -5824,7 +5844,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -5841,7 +5861,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -5858,7 +5878,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -5875,7 +5895,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>84</v>
       </c>
@@ -5892,7 +5912,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5909,7 +5929,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -5926,7 +5946,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>84</v>
       </c>
@@ -5943,7 +5963,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -5960,7 +5980,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -5977,7 +5997,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>27</v>
       </c>
@@ -5994,7 +6014,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -6011,7 +6031,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>84</v>
       </c>
@@ -6028,7 +6048,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -6045,7 +6065,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -6062,7 +6082,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>41</v>
       </c>
@@ -6079,7 +6099,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -6096,7 +6116,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>27</v>
       </c>
@@ -6113,7 +6133,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -6130,7 +6150,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>27</v>
       </c>
@@ -6147,7 +6167,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>41</v>
       </c>
@@ -6164,7 +6184,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>41</v>
       </c>
@@ -6181,7 +6201,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>45</v>
       </c>
@@ -6198,7 +6218,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -6215,7 +6235,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -6232,7 +6252,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>45</v>
       </c>
@@ -6249,7 +6269,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>35</v>
       </c>
@@ -6266,7 +6286,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>35</v>
       </c>
@@ -6283,7 +6303,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>37</v>
       </c>
@@ -6300,7 +6320,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>26</v>
       </c>
@@ -6317,7 +6337,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>84</v>
       </c>
@@ -6334,7 +6354,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -6351,7 +6371,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -6368,7 +6388,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>37</v>
       </c>
@@ -6385,7 +6405,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>41</v>
       </c>
@@ -6402,7 +6422,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>84</v>
       </c>
@@ -6419,7 +6439,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>24</v>
       </c>
@@ -6436,7 +6456,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -6453,7 +6473,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -6470,7 +6490,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -6487,7 +6507,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -6504,7 +6524,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -6521,7 +6541,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>39</v>
       </c>
@@ -6538,7 +6558,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>37</v>
       </c>
@@ -6555,7 +6575,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -6572,7 +6592,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -6589,7 +6609,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>84</v>
       </c>
@@ -6606,7 +6626,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>41</v>
       </c>
@@ -6623,7 +6643,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>41</v>
       </c>
@@ -6640,7 +6660,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>22</v>
       </c>
@@ -6657,7 +6677,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>22</v>
       </c>
@@ -6674,7 +6694,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -6691,7 +6711,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>22</v>
       </c>
@@ -6708,7 +6728,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>22</v>
       </c>
@@ -6725,7 +6745,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -6742,7 +6762,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>84</v>
       </c>
@@ -6759,7 +6779,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -6776,7 +6796,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>39</v>
       </c>
@@ -6793,7 +6813,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>43</v>
       </c>
@@ -6810,7 +6830,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -6827,7 +6847,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>24</v>
       </c>
@@ -6844,7 +6864,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -6861,7 +6881,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -6878,7 +6898,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -6895,7 +6915,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>84</v>
       </c>
@@ -6912,7 +6932,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -6929,7 +6949,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>41</v>
       </c>
@@ -6946,7 +6966,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -6963,7 +6983,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>41</v>
       </c>
@@ -6980,7 +7000,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -6997,7 +7017,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>35</v>
       </c>
@@ -7014,7 +7034,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -7031,7 +7051,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>35</v>
       </c>
@@ -7048,7 +7068,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -7065,7 +7085,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -7082,7 +7102,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -7099,7 +7119,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -7116,7 +7136,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>45</v>
       </c>
@@ -7133,7 +7153,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -7150,7 +7170,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>24</v>
       </c>
@@ -7167,7 +7187,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -7184,7 +7204,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>84</v>
       </c>
@@ -7201,7 +7221,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>24</v>
       </c>
@@ -7218,7 +7238,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -7235,7 +7255,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>37</v>
       </c>
@@ -7252,7 +7272,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -7269,7 +7289,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -7286,7 +7306,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -7303,7 +7323,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -7320,7 +7340,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>27</v>
       </c>
@@ -7337,7 +7357,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -7354,7 +7374,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -7371,7 +7391,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -7388,7 +7408,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>22</v>
       </c>
@@ -7405,7 +7425,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>45</v>
       </c>
@@ -7422,7 +7442,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -7439,7 +7459,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -7456,7 +7476,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -7473,7 +7493,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>43</v>
       </c>
@@ -7490,7 +7510,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>39</v>
       </c>
@@ -7507,7 +7527,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>22</v>
       </c>
@@ -7524,7 +7544,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>26</v>
       </c>
@@ -7541,7 +7561,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -7558,7 +7578,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -7575,7 +7595,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>41</v>
       </c>
@@ -7592,7 +7612,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>19</v>
       </c>
@@ -7609,7 +7629,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>39</v>
       </c>
@@ -7626,7 +7646,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -7643,11 +7663,141 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
-      <c r="B333" s="4"/>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="B334" s="5"/>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>45</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C333" s="2">
+        <v>14</v>
+      </c>
+      <c r="D333" t="s">
+        <v>228</v>
+      </c>
+      <c r="E333" s="1">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>15</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C334" s="2">
+        <v>6</v>
+      </c>
+      <c r="D334" t="s">
+        <v>14</v>
+      </c>
+      <c r="E334" s="1">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>41</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C335" s="2">
+        <v>4</v>
+      </c>
+      <c r="D335" t="s">
+        <v>33</v>
+      </c>
+      <c r="E335" s="1">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>22</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C336" s="2">
+        <v>6</v>
+      </c>
+      <c r="D336" t="s">
+        <v>8</v>
+      </c>
+      <c r="E336" s="1">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>35</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C337" s="2">
+        <v>10</v>
+      </c>
+      <c r="D337" t="s">
+        <v>21</v>
+      </c>
+      <c r="E337" s="1">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>37</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C338" s="2">
+        <v>4</v>
+      </c>
+      <c r="D338" t="s">
+        <v>21</v>
+      </c>
+      <c r="E338" s="1">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>24</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C339" s="2">
+        <v>2</v>
+      </c>
+      <c r="D339" t="s">
+        <v>21</v>
+      </c>
+      <c r="E339" s="1">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>6</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C340" s="2">
+        <v>3</v>
+      </c>
+      <c r="D340" t="s">
+        <v>33</v>
+      </c>
+      <c r="E340" s="1">
+        <v>43495</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A261:E276">
@@ -7666,94 +7816,94 @@
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3E6655-04AA-458E-8EDE-C85AB3140E5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC6D7B4-FBE8-48B7-ACDF-04CD486D254D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="390">
   <si>
     <t>team</t>
   </si>
@@ -1150,6 +1150,54 @@
   </si>
   <si>
     <t>Justin Bour</t>
+  </si>
+  <si>
+    <t>Mychal Givens</t>
+  </si>
+  <si>
+    <t>Brandon Morrow</t>
+  </si>
+  <si>
+    <t>Shane Greene</t>
+  </si>
+  <si>
+    <t>Isiah Kiner-Falefa</t>
+  </si>
+  <si>
+    <t>Ketel Marte</t>
+  </si>
+  <si>
+    <t>John Hicks</t>
+  </si>
+  <si>
+    <t>Troy Tulowitzki</t>
+  </si>
+  <si>
+    <t>Lou Trivino</t>
+  </si>
+  <si>
+    <t>Delino DeShields</t>
+  </si>
+  <si>
+    <t>Tucker Barnhart</t>
+  </si>
+  <si>
+    <t>Kevin Kiermaier</t>
+  </si>
+  <si>
+    <t>Alex Wood</t>
+  </si>
+  <si>
+    <t>Kendrys Morales</t>
+  </si>
+  <si>
+    <t>Kole Calhoun</t>
+  </si>
+  <si>
+    <t>Justin Smoak</t>
+  </si>
+  <si>
+    <t>Hernan Perez</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1690,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1650,6 +1698,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2005,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:E356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="B341" sqref="B341"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="D356" sqref="D356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,7 +2302,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1">
         <v>43465</v>
@@ -7667,7 +7718,7 @@
       <c r="A333" t="s">
         <v>45</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="B333" s="3" t="s">
         <v>366</v>
       </c>
       <c r="C333" s="2">
@@ -7684,7 +7735,7 @@
       <c r="A334" t="s">
         <v>15</v>
       </c>
-      <c r="B334" s="4" t="s">
+      <c r="B334" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C334" s="2">
@@ -7701,7 +7752,7 @@
       <c r="A335" t="s">
         <v>41</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B335" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C335" s="2">
@@ -7718,7 +7769,7 @@
       <c r="A336" t="s">
         <v>22</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B336" s="3" t="s">
         <v>369</v>
       </c>
       <c r="C336" s="2">
@@ -7735,7 +7786,7 @@
       <c r="A337" t="s">
         <v>35</v>
       </c>
-      <c r="B337" s="4" t="s">
+      <c r="B337" s="3" t="s">
         <v>370</v>
       </c>
       <c r="C337" s="2">
@@ -7752,7 +7803,7 @@
       <c r="A338" t="s">
         <v>37</v>
       </c>
-      <c r="B338" s="4" t="s">
+      <c r="B338" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C338" s="2">
@@ -7769,7 +7820,7 @@
       <c r="A339" t="s">
         <v>24</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="B339" s="3" t="s">
         <v>372</v>
       </c>
       <c r="C339" s="2">
@@ -7786,7 +7837,7 @@
       <c r="A340" t="s">
         <v>6</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="B340" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C340" s="2">
@@ -7797,6 +7848,278 @@
       </c>
       <c r="E340" s="1">
         <v>43495</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>45</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C341" s="2">
+        <v>12</v>
+      </c>
+      <c r="D341" t="s">
+        <v>21</v>
+      </c>
+      <c r="E341" s="1">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>84</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C342" s="2">
+        <v>10</v>
+      </c>
+      <c r="D342" t="s">
+        <v>21</v>
+      </c>
+      <c r="E342" s="1">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>84</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C343" s="2">
+        <v>8</v>
+      </c>
+      <c r="D343" t="s">
+        <v>21</v>
+      </c>
+      <c r="E343" s="1">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>43</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C344" s="2">
+        <v>3</v>
+      </c>
+      <c r="D344" t="s">
+        <v>105</v>
+      </c>
+      <c r="E344" s="1">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>6</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C345" s="2">
+        <v>7</v>
+      </c>
+      <c r="D345" t="s">
+        <v>95</v>
+      </c>
+      <c r="E345" s="1">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>84</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C346" s="2">
+        <v>3</v>
+      </c>
+      <c r="D346" t="s">
+        <v>105</v>
+      </c>
+      <c r="E346" s="1">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>41</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C347" s="2">
+        <v>3</v>
+      </c>
+      <c r="D347" t="s">
+        <v>95</v>
+      </c>
+      <c r="E347" s="1">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>35</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C348" s="2">
+        <v>2</v>
+      </c>
+      <c r="D348" t="s">
+        <v>21</v>
+      </c>
+      <c r="E348" s="1">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>27</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C349" s="2">
+        <v>4</v>
+      </c>
+      <c r="D349" t="s">
+        <v>105</v>
+      </c>
+      <c r="E349" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>27</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C350" s="2">
+        <v>5</v>
+      </c>
+      <c r="D350" t="s">
+        <v>14</v>
+      </c>
+      <c r="E350" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>6</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C351" s="2">
+        <v>9</v>
+      </c>
+      <c r="D351" t="s">
+        <v>14</v>
+      </c>
+      <c r="E351" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>22</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C352" s="2">
+        <v>9</v>
+      </c>
+      <c r="D352" t="s">
+        <v>21</v>
+      </c>
+      <c r="E352" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>39</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C353" s="2">
+        <v>8</v>
+      </c>
+      <c r="D353" t="s">
+        <v>33</v>
+      </c>
+      <c r="E353" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>15</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C354" s="2">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>14</v>
+      </c>
+      <c r="E354" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>12</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C355" s="2">
+        <v>10</v>
+      </c>
+      <c r="D355" t="s">
+        <v>61</v>
+      </c>
+      <c r="E355" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>12</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C356" s="2">
+        <v>5</v>
+      </c>
+      <c r="D356" t="s">
+        <v>14</v>
+      </c>
+      <c r="E356" s="1">
+        <v>43497</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC6D7B4-FBE8-48B7-ACDF-04CD486D254D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DDF8A0-C5FA-491B-8D98-A37EFDD10B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="398">
   <si>
     <t>team</t>
   </si>
@@ -1198,6 +1198,30 @@
   </si>
   <si>
     <t>Hernan Perez</t>
+  </si>
+  <si>
+    <t>Caleb Ferguson</t>
+  </si>
+  <si>
+    <t>Jorge Soler</t>
+  </si>
+  <si>
+    <t>Francisco Cervelli</t>
+  </si>
+  <si>
+    <t>Chris Iannetta</t>
+  </si>
+  <si>
+    <t>Josh Bell</t>
+  </si>
+  <si>
+    <t>Dellin Betances</t>
+  </si>
+  <si>
+    <t>Omar Narvaez</t>
+  </si>
+  <si>
+    <t>Jeremy Jeffress</t>
   </si>
 </sst>
 </file>
@@ -2056,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E356"/>
+  <dimension ref="A1:E364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="D356" sqref="D356"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8120,6 +8144,142 @@
       </c>
       <c r="E356" s="1">
         <v>43497</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>17</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C357" s="2">
+        <v>2</v>
+      </c>
+      <c r="D357" t="s">
+        <v>21</v>
+      </c>
+      <c r="E357" s="1">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C358" s="2">
+        <v>5</v>
+      </c>
+      <c r="D358" t="s">
+        <v>14</v>
+      </c>
+      <c r="E358" s="1">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>12</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C359" s="2">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>105</v>
+      </c>
+      <c r="E359" s="1">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>24</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C360" s="2">
+        <v>3</v>
+      </c>
+      <c r="D360" t="s">
+        <v>105</v>
+      </c>
+      <c r="E360" s="1">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>6</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C361" s="2">
+        <v>8</v>
+      </c>
+      <c r="D361" t="s">
+        <v>228</v>
+      </c>
+      <c r="E361" s="1">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>39</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C362" s="2">
+        <v>9</v>
+      </c>
+      <c r="D362" t="s">
+        <v>21</v>
+      </c>
+      <c r="E362" s="1">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>45</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C363" s="2">
+        <v>6</v>
+      </c>
+      <c r="D363" t="s">
+        <v>105</v>
+      </c>
+      <c r="E363" s="1">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>84</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C364" s="2">
+        <v>5</v>
+      </c>
+      <c r="D364" t="s">
+        <v>21</v>
+      </c>
+      <c r="E364" s="1">
+        <v>43500</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DDF8A0-C5FA-491B-8D98-A37EFDD10B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B25425-197F-43D0-A1A4-A67A33D20C55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="414">
   <si>
     <t>team</t>
   </si>
@@ -1222,6 +1222,54 @@
   </si>
   <si>
     <t>Jeremy Jeffress</t>
+  </si>
+  <si>
+    <t>Dexter Fowler</t>
+  </si>
+  <si>
+    <t>Teoscar Hernandez</t>
+  </si>
+  <si>
+    <t>Robbie Erlin</t>
+  </si>
+  <si>
+    <t>Brandon Woodruff</t>
+  </si>
+  <si>
+    <t>Yoenis Cespedes</t>
+  </si>
+  <si>
+    <t>Mike Leake</t>
+  </si>
+  <si>
+    <t>Trevor May</t>
+  </si>
+  <si>
+    <t>Cheslor Cuthbert</t>
+  </si>
+  <si>
+    <t>Wily Peralta</t>
+  </si>
+  <si>
+    <t>Trevor Cahill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Báez </t>
+  </si>
+  <si>
+    <t>Tom Murphy</t>
+  </si>
+  <si>
+    <t>Mike Soroka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cam Bedrosian </t>
+  </si>
+  <si>
+    <t>Keon Broxton</t>
+  </si>
+  <si>
+    <t>Corbin Burnes</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1365,12 +1413,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF55595C"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1714,16 +1756,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2080,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E364"/>
+  <dimension ref="A1:E380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="D361" sqref="D361"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8014,7 +8052,7 @@
       <c r="A349" t="s">
         <v>27</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="B349" s="3" t="s">
         <v>383</v>
       </c>
       <c r="C349" s="2">
@@ -8031,7 +8069,7 @@
       <c r="A350" t="s">
         <v>27</v>
       </c>
-      <c r="B350" s="5" t="s">
+      <c r="B350" s="3" t="s">
         <v>382</v>
       </c>
       <c r="C350" s="2">
@@ -8048,7 +8086,7 @@
       <c r="A351" t="s">
         <v>6</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="B351" s="3" t="s">
         <v>384</v>
       </c>
       <c r="C351" s="2">
@@ -8065,7 +8103,7 @@
       <c r="A352" t="s">
         <v>22</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="B352" s="3" t="s">
         <v>385</v>
       </c>
       <c r="C352" s="2">
@@ -8082,7 +8120,7 @@
       <c r="A353" t="s">
         <v>39</v>
       </c>
-      <c r="B353" s="5" t="s">
+      <c r="B353" s="3" t="s">
         <v>386</v>
       </c>
       <c r="C353" s="2">
@@ -8099,7 +8137,7 @@
       <c r="A354" t="s">
         <v>15</v>
       </c>
-      <c r="B354" s="5" t="s">
+      <c r="B354" s="3" t="s">
         <v>387</v>
       </c>
       <c r="C354" s="2">
@@ -8116,7 +8154,7 @@
       <c r="A355" t="s">
         <v>12</v>
       </c>
-      <c r="B355" s="5" t="s">
+      <c r="B355" s="3" t="s">
         <v>388</v>
       </c>
       <c r="C355" s="2">
@@ -8133,7 +8171,7 @@
       <c r="A356" t="s">
         <v>12</v>
       </c>
-      <c r="B356" s="5" t="s">
+      <c r="B356" s="3" t="s">
         <v>389</v>
       </c>
       <c r="C356" s="2">
@@ -8150,7 +8188,7 @@
       <c r="A357" t="s">
         <v>17</v>
       </c>
-      <c r="B357" s="5" t="s">
+      <c r="B357" s="3" t="s">
         <v>390</v>
       </c>
       <c r="C357" s="2">
@@ -8167,7 +8205,7 @@
       <c r="A358" t="s">
         <v>6</v>
       </c>
-      <c r="B358" s="5" t="s">
+      <c r="B358" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C358" s="2">
@@ -8184,7 +8222,7 @@
       <c r="A359" t="s">
         <v>12</v>
       </c>
-      <c r="B359" s="5" t="s">
+      <c r="B359" s="3" t="s">
         <v>392</v>
       </c>
       <c r="C359" s="2">
@@ -8201,7 +8239,7 @@
       <c r="A360" t="s">
         <v>24</v>
       </c>
-      <c r="B360" s="5" t="s">
+      <c r="B360" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C360" s="2">
@@ -8218,7 +8256,7 @@
       <c r="A361" t="s">
         <v>6</v>
       </c>
-      <c r="B361" s="5" t="s">
+      <c r="B361" s="3" t="s">
         <v>394</v>
       </c>
       <c r="C361" s="2">
@@ -8235,7 +8273,7 @@
       <c r="A362" t="s">
         <v>39</v>
       </c>
-      <c r="B362" s="5" t="s">
+      <c r="B362" s="3" t="s">
         <v>395</v>
       </c>
       <c r="C362" s="2">
@@ -8252,7 +8290,7 @@
       <c r="A363" t="s">
         <v>45</v>
       </c>
-      <c r="B363" s="5" t="s">
+      <c r="B363" s="3" t="s">
         <v>396</v>
       </c>
       <c r="C363" s="2">
@@ -8269,7 +8307,7 @@
       <c r="A364" t="s">
         <v>84</v>
       </c>
-      <c r="B364" s="5" t="s">
+      <c r="B364" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C364" s="2">
@@ -8280,6 +8318,278 @@
       </c>
       <c r="E364" s="1">
         <v>43500</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>24</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C365" s="2">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>14</v>
+      </c>
+      <c r="E365" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>37</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C366" s="2">
+        <v>5</v>
+      </c>
+      <c r="D366" t="s">
+        <v>14</v>
+      </c>
+      <c r="E366" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>12</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C367" s="2">
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>21</v>
+      </c>
+      <c r="E367" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>43</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C368" s="2">
+        <v>6</v>
+      </c>
+      <c r="D368" t="s">
+        <v>21</v>
+      </c>
+      <c r="E368" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>19</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C369" s="2">
+        <v>2</v>
+      </c>
+      <c r="D369" t="s">
+        <v>14</v>
+      </c>
+      <c r="E369" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>24</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C370" s="2">
+        <v>2</v>
+      </c>
+      <c r="D370" t="s">
+        <v>21</v>
+      </c>
+      <c r="E370" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>15</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C371" s="2">
+        <v>6</v>
+      </c>
+      <c r="D371" t="s">
+        <v>21</v>
+      </c>
+      <c r="E371" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>22</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C372" s="2">
+        <v>1</v>
+      </c>
+      <c r="D372" t="s">
+        <v>33</v>
+      </c>
+      <c r="E372" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>84</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C373" s="2">
+        <v>6</v>
+      </c>
+      <c r="D373" t="s">
+        <v>21</v>
+      </c>
+      <c r="E373" s="1">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>43</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C374" s="2">
+        <v>2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>21</v>
+      </c>
+      <c r="E374" s="1">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C375" s="2">
+        <v>1</v>
+      </c>
+      <c r="D375" t="s">
+        <v>21</v>
+      </c>
+      <c r="E375" s="1">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>6</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C376" s="2">
+        <v>1</v>
+      </c>
+      <c r="D376" t="s">
+        <v>105</v>
+      </c>
+      <c r="E376" s="1">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>84</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C377" s="2">
+        <v>6</v>
+      </c>
+      <c r="D377" t="s">
+        <v>21</v>
+      </c>
+      <c r="E377" s="1">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>17</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C378" s="2">
+        <v>1</v>
+      </c>
+      <c r="D378" t="s">
+        <v>21</v>
+      </c>
+      <c r="E378" s="1">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>26</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C379" s="2">
+        <v>6</v>
+      </c>
+      <c r="D379" t="s">
+        <v>14</v>
+      </c>
+      <c r="E379" s="1">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>27</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C380" s="2">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
+        <v>21</v>
+      </c>
+      <c r="E380" s="1">
+        <v>43502</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B25425-197F-43D0-A1A4-A67A33D20C55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633B79AD-8F5F-4631-9172-323EB31316DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="422">
   <si>
     <t>team</t>
   </si>
@@ -1270,6 +1270,30 @@
   </si>
   <si>
     <t>Corbin Burnes</t>
+  </si>
+  <si>
+    <t>Kevin Pillar</t>
+  </si>
+  <si>
+    <t>Joey Wendle</t>
+  </si>
+  <si>
+    <t>Dustin Fowler</t>
+  </si>
+  <si>
+    <t>Jose Castillo</t>
+  </si>
+  <si>
+    <t>Matt Barnes</t>
+  </si>
+  <si>
+    <t>Steven Matz</t>
+  </si>
+  <si>
+    <t>Touki Toussaint</t>
+  </si>
+  <si>
+    <t>Mark Trumbo</t>
   </si>
 </sst>
 </file>
@@ -2118,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="D380" sqref="D380"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="J386" sqref="J386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8590,6 +8614,142 @@
       </c>
       <c r="E380" s="1">
         <v>43502</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>37</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C381" s="2">
+        <v>5</v>
+      </c>
+      <c r="D381" t="s">
+        <v>14</v>
+      </c>
+      <c r="E381" s="1">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>43</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C382" s="2">
+        <v>7</v>
+      </c>
+      <c r="D382" t="s">
+        <v>14</v>
+      </c>
+      <c r="E382" s="1">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>41</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C383" s="2">
+        <v>1</v>
+      </c>
+      <c r="D383" t="s">
+        <v>14</v>
+      </c>
+      <c r="E383" s="1">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>37</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C384" s="2">
+        <v>2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>21</v>
+      </c>
+      <c r="E384" s="1">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>15</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C385" s="2">
+        <v>6</v>
+      </c>
+      <c r="D385" t="s">
+        <v>21</v>
+      </c>
+      <c r="E385" s="1">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>43</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C386" s="2">
+        <v>4</v>
+      </c>
+      <c r="D386" t="s">
+        <v>21</v>
+      </c>
+      <c r="E386" s="1">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>37</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C387" s="2">
+        <v>3</v>
+      </c>
+      <c r="D387" t="s">
+        <v>21</v>
+      </c>
+      <c r="E387" s="1">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>22</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C388" s="2">
+        <v>6</v>
+      </c>
+      <c r="D388" t="s">
+        <v>14</v>
+      </c>
+      <c r="E388" s="1">
+        <v>43503</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633B79AD-8F5F-4631-9172-323EB31316DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C6E52-5920-4510-92EA-2A912CB4D5A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="445">
   <si>
     <t>team</t>
   </si>
@@ -1260,9 +1260,6 @@
     <t>Tom Murphy</t>
   </si>
   <si>
-    <t>Mike Soroka</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cam Bedrosian </t>
   </si>
   <si>
@@ -1294,6 +1291,78 @@
   </si>
   <si>
     <t>Mark Trumbo</t>
+  </si>
+  <si>
+    <t>Matt Adams</t>
+  </si>
+  <si>
+    <t>Brandon Belt</t>
+  </si>
+  <si>
+    <t>Wander Franco</t>
+  </si>
+  <si>
+    <t>Zack Cozart</t>
+  </si>
+  <si>
+    <t>Brent Honeywell</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Grayson Greiner</t>
+  </si>
+  <si>
+    <t>Hunter Strickland</t>
+  </si>
+  <si>
+    <t>Mark Reynolds</t>
+  </si>
+  <si>
+    <t>Matt Strahm</t>
+  </si>
+  <si>
+    <t>Richard Rodriguez</t>
+  </si>
+  <si>
+    <t>Reynaldo Lopez</t>
+  </si>
+  <si>
+    <t>Trevor Williams</t>
+  </si>
+  <si>
+    <t>Austin Barnes</t>
+  </si>
+  <si>
+    <t>Mitch Moreland</t>
+  </si>
+  <si>
+    <t>Yusniel Diaz</t>
+  </si>
+  <si>
+    <t>Alex Colome</t>
+  </si>
+  <si>
+    <t>Merrill Kelley</t>
+  </si>
+  <si>
+    <t>Daulton Varsho</t>
+  </si>
+  <si>
+    <t>Lewis Brinson</t>
+  </si>
+  <si>
+    <t>Brad Boxberger</t>
+  </si>
+  <si>
+    <t>Vince Velasquez</t>
+  </si>
+  <si>
+    <t>Jo Adell</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,6 +1506,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Material Icons"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1780,12 +1854,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2142,13 +2222,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E388"/>
+  <dimension ref="A1:E414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="J386" sqref="J386"/>
+    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="B377" sqref="B377"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -2156,7 +2236,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2173,7 +2253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2190,7 +2270,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2287,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +2304,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2241,7 +2321,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2258,7 +2338,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2275,7 +2355,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2292,7 +2372,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2309,7 +2389,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2326,7 +2406,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2343,7 +2423,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2360,7 +2440,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2377,7 +2457,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2394,7 +2474,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2411,7 +2491,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2428,7 +2508,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2445,7 +2525,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2462,7 +2542,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2479,7 +2559,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2496,7 +2576,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2513,7 +2593,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2530,7 +2610,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2547,7 +2627,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2564,7 +2644,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2581,7 +2661,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2598,7 +2678,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2615,7 +2695,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2632,7 +2712,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2649,7 +2729,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2666,7 +2746,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2683,7 +2763,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2700,7 +2780,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2717,7 +2797,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2734,7 +2814,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2751,7 +2831,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2768,7 +2848,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2785,7 +2865,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2802,7 +2882,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2819,7 +2899,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2836,7 +2916,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2853,7 +2933,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2870,7 +2950,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2887,7 +2967,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2904,7 +2984,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -2921,7 +3001,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -2938,7 +3018,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2955,7 +3035,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -2972,7 +3052,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -2989,7 +3069,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -3006,7 +3086,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -3023,7 +3103,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -3040,7 +3120,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -3057,7 +3137,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -3074,7 +3154,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -3091,7 +3171,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -3108,7 +3188,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -3125,7 +3205,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -3142,7 +3222,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -3159,7 +3239,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -3176,7 +3256,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -3193,7 +3273,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -3210,7 +3290,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3227,7 +3307,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -3244,7 +3324,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -3261,7 +3341,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -3278,7 +3358,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -3295,7 +3375,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -3312,7 +3392,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -3329,7 +3409,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -3346,7 +3426,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -3363,7 +3443,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -3380,7 +3460,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -3397,7 +3477,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -3414,7 +3494,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -3431,7 +3511,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -3448,7 +3528,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -3465,7 +3545,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -3482,7 +3562,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -3499,7 +3579,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -3516,7 +3596,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -3533,7 +3613,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3550,7 +3630,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -3567,7 +3647,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="24" customHeight="1">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -3584,7 +3664,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -3601,7 +3681,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -3618,7 +3698,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -3635,7 +3715,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -3652,7 +3732,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -3669,7 +3749,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -3686,7 +3766,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -3703,7 +3783,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -3720,7 +3800,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -3737,7 +3817,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -3754,7 +3834,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -3771,7 +3851,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -3788,7 +3868,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -3805,7 +3885,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -3822,7 +3902,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -3839,7 +3919,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -3856,7 +3936,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -3873,7 +3953,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -3890,7 +3970,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -3907,7 +3987,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -3924,7 +4004,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -3941,7 +4021,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -3958,7 +4038,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -3975,7 +4055,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -3992,7 +4072,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -4009,7 +4089,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -4026,7 +4106,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -4043,7 +4123,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -4060,7 +4140,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -4077,7 +4157,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -4094,7 +4174,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -4111,7 +4191,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -4128,7 +4208,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -4145,7 +4225,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -4162,7 +4242,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -4179,7 +4259,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -4196,7 +4276,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -4213,7 +4293,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -4230,7 +4310,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -4247,7 +4327,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -4264,7 +4344,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +4361,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -4298,7 +4378,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -4315,7 +4395,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -4332,7 +4412,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -4349,7 +4429,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -4366,7 +4446,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4383,7 +4463,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -4400,7 +4480,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4417,7 +4497,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4434,7 +4514,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -4451,7 +4531,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -4468,7 +4548,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>39</v>
       </c>
@@ -4485,7 +4565,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -4502,7 +4582,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -4519,7 +4599,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -4536,7 +4616,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -4553,7 +4633,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -4570,7 +4650,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -4587,7 +4667,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -4604,7 +4684,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -4621,7 +4701,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -4638,7 +4718,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -4655,7 +4735,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -4672,7 +4752,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -4689,7 +4769,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -4706,7 +4786,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -4723,7 +4803,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -4740,7 +4820,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -4757,7 +4837,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -4774,7 +4854,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -4791,7 +4871,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -4808,7 +4888,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -4825,7 +4905,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4842,7 +4922,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -4859,7 +4939,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>37</v>
       </c>
@@ -4876,7 +4956,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -4893,7 +4973,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -4910,7 +4990,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -4927,7 +5007,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -4944,7 +5024,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>37</v>
       </c>
@@ -4961,7 +5041,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -4978,7 +5058,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -4995,7 +5075,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -5012,7 +5092,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -5029,7 +5109,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -5046,7 +5126,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -5063,7 +5143,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>35</v>
       </c>
@@ -5080,7 +5160,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -5097,7 +5177,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>35</v>
       </c>
@@ -5114,7 +5194,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>35</v>
       </c>
@@ -5131,7 +5211,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>35</v>
       </c>
@@ -5148,7 +5228,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>35</v>
       </c>
@@ -5165,7 +5245,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -5182,7 +5262,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>35</v>
       </c>
@@ -5199,7 +5279,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -5216,7 +5296,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -5233,7 +5313,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -5250,7 +5330,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -5267,7 +5347,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -5284,7 +5364,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -5301,7 +5381,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -5318,7 +5398,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -5335,7 +5415,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5352,7 +5432,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -5369,7 +5449,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -5386,7 +5466,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -5403,7 +5483,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -5420,7 +5500,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -5437,7 +5517,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -5454,7 +5534,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5471,7 +5551,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -5488,7 +5568,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -5505,7 +5585,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -5522,7 +5602,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -5539,7 +5619,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -5556,7 +5636,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>84</v>
       </c>
@@ -5573,7 +5653,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -5590,7 +5670,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -5607,7 +5687,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -5624,7 +5704,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -5641,7 +5721,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -5658,7 +5738,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -5675,7 +5755,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -5692,7 +5772,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -5709,7 +5789,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -5726,7 +5806,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -5743,7 +5823,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -5760,7 +5840,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -5777,7 +5857,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -5794,7 +5874,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>45</v>
       </c>
@@ -5811,7 +5891,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -5828,7 +5908,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>41</v>
       </c>
@@ -5845,7 +5925,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -5862,7 +5942,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -5879,7 +5959,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -5896,7 +5976,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -5913,7 +5993,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -5930,7 +6010,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -5947,7 +6027,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>27</v>
       </c>
@@ -5964,7 +6044,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -5981,7 +6061,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -5998,7 +6078,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -6015,7 +6095,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -6032,7 +6112,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>84</v>
       </c>
@@ -6049,7 +6129,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -6066,7 +6146,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -6083,7 +6163,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>84</v>
       </c>
@@ -6100,7 +6180,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -6117,7 +6197,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -6134,7 +6214,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>27</v>
       </c>
@@ -6151,7 +6231,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -6168,7 +6248,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>84</v>
       </c>
@@ -6185,7 +6265,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -6202,7 +6282,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -6219,7 +6299,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>41</v>
       </c>
@@ -6236,7 +6316,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -6253,7 +6333,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>27</v>
       </c>
@@ -6270,7 +6350,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -6287,7 +6367,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>27</v>
       </c>
@@ -6304,7 +6384,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>41</v>
       </c>
@@ -6321,7 +6401,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>41</v>
       </c>
@@ -6338,7 +6418,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>45</v>
       </c>
@@ -6355,7 +6435,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -6372,7 +6452,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -6389,7 +6469,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>45</v>
       </c>
@@ -6406,7 +6486,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>35</v>
       </c>
@@ -6423,7 +6503,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>35</v>
       </c>
@@ -6440,7 +6520,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>37</v>
       </c>
@@ -6457,7 +6537,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>26</v>
       </c>
@@ -6474,7 +6554,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>84</v>
       </c>
@@ -6491,7 +6571,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -6508,7 +6588,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -6525,7 +6605,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>37</v>
       </c>
@@ -6542,7 +6622,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>41</v>
       </c>
@@ -6559,7 +6639,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>84</v>
       </c>
@@ -6576,7 +6656,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>24</v>
       </c>
@@ -6593,7 +6673,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -6610,7 +6690,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -6627,7 +6707,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -6644,7 +6724,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -6661,7 +6741,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -6678,7 +6758,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>39</v>
       </c>
@@ -6695,7 +6775,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>37</v>
       </c>
@@ -6712,7 +6792,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -6729,7 +6809,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -6746,7 +6826,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>84</v>
       </c>
@@ -6763,7 +6843,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>41</v>
       </c>
@@ -6780,7 +6860,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>41</v>
       </c>
@@ -6797,7 +6877,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>22</v>
       </c>
@@ -6814,7 +6894,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>22</v>
       </c>
@@ -6831,7 +6911,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -6848,7 +6928,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>22</v>
       </c>
@@ -6865,7 +6945,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>22</v>
       </c>
@@ -6882,7 +6962,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -6899,7 +6979,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>84</v>
       </c>
@@ -6916,7 +6996,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -6933,7 +7013,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>39</v>
       </c>
@@ -6950,7 +7030,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>43</v>
       </c>
@@ -6967,7 +7047,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -6984,7 +7064,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>24</v>
       </c>
@@ -7001,7 +7081,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -7018,7 +7098,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -7035,7 +7115,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -7052,7 +7132,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>84</v>
       </c>
@@ -7069,7 +7149,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -7086,7 +7166,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>41</v>
       </c>
@@ -7103,7 +7183,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -7120,7 +7200,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>41</v>
       </c>
@@ -7137,7 +7217,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -7154,7 +7234,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>35</v>
       </c>
@@ -7171,7 +7251,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -7188,7 +7268,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>35</v>
       </c>
@@ -7205,7 +7285,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -7222,7 +7302,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -7239,7 +7319,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -7256,7 +7336,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -7273,7 +7353,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>45</v>
       </c>
@@ -7290,7 +7370,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -7307,7 +7387,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>24</v>
       </c>
@@ -7324,7 +7404,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -7341,7 +7421,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>84</v>
       </c>
@@ -7358,7 +7438,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>24</v>
       </c>
@@ -7375,7 +7455,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -7392,7 +7472,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>37</v>
       </c>
@@ -7409,7 +7489,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -7426,7 +7506,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -7443,7 +7523,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -7460,7 +7540,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -7477,7 +7557,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>27</v>
       </c>
@@ -7494,7 +7574,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -7511,7 +7591,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -7528,7 +7608,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -7545,7 +7625,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>22</v>
       </c>
@@ -7562,7 +7642,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>45</v>
       </c>
@@ -7579,7 +7659,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -7596,7 +7676,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -7613,7 +7693,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -7630,7 +7710,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>43</v>
       </c>
@@ -7647,7 +7727,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>39</v>
       </c>
@@ -7664,7 +7744,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>22</v>
       </c>
@@ -7681,7 +7761,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>26</v>
       </c>
@@ -7698,7 +7778,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -7715,7 +7795,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -7732,7 +7812,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>41</v>
       </c>
@@ -7749,7 +7829,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>19</v>
       </c>
@@ -7766,7 +7846,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>39</v>
       </c>
@@ -7783,7 +7863,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -7800,7 +7880,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>45</v>
       </c>
@@ -7817,7 +7897,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -7834,7 +7914,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>41</v>
       </c>
@@ -7851,7 +7931,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>22</v>
       </c>
@@ -7868,7 +7948,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>35</v>
       </c>
@@ -7885,7 +7965,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>37</v>
       </c>
@@ -7902,7 +7982,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>24</v>
       </c>
@@ -7919,7 +7999,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>6</v>
       </c>
@@ -7936,7 +8016,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>45</v>
       </c>
@@ -7953,7 +8033,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>84</v>
       </c>
@@ -7970,7 +8050,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>84</v>
       </c>
@@ -7987,7 +8067,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>43</v>
       </c>
@@ -8004,7 +8084,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>6</v>
       </c>
@@ -8021,7 +8101,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>84</v>
       </c>
@@ -8038,7 +8118,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -8055,7 +8135,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>35</v>
       </c>
@@ -8072,7 +8152,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>27</v>
       </c>
@@ -8089,7 +8169,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>27</v>
       </c>
@@ -8106,7 +8186,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -8123,7 +8203,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" t="s">
         <v>22</v>
       </c>
@@ -8140,7 +8220,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" t="s">
         <v>39</v>
       </c>
@@ -8157,7 +8237,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" t="s">
         <v>15</v>
       </c>
@@ -8174,7 +8254,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -8191,7 +8271,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -8208,7 +8288,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" t="s">
         <v>17</v>
       </c>
@@ -8225,7 +8305,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>6</v>
       </c>
@@ -8242,7 +8322,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" t="s">
         <v>12</v>
       </c>
@@ -8259,7 +8339,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" t="s">
         <v>24</v>
       </c>
@@ -8276,7 +8356,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" t="s">
         <v>6</v>
       </c>
@@ -8293,7 +8373,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" t="s">
         <v>39</v>
       </c>
@@ -8310,7 +8390,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" t="s">
         <v>45</v>
       </c>
@@ -8327,7 +8407,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" t="s">
         <v>84</v>
       </c>
@@ -8344,7 +8424,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" t="s">
         <v>24</v>
       </c>
@@ -8361,7 +8441,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" t="s">
         <v>37</v>
       </c>
@@ -8378,7 +8458,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -8395,7 +8475,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" t="s">
         <v>43</v>
       </c>
@@ -8412,7 +8492,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" t="s">
         <v>19</v>
       </c>
@@ -8429,7 +8509,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" t="s">
         <v>24</v>
       </c>
@@ -8446,7 +8526,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" t="s">
         <v>15</v>
       </c>
@@ -8463,7 +8543,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" t="s">
         <v>22</v>
       </c>
@@ -8480,7 +8560,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" t="s">
         <v>84</v>
       </c>
@@ -8497,7 +8577,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" t="s">
         <v>43</v>
       </c>
@@ -8514,7 +8594,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -8531,7 +8611,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" t="s">
         <v>6</v>
       </c>
@@ -8548,12 +8628,12 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" t="s">
         <v>84</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="C377" s="2">
         <v>6</v>
@@ -8565,12 +8645,12 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" t="s">
         <v>17</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C378" s="2">
         <v>1</v>
@@ -8582,12 +8662,12 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" t="s">
         <v>26</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C379" s="2">
         <v>6</v>
@@ -8599,12 +8679,12 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" t="s">
         <v>27</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C380" s="2">
         <v>6</v>
@@ -8616,12 +8696,12 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" t="s">
         <v>37</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C381" s="2">
         <v>5</v>
@@ -8633,12 +8713,12 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" t="s">
         <v>43</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C382" s="2">
         <v>7</v>
@@ -8650,12 +8730,12 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" t="s">
         <v>41</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C383" s="2">
         <v>1</v>
@@ -8667,12 +8747,12 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" t="s">
         <v>37</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C384" s="2">
         <v>2</v>
@@ -8684,12 +8764,12 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" t="s">
         <v>15</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C385" s="2">
         <v>6</v>
@@ -8701,12 +8781,12 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" t="s">
         <v>43</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C386" s="2">
         <v>4</v>
@@ -8718,12 +8798,12 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" t="s">
         <v>37</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C387" s="2">
         <v>3</v>
@@ -8735,12 +8815,12 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" t="s">
         <v>22</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C388" s="2">
         <v>6</v>
@@ -8751,6 +8831,420 @@
       <c r="E388" s="1">
         <v>43503</v>
       </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>17</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C389" s="2">
+        <v>4</v>
+      </c>
+      <c r="D389" t="s">
+        <v>228</v>
+      </c>
+      <c r="E389" s="1">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>45</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C390" s="2">
+        <v>5</v>
+      </c>
+      <c r="D390" t="s">
+        <v>61</v>
+      </c>
+      <c r="E390" s="1">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>37</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C391" s="2">
+        <v>9</v>
+      </c>
+      <c r="D391" t="s">
+        <v>228</v>
+      </c>
+      <c r="E391" s="1">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>5</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C392" s="2">
+        <v>4</v>
+      </c>
+      <c r="D392" t="s">
+        <v>29</v>
+      </c>
+      <c r="E392" s="1">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C393" s="2">
+        <v>6</v>
+      </c>
+      <c r="D393" t="s">
+        <v>21</v>
+      </c>
+      <c r="E393" s="1">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>35</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C394" s="2">
+        <v>6</v>
+      </c>
+      <c r="D394" t="s">
+        <v>21</v>
+      </c>
+      <c r="E394" s="1">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>17</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C395" s="2">
+        <v>1</v>
+      </c>
+      <c r="D395" t="s">
+        <v>105</v>
+      </c>
+      <c r="E395" s="1">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>12</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C396" s="2">
+        <v>4</v>
+      </c>
+      <c r="D396" t="s">
+        <v>21</v>
+      </c>
+      <c r="E396" s="1">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>37</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C397" s="2">
+        <v>6</v>
+      </c>
+      <c r="D397" t="s">
+        <v>14</v>
+      </c>
+      <c r="E397" s="1">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C398" s="2">
+        <v>3</v>
+      </c>
+      <c r="D398" t="s">
+        <v>105</v>
+      </c>
+      <c r="E398" s="1">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>41</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C399" s="2">
+        <v>1</v>
+      </c>
+      <c r="D399" t="s">
+        <v>228</v>
+      </c>
+      <c r="E399" s="1">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>35</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C400" s="2">
+        <v>5</v>
+      </c>
+      <c r="D400" t="s">
+        <v>21</v>
+      </c>
+      <c r="E400" s="1">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>19</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C401" s="2">
+        <v>2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>21</v>
+      </c>
+      <c r="E401" s="1">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>26</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C402" s="2">
+        <v>5</v>
+      </c>
+      <c r="D402" t="s">
+        <v>21</v>
+      </c>
+      <c r="E402" s="1">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>35</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C403" s="2">
+        <v>3</v>
+      </c>
+      <c r="D403" t="s">
+        <v>21</v>
+      </c>
+      <c r="E403" s="1">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>15</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C404" s="2">
+        <v>1</v>
+      </c>
+      <c r="D404" t="s">
+        <v>105</v>
+      </c>
+      <c r="E404" s="1">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>24</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C405" s="2">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>61</v>
+      </c>
+      <c r="E405" s="1">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>22</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C406" s="2">
+        <v>2</v>
+      </c>
+      <c r="D406" t="s">
+        <v>14</v>
+      </c>
+      <c r="E406" s="1">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C407" s="2">
+        <v>5</v>
+      </c>
+      <c r="D407" t="s">
+        <v>21</v>
+      </c>
+      <c r="E407" s="1">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>39</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C408" s="2">
+        <v>3</v>
+      </c>
+      <c r="D408" t="s">
+        <v>21</v>
+      </c>
+      <c r="E408" s="1">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>35</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C409" s="2">
+        <v>2</v>
+      </c>
+      <c r="D409" t="s">
+        <v>105</v>
+      </c>
+      <c r="E409" s="1">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>19</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C410" s="2">
+        <v>2</v>
+      </c>
+      <c r="D410" t="s">
+        <v>14</v>
+      </c>
+      <c r="E410" s="1">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>45</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C411" s="2">
+        <v>3</v>
+      </c>
+      <c r="D411" t="s">
+        <v>21</v>
+      </c>
+      <c r="E411" s="1">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>45</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C412" s="2">
+        <v>4</v>
+      </c>
+      <c r="D412" t="s">
+        <v>21</v>
+      </c>
+      <c r="E412" s="1">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="B413" s="4"/>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="B414" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A261:E276">
@@ -8769,94 +9263,94 @@
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>45</v>
       </c>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C6E52-5920-4510-92EA-2A912CB4D5A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEDBDC5-019A-4F5E-9668-435394DD485D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="453">
   <si>
     <t>team</t>
   </si>
@@ -1344,9 +1344,6 @@
     <t>Alex Colome</t>
   </si>
   <si>
-    <t>Merrill Kelley</t>
-  </si>
-  <si>
     <t>Daulton Varsho</t>
   </si>
   <si>
@@ -1363,6 +1360,33 @@
   </si>
   <si>
     <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Ronald Guzman</t>
+  </si>
+  <si>
+    <t>Hector Rondon</t>
+  </si>
+  <si>
+    <t>Leonys Martin</t>
+  </si>
+  <si>
+    <t>Jose Urena</t>
+  </si>
+  <si>
+    <t>Ryan O'Hearn</t>
+  </si>
+  <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
+    <t>Steven Souza Jr.</t>
+  </si>
+  <si>
+    <t>Josh Reddick</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1506,11 +1530,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Material Icons"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1854,18 +1873,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2222,13 +2235,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E414"/>
+  <dimension ref="A1:E420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="B377" sqref="B377"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="B409" sqref="B409"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -2236,7 +2249,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2270,7 +2283,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2287,7 +2300,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2304,7 +2317,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2321,7 +2334,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2338,7 +2351,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2355,7 +2368,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2389,7 +2402,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2406,7 +2419,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2423,7 +2436,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2440,7 +2453,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2457,7 +2470,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2474,7 +2487,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2491,7 +2504,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2508,7 +2521,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2542,7 +2555,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2559,7 +2572,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2576,7 +2589,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2593,7 +2606,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2627,7 +2640,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2644,7 +2657,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2661,7 +2674,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2678,7 +2691,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2695,7 +2708,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2712,7 +2725,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2729,7 +2742,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2746,7 +2759,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2763,7 +2776,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2780,7 +2793,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2797,7 +2810,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2814,7 +2827,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2831,7 +2844,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2848,7 +2861,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2865,7 +2878,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2882,7 +2895,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2899,7 +2912,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2916,7 +2929,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2933,7 +2946,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2950,7 +2963,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2967,7 +2980,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2984,7 +2997,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -3001,7 +3014,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -3018,7 +3031,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -3035,7 +3048,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -3052,7 +3065,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -3069,7 +3082,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -3086,7 +3099,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -3103,7 +3116,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -3120,7 +3133,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -3137,7 +3150,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -3154,7 +3167,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -3171,7 +3184,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -3188,7 +3201,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -3205,7 +3218,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -3222,7 +3235,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -3239,7 +3252,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -3256,7 +3269,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -3273,7 +3286,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -3290,7 +3303,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3307,7 +3320,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -3324,7 +3337,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -3341,7 +3354,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -3358,7 +3371,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -3375,7 +3388,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -3392,7 +3405,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -3409,7 +3422,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -3426,7 +3439,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -3443,7 +3456,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -3460,7 +3473,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -3477,7 +3490,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -3494,7 +3507,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -3511,7 +3524,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -3528,7 +3541,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -3545,7 +3558,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -3562,7 +3575,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -3579,7 +3592,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -3596,7 +3609,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -3613,7 +3626,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3630,7 +3643,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -3647,7 +3660,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="24" customHeight="1">
+    <row r="84" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -3664,7 +3677,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -3681,7 +3694,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -3698,7 +3711,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -3715,7 +3728,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -3732,7 +3745,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -3749,7 +3762,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -3766,7 +3779,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -3783,7 +3796,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -3800,7 +3813,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -3817,7 +3830,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -3834,7 +3847,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -3851,7 +3864,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -3868,7 +3881,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -3885,7 +3898,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -3902,7 +3915,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -3919,7 +3932,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -3936,7 +3949,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -3953,7 +3966,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -3970,7 +3983,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -3987,7 +4000,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -4004,7 +4017,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -4021,7 +4034,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -4038,7 +4051,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -4055,7 +4068,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -4072,7 +4085,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -4089,7 +4102,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -4106,7 +4119,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -4123,7 +4136,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -4140,7 +4153,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -4157,7 +4170,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -4174,7 +4187,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -4191,7 +4204,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -4208,7 +4221,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -4225,7 +4238,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -4242,7 +4255,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -4259,7 +4272,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -4276,7 +4289,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -4293,7 +4306,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -4310,7 +4323,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -4327,7 +4340,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -4344,7 +4357,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -4361,7 +4374,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -4378,7 +4391,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -4395,7 +4408,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -4412,7 +4425,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -4429,7 +4442,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -4446,7 +4459,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4463,7 +4476,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -4480,7 +4493,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4497,7 +4510,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4514,7 +4527,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -4531,7 +4544,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -4548,7 +4561,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>39</v>
       </c>
@@ -4565,7 +4578,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -4599,7 +4612,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -4616,7 +4629,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -4633,7 +4646,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -4650,7 +4663,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -4667,7 +4680,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -4684,7 +4697,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -4701,7 +4714,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -4718,7 +4731,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -4735,7 +4748,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -4752,7 +4765,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -4769,7 +4782,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -4786,7 +4799,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -4803,7 +4816,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -4820,7 +4833,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -4837,7 +4850,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -4854,7 +4867,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -4871,7 +4884,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -4888,7 +4901,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -4905,7 +4918,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4922,7 +4935,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -4939,7 +4952,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>37</v>
       </c>
@@ -4956,7 +4969,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -4973,7 +4986,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -4990,7 +5003,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -5007,7 +5020,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -5024,7 +5037,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>37</v>
       </c>
@@ -5041,7 +5054,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -5058,7 +5071,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -5075,7 +5088,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -5092,7 +5105,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -5109,7 +5122,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -5126,7 +5139,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -5143,7 +5156,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>35</v>
       </c>
@@ -5160,7 +5173,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -5177,7 +5190,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>35</v>
       </c>
@@ -5194,7 +5207,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>35</v>
       </c>
@@ -5211,7 +5224,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>35</v>
       </c>
@@ -5228,7 +5241,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>35</v>
       </c>
@@ -5245,7 +5258,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -5262,7 +5275,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>35</v>
       </c>
@@ -5279,7 +5292,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -5296,7 +5309,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -5313,7 +5326,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -5330,7 +5343,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -5347,7 +5360,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -5364,7 +5377,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -5381,7 +5394,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -5398,7 +5411,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -5415,7 +5428,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5432,7 +5445,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -5449,7 +5462,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -5466,7 +5479,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -5483,7 +5496,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -5500,7 +5513,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -5517,7 +5530,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -5534,7 +5547,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5551,7 +5564,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -5568,7 +5581,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -5585,7 +5598,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -5602,7 +5615,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -5619,7 +5632,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -5636,7 +5649,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>84</v>
       </c>
@@ -5653,7 +5666,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -5670,7 +5683,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -5687,7 +5700,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -5704,7 +5717,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -5721,7 +5734,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -5738,7 +5751,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -5755,7 +5768,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -5772,7 +5785,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -5789,7 +5802,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -5806,7 +5819,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -5823,7 +5836,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -5840,7 +5853,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -5857,7 +5870,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -5874,7 +5887,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>45</v>
       </c>
@@ -5891,7 +5904,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -5908,7 +5921,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>41</v>
       </c>
@@ -5925,7 +5938,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -5942,7 +5955,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -5959,7 +5972,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -5976,7 +5989,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -5993,7 +6006,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -6010,7 +6023,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -6027,7 +6040,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>27</v>
       </c>
@@ -6044,7 +6057,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -6061,7 +6074,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -6078,7 +6091,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -6095,7 +6108,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -6112,7 +6125,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>84</v>
       </c>
@@ -6129,7 +6142,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -6146,7 +6159,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -6163,7 +6176,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>84</v>
       </c>
@@ -6180,7 +6193,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -6197,7 +6210,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -6214,7 +6227,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>27</v>
       </c>
@@ -6231,7 +6244,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -6248,7 +6261,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>84</v>
       </c>
@@ -6265,7 +6278,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -6282,7 +6295,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -6299,7 +6312,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>41</v>
       </c>
@@ -6316,7 +6329,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -6333,7 +6346,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>27</v>
       </c>
@@ -6350,7 +6363,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -6367,7 +6380,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>27</v>
       </c>
@@ -6384,7 +6397,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>41</v>
       </c>
@@ -6401,7 +6414,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>41</v>
       </c>
@@ -6418,7 +6431,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>45</v>
       </c>
@@ -6435,7 +6448,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -6452,7 +6465,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -6469,7 +6482,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>45</v>
       </c>
@@ -6486,7 +6499,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>35</v>
       </c>
@@ -6503,7 +6516,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>35</v>
       </c>
@@ -6520,7 +6533,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>37</v>
       </c>
@@ -6537,7 +6550,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>26</v>
       </c>
@@ -6554,7 +6567,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>84</v>
       </c>
@@ -6571,7 +6584,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -6588,7 +6601,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -6605,7 +6618,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>37</v>
       </c>
@@ -6622,7 +6635,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>41</v>
       </c>
@@ -6639,7 +6652,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>84</v>
       </c>
@@ -6656,7 +6669,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>24</v>
       </c>
@@ -6673,7 +6686,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -6690,7 +6703,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -6707,7 +6720,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -6724,7 +6737,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -6741,7 +6754,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -6758,7 +6771,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>39</v>
       </c>
@@ -6775,7 +6788,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>37</v>
       </c>
@@ -6792,7 +6805,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -6809,7 +6822,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -6826,7 +6839,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>84</v>
       </c>
@@ -6843,7 +6856,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>41</v>
       </c>
@@ -6860,7 +6873,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>41</v>
       </c>
@@ -6877,7 +6890,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>22</v>
       </c>
@@ -6894,7 +6907,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>22</v>
       </c>
@@ -6911,7 +6924,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -6928,7 +6941,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>22</v>
       </c>
@@ -6945,7 +6958,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>22</v>
       </c>
@@ -6962,7 +6975,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -6979,7 +6992,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>84</v>
       </c>
@@ -6996,7 +7009,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -7013,7 +7026,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>39</v>
       </c>
@@ -7030,7 +7043,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>43</v>
       </c>
@@ -7047,7 +7060,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -7064,7 +7077,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>24</v>
       </c>
@@ -7081,7 +7094,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -7098,7 +7111,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -7115,7 +7128,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -7132,7 +7145,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>84</v>
       </c>
@@ -7149,7 +7162,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -7166,7 +7179,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>41</v>
       </c>
@@ -7183,7 +7196,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -7200,7 +7213,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>41</v>
       </c>
@@ -7217,7 +7230,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -7234,7 +7247,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>35</v>
       </c>
@@ -7251,7 +7264,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -7268,7 +7281,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>35</v>
       </c>
@@ -7285,7 +7298,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -7302,7 +7315,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -7319,7 +7332,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -7336,7 +7349,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -7353,7 +7366,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>45</v>
       </c>
@@ -7370,7 +7383,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -7387,7 +7400,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>24</v>
       </c>
@@ -7404,7 +7417,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -7421,7 +7434,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>84</v>
       </c>
@@ -7438,7 +7451,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>24</v>
       </c>
@@ -7455,7 +7468,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -7472,7 +7485,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>37</v>
       </c>
@@ -7489,7 +7502,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -7506,7 +7519,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -7523,7 +7536,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -7540,7 +7553,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -7557,7 +7570,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>27</v>
       </c>
@@ -7574,7 +7587,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -7591,7 +7604,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -7608,7 +7621,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -7625,7 +7638,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>22</v>
       </c>
@@ -7642,7 +7655,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>45</v>
       </c>
@@ -7659,7 +7672,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -7676,7 +7689,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -7693,7 +7706,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -7710,7 +7723,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>43</v>
       </c>
@@ -7727,7 +7740,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>39</v>
       </c>
@@ -7744,7 +7757,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>22</v>
       </c>
@@ -7761,7 +7774,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>26</v>
       </c>
@@ -7778,7 +7791,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -7795,7 +7808,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -7812,7 +7825,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>41</v>
       </c>
@@ -7829,7 +7842,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>19</v>
       </c>
@@ -7846,7 +7859,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>39</v>
       </c>
@@ -7863,7 +7876,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -7880,7 +7893,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>45</v>
       </c>
@@ -7897,7 +7910,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -7914,7 +7927,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>41</v>
       </c>
@@ -7931,7 +7944,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>22</v>
       </c>
@@ -7948,7 +7961,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>35</v>
       </c>
@@ -7965,7 +7978,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>37</v>
       </c>
@@ -7982,7 +7995,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>24</v>
       </c>
@@ -7999,7 +8012,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>6</v>
       </c>
@@ -8016,7 +8029,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>45</v>
       </c>
@@ -8033,7 +8046,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>84</v>
       </c>
@@ -8050,7 +8063,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>84</v>
       </c>
@@ -8067,7 +8080,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>43</v>
       </c>
@@ -8084,7 +8097,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>6</v>
       </c>
@@ -8101,7 +8114,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>84</v>
       </c>
@@ -8118,7 +8131,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -8135,7 +8148,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>35</v>
       </c>
@@ -8152,7 +8165,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>27</v>
       </c>
@@ -8169,7 +8182,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>27</v>
       </c>
@@ -8186,7 +8199,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -8203,7 +8216,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>22</v>
       </c>
@@ -8220,7 +8233,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>39</v>
       </c>
@@ -8237,7 +8250,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>15</v>
       </c>
@@ -8254,7 +8267,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -8271,7 +8284,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -8288,7 +8301,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>17</v>
       </c>
@@ -8305,7 +8318,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>6</v>
       </c>
@@ -8322,7 +8335,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>12</v>
       </c>
@@ -8339,7 +8352,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>24</v>
       </c>
@@ -8356,7 +8369,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>6</v>
       </c>
@@ -8373,7 +8386,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>39</v>
       </c>
@@ -8390,7 +8403,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>45</v>
       </c>
@@ -8407,7 +8420,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>84</v>
       </c>
@@ -8424,7 +8437,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>24</v>
       </c>
@@ -8441,7 +8454,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>37</v>
       </c>
@@ -8458,7 +8471,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -8475,7 +8488,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>43</v>
       </c>
@@ -8492,7 +8505,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>19</v>
       </c>
@@ -8509,7 +8522,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>24</v>
       </c>
@@ -8526,7 +8539,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>15</v>
       </c>
@@ -8543,7 +8556,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>22</v>
       </c>
@@ -8560,7 +8573,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>84</v>
       </c>
@@ -8577,7 +8590,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>43</v>
       </c>
@@ -8594,7 +8607,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -8611,7 +8624,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>6</v>
       </c>
@@ -8628,12 +8641,12 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>84</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C377" s="2">
         <v>6</v>
@@ -8645,7 +8658,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>17</v>
       </c>
@@ -8662,7 +8675,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>26</v>
       </c>
@@ -8679,7 +8692,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>27</v>
       </c>
@@ -8696,7 +8709,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>37</v>
       </c>
@@ -8713,7 +8726,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>43</v>
       </c>
@@ -8730,7 +8743,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>41</v>
       </c>
@@ -8747,7 +8760,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>37</v>
       </c>
@@ -8764,7 +8777,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>15</v>
       </c>
@@ -8781,7 +8794,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>43</v>
       </c>
@@ -8798,7 +8811,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>37</v>
       </c>
@@ -8815,7 +8828,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>22</v>
       </c>
@@ -8832,7 +8845,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>17</v>
       </c>
@@ -8849,7 +8862,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>45</v>
       </c>
@@ -8866,7 +8879,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>37</v>
       </c>
@@ -8883,7 +8896,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -8900,7 +8913,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -8917,7 +8930,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>35</v>
       </c>
@@ -8934,7 +8947,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>17</v>
       </c>
@@ -8951,7 +8964,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>12</v>
       </c>
@@ -8968,12 +8981,12 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>37</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C397" s="2">
         <v>6</v>
@@ -8985,7 +8998,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -9002,7 +9015,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>41</v>
       </c>
@@ -9019,7 +9032,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>35</v>
       </c>
@@ -9036,7 +9049,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>19</v>
       </c>
@@ -9053,7 +9066,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>26</v>
       </c>
@@ -9070,7 +9083,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>35</v>
       </c>
@@ -9087,7 +9100,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>15</v>
       </c>
@@ -9104,7 +9117,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>24</v>
       </c>
@@ -9121,7 +9134,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>22</v>
       </c>
@@ -9138,7 +9151,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -9155,12 +9168,12 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>39</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C408" s="2">
         <v>3</v>
@@ -9172,12 +9185,12 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>35</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C409" s="2">
         <v>2</v>
@@ -9189,12 +9202,12 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>19</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C410" s="2">
         <v>2</v>
@@ -9206,12 +9219,12 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>45</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C411" s="2">
         <v>3</v>
@@ -9223,12 +9236,12 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>45</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C412" s="2">
         <v>4</v>
@@ -9240,11 +9253,141 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
-      <c r="B413" s="4"/>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="B414" s="5"/>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>35</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C413" s="2">
+        <v>3</v>
+      </c>
+      <c r="D413" t="s">
+        <v>228</v>
+      </c>
+      <c r="E413" s="1">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>19</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C414" s="2">
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
+        <v>21</v>
+      </c>
+      <c r="E414" s="1">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>15</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C415" s="2">
+        <v>2</v>
+      </c>
+      <c r="D415" t="s">
+        <v>14</v>
+      </c>
+      <c r="E415" s="1">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>27</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C416" s="2">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>21</v>
+      </c>
+      <c r="E416" s="1">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>5</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C417" s="2">
+        <v>2</v>
+      </c>
+      <c r="D417" t="s">
+        <v>33</v>
+      </c>
+      <c r="E417" s="1">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>26</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C418" s="2">
+        <v>2</v>
+      </c>
+      <c r="D418" t="s">
+        <v>21</v>
+      </c>
+      <c r="E418" s="1">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>39</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C419" s="2">
+        <v>4</v>
+      </c>
+      <c r="D419" t="s">
+        <v>14</v>
+      </c>
+      <c r="E419" s="1">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>22</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C420" s="2">
+        <v>1</v>
+      </c>
+      <c r="D420" t="s">
+        <v>228</v>
+      </c>
+      <c r="E420" s="1">
+        <v>43509</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A261:E276">
@@ -9263,94 +9406,94 @@
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEDBDC5-019A-4F5E-9668-435394DD485D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F591447B-4550-4365-A399-72C682F84485}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2237,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="B409" sqref="B409"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,7 +5660,7 @@
         <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="E201" s="1">
         <v>43468</v>
@@ -9009,7 +9009,7 @@
         <v>3</v>
       </c>
       <c r="D398" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="E398" s="1">
         <v>43507</v>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F591447B-4550-4365-A399-72C682F84485}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891C58AA-0BB0-4426-B7D1-24F92DB027B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="461">
   <si>
     <t>team</t>
   </si>
@@ -1387,6 +1387,30 @@
   </si>
   <si>
     <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Adam Frazier</t>
+  </si>
+  <si>
+    <t>Caleb Smith</t>
+  </si>
+  <si>
+    <t>Clint Frazier</t>
+  </si>
+  <si>
+    <t>Scott Kingery</t>
+  </si>
+  <si>
+    <t>Danny Duffy</t>
+  </si>
+  <si>
+    <t>Collin McHugh</t>
+  </si>
+  <si>
+    <t>Joey Bart</t>
+  </si>
+  <si>
+    <t>Moronta Reyes</t>
   </si>
 </sst>
 </file>
@@ -2235,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E420"/>
+  <dimension ref="A1:E428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="D428" sqref="D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9387,6 +9411,142 @@
       </c>
       <c r="E420" s="1">
         <v>43509</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>45</v>
+      </c>
+      <c r="B421" t="s">
+        <v>453</v>
+      </c>
+      <c r="C421" s="2">
+        <v>4</v>
+      </c>
+      <c r="D421" t="s">
+        <v>29</v>
+      </c>
+      <c r="E421" s="1">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>5</v>
+      </c>
+      <c r="B422" t="s">
+        <v>454</v>
+      </c>
+      <c r="C422" s="2">
+        <v>3</v>
+      </c>
+      <c r="D422" t="s">
+        <v>21</v>
+      </c>
+      <c r="E422" s="1">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>6</v>
+      </c>
+      <c r="B423" t="s">
+        <v>455</v>
+      </c>
+      <c r="C423" s="2">
+        <v>1</v>
+      </c>
+      <c r="D423" t="s">
+        <v>14</v>
+      </c>
+      <c r="E423" s="1">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>43</v>
+      </c>
+      <c r="B424" t="s">
+        <v>456</v>
+      </c>
+      <c r="C424" s="2">
+        <v>2</v>
+      </c>
+      <c r="D424" t="s">
+        <v>95</v>
+      </c>
+      <c r="E424" s="1">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>26</v>
+      </c>
+      <c r="B425" t="s">
+        <v>457</v>
+      </c>
+      <c r="C425" s="2">
+        <v>2</v>
+      </c>
+      <c r="D425" t="s">
+        <v>21</v>
+      </c>
+      <c r="E425" s="1">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>45</v>
+      </c>
+      <c r="B426" t="s">
+        <v>458</v>
+      </c>
+      <c r="C426" s="2">
+        <v>8</v>
+      </c>
+      <c r="D426" t="s">
+        <v>21</v>
+      </c>
+      <c r="E426" s="1">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>35</v>
+      </c>
+      <c r="B427" t="s">
+        <v>459</v>
+      </c>
+      <c r="C427" s="2">
+        <v>4</v>
+      </c>
+      <c r="D427" t="s">
+        <v>105</v>
+      </c>
+      <c r="E427" s="1">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>19</v>
+      </c>
+      <c r="B428" t="s">
+        <v>460</v>
+      </c>
+      <c r="C428" s="2">
+        <v>1</v>
+      </c>
+      <c r="D428" t="s">
+        <v>21</v>
+      </c>
+      <c r="E428" s="1">
+        <v>43510</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891C58AA-0BB0-4426-B7D1-24F92DB027B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250F015A-ABD1-4CD8-AE26-6F0E9A342F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="469">
   <si>
     <t>team</t>
   </si>
@@ -1411,6 +1411,30 @@
   </si>
   <si>
     <t>Moronta Reyes</t>
+  </si>
+  <si>
+    <t>Wilmer Flores</t>
+  </si>
+  <si>
+    <t>Joe Jimenez</t>
+  </si>
+  <si>
+    <t>Franchy Cordero</t>
+  </si>
+  <si>
+    <t>Derek Holland</t>
+  </si>
+  <si>
+    <t>Kelvin Herrera</t>
+  </si>
+  <si>
+    <t>Ryan Pressly</t>
+  </si>
+  <si>
+    <t>A.J. Puk</t>
+  </si>
+  <si>
+    <t>Daniel Palka</t>
   </si>
 </sst>
 </file>
@@ -2259,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E428"/>
+  <dimension ref="A1:E436"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="D428" sqref="D428"/>
+      <selection activeCell="H429" sqref="H429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9547,6 +9571,142 @@
       </c>
       <c r="E428" s="1">
         <v>43510</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>24</v>
+      </c>
+      <c r="B429" t="s">
+        <v>462</v>
+      </c>
+      <c r="C429" s="2">
+        <v>2</v>
+      </c>
+      <c r="D429" t="s">
+        <v>21</v>
+      </c>
+      <c r="E429" s="1">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>37</v>
+      </c>
+      <c r="B430" t="s">
+        <v>463</v>
+      </c>
+      <c r="C430" s="2">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>14</v>
+      </c>
+      <c r="E430" s="1">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>15</v>
+      </c>
+      <c r="B431" t="s">
+        <v>464</v>
+      </c>
+      <c r="C431" s="2">
+        <v>5</v>
+      </c>
+      <c r="D431" t="s">
+        <v>21</v>
+      </c>
+      <c r="E431" s="1">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>26</v>
+      </c>
+      <c r="B432" t="s">
+        <v>465</v>
+      </c>
+      <c r="C432" s="2">
+        <v>2</v>
+      </c>
+      <c r="D432" t="s">
+        <v>21</v>
+      </c>
+      <c r="E432" s="1">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>39</v>
+      </c>
+      <c r="B433" t="s">
+        <v>466</v>
+      </c>
+      <c r="C433" s="2">
+        <v>3</v>
+      </c>
+      <c r="D433" t="s">
+        <v>21</v>
+      </c>
+      <c r="E433" s="1">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>24</v>
+      </c>
+      <c r="B434" t="s">
+        <v>461</v>
+      </c>
+      <c r="C434" s="2">
+        <v>2</v>
+      </c>
+      <c r="D434" t="s">
+        <v>33</v>
+      </c>
+      <c r="E434" s="1">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>6</v>
+      </c>
+      <c r="B435" t="s">
+        <v>467</v>
+      </c>
+      <c r="C435" s="2">
+        <v>1</v>
+      </c>
+      <c r="D435" t="s">
+        <v>21</v>
+      </c>
+      <c r="E435" s="1">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>12</v>
+      </c>
+      <c r="B436" t="s">
+        <v>468</v>
+      </c>
+      <c r="C436" s="2">
+        <v>3</v>
+      </c>
+      <c r="D436" t="s">
+        <v>14</v>
+      </c>
+      <c r="E436" s="1">
+        <v>43511</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250F015A-ABD1-4CD8-AE26-6F0E9A342F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA1E302-8380-4335-AA0F-68270A07BAC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="485">
   <si>
     <t>team</t>
   </si>
@@ -1435,6 +1435,54 @@
   </si>
   <si>
     <t>Daniel Palka</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Alex Kirilloff</t>
+  </si>
+  <si>
+    <t>Blake Parker</t>
+  </si>
+  <si>
+    <t>Nick Ahmed</t>
+  </si>
+  <si>
+    <t>Evan Longoria</t>
+  </si>
+  <si>
+    <t>Trevor Richards</t>
+  </si>
+  <si>
+    <t>Brett Gardner</t>
+  </si>
+  <si>
+    <t>Jason Kipnis</t>
+  </si>
+  <si>
+    <t>D.J. Stewart</t>
+  </si>
+  <si>
+    <t>Nick Kingham</t>
+  </si>
+  <si>
+    <t>Jeff Samardzija</t>
+  </si>
+  <si>
+    <t>Ian Kinsler</t>
+  </si>
+  <si>
+    <t>Blake Swihart</t>
+  </si>
+  <si>
+    <t>Trevor Rosenthal</t>
+  </si>
+  <si>
+    <t>Brian McCann</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
   </si>
 </sst>
 </file>
@@ -2283,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E436"/>
+  <dimension ref="A1:E452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="H429" sqref="H429"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9707,6 +9755,278 @@
       </c>
       <c r="E436" s="1">
         <v>43511</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>26</v>
+      </c>
+      <c r="B437" t="s">
+        <v>469</v>
+      </c>
+      <c r="C437" s="2">
+        <v>1</v>
+      </c>
+      <c r="D437" t="s">
+        <v>21</v>
+      </c>
+      <c r="E437" s="1">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>35</v>
+      </c>
+      <c r="B438" t="s">
+        <v>470</v>
+      </c>
+      <c r="C438" s="2">
+        <v>3</v>
+      </c>
+      <c r="D438" t="s">
+        <v>14</v>
+      </c>
+      <c r="E438" s="1">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>35</v>
+      </c>
+      <c r="B439" t="s">
+        <v>471</v>
+      </c>
+      <c r="C439" s="2">
+        <v>1</v>
+      </c>
+      <c r="D439" t="s">
+        <v>21</v>
+      </c>
+      <c r="E439" s="1">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>19</v>
+      </c>
+      <c r="B440" t="s">
+        <v>472</v>
+      </c>
+      <c r="C440" s="2">
+        <v>2</v>
+      </c>
+      <c r="D440" t="s">
+        <v>8</v>
+      </c>
+      <c r="E440" s="1">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>12</v>
+      </c>
+      <c r="B441" t="s">
+        <v>477</v>
+      </c>
+      <c r="C441" s="2">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>14</v>
+      </c>
+      <c r="E441" s="1">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>26</v>
+      </c>
+      <c r="B442" t="s">
+        <v>473</v>
+      </c>
+      <c r="C442" s="2">
+        <v>2</v>
+      </c>
+      <c r="D442" t="s">
+        <v>33</v>
+      </c>
+      <c r="E442" s="1">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>15</v>
+      </c>
+      <c r="B443" t="s">
+        <v>474</v>
+      </c>
+      <c r="C443" s="2">
+        <v>1</v>
+      </c>
+      <c r="D443" t="s">
+        <v>21</v>
+      </c>
+      <c r="E443" s="1">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>26</v>
+      </c>
+      <c r="B444" t="s">
+        <v>475</v>
+      </c>
+      <c r="C444" s="2">
+        <v>2</v>
+      </c>
+      <c r="D444" t="s">
+        <v>14</v>
+      </c>
+      <c r="E444" s="1">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>45</v>
+      </c>
+      <c r="B445" t="s">
+        <v>476</v>
+      </c>
+      <c r="C445" s="2">
+        <v>3</v>
+      </c>
+      <c r="D445" t="s">
+        <v>95</v>
+      </c>
+      <c r="E445" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>5</v>
+      </c>
+      <c r="B446" t="s">
+        <v>478</v>
+      </c>
+      <c r="C446" s="2">
+        <v>1</v>
+      </c>
+      <c r="D446" t="s">
+        <v>21</v>
+      </c>
+      <c r="E446" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>39</v>
+      </c>
+      <c r="B447" t="s">
+        <v>479</v>
+      </c>
+      <c r="C447" s="2">
+        <v>1</v>
+      </c>
+      <c r="D447" t="s">
+        <v>21</v>
+      </c>
+      <c r="E447" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>15</v>
+      </c>
+      <c r="B448" t="s">
+        <v>480</v>
+      </c>
+      <c r="C448" s="2">
+        <v>2</v>
+      </c>
+      <c r="D448" t="s">
+        <v>29</v>
+      </c>
+      <c r="E448" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>26</v>
+      </c>
+      <c r="B449" t="s">
+        <v>481</v>
+      </c>
+      <c r="C449" s="2">
+        <v>2</v>
+      </c>
+      <c r="D449" t="s">
+        <v>105</v>
+      </c>
+      <c r="E449" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>35</v>
+      </c>
+      <c r="B450" t="s">
+        <v>482</v>
+      </c>
+      <c r="C450" s="2">
+        <v>1</v>
+      </c>
+      <c r="D450" t="s">
+        <v>21</v>
+      </c>
+      <c r="E450" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>26</v>
+      </c>
+      <c r="B451" t="s">
+        <v>483</v>
+      </c>
+      <c r="C451" s="2">
+        <v>2</v>
+      </c>
+      <c r="D451" t="s">
+        <v>105</v>
+      </c>
+      <c r="E451" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" t="s">
+        <v>484</v>
+      </c>
+      <c r="C452" s="2">
+        <v>3</v>
+      </c>
+      <c r="D452" t="s">
+        <v>21</v>
+      </c>
+      <c r="E452" s="1">
+        <v>43515</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA1E302-8380-4335-AA0F-68270A07BAC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BF2203-7830-41CB-86F9-A5A9F0B9EE53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="503">
   <si>
     <t>team</t>
   </si>
@@ -1483,6 +1483,60 @@
   </si>
   <si>
     <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Eduardo Nunez</t>
+  </si>
+  <si>
+    <t>Scott Schebler</t>
+  </si>
+  <si>
+    <t>Mike Minor</t>
+  </si>
+  <si>
+    <t>Jace Fry</t>
+  </si>
+  <si>
+    <t>Jay Bruce</t>
+  </si>
+  <si>
+    <t>Matt Kemp</t>
+  </si>
+  <si>
+    <t>Nick Hundley</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Raimel Tapia</t>
+  </si>
+  <si>
+    <t>Orlando Arcia</t>
+  </si>
+  <si>
+    <t>Jeff McNeil</t>
+  </si>
+  <si>
+    <t>Bradley Zimmer</t>
+  </si>
+  <si>
+    <t>Mike Fiers</t>
+  </si>
+  <si>
+    <t>Todd Frazier</t>
+  </si>
+  <si>
+    <t>Fernando Romero</t>
+  </si>
+  <si>
+    <t>Greg Allen</t>
+  </si>
+  <si>
+    <t>Matt Duffy</t>
+  </si>
+  <si>
+    <t>Elias Diaz</t>
   </si>
 </sst>
 </file>
@@ -2331,10 +2385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E452"/>
+  <dimension ref="A1:E470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="D461" sqref="D461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10026,6 +10080,312 @@
         <v>21</v>
       </c>
       <c r="E452" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>37</v>
+      </c>
+      <c r="B453" t="s">
+        <v>485</v>
+      </c>
+      <c r="C453" s="2">
+        <v>1</v>
+      </c>
+      <c r="D453" t="s">
+        <v>33</v>
+      </c>
+      <c r="E453" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>24</v>
+      </c>
+      <c r="B454" t="s">
+        <v>486</v>
+      </c>
+      <c r="C454" s="2">
+        <v>1</v>
+      </c>
+      <c r="D454" t="s">
+        <v>14</v>
+      </c>
+      <c r="E454" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>45</v>
+      </c>
+      <c r="B455" t="s">
+        <v>487</v>
+      </c>
+      <c r="C455" s="2">
+        <v>1</v>
+      </c>
+      <c r="D455" t="s">
+        <v>21</v>
+      </c>
+      <c r="E455" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456" t="s">
+        <v>488</v>
+      </c>
+      <c r="C456" s="2">
+        <v>1</v>
+      </c>
+      <c r="D456" t="s">
+        <v>21</v>
+      </c>
+      <c r="E456" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>39</v>
+      </c>
+      <c r="B457" t="s">
+        <v>489</v>
+      </c>
+      <c r="C457" s="2">
+        <v>3</v>
+      </c>
+      <c r="D457" t="s">
+        <v>14</v>
+      </c>
+      <c r="E457" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>26</v>
+      </c>
+      <c r="B458" t="s">
+        <v>490</v>
+      </c>
+      <c r="C458" s="2">
+        <v>2</v>
+      </c>
+      <c r="D458" t="s">
+        <v>228</v>
+      </c>
+      <c r="E458" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>43</v>
+      </c>
+      <c r="B459" t="s">
+        <v>502</v>
+      </c>
+      <c r="C459" s="2">
+        <v>1</v>
+      </c>
+      <c r="D459" t="s">
+        <v>105</v>
+      </c>
+      <c r="E459" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>19</v>
+      </c>
+      <c r="B460" t="s">
+        <v>491</v>
+      </c>
+      <c r="C460" s="2">
+        <v>1</v>
+      </c>
+      <c r="D460" t="s">
+        <v>105</v>
+      </c>
+      <c r="E460" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>39</v>
+      </c>
+      <c r="B461" t="s">
+        <v>492</v>
+      </c>
+      <c r="C461" s="2">
+        <v>3</v>
+      </c>
+      <c r="D461" t="s">
+        <v>21</v>
+      </c>
+      <c r="E461" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>24</v>
+      </c>
+      <c r="B462" t="s">
+        <v>501</v>
+      </c>
+      <c r="C462" s="2">
+        <v>1</v>
+      </c>
+      <c r="D462" t="s">
+        <v>11</v>
+      </c>
+      <c r="E462" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" t="s">
+        <v>493</v>
+      </c>
+      <c r="C463" s="2">
+        <v>1</v>
+      </c>
+      <c r="D463" t="s">
+        <v>228</v>
+      </c>
+      <c r="E463" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>39</v>
+      </c>
+      <c r="B464" t="s">
+        <v>494</v>
+      </c>
+      <c r="C464" s="2">
+        <v>1</v>
+      </c>
+      <c r="D464" t="s">
+        <v>95</v>
+      </c>
+      <c r="E464" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>43</v>
+      </c>
+      <c r="B465" t="s">
+        <v>495</v>
+      </c>
+      <c r="C465" s="2">
+        <v>2</v>
+      </c>
+      <c r="D465" t="s">
+        <v>228</v>
+      </c>
+      <c r="E465" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>43</v>
+      </c>
+      <c r="B466" t="s">
+        <v>496</v>
+      </c>
+      <c r="C466" s="2">
+        <v>1</v>
+      </c>
+      <c r="D466" t="s">
+        <v>14</v>
+      </c>
+      <c r="E466" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>37</v>
+      </c>
+      <c r="B467" t="s">
+        <v>497</v>
+      </c>
+      <c r="C467" s="2">
+        <v>1</v>
+      </c>
+      <c r="D467" t="s">
+        <v>21</v>
+      </c>
+      <c r="E467" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>24</v>
+      </c>
+      <c r="B468" t="s">
+        <v>498</v>
+      </c>
+      <c r="C468" s="2">
+        <v>1</v>
+      </c>
+      <c r="D468" t="s">
+        <v>33</v>
+      </c>
+      <c r="E468" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" t="s">
+        <v>499</v>
+      </c>
+      <c r="C469" s="2">
+        <v>1</v>
+      </c>
+      <c r="D469" t="s">
+        <v>21</v>
+      </c>
+      <c r="E469" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>39</v>
+      </c>
+      <c r="B470" t="s">
+        <v>500</v>
+      </c>
+      <c r="C470" s="2">
+        <v>1</v>
+      </c>
+      <c r="D470" t="s">
+        <v>14</v>
+      </c>
+      <c r="E470" s="1">
         <v>43515</v>
       </c>
     </row>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BF2203-7830-41CB-86F9-A5A9F0B9EE53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429AFEEC-CC83-4888-95DA-84BA5385D8C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="507">
   <si>
     <t>team</t>
   </si>
@@ -1537,6 +1537,18 @@
   </si>
   <si>
     <t>Elias Diaz</t>
+  </si>
+  <si>
+    <t>Casey Mize</t>
+  </si>
+  <si>
+    <t>Mark Melancon </t>
+  </si>
+  <si>
+    <t>Victor Mesa</t>
+  </si>
+  <si>
+    <t>Josh Harrison</t>
   </si>
 </sst>
 </file>
@@ -2385,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E470"/>
+  <dimension ref="A1:E474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="D461" sqref="D461"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5776,7 +5788,7 @@
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E199" s="1">
         <v>43465</v>
@@ -9873,7 +9885,7 @@
         <v>2</v>
       </c>
       <c r="D440" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="E440" s="1">
         <v>43514</v>
@@ -9890,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="D441" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="E441" s="1">
         <v>43514</v>
@@ -10247,7 +10259,7 @@
         <v>1</v>
       </c>
       <c r="D462" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="E462" s="1">
         <v>43515</v>
@@ -10349,7 +10361,7 @@
         <v>1</v>
       </c>
       <c r="D468" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E468" s="1">
         <v>43515</v>
@@ -10383,9 +10395,77 @@
         <v>1</v>
       </c>
       <c r="D470" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="E470" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>26</v>
+      </c>
+      <c r="B471" t="s">
+        <v>506</v>
+      </c>
+      <c r="C471" s="2">
+        <v>1</v>
+      </c>
+      <c r="D471" t="s">
+        <v>29</v>
+      </c>
+      <c r="E471" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>43</v>
+      </c>
+      <c r="B472" t="s">
+        <v>505</v>
+      </c>
+      <c r="C472" s="2">
+        <v>1</v>
+      </c>
+      <c r="D472" t="s">
+        <v>14</v>
+      </c>
+      <c r="E472" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>39</v>
+      </c>
+      <c r="B473" t="s">
+        <v>503</v>
+      </c>
+      <c r="C473" s="2">
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
+        <v>21</v>
+      </c>
+      <c r="E473" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>43</v>
+      </c>
+      <c r="B474" t="s">
+        <v>504</v>
+      </c>
+      <c r="C474" s="2">
+        <v>1</v>
+      </c>
+      <c r="D474" t="s">
+        <v>21</v>
+      </c>
+      <c r="E474" s="1">
         <v>43515</v>
       </c>
     </row>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429AFEEC-CC83-4888-95DA-84BA5385D8C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0031AD29-6954-46FC-9A55-A44C40B75AC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="534">
   <si>
     <t>team</t>
   </si>
@@ -1549,6 +1549,87 @@
   </si>
   <si>
     <t>Josh Harrison</t>
+  </si>
+  <si>
+    <t>Steven Duggar</t>
+  </si>
+  <si>
+    <t>Carter Kieboom</t>
+  </si>
+  <si>
+    <t>Jonathan India</t>
+  </si>
+  <si>
+    <t>Evan Gattis </t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Aledmys Diaz</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Nick Madrigal</t>
+  </si>
+  <si>
+    <t>Yordan Alvarez</t>
+  </si>
+  <si>
+    <t>Carlos Gonzalez</t>
+  </si>
+  <si>
+    <t>Ben Zobrist</t>
+  </si>
+  <si>
+    <t>Gavin Lux</t>
+  </si>
+  <si>
+    <t>Renato Nunez</t>
+  </si>
+  <si>
+    <t>Greg Holland</t>
+  </si>
+  <si>
+    <t>Yandy Diaz</t>
+  </si>
+  <si>
+    <t>Brandon Lowe</t>
+  </si>
+  <si>
+    <t>Nate Pearson</t>
+  </si>
+  <si>
+    <t>Peter O'Brien</t>
+  </si>
+  <si>
+    <t>Jung Ho Kang</t>
+  </si>
+  <si>
+    <t>Chris Davis</t>
+  </si>
+  <si>
+    <t>Eric Thames</t>
+  </si>
+  <si>
+    <t>Ke'Bryan Hayes</t>
+  </si>
+  <si>
+    <t>Ian Anderson</t>
+  </si>
+  <si>
+    <t>Jeurys Familia</t>
+  </si>
+  <si>
+    <t>Danny Salazar</t>
+  </si>
+  <si>
+    <t>PLACEHOLDER</t>
+  </si>
+  <si>
+    <t>Zach Britton</t>
   </si>
 </sst>
 </file>
@@ -2397,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E474"/>
+  <dimension ref="A1:E520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="B489" sqref="B489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10468,6 +10549,748 @@
       <c r="E474" s="1">
         <v>43515</v>
       </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>19</v>
+      </c>
+      <c r="B475" t="s">
+        <v>507</v>
+      </c>
+      <c r="C475" s="2">
+        <v>0</v>
+      </c>
+      <c r="D475" t="s">
+        <v>48</v>
+      </c>
+      <c r="E475" s="1">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>15</v>
+      </c>
+      <c r="B476" t="s">
+        <v>508</v>
+      </c>
+      <c r="C476" s="2">
+        <v>0</v>
+      </c>
+      <c r="D476" t="s">
+        <v>48</v>
+      </c>
+      <c r="E476" s="1">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>6</v>
+      </c>
+      <c r="B477" t="s">
+        <v>509</v>
+      </c>
+      <c r="C477" s="2">
+        <v>0</v>
+      </c>
+      <c r="D477" t="s">
+        <v>48</v>
+      </c>
+      <c r="E477" s="1">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>17</v>
+      </c>
+      <c r="B478" t="s">
+        <v>510</v>
+      </c>
+      <c r="C478" s="2">
+        <v>0</v>
+      </c>
+      <c r="D478" t="s">
+        <v>48</v>
+      </c>
+      <c r="E478" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>45</v>
+      </c>
+      <c r="B479" t="s">
+        <v>511</v>
+      </c>
+      <c r="C479" s="2">
+        <v>0</v>
+      </c>
+      <c r="D479" t="s">
+        <v>48</v>
+      </c>
+      <c r="E479" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>17</v>
+      </c>
+      <c r="B480" t="s">
+        <v>512</v>
+      </c>
+      <c r="C480" s="2">
+        <v>0</v>
+      </c>
+      <c r="D480" t="s">
+        <v>48</v>
+      </c>
+      <c r="E480" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>6</v>
+      </c>
+      <c r="B481" t="s">
+        <v>513</v>
+      </c>
+      <c r="C481" s="2">
+        <v>0</v>
+      </c>
+      <c r="D481" t="s">
+        <v>48</v>
+      </c>
+      <c r="E481" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>15</v>
+      </c>
+      <c r="B482" t="s">
+        <v>514</v>
+      </c>
+      <c r="C482" s="2">
+        <v>0</v>
+      </c>
+      <c r="D482" t="s">
+        <v>48</v>
+      </c>
+      <c r="E482" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>26</v>
+      </c>
+      <c r="B483" t="s">
+        <v>515</v>
+      </c>
+      <c r="C483" s="2">
+        <v>0</v>
+      </c>
+      <c r="D483" t="s">
+        <v>48</v>
+      </c>
+      <c r="E483" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>19</v>
+      </c>
+      <c r="B484" t="s">
+        <v>516</v>
+      </c>
+      <c r="C484" s="2">
+        <v>0</v>
+      </c>
+      <c r="D484" t="s">
+        <v>48</v>
+      </c>
+      <c r="E484" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>37</v>
+      </c>
+      <c r="B485" t="s">
+        <v>517</v>
+      </c>
+      <c r="C485" s="2">
+        <v>0</v>
+      </c>
+      <c r="D485" t="s">
+        <v>48</v>
+      </c>
+      <c r="E485" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>9</v>
+      </c>
+      <c r="B486" t="s">
+        <v>518</v>
+      </c>
+      <c r="C486" s="2">
+        <v>0</v>
+      </c>
+      <c r="D486" t="s">
+        <v>48</v>
+      </c>
+      <c r="E486" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>5</v>
+      </c>
+      <c r="B487" t="s">
+        <v>519</v>
+      </c>
+      <c r="C487" s="2">
+        <v>0</v>
+      </c>
+      <c r="D487" t="s">
+        <v>48</v>
+      </c>
+      <c r="E487" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>35</v>
+      </c>
+      <c r="B488" t="s">
+        <v>520</v>
+      </c>
+      <c r="C488" s="2">
+        <v>0</v>
+      </c>
+      <c r="D488" t="s">
+        <v>48</v>
+      </c>
+      <c r="E488" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>26</v>
+      </c>
+      <c r="B489" t="s">
+        <v>533</v>
+      </c>
+      <c r="C489" s="2">
+        <v>0</v>
+      </c>
+      <c r="D489" t="s">
+        <v>48</v>
+      </c>
+      <c r="E489" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>12</v>
+      </c>
+      <c r="B490" t="s">
+        <v>521</v>
+      </c>
+      <c r="C490" s="2">
+        <v>0</v>
+      </c>
+      <c r="D490" t="s">
+        <v>48</v>
+      </c>
+      <c r="E490" s="1">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>39</v>
+      </c>
+      <c r="B491" t="s">
+        <v>522</v>
+      </c>
+      <c r="C491" s="2">
+        <v>0</v>
+      </c>
+      <c r="D491" t="s">
+        <v>48</v>
+      </c>
+      <c r="E491" s="1">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>15</v>
+      </c>
+      <c r="B492" t="s">
+        <v>523</v>
+      </c>
+      <c r="C492" s="2">
+        <v>0</v>
+      </c>
+      <c r="D492" t="s">
+        <v>48</v>
+      </c>
+      <c r="E492" s="1">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>35</v>
+      </c>
+      <c r="B493" t="s">
+        <v>524</v>
+      </c>
+      <c r="C493" s="2">
+        <v>0</v>
+      </c>
+      <c r="D493" t="s">
+        <v>48</v>
+      </c>
+      <c r="E493" s="1">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>22</v>
+      </c>
+      <c r="B494" t="s">
+        <v>525</v>
+      </c>
+      <c r="C494" s="2">
+        <v>0</v>
+      </c>
+      <c r="D494" t="s">
+        <v>48</v>
+      </c>
+      <c r="E494" s="1">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>19</v>
+      </c>
+      <c r="B495" t="s">
+        <v>526</v>
+      </c>
+      <c r="C495" s="2">
+        <v>0</v>
+      </c>
+      <c r="D495" t="s">
+        <v>48</v>
+      </c>
+      <c r="E495" s="1">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>37</v>
+      </c>
+      <c r="B496" t="s">
+        <v>527</v>
+      </c>
+      <c r="C496" s="2">
+        <v>0</v>
+      </c>
+      <c r="D496" t="s">
+        <v>48</v>
+      </c>
+      <c r="E496" s="1">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>6</v>
+      </c>
+      <c r="B497" t="s">
+        <v>528</v>
+      </c>
+      <c r="C497" s="2">
+        <v>0</v>
+      </c>
+      <c r="D497" t="s">
+        <v>48</v>
+      </c>
+      <c r="E497" s="1">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>17</v>
+      </c>
+      <c r="B498" t="s">
+        <v>529</v>
+      </c>
+      <c r="C498" s="2">
+        <v>0</v>
+      </c>
+      <c r="D498" t="s">
+        <v>48</v>
+      </c>
+      <c r="E498" s="1">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>24</v>
+      </c>
+      <c r="B499" t="s">
+        <v>530</v>
+      </c>
+      <c r="C499" s="2">
+        <v>0</v>
+      </c>
+      <c r="D499" t="s">
+        <v>48</v>
+      </c>
+      <c r="E499" s="1">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>15</v>
+      </c>
+      <c r="B500" t="s">
+        <v>531</v>
+      </c>
+      <c r="C500" s="2">
+        <v>0</v>
+      </c>
+      <c r="D500" t="s">
+        <v>48</v>
+      </c>
+      <c r="E500" s="1">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>19</v>
+      </c>
+      <c r="B501" t="s">
+        <v>532</v>
+      </c>
+      <c r="C501" s="2">
+        <v>0</v>
+      </c>
+      <c r="D501" t="s">
+        <v>48</v>
+      </c>
+      <c r="E501" s="1"/>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>39</v>
+      </c>
+      <c r="B502" t="s">
+        <v>532</v>
+      </c>
+      <c r="C502" s="2">
+        <v>0</v>
+      </c>
+      <c r="D502" t="s">
+        <v>48</v>
+      </c>
+      <c r="E502" s="1"/>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>19</v>
+      </c>
+      <c r="B503" t="s">
+        <v>532</v>
+      </c>
+      <c r="C503" s="2">
+        <v>0</v>
+      </c>
+      <c r="D503" t="s">
+        <v>48</v>
+      </c>
+      <c r="E503" s="1"/>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>19</v>
+      </c>
+      <c r="B504" t="s">
+        <v>532</v>
+      </c>
+      <c r="C504" s="2">
+        <v>0</v>
+      </c>
+      <c r="D504" t="s">
+        <v>48</v>
+      </c>
+      <c r="E504" s="1"/>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>45</v>
+      </c>
+      <c r="B505" t="s">
+        <v>532</v>
+      </c>
+      <c r="C505" s="2">
+        <v>0</v>
+      </c>
+      <c r="D505" t="s">
+        <v>48</v>
+      </c>
+      <c r="E505" s="1"/>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>24</v>
+      </c>
+      <c r="B506" t="s">
+        <v>532</v>
+      </c>
+      <c r="C506" s="2">
+        <v>0</v>
+      </c>
+      <c r="D506" t="s">
+        <v>48</v>
+      </c>
+      <c r="E506" s="1"/>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>17</v>
+      </c>
+      <c r="B507" t="s">
+        <v>532</v>
+      </c>
+      <c r="C507" s="2">
+        <v>0</v>
+      </c>
+      <c r="D507" t="s">
+        <v>48</v>
+      </c>
+      <c r="E507" s="1"/>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>6</v>
+      </c>
+      <c r="B508" t="s">
+        <v>532</v>
+      </c>
+      <c r="C508" s="2">
+        <v>0</v>
+      </c>
+      <c r="D508" t="s">
+        <v>48</v>
+      </c>
+      <c r="E508" s="1"/>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>84</v>
+      </c>
+      <c r="B509" t="s">
+        <v>532</v>
+      </c>
+      <c r="C509" s="2">
+        <v>0</v>
+      </c>
+      <c r="D509" t="s">
+        <v>48</v>
+      </c>
+      <c r="E509" s="1"/>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>19</v>
+      </c>
+      <c r="B510" t="s">
+        <v>532</v>
+      </c>
+      <c r="C510" s="2">
+        <v>0</v>
+      </c>
+      <c r="D510" t="s">
+        <v>48</v>
+      </c>
+      <c r="E510" s="1"/>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>22</v>
+      </c>
+      <c r="B511" t="s">
+        <v>532</v>
+      </c>
+      <c r="C511" s="2">
+        <v>0</v>
+      </c>
+      <c r="D511" t="s">
+        <v>48</v>
+      </c>
+      <c r="E511" s="1"/>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>27</v>
+      </c>
+      <c r="B512" t="s">
+        <v>532</v>
+      </c>
+      <c r="C512" s="2">
+        <v>0</v>
+      </c>
+      <c r="D512" t="s">
+        <v>48</v>
+      </c>
+      <c r="E512" s="1"/>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>15</v>
+      </c>
+      <c r="B513" t="s">
+        <v>532</v>
+      </c>
+      <c r="C513" s="2">
+        <v>0</v>
+      </c>
+      <c r="D513" t="s">
+        <v>48</v>
+      </c>
+      <c r="E513" s="1"/>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>43</v>
+      </c>
+      <c r="B514" t="s">
+        <v>532</v>
+      </c>
+      <c r="C514" s="2">
+        <v>0</v>
+      </c>
+      <c r="D514" t="s">
+        <v>48</v>
+      </c>
+      <c r="E514" s="1"/>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>12</v>
+      </c>
+      <c r="B515" t="s">
+        <v>532</v>
+      </c>
+      <c r="C515" s="2">
+        <v>0</v>
+      </c>
+      <c r="D515" t="s">
+        <v>48</v>
+      </c>
+      <c r="E515" s="1"/>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>26</v>
+      </c>
+      <c r="B516" t="s">
+        <v>532</v>
+      </c>
+      <c r="C516" s="2">
+        <v>0</v>
+      </c>
+      <c r="D516" t="s">
+        <v>48</v>
+      </c>
+      <c r="E516" s="1"/>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>19</v>
+      </c>
+      <c r="B517" t="s">
+        <v>532</v>
+      </c>
+      <c r="C517" s="2">
+        <v>0</v>
+      </c>
+      <c r="D517" t="s">
+        <v>48</v>
+      </c>
+      <c r="E517" s="1"/>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>5</v>
+      </c>
+      <c r="B518" t="s">
+        <v>532</v>
+      </c>
+      <c r="C518" s="2">
+        <v>0</v>
+      </c>
+      <c r="D518" t="s">
+        <v>48</v>
+      </c>
+      <c r="E518" s="1"/>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>9</v>
+      </c>
+      <c r="B519" t="s">
+        <v>532</v>
+      </c>
+      <c r="C519" s="2">
+        <v>0</v>
+      </c>
+      <c r="D519" t="s">
+        <v>48</v>
+      </c>
+      <c r="E519" s="1"/>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>37</v>
+      </c>
+      <c r="B520" t="s">
+        <v>532</v>
+      </c>
+      <c r="C520" s="2">
+        <v>0</v>
+      </c>
+      <c r="D520" t="s">
+        <v>48</v>
+      </c>
+      <c r="E520" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A261:E276">

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0031AD29-6954-46FC-9A55-A44C40B75AC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57839EBB-8754-46B6-AD70-46CB79B1BAE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="542">
   <si>
     <t>team</t>
   </si>
@@ -1630,6 +1630,30 @@
   </si>
   <si>
     <t>Zach Britton</t>
+  </si>
+  <si>
+    <t>Derek Dietrich</t>
+  </si>
+  <si>
+    <t>Jazz Chisholm</t>
+  </si>
+  <si>
+    <t>Keone Kela</t>
+  </si>
+  <si>
+    <t>Jarrod Dyson</t>
+  </si>
+  <si>
+    <t>Greg Bird</t>
+  </si>
+  <si>
+    <t>Travis Jankowski</t>
+  </si>
+  <si>
+    <t>Kyle Wright</t>
+  </si>
+  <si>
+    <t>Ji-Man Choi</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1663,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1773,6 +1797,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF55595C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2116,13 +2146,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2480,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="B489" sqref="B489"/>
+    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="B505" sqref="B505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10994,10 +11025,10 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>19</v>
-      </c>
-      <c r="B501" t="s">
-        <v>532</v>
+        <v>41</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="C501" s="2">
         <v>0</v>
@@ -11005,14 +11036,16 @@
       <c r="D501" t="s">
         <v>48</v>
       </c>
-      <c r="E501" s="1"/>
+      <c r="E501" s="1">
+        <v>43523</v>
+      </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>39</v>
-      </c>
-      <c r="B502" t="s">
-        <v>532</v>
+        <v>43</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="C502" s="2">
         <v>0</v>
@@ -11020,14 +11053,16 @@
       <c r="D502" t="s">
         <v>48</v>
       </c>
-      <c r="E502" s="1"/>
+      <c r="E502" s="1">
+        <v>43523</v>
+      </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>19</v>
       </c>
       <c r="B503" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C503" s="2">
         <v>0</v>
@@ -11035,14 +11070,16 @@
       <c r="D503" t="s">
         <v>48</v>
       </c>
-      <c r="E503" s="1"/>
+      <c r="E503" s="1">
+        <v>43523</v>
+      </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B504" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C504" s="2">
         <v>0</v>
@@ -11050,14 +11087,16 @@
       <c r="D504" t="s">
         <v>48</v>
       </c>
-      <c r="E504" s="1"/>
+      <c r="E504" s="1">
+        <v>43523</v>
+      </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>45</v>
       </c>
       <c r="B505" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C505" s="2">
         <v>0</v>
@@ -11065,14 +11104,16 @@
       <c r="D505" t="s">
         <v>48</v>
       </c>
-      <c r="E505" s="1"/>
+      <c r="E505" s="1">
+        <v>43523</v>
+      </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>24</v>
       </c>
       <c r="B506" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C506" s="2">
         <v>0</v>
@@ -11080,14 +11121,16 @@
       <c r="D506" t="s">
         <v>48</v>
       </c>
-      <c r="E506" s="1"/>
+      <c r="E506" s="1">
+        <v>43523</v>
+      </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>17</v>
       </c>
       <c r="B507" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C507" s="2">
         <v>0</v>
@@ -11095,14 +11138,16 @@
       <c r="D507" t="s">
         <v>48</v>
       </c>
-      <c r="E507" s="1"/>
+      <c r="E507" s="1">
+        <v>43523</v>
+      </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>6</v>
       </c>
       <c r="B508" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C508" s="2">
         <v>0</v>
@@ -11110,7 +11155,9 @@
       <c r="D508" t="s">
         <v>48</v>
       </c>
-      <c r="E508" s="1"/>
+      <c r="E508" s="1">
+        <v>43523</v>
+      </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57839EBB-8754-46B6-AD70-46CB79B1BAE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F3F8BB-4758-497C-B7E8-CAC92D6DBB05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="603">
   <si>
     <t>team</t>
   </si>
@@ -1560,9 +1560,6 @@
     <t>Jonathan India</t>
   </si>
   <si>
-    <t>Evan Gattis </t>
-  </si>
-  <si>
     <t>Dylan Cease</t>
   </si>
   <si>
@@ -1654,6 +1651,192 @@
   </si>
   <si>
     <t>Ji-Man Choi</t>
+  </si>
+  <si>
+    <t>Andrew Suarez</t>
+  </si>
+  <si>
+    <t>Nolan Gorman</t>
+  </si>
+  <si>
+    <t>Dylan Cozens</t>
+  </si>
+  <si>
+    <t>Yolmer Sanchez</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Steve Pearce</t>
+  </si>
+  <si>
+    <t>Carl Edwards Jr.</t>
+  </si>
+  <si>
+    <t>Alex Gordon</t>
+  </si>
+  <si>
+    <t>Yu Chang </t>
+  </si>
+  <si>
+    <t>Chad Pinder</t>
+  </si>
+  <si>
+    <t>Tony Kemp</t>
+  </si>
+  <si>
+    <t>Nathaniel Lowe</t>
+  </si>
+  <si>
+    <t>Brandon Barnes</t>
+  </si>
+  <si>
+    <t>Aaron Sanchez</t>
+  </si>
+  <si>
+    <t>Pablo Reyes</t>
+  </si>
+  <si>
+    <t>Jonathan Loaisiga</t>
+  </si>
+  <si>
+    <t>Billy McKinney</t>
+  </si>
+  <si>
+    <t>Hunter Dozier</t>
+  </si>
+  <si>
+    <t>Michael Chavis</t>
+  </si>
+  <si>
+    <t>Chance Sisco</t>
+  </si>
+  <si>
+    <t>Austin Dean</t>
+  </si>
+  <si>
+    <t>Hanley Ramirez</t>
+  </si>
+  <si>
+    <t>David Fletcher</t>
+  </si>
+  <si>
+    <t>Curtis Granderson</t>
+  </si>
+  <si>
+    <t>Jake Odorizzi</t>
+  </si>
+  <si>
+    <t>Tyler Naquin</t>
+  </si>
+  <si>
+    <t>Chris Owings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesus Sanchez</t>
+  </si>
+  <si>
+    <t>Lance Lynn</t>
+  </si>
+  <si>
+    <t>Diego Castillo</t>
+  </si>
+  <si>
+    <t>Adam Engel</t>
+  </si>
+  <si>
+    <t>Sergio Romo</t>
+  </si>
+  <si>
+    <t>Hector Neris</t>
+  </si>
+  <si>
+    <t>Brad Miller</t>
+  </si>
+  <si>
+    <t>Luiz Gohara</t>
+  </si>
+  <si>
+    <t>Triston McKenzie</t>
+  </si>
+  <si>
+    <t>Andres Gimenez</t>
+  </si>
+  <si>
+    <t>Mac Williamson</t>
+  </si>
+  <si>
+    <t>Albert Almora Jr.</t>
+  </si>
+  <si>
+    <t>Vidal Brujan</t>
+  </si>
+  <si>
+    <t>Ty Buttrey</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Colin Moran</t>
+  </si>
+  <si>
+    <t>Domingo German</t>
+  </si>
+  <si>
+    <t>Jedd Gyorko</t>
+  </si>
+  <si>
+    <t>Taylor Ward</t>
+  </si>
+  <si>
+    <t>Eric Lauer</t>
+  </si>
+  <si>
+    <t>Frankie Montas</t>
+  </si>
+  <si>
+    <t>Jimmy Sherfy</t>
+  </si>
+  <si>
+    <t>Brusdar Graterol</t>
+  </si>
+  <si>
+    <t>Daz Cameron</t>
+  </si>
+  <si>
+    <t>Matt Beaty</t>
+  </si>
+  <si>
+    <t>Neil Walker</t>
+  </si>
+  <si>
+    <t>Pablo Lopez</t>
+  </si>
+  <si>
+    <t>Travis d'Arnaud</t>
+  </si>
+  <si>
+    <t>Michael A. Taylor</t>
+  </si>
+  <si>
+    <t>Franklin Barreto</t>
+  </si>
+  <si>
+    <t>Griffin Canning</t>
+  </si>
+  <si>
+    <t>Kolten Wong</t>
+  </si>
+  <si>
+    <t>Anthony DeSclafani</t>
+  </si>
+  <si>
+    <t>JaCoby Jones</t>
+  </si>
+  <si>
+    <t>Evan Gattis</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1846,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1803,6 +1986,11 @@
       <color rgb="FF55595C"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Material Icons"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2146,7 +2334,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2154,6 +2342,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2509,13 +2698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E520"/>
+  <dimension ref="A1:F592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="B505" sqref="B505"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="B478" sqref="B478"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -2523,7 +2712,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2557,7 +2746,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2574,7 +2763,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2591,7 +2780,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2608,7 +2797,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2625,7 +2814,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2642,7 +2831,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2659,7 +2848,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2676,7 +2865,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2693,7 +2882,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2710,7 +2899,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2727,7 +2916,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2744,7 +2933,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2761,7 +2950,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2778,7 +2967,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2795,7 +2984,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2812,7 +3001,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2829,7 +3018,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2846,7 +3035,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2863,7 +3052,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2880,7 +3069,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2897,7 +3086,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2914,7 +3103,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2931,7 +3120,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2948,7 +3137,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2965,7 +3154,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2982,7 +3171,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2999,7 +3188,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -3016,7 +3205,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3033,7 +3222,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -3050,7 +3239,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3067,7 +3256,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3084,7 +3273,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3101,7 +3290,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -3118,7 +3307,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3135,7 +3324,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3152,7 +3341,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -3169,7 +3358,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -3186,7 +3375,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -3203,7 +3392,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -3220,7 +3409,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -3237,7 +3426,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3254,7 +3443,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -3271,7 +3460,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -3288,7 +3477,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -3305,7 +3494,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -3322,7 +3511,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -3339,7 +3528,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -3356,7 +3545,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -3373,7 +3562,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -3390,7 +3579,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -3407,7 +3596,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -3424,7 +3613,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -3441,7 +3630,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -3458,7 +3647,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -3475,7 +3664,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -3492,7 +3681,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -3509,7 +3698,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -3526,7 +3715,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -3543,7 +3732,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -3560,7 +3749,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -3577,7 +3766,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3594,7 +3783,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -3611,7 +3800,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -3628,7 +3817,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -3645,7 +3834,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -3662,7 +3851,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -3679,7 +3868,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -3696,7 +3885,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -3713,7 +3902,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -3730,7 +3919,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -3747,7 +3936,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -3764,7 +3953,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -3781,7 +3970,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -3798,7 +3987,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -3815,7 +4004,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -3832,7 +4021,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -3849,7 +4038,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -3866,7 +4055,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -3883,7 +4072,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -3900,7 +4089,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3917,7 +4106,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -3934,7 +4123,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="24" customHeight="1">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -3951,7 +4140,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -3968,7 +4157,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -3985,7 +4174,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4002,7 +4191,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -4019,7 +4208,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -4036,7 +4225,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -4053,7 +4242,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -4070,7 +4259,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -4087,7 +4276,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -4104,7 +4293,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -4121,7 +4310,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -4138,7 +4327,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -4155,7 +4344,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -4172,7 +4361,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -4189,7 +4378,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -4206,7 +4395,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -4223,7 +4412,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -4240,7 +4429,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -4257,7 +4446,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -4274,7 +4463,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -4291,7 +4480,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -4308,7 +4497,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -4325,7 +4514,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -4342,7 +4531,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -4359,7 +4548,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -4376,7 +4565,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -4393,7 +4582,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -4410,7 +4599,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -4427,7 +4616,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -4444,7 +4633,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -4461,7 +4650,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -4478,7 +4667,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -4495,7 +4684,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -4512,7 +4701,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -4529,7 +4718,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -4546,7 +4735,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -4563,7 +4752,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -4580,7 +4769,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -4597,7 +4786,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -4614,7 +4803,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -4631,7 +4820,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -4648,7 +4837,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -4665,7 +4854,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -4682,7 +4871,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -4699,7 +4888,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -4716,7 +4905,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -4733,7 +4922,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4750,7 +4939,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -4767,7 +4956,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4784,7 +4973,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4801,7 +4990,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -4818,7 +5007,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -4835,7 +5024,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>39</v>
       </c>
@@ -4852,7 +5041,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -4869,7 +5058,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -4886,7 +5075,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -4903,7 +5092,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -4920,7 +5109,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -4937,7 +5126,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -4954,7 +5143,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -4971,7 +5160,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -4988,7 +5177,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -5005,7 +5194,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -5022,7 +5211,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -5039,7 +5228,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -5056,7 +5245,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -5073,7 +5262,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -5090,7 +5279,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -5107,7 +5296,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -5124,7 +5313,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -5141,7 +5330,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -5158,7 +5347,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -5175,7 +5364,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -5192,7 +5381,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -5209,7 +5398,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -5226,7 +5415,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>37</v>
       </c>
@@ -5243,7 +5432,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -5260,7 +5449,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -5277,7 +5466,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -5294,7 +5483,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -5311,7 +5500,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>37</v>
       </c>
@@ -5328,7 +5517,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -5345,7 +5534,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -5362,7 +5551,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -5379,7 +5568,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -5396,7 +5585,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -5413,7 +5602,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -5430,7 +5619,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>35</v>
       </c>
@@ -5447,7 +5636,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -5464,7 +5653,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>35</v>
       </c>
@@ -5481,7 +5670,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>35</v>
       </c>
@@ -5498,7 +5687,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>35</v>
       </c>
@@ -5515,7 +5704,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>35</v>
       </c>
@@ -5532,7 +5721,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -5549,7 +5738,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>35</v>
       </c>
@@ -5566,7 +5755,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -5583,7 +5772,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -5600,7 +5789,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -5617,7 +5806,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -5634,7 +5823,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -5651,7 +5840,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -5668,7 +5857,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -5685,7 +5874,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -5702,7 +5891,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5719,7 +5908,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -5736,7 +5925,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -5753,7 +5942,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -5770,7 +5959,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -5787,7 +5976,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -5804,7 +5993,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -5821,7 +6010,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5838,7 +6027,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -5855,7 +6044,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -5872,7 +6061,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -5889,7 +6078,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -5906,7 +6095,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -5923,7 +6112,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>84</v>
       </c>
@@ -5940,7 +6129,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -5957,7 +6146,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -5974,7 +6163,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -5991,7 +6180,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -6008,7 +6197,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -6025,7 +6214,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -6042,7 +6231,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -6059,7 +6248,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -6076,7 +6265,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -6093,7 +6282,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -6110,7 +6299,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -6127,7 +6316,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -6144,7 +6333,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -6161,7 +6350,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>45</v>
       </c>
@@ -6178,7 +6367,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -6195,7 +6384,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>41</v>
       </c>
@@ -6212,7 +6401,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -6229,7 +6418,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -6246,7 +6435,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -6263,7 +6452,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -6280,7 +6469,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -6297,7 +6486,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -6314,7 +6503,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>27</v>
       </c>
@@ -6331,7 +6520,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -6348,7 +6537,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -6365,7 +6554,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -6382,7 +6571,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -6399,7 +6588,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>84</v>
       </c>
@@ -6416,7 +6605,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -6433,7 +6622,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -6450,7 +6639,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>84</v>
       </c>
@@ -6467,7 +6656,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -6484,7 +6673,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -6501,7 +6690,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>27</v>
       </c>
@@ -6518,7 +6707,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -6535,7 +6724,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>84</v>
       </c>
@@ -6552,7 +6741,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -6569,7 +6758,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -6586,7 +6775,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>41</v>
       </c>
@@ -6603,7 +6792,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -6620,7 +6809,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>27</v>
       </c>
@@ -6637,7 +6826,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -6654,7 +6843,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>27</v>
       </c>
@@ -6671,7 +6860,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>41</v>
       </c>
@@ -6688,7 +6877,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>41</v>
       </c>
@@ -6705,7 +6894,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>45</v>
       </c>
@@ -6722,7 +6911,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -6739,7 +6928,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -6756,7 +6945,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>45</v>
       </c>
@@ -6773,7 +6962,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>35</v>
       </c>
@@ -6790,7 +6979,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>35</v>
       </c>
@@ -6807,7 +6996,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>37</v>
       </c>
@@ -6824,7 +7013,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>26</v>
       </c>
@@ -6841,7 +7030,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>84</v>
       </c>
@@ -6858,7 +7047,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -6875,7 +7064,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -6892,7 +7081,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>37</v>
       </c>
@@ -6909,7 +7098,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>41</v>
       </c>
@@ -6926,7 +7115,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>84</v>
       </c>
@@ -6943,7 +7132,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>24</v>
       </c>
@@ -6960,7 +7149,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -6977,7 +7166,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -6994,7 +7183,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -7011,7 +7200,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -7028,7 +7217,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -7045,7 +7234,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>39</v>
       </c>
@@ -7062,7 +7251,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>37</v>
       </c>
@@ -7079,7 +7268,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -7096,7 +7285,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -7113,7 +7302,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>84</v>
       </c>
@@ -7130,7 +7319,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>41</v>
       </c>
@@ -7147,7 +7336,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>41</v>
       </c>
@@ -7164,7 +7353,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>22</v>
       </c>
@@ -7181,7 +7370,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>22</v>
       </c>
@@ -7198,7 +7387,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -7215,7 +7404,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>22</v>
       </c>
@@ -7232,7 +7421,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>22</v>
       </c>
@@ -7249,7 +7438,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -7266,7 +7455,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>84</v>
       </c>
@@ -7283,7 +7472,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -7300,7 +7489,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>39</v>
       </c>
@@ -7317,7 +7506,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>43</v>
       </c>
@@ -7334,7 +7523,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -7351,7 +7540,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>24</v>
       </c>
@@ -7368,7 +7557,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -7385,7 +7574,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -7402,7 +7591,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -7419,7 +7608,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>84</v>
       </c>
@@ -7436,7 +7625,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -7453,7 +7642,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>41</v>
       </c>
@@ -7470,7 +7659,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -7487,7 +7676,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>41</v>
       </c>
@@ -7504,7 +7693,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -7521,7 +7710,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>35</v>
       </c>
@@ -7538,7 +7727,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -7555,7 +7744,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>35</v>
       </c>
@@ -7572,7 +7761,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -7589,7 +7778,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -7606,7 +7795,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -7623,7 +7812,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -7640,7 +7829,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>45</v>
       </c>
@@ -7657,7 +7846,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -7674,7 +7863,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>24</v>
       </c>
@@ -7691,7 +7880,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -7708,7 +7897,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>84</v>
       </c>
@@ -7725,7 +7914,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>24</v>
       </c>
@@ -7742,7 +7931,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -7759,7 +7948,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>37</v>
       </c>
@@ -7776,7 +7965,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -7793,7 +7982,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -7810,7 +7999,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -7827,7 +8016,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -7844,7 +8033,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>27</v>
       </c>
@@ -7861,7 +8050,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -7878,7 +8067,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -7895,7 +8084,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -7912,7 +8101,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>22</v>
       </c>
@@ -7929,7 +8118,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>45</v>
       </c>
@@ -7946,7 +8135,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -7963,7 +8152,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -7980,7 +8169,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -7997,7 +8186,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>43</v>
       </c>
@@ -8014,7 +8203,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>39</v>
       </c>
@@ -8031,7 +8220,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>22</v>
       </c>
@@ -8048,7 +8237,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>26</v>
       </c>
@@ -8065,7 +8254,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -8082,7 +8271,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -8099,7 +8288,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>41</v>
       </c>
@@ -8116,7 +8305,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>19</v>
       </c>
@@ -8133,7 +8322,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>39</v>
       </c>
@@ -8150,7 +8339,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -8167,7 +8356,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>45</v>
       </c>
@@ -8184,7 +8373,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -8201,7 +8390,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>41</v>
       </c>
@@ -8218,7 +8407,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>22</v>
       </c>
@@ -8235,7 +8424,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>35</v>
       </c>
@@ -8252,7 +8441,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>37</v>
       </c>
@@ -8269,7 +8458,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>24</v>
       </c>
@@ -8286,7 +8475,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>6</v>
       </c>
@@ -8303,7 +8492,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>45</v>
       </c>
@@ -8320,7 +8509,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>84</v>
       </c>
@@ -8337,7 +8526,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>84</v>
       </c>
@@ -8354,7 +8543,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>43</v>
       </c>
@@ -8371,7 +8560,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>6</v>
       </c>
@@ -8388,7 +8577,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>84</v>
       </c>
@@ -8405,7 +8594,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -8422,7 +8611,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>35</v>
       </c>
@@ -8439,7 +8628,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>27</v>
       </c>
@@ -8456,7 +8645,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>27</v>
       </c>
@@ -8473,7 +8662,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -8490,7 +8679,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" t="s">
         <v>22</v>
       </c>
@@ -8507,7 +8696,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" t="s">
         <v>39</v>
       </c>
@@ -8524,7 +8713,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" t="s">
         <v>15</v>
       </c>
@@ -8541,7 +8730,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -8558,7 +8747,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -8575,7 +8764,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" t="s">
         <v>17</v>
       </c>
@@ -8592,7 +8781,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>6</v>
       </c>
@@ -8609,7 +8798,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" t="s">
         <v>12</v>
       </c>
@@ -8626,7 +8815,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" t="s">
         <v>24</v>
       </c>
@@ -8643,7 +8832,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" t="s">
         <v>6</v>
       </c>
@@ -8660,7 +8849,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" t="s">
         <v>39</v>
       </c>
@@ -8677,7 +8866,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" t="s">
         <v>45</v>
       </c>
@@ -8694,7 +8883,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" t="s">
         <v>84</v>
       </c>
@@ -8711,7 +8900,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" t="s">
         <v>24</v>
       </c>
@@ -8728,7 +8917,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" t="s">
         <v>37</v>
       </c>
@@ -8745,7 +8934,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -8762,7 +8951,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" t="s">
         <v>43</v>
       </c>
@@ -8779,7 +8968,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" t="s">
         <v>19</v>
       </c>
@@ -8796,7 +8985,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" t="s">
         <v>24</v>
       </c>
@@ -8813,7 +9002,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" t="s">
         <v>15</v>
       </c>
@@ -8830,7 +9019,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" t="s">
         <v>22</v>
       </c>
@@ -8847,7 +9036,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" t="s">
         <v>84</v>
       </c>
@@ -8864,7 +9053,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" t="s">
         <v>43</v>
       </c>
@@ -8881,7 +9070,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -8898,7 +9087,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" t="s">
         <v>6</v>
       </c>
@@ -8915,7 +9104,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" t="s">
         <v>84</v>
       </c>
@@ -8932,7 +9121,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" t="s">
         <v>17</v>
       </c>
@@ -8949,7 +9138,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" t="s">
         <v>26</v>
       </c>
@@ -8966,7 +9155,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" t="s">
         <v>27</v>
       </c>
@@ -8983,7 +9172,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" t="s">
         <v>37</v>
       </c>
@@ -9000,7 +9189,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" t="s">
         <v>43</v>
       </c>
@@ -9017,7 +9206,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" t="s">
         <v>41</v>
       </c>
@@ -9034,7 +9223,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" t="s">
         <v>37</v>
       </c>
@@ -9051,7 +9240,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" t="s">
         <v>15</v>
       </c>
@@ -9068,7 +9257,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" t="s">
         <v>43</v>
       </c>
@@ -9085,7 +9274,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" t="s">
         <v>37</v>
       </c>
@@ -9102,7 +9291,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" t="s">
         <v>22</v>
       </c>
@@ -9119,7 +9308,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389" t="s">
         <v>17</v>
       </c>
@@ -9136,7 +9325,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390" t="s">
         <v>45</v>
       </c>
@@ -9153,7 +9342,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391" t="s">
         <v>37</v>
       </c>
@@ -9170,7 +9359,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -9187,7 +9376,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -9204,7 +9393,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394" t="s">
         <v>35</v>
       </c>
@@ -9221,7 +9410,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395" t="s">
         <v>17</v>
       </c>
@@ -9238,7 +9427,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5">
       <c r="A396" t="s">
         <v>12</v>
       </c>
@@ -9255,7 +9444,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5">
       <c r="A397" t="s">
         <v>37</v>
       </c>
@@ -9272,7 +9461,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -9289,7 +9478,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5">
       <c r="A399" t="s">
         <v>41</v>
       </c>
@@ -9306,7 +9495,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5">
       <c r="A400" t="s">
         <v>35</v>
       </c>
@@ -9323,7 +9512,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5">
       <c r="A401" t="s">
         <v>19</v>
       </c>
@@ -9340,7 +9529,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5">
       <c r="A402" t="s">
         <v>26</v>
       </c>
@@ -9357,7 +9546,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5">
       <c r="A403" t="s">
         <v>35</v>
       </c>
@@ -9374,7 +9563,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5">
       <c r="A404" t="s">
         <v>15</v>
       </c>
@@ -9391,7 +9580,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5">
       <c r="A405" t="s">
         <v>24</v>
       </c>
@@ -9408,7 +9597,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="A406" t="s">
         <v>22</v>
       </c>
@@ -9425,7 +9614,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -9442,7 +9631,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5">
       <c r="A408" t="s">
         <v>39</v>
       </c>
@@ -9459,7 +9648,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5">
       <c r="A409" t="s">
         <v>35</v>
       </c>
@@ -9476,7 +9665,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5">
       <c r="A410" t="s">
         <v>19</v>
       </c>
@@ -9493,7 +9682,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5">
       <c r="A411" t="s">
         <v>45</v>
       </c>
@@ -9510,7 +9699,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5">
       <c r="A412" t="s">
         <v>45</v>
       </c>
@@ -9527,7 +9716,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5">
       <c r="A413" t="s">
         <v>35</v>
       </c>
@@ -9544,7 +9733,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5">
       <c r="A414" t="s">
         <v>19</v>
       </c>
@@ -9561,7 +9750,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5">
       <c r="A415" t="s">
         <v>15</v>
       </c>
@@ -9578,7 +9767,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5">
       <c r="A416" t="s">
         <v>27</v>
       </c>
@@ -9595,7 +9784,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5">
       <c r="A417" t="s">
         <v>5</v>
       </c>
@@ -9612,7 +9801,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5">
       <c r="A418" t="s">
         <v>26</v>
       </c>
@@ -9629,7 +9818,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5">
       <c r="A419" t="s">
         <v>39</v>
       </c>
@@ -9646,7 +9835,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5">
       <c r="A420" t="s">
         <v>22</v>
       </c>
@@ -9663,7 +9852,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5">
       <c r="A421" t="s">
         <v>45</v>
       </c>
@@ -9680,7 +9869,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5">
       <c r="A422" t="s">
         <v>5</v>
       </c>
@@ -9697,7 +9886,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5">
       <c r="A423" t="s">
         <v>6</v>
       </c>
@@ -9714,7 +9903,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5">
       <c r="A424" t="s">
         <v>43</v>
       </c>
@@ -9731,7 +9920,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5">
       <c r="A425" t="s">
         <v>26</v>
       </c>
@@ -9748,7 +9937,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5">
       <c r="A426" t="s">
         <v>45</v>
       </c>
@@ -9765,7 +9954,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5">
       <c r="A427" t="s">
         <v>35</v>
       </c>
@@ -9782,7 +9971,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5">
       <c r="A428" t="s">
         <v>19</v>
       </c>
@@ -9799,7 +9988,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5">
       <c r="A429" t="s">
         <v>24</v>
       </c>
@@ -9816,7 +10005,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5">
       <c r="A430" t="s">
         <v>37</v>
       </c>
@@ -9833,7 +10022,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5">
       <c r="A431" t="s">
         <v>15</v>
       </c>
@@ -9850,7 +10039,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5">
       <c r="A432" t="s">
         <v>26</v>
       </c>
@@ -9867,7 +10056,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5">
       <c r="A433" t="s">
         <v>39</v>
       </c>
@@ -9884,7 +10073,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5">
       <c r="A434" t="s">
         <v>24</v>
       </c>
@@ -9901,7 +10090,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5">
       <c r="A435" t="s">
         <v>6</v>
       </c>
@@ -9918,7 +10107,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5">
       <c r="A436" t="s">
         <v>12</v>
       </c>
@@ -9935,7 +10124,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5">
       <c r="A437" t="s">
         <v>26</v>
       </c>
@@ -9952,7 +10141,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5">
       <c r="A438" t="s">
         <v>35</v>
       </c>
@@ -9969,7 +10158,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5">
       <c r="A439" t="s">
         <v>35</v>
       </c>
@@ -9986,7 +10175,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5">
       <c r="A440" t="s">
         <v>19</v>
       </c>
@@ -10003,7 +10192,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5">
       <c r="A441" t="s">
         <v>12</v>
       </c>
@@ -10020,7 +10209,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5">
       <c r="A442" t="s">
         <v>26</v>
       </c>
@@ -10037,7 +10226,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5">
       <c r="A443" t="s">
         <v>15</v>
       </c>
@@ -10054,7 +10243,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5">
       <c r="A444" t="s">
         <v>26</v>
       </c>
@@ -10071,7 +10260,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5">
       <c r="A445" t="s">
         <v>45</v>
       </c>
@@ -10088,7 +10277,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5">
       <c r="A446" t="s">
         <v>5</v>
       </c>
@@ -10105,7 +10294,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5">
       <c r="A447" t="s">
         <v>39</v>
       </c>
@@ -10122,7 +10311,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5">
       <c r="A448" t="s">
         <v>15</v>
       </c>
@@ -10139,7 +10328,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5">
       <c r="A449" t="s">
         <v>26</v>
       </c>
@@ -10156,7 +10345,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5">
       <c r="A450" t="s">
         <v>35</v>
       </c>
@@ -10173,7 +10362,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5">
       <c r="A451" t="s">
         <v>26</v>
       </c>
@@ -10190,7 +10379,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5">
       <c r="A452" t="s">
         <v>12</v>
       </c>
@@ -10207,7 +10396,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5">
       <c r="A453" t="s">
         <v>37</v>
       </c>
@@ -10224,7 +10413,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5">
       <c r="A454" t="s">
         <v>24</v>
       </c>
@@ -10241,7 +10430,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5">
       <c r="A455" t="s">
         <v>45</v>
       </c>
@@ -10258,7 +10447,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -10275,7 +10464,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5">
       <c r="A457" t="s">
         <v>39</v>
       </c>
@@ -10292,7 +10481,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5">
       <c r="A458" t="s">
         <v>26</v>
       </c>
@@ -10309,7 +10498,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5">
       <c r="A459" t="s">
         <v>43</v>
       </c>
@@ -10326,7 +10515,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5">
       <c r="A460" t="s">
         <v>19</v>
       </c>
@@ -10343,7 +10532,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5">
       <c r="A461" t="s">
         <v>39</v>
       </c>
@@ -10360,7 +10549,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5">
       <c r="A462" t="s">
         <v>24</v>
       </c>
@@ -10377,7 +10566,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5">
       <c r="A463" t="s">
         <v>5</v>
       </c>
@@ -10394,7 +10583,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5">
       <c r="A464" t="s">
         <v>39</v>
       </c>
@@ -10411,7 +10600,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5">
       <c r="A465" t="s">
         <v>43</v>
       </c>
@@ -10428,7 +10617,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5">
       <c r="A466" t="s">
         <v>43</v>
       </c>
@@ -10445,7 +10634,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5">
       <c r="A467" t="s">
         <v>37</v>
       </c>
@@ -10462,7 +10651,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5">
       <c r="A468" t="s">
         <v>24</v>
       </c>
@@ -10479,7 +10668,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5">
       <c r="A469" t="s">
         <v>5</v>
       </c>
@@ -10496,7 +10685,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5">
       <c r="A470" t="s">
         <v>39</v>
       </c>
@@ -10513,7 +10702,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5">
       <c r="A471" t="s">
         <v>26</v>
       </c>
@@ -10530,7 +10719,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5">
       <c r="A472" t="s">
         <v>43</v>
       </c>
@@ -10547,7 +10736,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5">
       <c r="A473" t="s">
         <v>39</v>
       </c>
@@ -10564,7 +10753,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5">
       <c r="A474" t="s">
         <v>43</v>
       </c>
@@ -10581,7 +10770,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5">
       <c r="A475" t="s">
         <v>19</v>
       </c>
@@ -10598,7 +10787,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5">
       <c r="A476" t="s">
         <v>15</v>
       </c>
@@ -10615,7 +10804,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5">
       <c r="A477" t="s">
         <v>6</v>
       </c>
@@ -10632,12 +10821,12 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5">
       <c r="A478" t="s">
         <v>17</v>
       </c>
       <c r="B478" t="s">
-        <v>510</v>
+        <v>602</v>
       </c>
       <c r="C478" s="2">
         <v>0</v>
@@ -10649,12 +10838,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5">
       <c r="A479" t="s">
         <v>45</v>
       </c>
       <c r="B479" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C479" s="2">
         <v>0</v>
@@ -10666,12 +10855,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5">
       <c r="A480" t="s">
         <v>17</v>
       </c>
       <c r="B480" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C480" s="2">
         <v>0</v>
@@ -10683,12 +10872,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5">
       <c r="A481" t="s">
         <v>6</v>
       </c>
       <c r="B481" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C481" s="2">
         <v>0</v>
@@ -10700,12 +10889,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5">
       <c r="A482" t="s">
         <v>15</v>
       </c>
       <c r="B482" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C482" s="2">
         <v>0</v>
@@ -10717,12 +10906,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5">
       <c r="A483" t="s">
         <v>26</v>
       </c>
       <c r="B483" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C483" s="2">
         <v>0</v>
@@ -10734,12 +10923,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5">
       <c r="A484" t="s">
         <v>19</v>
       </c>
       <c r="B484" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C484" s="2">
         <v>0</v>
@@ -10751,12 +10940,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5">
       <c r="A485" t="s">
         <v>37</v>
       </c>
       <c r="B485" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C485" s="2">
         <v>0</v>
@@ -10768,12 +10957,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5">
       <c r="A486" t="s">
         <v>9</v>
       </c>
       <c r="B486" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C486" s="2">
         <v>0</v>
@@ -10785,12 +10974,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5">
       <c r="A487" t="s">
         <v>5</v>
       </c>
       <c r="B487" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C487" s="2">
         <v>0</v>
@@ -10802,12 +10991,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5">
       <c r="A488" t="s">
         <v>35</v>
       </c>
       <c r="B488" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C488" s="2">
         <v>0</v>
@@ -10819,12 +11008,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5">
       <c r="A489" t="s">
         <v>26</v>
       </c>
       <c r="B489" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C489" s="2">
         <v>0</v>
@@ -10836,12 +11025,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5">
       <c r="A490" t="s">
         <v>12</v>
       </c>
       <c r="B490" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C490" s="2">
         <v>0</v>
@@ -10853,12 +11042,12 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5">
       <c r="A491" t="s">
         <v>39</v>
       </c>
       <c r="B491" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C491" s="2">
         <v>0</v>
@@ -10870,12 +11059,12 @@
         <v>43519</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5">
       <c r="A492" t="s">
         <v>15</v>
       </c>
       <c r="B492" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C492" s="2">
         <v>0</v>
@@ -10887,12 +11076,12 @@
         <v>43519</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5">
       <c r="A493" t="s">
         <v>35</v>
       </c>
       <c r="B493" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C493" s="2">
         <v>0</v>
@@ -10904,12 +11093,12 @@
         <v>43519</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5">
       <c r="A494" t="s">
         <v>22</v>
       </c>
       <c r="B494" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C494" s="2">
         <v>0</v>
@@ -10921,12 +11110,12 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5">
       <c r="A495" t="s">
         <v>19</v>
       </c>
       <c r="B495" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C495" s="2">
         <v>0</v>
@@ -10938,12 +11127,12 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5">
       <c r="A496" t="s">
         <v>37</v>
       </c>
       <c r="B496" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C496" s="2">
         <v>0</v>
@@ -10955,12 +11144,12 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5">
       <c r="A497" t="s">
         <v>6</v>
       </c>
       <c r="B497" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C497" s="2">
         <v>0</v>
@@ -10972,12 +11161,12 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5">
       <c r="A498" t="s">
         <v>17</v>
       </c>
       <c r="B498" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C498" s="2">
         <v>0</v>
@@ -10989,12 +11178,12 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5">
       <c r="A499" t="s">
         <v>24</v>
       </c>
       <c r="B499" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C499" s="2">
         <v>0</v>
@@ -11006,12 +11195,12 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5">
       <c r="A500" t="s">
         <v>15</v>
       </c>
       <c r="B500" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C500" s="2">
         <v>0</v>
@@ -11023,12 +11212,12 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5">
       <c r="A501" t="s">
         <v>41</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C501" s="2">
         <v>0</v>
@@ -11040,12 +11229,12 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5">
       <c r="A502" t="s">
         <v>43</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C502" s="2">
         <v>0</v>
@@ -11057,12 +11246,12 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5">
       <c r="A503" t="s">
         <v>19</v>
       </c>
       <c r="B503" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C503" s="2">
         <v>0</v>
@@ -11074,12 +11263,12 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5">
       <c r="A504" t="s">
         <v>41</v>
       </c>
       <c r="B504" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C504" s="2">
         <v>0</v>
@@ -11091,12 +11280,12 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5">
       <c r="A505" t="s">
         <v>45</v>
       </c>
       <c r="B505" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C505" s="2">
         <v>0</v>
@@ -11108,12 +11297,12 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5">
       <c r="A506" t="s">
         <v>24</v>
       </c>
       <c r="B506" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C506" s="2">
         <v>0</v>
@@ -11125,12 +11314,12 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5">
       <c r="A507" t="s">
         <v>17</v>
       </c>
       <c r="B507" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C507" s="2">
         <v>0</v>
@@ -11142,12 +11331,12 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5">
       <c r="A508" t="s">
         <v>6</v>
       </c>
       <c r="B508" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C508" s="2">
         <v>0</v>
@@ -11159,12 +11348,12 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5">
       <c r="A509" t="s">
         <v>84</v>
       </c>
       <c r="B509" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C509" s="2">
         <v>0</v>
@@ -11172,14 +11361,16 @@
       <c r="D509" t="s">
         <v>48</v>
       </c>
-      <c r="E509" s="1"/>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E509" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
       <c r="A510" t="s">
         <v>19</v>
       </c>
       <c r="B510" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="C510" s="2">
         <v>0</v>
@@ -11187,14 +11378,16 @@
       <c r="D510" t="s">
         <v>48</v>
       </c>
-      <c r="E510" s="1"/>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E510" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
       <c r="A511" t="s">
         <v>22</v>
       </c>
       <c r="B511" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="C511" s="2">
         <v>0</v>
@@ -11202,14 +11395,16 @@
       <c r="D511" t="s">
         <v>48</v>
       </c>
-      <c r="E511" s="1"/>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E511" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
       <c r="A512" t="s">
         <v>27</v>
       </c>
       <c r="B512" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="C512" s="2">
         <v>0</v>
@@ -11217,14 +11412,16 @@
       <c r="D512" t="s">
         <v>48</v>
       </c>
-      <c r="E512" s="1"/>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E512" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
       <c r="A513" t="s">
         <v>15</v>
       </c>
       <c r="B513" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C513" s="2">
         <v>0</v>
@@ -11232,14 +11429,16 @@
       <c r="D513" t="s">
         <v>48</v>
       </c>
-      <c r="E513" s="1"/>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E513" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
       <c r="A514" t="s">
         <v>43</v>
       </c>
       <c r="B514" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="C514" s="2">
         <v>0</v>
@@ -11247,14 +11446,16 @@
       <c r="D514" t="s">
         <v>48</v>
       </c>
-      <c r="E514" s="1"/>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E514" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
       <c r="A515" t="s">
         <v>12</v>
       </c>
       <c r="B515" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="C515" s="2">
         <v>0</v>
@@ -11262,14 +11463,16 @@
       <c r="D515" t="s">
         <v>48</v>
       </c>
-      <c r="E515" s="1"/>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E515" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
       <c r="A516" t="s">
         <v>26</v>
       </c>
       <c r="B516" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="C516" s="2">
         <v>0</v>
@@ -11277,14 +11480,16 @@
       <c r="D516" t="s">
         <v>48</v>
       </c>
-      <c r="E516" s="1"/>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E516" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
       <c r="A517" t="s">
         <v>19</v>
       </c>
       <c r="B517" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="C517" s="2">
         <v>0</v>
@@ -11292,14 +11497,16 @@
       <c r="D517" t="s">
         <v>48</v>
       </c>
-      <c r="E517" s="1"/>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E517" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
       <c r="A518" t="s">
         <v>5</v>
       </c>
       <c r="B518" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="C518" s="2">
         <v>0</v>
@@ -11307,14 +11514,16 @@
       <c r="D518" t="s">
         <v>48</v>
       </c>
-      <c r="E518" s="1"/>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E518" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
       <c r="A519" t="s">
         <v>9</v>
       </c>
       <c r="B519" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="C519" s="2">
         <v>0</v>
@@ -11322,14 +11531,16 @@
       <c r="D519" t="s">
         <v>48</v>
       </c>
-      <c r="E519" s="1"/>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E519" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
       <c r="A520" t="s">
         <v>37</v>
       </c>
       <c r="B520" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="C520" s="2">
         <v>0</v>
@@ -11337,7 +11548,1188 @@
       <c r="D520" t="s">
         <v>48</v>
       </c>
-      <c r="E520" s="1"/>
+      <c r="E520" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" t="s">
+        <v>37</v>
+      </c>
+      <c r="B521" t="s">
+        <v>593</v>
+      </c>
+      <c r="C521" s="2">
+        <v>0</v>
+      </c>
+      <c r="D521" t="s">
+        <v>48</v>
+      </c>
+      <c r="E521" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" t="s">
+        <v>9</v>
+      </c>
+      <c r="B522" t="s">
+        <v>551</v>
+      </c>
+      <c r="C522" s="2">
+        <v>0</v>
+      </c>
+      <c r="D522" t="s">
+        <v>48</v>
+      </c>
+      <c r="E522" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" t="s">
+        <v>5</v>
+      </c>
+      <c r="B523" t="s">
+        <v>552</v>
+      </c>
+      <c r="C523" s="2">
+        <v>0</v>
+      </c>
+      <c r="D523" t="s">
+        <v>48</v>
+      </c>
+      <c r="E523" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" t="s">
+        <v>19</v>
+      </c>
+      <c r="B524" t="s">
+        <v>553</v>
+      </c>
+      <c r="C524" s="2">
+        <v>0</v>
+      </c>
+      <c r="D524" t="s">
+        <v>48</v>
+      </c>
+      <c r="E524" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" t="s">
+        <v>26</v>
+      </c>
+      <c r="B525" t="s">
+        <v>554</v>
+      </c>
+      <c r="C525" s="2">
+        <v>0</v>
+      </c>
+      <c r="D525" t="s">
+        <v>48</v>
+      </c>
+      <c r="E525" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" t="s">
+        <v>12</v>
+      </c>
+      <c r="B526" t="s">
+        <v>555</v>
+      </c>
+      <c r="C526" s="2">
+        <v>0</v>
+      </c>
+      <c r="D526" t="s">
+        <v>48</v>
+      </c>
+      <c r="E526" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" t="s">
+        <v>39</v>
+      </c>
+      <c r="B527" t="s">
+        <v>556</v>
+      </c>
+      <c r="C527" s="2">
+        <v>0</v>
+      </c>
+      <c r="D527" t="s">
+        <v>48</v>
+      </c>
+      <c r="E527" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" t="s">
+        <v>15</v>
+      </c>
+      <c r="B528" t="s">
+        <v>557</v>
+      </c>
+      <c r="C528" s="2">
+        <v>0</v>
+      </c>
+      <c r="D528" t="s">
+        <v>48</v>
+      </c>
+      <c r="E528" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" t="s">
+        <v>27</v>
+      </c>
+      <c r="B529" t="s">
+        <v>558</v>
+      </c>
+      <c r="C529" s="2">
+        <v>0</v>
+      </c>
+      <c r="D529" t="s">
+        <v>48</v>
+      </c>
+      <c r="E529" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" t="s">
+        <v>22</v>
+      </c>
+      <c r="B530" t="s">
+        <v>559</v>
+      </c>
+      <c r="C530" s="2">
+        <v>0</v>
+      </c>
+      <c r="D530" t="s">
+        <v>48</v>
+      </c>
+      <c r="E530" s="1">
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" t="s">
+        <v>27</v>
+      </c>
+      <c r="B531" t="s">
+        <v>560</v>
+      </c>
+      <c r="C531" s="2">
+        <v>0</v>
+      </c>
+      <c r="D531" t="s">
+        <v>48</v>
+      </c>
+      <c r="E531" s="1">
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" t="s">
+        <v>84</v>
+      </c>
+      <c r="B532" t="s">
+        <v>581</v>
+      </c>
+      <c r="C532" s="2">
+        <v>0</v>
+      </c>
+      <c r="D532" t="s">
+        <v>48</v>
+      </c>
+      <c r="E532" s="1">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" t="s">
+        <v>6</v>
+      </c>
+      <c r="B533" t="s">
+        <v>582</v>
+      </c>
+      <c r="C533" s="2">
+        <v>0</v>
+      </c>
+      <c r="D533" t="s">
+        <v>48</v>
+      </c>
+      <c r="E533" s="1">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" t="s">
+        <v>17</v>
+      </c>
+      <c r="B534" t="s">
+        <v>583</v>
+      </c>
+      <c r="C534" s="2">
+        <v>0</v>
+      </c>
+      <c r="D534" t="s">
+        <v>48</v>
+      </c>
+      <c r="E534" s="1">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" t="s">
+        <v>24</v>
+      </c>
+      <c r="B535" t="s">
+        <v>580</v>
+      </c>
+      <c r="C535" s="2">
+        <v>0</v>
+      </c>
+      <c r="D535" t="s">
+        <v>48</v>
+      </c>
+      <c r="E535" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" t="s">
+        <v>45</v>
+      </c>
+      <c r="B536" t="s">
+        <v>579</v>
+      </c>
+      <c r="C536" s="2">
+        <v>0</v>
+      </c>
+      <c r="D536" t="s">
+        <v>48</v>
+      </c>
+      <c r="E536" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" t="s">
+        <v>41</v>
+      </c>
+      <c r="B537" t="s">
+        <v>577</v>
+      </c>
+      <c r="C537" s="2">
+        <v>0</v>
+      </c>
+      <c r="D537" t="s">
+        <v>48</v>
+      </c>
+      <c r="E537" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" t="s">
+        <v>43</v>
+      </c>
+      <c r="B538" t="s">
+        <v>578</v>
+      </c>
+      <c r="C538" s="2">
+        <v>0</v>
+      </c>
+      <c r="D538" t="s">
+        <v>48</v>
+      </c>
+      <c r="E538" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" t="s">
+        <v>39</v>
+      </c>
+      <c r="B539" t="s">
+        <v>597</v>
+      </c>
+      <c r="C539" s="2">
+        <v>0</v>
+      </c>
+      <c r="D539" t="s">
+        <v>48</v>
+      </c>
+      <c r="E539" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" t="s">
+        <v>41</v>
+      </c>
+      <c r="B540" t="s">
+        <v>561</v>
+      </c>
+      <c r="C540" s="2">
+        <v>0</v>
+      </c>
+      <c r="D540" t="s">
+        <v>48</v>
+      </c>
+      <c r="E540" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" t="s">
+        <v>45</v>
+      </c>
+      <c r="B541" t="s">
+        <v>562</v>
+      </c>
+      <c r="C541" s="2">
+        <v>0</v>
+      </c>
+      <c r="D541" t="s">
+        <v>48</v>
+      </c>
+      <c r="E541" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" t="s">
+        <v>24</v>
+      </c>
+      <c r="B542" t="s">
+        <v>563</v>
+      </c>
+      <c r="C542" s="2">
+        <v>0</v>
+      </c>
+      <c r="D542" t="s">
+        <v>48</v>
+      </c>
+      <c r="E542" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" t="s">
+        <v>17</v>
+      </c>
+      <c r="B543" t="s">
+        <v>564</v>
+      </c>
+      <c r="C543" s="2">
+        <v>0</v>
+      </c>
+      <c r="D543" t="s">
+        <v>48</v>
+      </c>
+      <c r="E543" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" t="s">
+        <v>6</v>
+      </c>
+      <c r="B544" t="s">
+        <v>565</v>
+      </c>
+      <c r="C544" s="2">
+        <v>0</v>
+      </c>
+      <c r="D544" t="s">
+        <v>48</v>
+      </c>
+      <c r="E544" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6">
+      <c r="A545" t="s">
+        <v>84</v>
+      </c>
+      <c r="B545" t="s">
+        <v>566</v>
+      </c>
+      <c r="C545" s="2">
+        <v>0</v>
+      </c>
+      <c r="D545" t="s">
+        <v>48</v>
+      </c>
+      <c r="E545" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6">
+      <c r="A546" t="s">
+        <v>35</v>
+      </c>
+      <c r="B546" t="s">
+        <v>567</v>
+      </c>
+      <c r="C546" s="2">
+        <v>0</v>
+      </c>
+      <c r="D546" t="s">
+        <v>48</v>
+      </c>
+      <c r="E546" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6">
+      <c r="A547" t="s">
+        <v>22</v>
+      </c>
+      <c r="B547" t="s">
+        <v>568</v>
+      </c>
+      <c r="C547" s="2">
+        <v>0</v>
+      </c>
+      <c r="D547" t="s">
+        <v>48</v>
+      </c>
+      <c r="E547" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6">
+      <c r="A548" t="s">
+        <v>27</v>
+      </c>
+      <c r="B548" t="s">
+        <v>569</v>
+      </c>
+      <c r="C548" s="2">
+        <v>0</v>
+      </c>
+      <c r="D548" t="s">
+        <v>48</v>
+      </c>
+      <c r="E548" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="A549" t="s">
+        <v>45</v>
+      </c>
+      <c r="B549" t="s">
+        <v>570</v>
+      </c>
+      <c r="C549" s="2">
+        <v>0</v>
+      </c>
+      <c r="D549" t="s">
+        <v>48</v>
+      </c>
+      <c r="E549" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6">
+      <c r="A550" t="s">
+        <v>39</v>
+      </c>
+      <c r="B550" t="s">
+        <v>576</v>
+      </c>
+      <c r="C550" s="2">
+        <v>0</v>
+      </c>
+      <c r="D550" t="s">
+        <v>48</v>
+      </c>
+      <c r="E550" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6">
+      <c r="A551" t="s">
+        <v>12</v>
+      </c>
+      <c r="B551" t="s">
+        <v>571</v>
+      </c>
+      <c r="C551" s="2">
+        <v>0</v>
+      </c>
+      <c r="D551" t="s">
+        <v>48</v>
+      </c>
+      <c r="E551" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" t="s">
+        <v>26</v>
+      </c>
+      <c r="B552" t="s">
+        <v>599</v>
+      </c>
+      <c r="C552" s="2">
+        <v>0</v>
+      </c>
+      <c r="D552" t="s">
+        <v>48</v>
+      </c>
+      <c r="E552" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6">
+      <c r="A553" t="s">
+        <v>43</v>
+      </c>
+      <c r="B553" t="s">
+        <v>572</v>
+      </c>
+      <c r="C553" s="2">
+        <v>0</v>
+      </c>
+      <c r="D553" t="s">
+        <v>48</v>
+      </c>
+      <c r="E553" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" t="s">
+        <v>5</v>
+      </c>
+      <c r="B554" t="s">
+        <v>573</v>
+      </c>
+      <c r="C554" s="2">
+        <v>0</v>
+      </c>
+      <c r="D554" t="s">
+        <v>48</v>
+      </c>
+      <c r="E554" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
+      <c r="A555" t="s">
+        <v>9</v>
+      </c>
+      <c r="B555" t="s">
+        <v>574</v>
+      </c>
+      <c r="C555" s="2">
+        <v>0</v>
+      </c>
+      <c r="D555" t="s">
+        <v>48</v>
+      </c>
+      <c r="E555" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556" t="s">
+        <v>84</v>
+      </c>
+      <c r="B556" t="s">
+        <v>575</v>
+      </c>
+      <c r="C556" s="2">
+        <v>0</v>
+      </c>
+      <c r="D556" t="s">
+        <v>48</v>
+      </c>
+      <c r="E556" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="A557" t="s">
+        <v>37</v>
+      </c>
+      <c r="B557" t="s">
+        <v>598</v>
+      </c>
+      <c r="C557" s="2">
+        <v>0</v>
+      </c>
+      <c r="D557" t="s">
+        <v>48</v>
+      </c>
+      <c r="E557" s="1">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="A558" t="s">
+        <v>9</v>
+      </c>
+      <c r="B558" t="s">
+        <v>592</v>
+      </c>
+      <c r="C558" s="2">
+        <v>0</v>
+      </c>
+      <c r="D558" t="s">
+        <v>48</v>
+      </c>
+      <c r="E558" s="1">
+        <v>43530</v>
+      </c>
+      <c r="F558" s="5"/>
+    </row>
+    <row r="559" spans="1:6">
+      <c r="A559" t="s">
+        <v>39</v>
+      </c>
+      <c r="B559" t="s">
+        <v>584</v>
+      </c>
+      <c r="C559" s="2">
+        <v>0</v>
+      </c>
+      <c r="D559" t="s">
+        <v>48</v>
+      </c>
+      <c r="E559" s="1">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="A560" t="s">
+        <v>35</v>
+      </c>
+      <c r="B560" t="s">
+        <v>585</v>
+      </c>
+      <c r="C560" s="2">
+        <v>0</v>
+      </c>
+      <c r="D560" t="s">
+        <v>48</v>
+      </c>
+      <c r="E560" s="1">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" t="s">
+        <v>26</v>
+      </c>
+      <c r="B561" t="s">
+        <v>586</v>
+      </c>
+      <c r="C561" s="2">
+        <v>0</v>
+      </c>
+      <c r="D561" t="s">
+        <v>48</v>
+      </c>
+      <c r="E561" s="1">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" t="s">
+        <v>12</v>
+      </c>
+      <c r="B562" t="s">
+        <v>600</v>
+      </c>
+      <c r="C562" s="2">
+        <v>0</v>
+      </c>
+      <c r="D562" t="s">
+        <v>48</v>
+      </c>
+      <c r="E562" s="1">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" t="s">
+        <v>5</v>
+      </c>
+      <c r="B563" t="s">
+        <v>594</v>
+      </c>
+      <c r="C563" s="2">
+        <v>0</v>
+      </c>
+      <c r="D563" t="s">
+        <v>48</v>
+      </c>
+      <c r="E563" s="1">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" t="s">
+        <v>43</v>
+      </c>
+      <c r="B564" t="s">
+        <v>587</v>
+      </c>
+      <c r="C564" s="2">
+        <v>0</v>
+      </c>
+      <c r="D564" t="s">
+        <v>48</v>
+      </c>
+      <c r="E564" s="1">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" t="s">
+        <v>27</v>
+      </c>
+      <c r="B565" t="s">
+        <v>588</v>
+      </c>
+      <c r="C565" s="2">
+        <v>0</v>
+      </c>
+      <c r="D565" t="s">
+        <v>48</v>
+      </c>
+      <c r="E565" s="1">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" t="s">
+        <v>22</v>
+      </c>
+      <c r="B566" t="s">
+        <v>589</v>
+      </c>
+      <c r="C566" s="2">
+        <v>0</v>
+      </c>
+      <c r="D566" t="s">
+        <v>48</v>
+      </c>
+      <c r="E566" s="1">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" t="s">
+        <v>35</v>
+      </c>
+      <c r="B567" t="s">
+        <v>601</v>
+      </c>
+      <c r="C567" s="2">
+        <v>0</v>
+      </c>
+      <c r="D567" t="s">
+        <v>48</v>
+      </c>
+      <c r="E567" s="1">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" t="s">
+        <v>84</v>
+      </c>
+      <c r="B568" t="s">
+        <v>590</v>
+      </c>
+      <c r="C568" s="2">
+        <v>0</v>
+      </c>
+      <c r="D568" t="s">
+        <v>48</v>
+      </c>
+      <c r="E568" s="1">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" t="s">
+        <v>6</v>
+      </c>
+      <c r="B569" t="s">
+        <v>591</v>
+      </c>
+      <c r="C569" s="2">
+        <v>0</v>
+      </c>
+      <c r="D569" t="s">
+        <v>48</v>
+      </c>
+      <c r="E569" s="1">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" t="s">
+        <v>17</v>
+      </c>
+      <c r="B570" t="s">
+        <v>531</v>
+      </c>
+      <c r="C570" s="2">
+        <v>0</v>
+      </c>
+      <c r="D570" t="s">
+        <v>48</v>
+      </c>
+      <c r="E570" s="1"/>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" t="s">
+        <v>24</v>
+      </c>
+      <c r="B571" t="s">
+        <v>531</v>
+      </c>
+      <c r="C571" s="2">
+        <v>0</v>
+      </c>
+      <c r="D571" t="s">
+        <v>48</v>
+      </c>
+      <c r="E571" s="1"/>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" t="s">
+        <v>45</v>
+      </c>
+      <c r="B572" t="s">
+        <v>531</v>
+      </c>
+      <c r="C572" s="2">
+        <v>0</v>
+      </c>
+      <c r="D572" t="s">
+        <v>48</v>
+      </c>
+      <c r="E572" s="1"/>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" t="s">
+        <v>41</v>
+      </c>
+      <c r="B573" t="s">
+        <v>531</v>
+      </c>
+      <c r="C573" s="2">
+        <v>0</v>
+      </c>
+      <c r="D573" t="s">
+        <v>48</v>
+      </c>
+      <c r="E573" s="1"/>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" t="s">
+        <v>43</v>
+      </c>
+      <c r="B574" t="s">
+        <v>531</v>
+      </c>
+      <c r="C574" s="2">
+        <v>0</v>
+      </c>
+      <c r="D574" t="s">
+        <v>48</v>
+      </c>
+      <c r="E574" s="1"/>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" t="s">
+        <v>43</v>
+      </c>
+      <c r="B575" t="s">
+        <v>531</v>
+      </c>
+      <c r="C575" s="2">
+        <v>0</v>
+      </c>
+      <c r="D575" t="s">
+        <v>48</v>
+      </c>
+      <c r="E575" s="1"/>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" t="s">
+        <v>41</v>
+      </c>
+      <c r="B576" t="s">
+        <v>531</v>
+      </c>
+      <c r="C576" s="2">
+        <v>0</v>
+      </c>
+      <c r="D576" t="s">
+        <v>48</v>
+      </c>
+      <c r="E576" s="1"/>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" t="s">
+        <v>45</v>
+      </c>
+      <c r="B577" t="s">
+        <v>531</v>
+      </c>
+      <c r="C577" s="2">
+        <v>0</v>
+      </c>
+      <c r="D577" t="s">
+        <v>48</v>
+      </c>
+      <c r="E577" s="1"/>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" t="s">
+        <v>24</v>
+      </c>
+      <c r="B578" t="s">
+        <v>531</v>
+      </c>
+      <c r="C578" s="2">
+        <v>0</v>
+      </c>
+      <c r="D578" t="s">
+        <v>48</v>
+      </c>
+      <c r="E578" s="1"/>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" t="s">
+        <v>17</v>
+      </c>
+      <c r="B579" t="s">
+        <v>531</v>
+      </c>
+      <c r="C579" s="2">
+        <v>0</v>
+      </c>
+      <c r="D579" t="s">
+        <v>48</v>
+      </c>
+      <c r="E579" s="1"/>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" t="s">
+        <v>6</v>
+      </c>
+      <c r="B580" t="s">
+        <v>531</v>
+      </c>
+      <c r="C580" s="2">
+        <v>0</v>
+      </c>
+      <c r="D580" t="s">
+        <v>48</v>
+      </c>
+      <c r="E580" s="1"/>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" t="s">
+        <v>84</v>
+      </c>
+      <c r="B581" t="s">
+        <v>531</v>
+      </c>
+      <c r="C581" s="2">
+        <v>0</v>
+      </c>
+      <c r="D581" t="s">
+        <v>48</v>
+      </c>
+      <c r="E581" s="1"/>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" t="s">
+        <v>35</v>
+      </c>
+      <c r="B582" t="s">
+        <v>531</v>
+      </c>
+      <c r="C582" s="2">
+        <v>0</v>
+      </c>
+      <c r="D582" t="s">
+        <v>48</v>
+      </c>
+      <c r="E582" s="1"/>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="A583" t="s">
+        <v>22</v>
+      </c>
+      <c r="B583" t="s">
+        <v>531</v>
+      </c>
+      <c r="C583" s="2">
+        <v>0</v>
+      </c>
+      <c r="D583" t="s">
+        <v>48</v>
+      </c>
+      <c r="E583" s="1"/>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" t="s">
+        <v>27</v>
+      </c>
+      <c r="B584" t="s">
+        <v>531</v>
+      </c>
+      <c r="C584" s="2">
+        <v>0</v>
+      </c>
+      <c r="D584" t="s">
+        <v>48</v>
+      </c>
+      <c r="E584" s="1"/>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" t="s">
+        <v>43</v>
+      </c>
+      <c r="B585" t="s">
+        <v>531</v>
+      </c>
+      <c r="C585" s="2">
+        <v>0</v>
+      </c>
+      <c r="D585" t="s">
+        <v>48</v>
+      </c>
+      <c r="E585" s="1"/>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" t="s">
+        <v>5</v>
+      </c>
+      <c r="B586" t="s">
+        <v>531</v>
+      </c>
+      <c r="C586" s="2">
+        <v>0</v>
+      </c>
+      <c r="D586" t="s">
+        <v>48</v>
+      </c>
+      <c r="E586" s="1"/>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" t="s">
+        <v>12</v>
+      </c>
+      <c r="B587" t="s">
+        <v>531</v>
+      </c>
+      <c r="C587" s="2">
+        <v>0</v>
+      </c>
+      <c r="D587" t="s">
+        <v>48</v>
+      </c>
+      <c r="E587" s="1"/>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" t="s">
+        <v>26</v>
+      </c>
+      <c r="B588" t="s">
+        <v>531</v>
+      </c>
+      <c r="C588" s="2">
+        <v>0</v>
+      </c>
+      <c r="D588" t="s">
+        <v>48</v>
+      </c>
+      <c r="E588" s="1"/>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" t="s">
+        <v>19</v>
+      </c>
+      <c r="B589" t="s">
+        <v>531</v>
+      </c>
+      <c r="C589" s="2">
+        <v>0</v>
+      </c>
+      <c r="D589" t="s">
+        <v>48</v>
+      </c>
+      <c r="E589" s="1"/>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" t="s">
+        <v>39</v>
+      </c>
+      <c r="B590" t="s">
+        <v>531</v>
+      </c>
+      <c r="C590" s="2">
+        <v>0</v>
+      </c>
+      <c r="D590" t="s">
+        <v>48</v>
+      </c>
+      <c r="E590" s="1"/>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" t="s">
+        <v>9</v>
+      </c>
+      <c r="B591" t="s">
+        <v>531</v>
+      </c>
+      <c r="C591" s="2">
+        <v>0</v>
+      </c>
+      <c r="D591" t="s">
+        <v>48</v>
+      </c>
+      <c r="E591" s="1"/>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" t="s">
+        <v>37</v>
+      </c>
+      <c r="B592" t="s">
+        <v>531</v>
+      </c>
+      <c r="C592" s="2">
+        <v>0</v>
+      </c>
+      <c r="D592" t="s">
+        <v>48</v>
+      </c>
+      <c r="E592" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A261:E276">
@@ -11356,94 +12748,94 @@
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>45</v>
       </c>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F3F8BB-4758-497C-B7E8-CAC92D6DBB05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA9447-D873-4FF7-802B-BC6D3564B594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="648">
   <si>
     <t>team</t>
   </si>
@@ -1837,6 +1837,141 @@
   </si>
   <si>
     <t>Evan Gattis</t>
+  </si>
+  <si>
+    <t>Melky Cabrera</t>
+  </si>
+  <si>
+    <t>Dominic Smith</t>
+  </si>
+  <si>
+    <t>Roman Quinn</t>
+  </si>
+  <si>
+    <t>Leury Garcia</t>
+  </si>
+  <si>
+    <t>Cristian Pache</t>
+  </si>
+  <si>
+    <t>Kristian Robinson</t>
+  </si>
+  <si>
+    <t>Zach Davies</t>
+  </si>
+  <si>
+    <t>Joe Panik</t>
+  </si>
+  <si>
+    <t>Chase Anderson</t>
+  </si>
+  <si>
+    <t>Kevin Newman</t>
+  </si>
+  <si>
+    <t>Martin Maldonado</t>
+  </si>
+  <si>
+    <t>Lonnie Chisenhall</t>
+  </si>
+  <si>
+    <t>Christian Vazquez</t>
+  </si>
+  <si>
+    <t>Chris Shaw</t>
+  </si>
+  <si>
+    <t>Austin Hays</t>
+  </si>
+  <si>
+    <t>Drew Pomeranz</t>
+  </si>
+  <si>
+    <t>Anthony Santander</t>
+  </si>
+  <si>
+    <t>Wade Miley</t>
+  </si>
+  <si>
+    <t>Cavan Biggio</t>
+  </si>
+  <si>
+    <t>Martin Perez</t>
+  </si>
+  <si>
+    <t>Tony Gonsolin</t>
+  </si>
+  <si>
+    <t>Ryan Yarbrough</t>
+  </si>
+  <si>
+    <t>Lance McCullers</t>
+  </si>
+  <si>
+    <t>Dennis Santana</t>
+  </si>
+  <si>
+    <t>Dinelson Lamet</t>
+  </si>
+  <si>
+    <t>Hunter Pence</t>
+  </si>
+  <si>
+    <t>J.D. Davis</t>
+  </si>
+  <si>
+    <t>Bud Norris</t>
+  </si>
+  <si>
+    <t>Jordan Zimmermann</t>
+  </si>
+  <si>
+    <t>Taylor Rogers</t>
+  </si>
+  <si>
+    <t>Ryan Mountcastle</t>
+  </si>
+  <si>
+    <t>Durbin Feltman</t>
+  </si>
+  <si>
+    <t>Nick Williams</t>
+  </si>
+  <si>
+    <t>Brad Keller</t>
+  </si>
+  <si>
+    <t>Jordan Luplow</t>
+  </si>
+  <si>
+    <t>Garrett Richards</t>
+  </si>
+  <si>
+    <t>Preston Tucker</t>
+  </si>
+  <si>
+    <t>Gerardo Parra</t>
+  </si>
+  <si>
+    <t>Daniel Robertson</t>
+  </si>
+  <si>
+    <t>Alen Hanson</t>
+  </si>
+  <si>
+    <t>Matt Harvey</t>
+  </si>
+  <si>
+    <t>Jeff Hoffman</t>
+  </si>
+  <si>
+    <t>Tyler Saladino</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Freddy Galvis</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1981,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1980,12 +2115,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF55595C"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2334,7 +2463,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2342,7 +2471,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2698,25 +2826,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F592"/>
+  <dimension ref="A1:F628"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="B478" sqref="B478"/>
+    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
+      <selection activeCell="E608" sqref="E608:E614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2725,7 +2853,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2733,7 +2861,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2">
@@ -2750,7 +2878,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2">
@@ -2767,7 +2895,7 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2">
@@ -2784,7 +2912,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2">
@@ -2801,7 +2929,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2">
@@ -2818,7 +2946,7 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2">
@@ -2835,7 +2963,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2">
@@ -2852,7 +2980,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2">
@@ -2869,7 +2997,7 @@
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2">
@@ -2886,7 +3014,7 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2">
@@ -2903,7 +3031,7 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2">
@@ -2920,7 +3048,7 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="2">
@@ -2937,7 +3065,7 @@
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="2">
@@ -2954,7 +3082,7 @@
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2">
@@ -2971,7 +3099,7 @@
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2">
@@ -2988,7 +3116,7 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2">
@@ -3005,7 +3133,7 @@
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2">
@@ -3022,7 +3150,7 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2">
@@ -3039,7 +3167,7 @@
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="2">
@@ -3056,7 +3184,7 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="2">
@@ -3073,7 +3201,7 @@
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="2">
@@ -3090,7 +3218,7 @@
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="2">
@@ -3107,7 +3235,7 @@
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="2">
@@ -3124,7 +3252,7 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="2">
@@ -3141,7 +3269,7 @@
       <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="2">
@@ -3158,7 +3286,7 @@
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="2">
@@ -3175,7 +3303,7 @@
       <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="2">
@@ -3192,7 +3320,7 @@
       <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="2">
@@ -3209,7 +3337,7 @@
       <c r="A30" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="2">
@@ -3226,7 +3354,7 @@
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="2">
@@ -3243,7 +3371,7 @@
       <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="2">
@@ -3260,7 +3388,7 @@
       <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="2">
@@ -3277,7 +3405,7 @@
       <c r="A34" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="2">
@@ -3294,7 +3422,7 @@
       <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="2">
@@ -3311,7 +3439,7 @@
       <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C36" s="2">
@@ -3328,7 +3456,7 @@
       <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="2">
@@ -3345,7 +3473,7 @@
       <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C38" s="2">
@@ -3362,7 +3490,7 @@
       <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="2">
@@ -3379,7 +3507,7 @@
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C40" s="2">
@@ -3396,7 +3524,7 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="2">
@@ -3413,7 +3541,7 @@
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="2">
@@ -3430,7 +3558,7 @@
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="2">
@@ -3447,7 +3575,7 @@
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="2">
@@ -3464,7 +3592,7 @@
       <c r="A45" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="2">
@@ -3481,7 +3609,7 @@
       <c r="A46" t="s">
         <v>84</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="2">
@@ -3498,7 +3626,7 @@
       <c r="A47" t="s">
         <v>84</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="2">
@@ -3515,7 +3643,7 @@
       <c r="A48" t="s">
         <v>84</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C48" s="2">
@@ -3532,7 +3660,7 @@
       <c r="A49" t="s">
         <v>84</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C49" s="2">
@@ -3549,7 +3677,7 @@
       <c r="A50" t="s">
         <v>84</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C50" s="2">
@@ -3566,7 +3694,7 @@
       <c r="A51" t="s">
         <v>84</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="2">
@@ -3583,7 +3711,7 @@
       <c r="A52" t="s">
         <v>84</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C52" s="2">
@@ -3600,7 +3728,7 @@
       <c r="A53" t="s">
         <v>84</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C53" s="2">
@@ -3617,7 +3745,7 @@
       <c r="A54" t="s">
         <v>84</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="2">
@@ -3634,7 +3762,7 @@
       <c r="A55" t="s">
         <v>84</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C55" s="2">
@@ -3651,7 +3779,7 @@
       <c r="A56" t="s">
         <v>24</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="2">
@@ -3668,7 +3796,7 @@
       <c r="A57" t="s">
         <v>24</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="2">
@@ -3685,7 +3813,7 @@
       <c r="A58" t="s">
         <v>24</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C58" s="2">
@@ -3702,7 +3830,7 @@
       <c r="A59" t="s">
         <v>24</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C59" s="2">
@@ -3719,7 +3847,7 @@
       <c r="A60" t="s">
         <v>24</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C60" s="2">
@@ -3736,7 +3864,7 @@
       <c r="A61" t="s">
         <v>24</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C61" s="2">
@@ -3753,7 +3881,7 @@
       <c r="A62" t="s">
         <v>24</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C62" s="2">
@@ -3770,7 +3898,7 @@
       <c r="A63" t="s">
         <v>24</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C63" s="2">
@@ -3787,7 +3915,7 @@
       <c r="A64" t="s">
         <v>24</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C64" s="2">
@@ -3804,7 +3932,7 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C65" s="2">
@@ -3821,7 +3949,7 @@
       <c r="A66" t="s">
         <v>41</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="2">
@@ -3838,7 +3966,7 @@
       <c r="A67" t="s">
         <v>41</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C67" s="2">
@@ -3855,7 +3983,7 @@
       <c r="A68" t="s">
         <v>41</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="2">
@@ -3872,7 +4000,7 @@
       <c r="A69" t="s">
         <v>41</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C69" s="2">
@@ -3889,7 +4017,7 @@
       <c r="A70" t="s">
         <v>41</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C70" s="2">
@@ -3906,7 +4034,7 @@
       <c r="A71" t="s">
         <v>41</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C71" s="2">
@@ -3923,7 +4051,7 @@
       <c r="A72" t="s">
         <v>41</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="2">
@@ -3940,7 +4068,7 @@
       <c r="A73" t="s">
         <v>41</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C73" s="2">
@@ -3957,7 +4085,7 @@
       <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C74" s="2">
@@ -3974,7 +4102,7 @@
       <c r="A75" t="s">
         <v>41</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C75" s="2">
@@ -3991,7 +4119,7 @@
       <c r="A76" t="s">
         <v>26</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C76" s="2">
@@ -4008,7 +4136,7 @@
       <c r="A77" t="s">
         <v>26</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C77" s="2">
@@ -4025,7 +4153,7 @@
       <c r="A78" t="s">
         <v>26</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C78" s="2">
@@ -4042,7 +4170,7 @@
       <c r="A79" t="s">
         <v>26</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C79" s="2">
@@ -4059,7 +4187,7 @@
       <c r="A80" t="s">
         <v>26</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C80" s="2">
@@ -4076,7 +4204,7 @@
       <c r="A81" t="s">
         <v>26</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="2">
@@ -4093,7 +4221,7 @@
       <c r="A82" t="s">
         <v>26</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C82" s="2">
@@ -4110,7 +4238,7 @@
       <c r="A83" t="s">
         <v>26</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C83" s="2">
@@ -4127,7 +4255,7 @@
       <c r="A84" t="s">
         <v>26</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C84" s="2">
@@ -4144,7 +4272,7 @@
       <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C85" s="2">
@@ -4161,7 +4289,7 @@
       <c r="A86" t="s">
         <v>19</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C86" s="2">
@@ -4178,7 +4306,7 @@
       <c r="A87" t="s">
         <v>19</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C87" s="2">
@@ -4195,7 +4323,7 @@
       <c r="A88" t="s">
         <v>19</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C88" s="2">
@@ -4212,7 +4340,7 @@
       <c r="A89" t="s">
         <v>19</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C89" s="2">
@@ -4229,7 +4357,7 @@
       <c r="A90" t="s">
         <v>19</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C90" s="2">
@@ -4246,7 +4374,7 @@
       <c r="A91" t="s">
         <v>19</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C91" s="2">
@@ -4263,7 +4391,7 @@
       <c r="A92" t="s">
         <v>19</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C92" s="2">
@@ -4280,7 +4408,7 @@
       <c r="A93" t="s">
         <v>19</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C93" s="2">
@@ -4297,7 +4425,7 @@
       <c r="A94" t="s">
         <v>15</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C94" s="2">
@@ -4314,7 +4442,7 @@
       <c r="A95" t="s">
         <v>15</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C95" s="2">
@@ -4331,7 +4459,7 @@
       <c r="A96" t="s">
         <v>15</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C96" s="2">
@@ -4348,7 +4476,7 @@
       <c r="A97" t="s">
         <v>15</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C97" s="2">
@@ -4365,7 +4493,7 @@
       <c r="A98" t="s">
         <v>15</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C98" s="2">
@@ -4382,7 +4510,7 @@
       <c r="A99" t="s">
         <v>15</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C99" s="2">
@@ -4399,7 +4527,7 @@
       <c r="A100" t="s">
         <v>15</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C100" s="2">
@@ -4416,7 +4544,7 @@
       <c r="A101" t="s">
         <v>15</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C101" s="2">
@@ -4433,7 +4561,7 @@
       <c r="A102" t="s">
         <v>15</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C102" s="2">
@@ -4450,7 +4578,7 @@
       <c r="A103" t="s">
         <v>17</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C103" s="2">
@@ -4467,7 +4595,7 @@
       <c r="A104" t="s">
         <v>17</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C104" s="2">
@@ -4484,7 +4612,7 @@
       <c r="A105" t="s">
         <v>17</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C105" s="2">
@@ -4501,7 +4629,7 @@
       <c r="A106" t="s">
         <v>17</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C106" s="2">
@@ -4518,7 +4646,7 @@
       <c r="A107" t="s">
         <v>17</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C107" s="2">
@@ -4535,7 +4663,7 @@
       <c r="A108" t="s">
         <v>17</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C108" s="2">
@@ -4552,7 +4680,7 @@
       <c r="A109" t="s">
         <v>17</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C109" s="2">
@@ -4569,7 +4697,7 @@
       <c r="A110" t="s">
         <v>17</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C110" s="2">
@@ -4586,7 +4714,7 @@
       <c r="A111" t="s">
         <v>17</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C111" s="2">
@@ -4603,7 +4731,7 @@
       <c r="A112" t="s">
         <v>17</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C112" s="2">
@@ -4620,7 +4748,7 @@
       <c r="A113" t="s">
         <v>22</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C113" s="2">
@@ -4637,7 +4765,7 @@
       <c r="A114" t="s">
         <v>22</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C114" s="2">
@@ -4654,7 +4782,7 @@
       <c r="A115" t="s">
         <v>22</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C115" s="2">
@@ -4671,7 +4799,7 @@
       <c r="A116" t="s">
         <v>22</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C116" s="2">
@@ -4688,7 +4816,7 @@
       <c r="A117" t="s">
         <v>22</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C117" s="2">
@@ -4705,7 +4833,7 @@
       <c r="A118" t="s">
         <v>22</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C118" s="2">
@@ -4722,7 +4850,7 @@
       <c r="A119" t="s">
         <v>22</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C119" s="2">
@@ -4739,7 +4867,7 @@
       <c r="A120" t="s">
         <v>22</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C120" s="2">
@@ -4756,7 +4884,7 @@
       <c r="A121" t="s">
         <v>22</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C121" s="2">
@@ -4773,7 +4901,7 @@
       <c r="A122" t="s">
         <v>22</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C122" s="2">
@@ -4790,7 +4918,7 @@
       <c r="A123" t="s">
         <v>22</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C123" s="2">
@@ -4807,7 +4935,7 @@
       <c r="A124" t="s">
         <v>22</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C124" s="2">
@@ -4824,7 +4952,7 @@
       <c r="A125" t="s">
         <v>12</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C125" s="2">
@@ -4841,7 +4969,7 @@
       <c r="A126" t="s">
         <v>12</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C126" s="2">
@@ -4858,7 +4986,7 @@
       <c r="A127" t="s">
         <v>12</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C127" s="2">
@@ -4875,7 +5003,7 @@
       <c r="A128" t="s">
         <v>12</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C128" s="2">
@@ -4892,7 +5020,7 @@
       <c r="A129" t="s">
         <v>12</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C129" s="2">
@@ -4909,7 +5037,7 @@
       <c r="A130" t="s">
         <v>12</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C130" s="2">
@@ -4926,7 +5054,7 @@
       <c r="A131" t="s">
         <v>12</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C131" s="2">
@@ -4943,7 +5071,7 @@
       <c r="A132" t="s">
         <v>12</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C132" s="2">
@@ -4960,7 +5088,7 @@
       <c r="A133" t="s">
         <v>12</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C133" s="2">
@@ -4977,7 +5105,7 @@
       <c r="A134" t="s">
         <v>12</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C134" s="2">
@@ -4994,7 +5122,7 @@
       <c r="A135" t="s">
         <v>12</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C135" s="2">
@@ -5011,7 +5139,7 @@
       <c r="A136" t="s">
         <v>12</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C136" s="2">
@@ -5028,7 +5156,7 @@
       <c r="A137" t="s">
         <v>39</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C137" s="2">
@@ -5045,7 +5173,7 @@
       <c r="A138" t="s">
         <v>39</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C138" s="2">
@@ -5062,7 +5190,7 @@
       <c r="A139" t="s">
         <v>39</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C139" s="2">
@@ -5079,7 +5207,7 @@
       <c r="A140" t="s">
         <v>39</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C140" s="2">
@@ -5096,7 +5224,7 @@
       <c r="A141" t="s">
         <v>39</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C141" s="2">
@@ -5113,7 +5241,7 @@
       <c r="A142" t="s">
         <v>39</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C142" s="2">
@@ -5130,7 +5258,7 @@
       <c r="A143" t="s">
         <v>39</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C143" s="2">
@@ -5147,7 +5275,7 @@
       <c r="A144" t="s">
         <v>39</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C144" s="2">
@@ -5164,7 +5292,7 @@
       <c r="A145" t="s">
         <v>39</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C145" s="2">
@@ -5181,7 +5309,7 @@
       <c r="A146" t="s">
         <v>39</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C146" s="2">
@@ -5198,7 +5326,7 @@
       <c r="A147" t="s">
         <v>39</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C147" s="2">
@@ -5215,7 +5343,7 @@
       <c r="A148" t="s">
         <v>39</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C148" s="2">
@@ -5232,7 +5360,7 @@
       <c r="A149" t="s">
         <v>9</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C149" s="2">
@@ -5249,7 +5377,7 @@
       <c r="A150" t="s">
         <v>9</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C150" s="2">
@@ -5266,7 +5394,7 @@
       <c r="A151" t="s">
         <v>9</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C151" s="2">
@@ -5283,7 +5411,7 @@
       <c r="A152" t="s">
         <v>9</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C152" s="2">
@@ -5300,7 +5428,7 @@
       <c r="A153" t="s">
         <v>9</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C153" s="2">
@@ -5317,7 +5445,7 @@
       <c r="A154" t="s">
         <v>9</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C154" s="2">
@@ -5334,7 +5462,7 @@
       <c r="A155" t="s">
         <v>9</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C155" s="2">
@@ -5351,7 +5479,7 @@
       <c r="A156" t="s">
         <v>9</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C156" s="2">
@@ -5368,7 +5496,7 @@
       <c r="A157" t="s">
         <v>9</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C157" s="2">
@@ -5385,7 +5513,7 @@
       <c r="A158" t="s">
         <v>9</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C158" s="2">
@@ -5402,7 +5530,7 @@
       <c r="A159" t="s">
         <v>9</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C159" s="2">
@@ -5419,7 +5547,7 @@
       <c r="A160" t="s">
         <v>37</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C160" s="2">
@@ -5436,7 +5564,7 @@
       <c r="A161" t="s">
         <v>37</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C161" s="2">
@@ -5453,7 +5581,7 @@
       <c r="A162" t="s">
         <v>37</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C162" s="2">
@@ -5470,7 +5598,7 @@
       <c r="A163" t="s">
         <v>37</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C163" s="2">
@@ -5487,7 +5615,7 @@
       <c r="A164" t="s">
         <v>37</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C164" s="2">
@@ -5504,7 +5632,7 @@
       <c r="A165" t="s">
         <v>37</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C165" s="2">
@@ -5521,7 +5649,7 @@
       <c r="A166" t="s">
         <v>37</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C166" s="2">
@@ -5538,7 +5666,7 @@
       <c r="A167" t="s">
         <v>37</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C167" s="2">
@@ -5555,7 +5683,7 @@
       <c r="A168" t="s">
         <v>37</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C168" s="2">
@@ -5572,7 +5700,7 @@
       <c r="A169" t="s">
         <v>37</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C169" s="2">
@@ -5589,7 +5717,7 @@
       <c r="A170" t="s">
         <v>37</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C170" s="2">
@@ -5606,7 +5734,7 @@
       <c r="A171" t="s">
         <v>37</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C171" s="2">
@@ -5623,7 +5751,7 @@
       <c r="A172" t="s">
         <v>35</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C172" s="2">
@@ -5640,7 +5768,7 @@
       <c r="A173" t="s">
         <v>35</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C173" s="2">
@@ -5657,7 +5785,7 @@
       <c r="A174" t="s">
         <v>35</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C174" s="2">
@@ -5674,7 +5802,7 @@
       <c r="A175" t="s">
         <v>35</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C175" s="2">
@@ -5691,7 +5819,7 @@
       <c r="A176" t="s">
         <v>35</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C176" s="2">
@@ -5708,7 +5836,7 @@
       <c r="A177" t="s">
         <v>35</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C177" s="2">
@@ -5725,7 +5853,7 @@
       <c r="A178" t="s">
         <v>35</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C178" s="2">
@@ -5742,7 +5870,7 @@
       <c r="A179" t="s">
         <v>35</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C179" s="2">
@@ -5759,7 +5887,7 @@
       <c r="A180" t="s">
         <v>35</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C180" s="2">
@@ -5776,7 +5904,7 @@
       <c r="A181" t="s">
         <v>35</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C181" s="2">
@@ -5793,7 +5921,7 @@
       <c r="A182" t="s">
         <v>35</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C182" s="2">
@@ -5810,7 +5938,7 @@
       <c r="A183" t="s">
         <v>35</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C183" s="2">
@@ -5827,7 +5955,7 @@
       <c r="A184" t="s">
         <v>5</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C184" s="2">
@@ -5844,7 +5972,7 @@
       <c r="A185" t="s">
         <v>5</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C185" s="2">
@@ -5861,7 +5989,7 @@
       <c r="A186" t="s">
         <v>5</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C186" s="2">
@@ -5878,7 +6006,7 @@
       <c r="A187" t="s">
         <v>5</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C187" s="2">
@@ -5895,7 +6023,7 @@
       <c r="A188" t="s">
         <v>5</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C188" s="2">
@@ -5912,7 +6040,7 @@
       <c r="A189" t="s">
         <v>5</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C189" s="2">
@@ -5929,7 +6057,7 @@
       <c r="A190" t="s">
         <v>5</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C190" s="2">
@@ -5946,7 +6074,7 @@
       <c r="A191" t="s">
         <v>5</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C191" s="2">
@@ -5963,7 +6091,7 @@
       <c r="A192" t="s">
         <v>5</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C192" s="2">
@@ -5980,7 +6108,7 @@
       <c r="A193" t="s">
         <v>5</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C193" s="2">
@@ -5997,7 +6125,7 @@
       <c r="A194" t="s">
         <v>5</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C194" s="2">
@@ -6014,7 +6142,7 @@
       <c r="A195" t="s">
         <v>5</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C195" s="2">
@@ -6031,7 +6159,7 @@
       <c r="A196" t="s">
         <v>15</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C196" s="2">
@@ -6048,7 +6176,7 @@
       <c r="A197" t="s">
         <v>24</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C197" s="2">
@@ -6065,7 +6193,7 @@
       <c r="A198" t="s">
         <v>26</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C198" s="2">
@@ -6082,7 +6210,7 @@
       <c r="A199" t="s">
         <v>19</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C199" s="2">
@@ -6099,7 +6227,7 @@
       <c r="A200" t="s">
         <v>6</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C200" s="2">
@@ -6116,7 +6244,7 @@
       <c r="A201" t="s">
         <v>84</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C201" s="2">
@@ -6133,7 +6261,7 @@
       <c r="A202" t="s">
         <v>24</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C202" s="2">
@@ -6150,7 +6278,7 @@
       <c r="A203" t="s">
         <v>19</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C203" s="2">
@@ -6167,7 +6295,7 @@
       <c r="A204" t="s">
         <v>6</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C204" s="2">
@@ -6184,7 +6312,7 @@
       <c r="A205" t="s">
         <v>5</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C205" s="2">
@@ -6201,7 +6329,7 @@
       <c r="A206" t="s">
         <v>26</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C206" s="2">
@@ -6218,7 +6346,7 @@
       <c r="A207" t="s">
         <v>43</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C207" s="2">
@@ -6235,7 +6363,7 @@
       <c r="A208" t="s">
         <v>17</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C208" s="2">
@@ -6252,7 +6380,7 @@
       <c r="A209" t="s">
         <v>5</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C209" s="2">
@@ -6269,7 +6397,7 @@
       <c r="A210" t="s">
         <v>9</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C210" s="2">
@@ -6286,7 +6414,7 @@
       <c r="A211" t="s">
         <v>9</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C211" s="2">
@@ -6303,7 +6431,7 @@
       <c r="A212" t="s">
         <v>37</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C212" s="2">
@@ -6320,7 +6448,7 @@
       <c r="A213" t="s">
         <v>9</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C213" s="2">
@@ -6337,7 +6465,7 @@
       <c r="A214" t="s">
         <v>15</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C214" s="2">
@@ -6354,7 +6482,7 @@
       <c r="A215" t="s">
         <v>45</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C215" s="2">
@@ -6371,7 +6499,7 @@
       <c r="A216" t="s">
         <v>12</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C216" s="2">
@@ -6388,7 +6516,7 @@
       <c r="A217" t="s">
         <v>41</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C217" s="2">
@@ -6405,7 +6533,7 @@
       <c r="A218" t="s">
         <v>6</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C218" s="2">
@@ -6422,7 +6550,7 @@
       <c r="A219" t="s">
         <v>12</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C219" s="2">
@@ -6439,7 +6567,7 @@
       <c r="A220" t="s">
         <v>19</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C220" s="2">
@@ -6456,7 +6584,7 @@
       <c r="A221" t="s">
         <v>17</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C221" s="2">
@@ -6473,7 +6601,7 @@
       <c r="A222" t="s">
         <v>17</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C222" s="2">
@@ -6490,7 +6618,7 @@
       <c r="A223" t="s">
         <v>15</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C223" s="2">
@@ -6507,7 +6635,7 @@
       <c r="A224" t="s">
         <v>27</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C224" s="2">
@@ -6524,7 +6652,7 @@
       <c r="A225" t="s">
         <v>17</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C225" s="2">
@@ -6541,7 +6669,7 @@
       <c r="A226" t="s">
         <v>12</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C226" s="2">
@@ -6558,7 +6686,7 @@
       <c r="A227" t="s">
         <v>17</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C227" s="2">
@@ -6575,7 +6703,7 @@
       <c r="A228" t="s">
         <v>19</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C228" s="2">
@@ -6592,7 +6720,7 @@
       <c r="A229" t="s">
         <v>84</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C229" s="2">
@@ -6609,7 +6737,7 @@
       <c r="A230" t="s">
         <v>5</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>265</v>
       </c>
       <c r="C230" s="2">
@@ -6626,7 +6754,7 @@
       <c r="A231" t="s">
         <v>9</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="3" t="s">
         <v>266</v>
       </c>
       <c r="C231" s="2">
@@ -6643,7 +6771,7 @@
       <c r="A232" t="s">
         <v>84</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C232" s="2">
@@ -6660,7 +6788,7 @@
       <c r="A233" t="s">
         <v>43</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="3" t="s">
         <v>268</v>
       </c>
       <c r="C233" s="2">
@@ -6677,7 +6805,7 @@
       <c r="A234" t="s">
         <v>9</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C234" s="2">
@@ -6694,7 +6822,7 @@
       <c r="A235" t="s">
         <v>27</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C235" s="2">
@@ -6711,7 +6839,7 @@
       <c r="A236" t="s">
         <v>41</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C236" s="2">
@@ -6728,7 +6856,7 @@
       <c r="A237" t="s">
         <v>84</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C237" s="2">
@@ -6745,7 +6873,7 @@
       <c r="A238" t="s">
         <v>17</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C238" s="2">
@@ -6762,7 +6890,7 @@
       <c r="A239" t="s">
         <v>27</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="3" t="s">
         <v>271</v>
       </c>
       <c r="C239" s="2">
@@ -6779,7 +6907,7 @@
       <c r="A240" t="s">
         <v>41</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C240" s="2">
@@ -6796,7 +6924,7 @@
       <c r="A241" t="s">
         <v>9</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C241" s="2">
@@ -6813,7 +6941,7 @@
       <c r="A242" t="s">
         <v>27</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="3" t="s">
         <v>274</v>
       </c>
       <c r="C242" s="2">
@@ -6830,7 +6958,7 @@
       <c r="A243" t="s">
         <v>19</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C243" s="2">
@@ -6847,7 +6975,7 @@
       <c r="A244" t="s">
         <v>27</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="3" t="s">
         <v>276</v>
       </c>
       <c r="C244" s="2">
@@ -6864,7 +6992,7 @@
       <c r="A245" t="s">
         <v>41</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="3" t="s">
         <v>277</v>
       </c>
       <c r="C245" s="2">
@@ -6881,7 +7009,7 @@
       <c r="A246" t="s">
         <v>41</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="3" t="s">
         <v>278</v>
       </c>
       <c r="C246" s="2">
@@ -6898,7 +7026,7 @@
       <c r="A247" t="s">
         <v>45</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="3" t="s">
         <v>279</v>
       </c>
       <c r="C247" s="2">
@@ -6915,7 +7043,7 @@
       <c r="A248" t="s">
         <v>15</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C248" s="2">
@@ -6932,7 +7060,7 @@
       <c r="A249" t="s">
         <v>9</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C249" s="2">
@@ -6949,7 +7077,7 @@
       <c r="A250" t="s">
         <v>45</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="3" t="s">
         <v>282</v>
       </c>
       <c r="C250" s="2">
@@ -6966,7 +7094,7 @@
       <c r="A251" t="s">
         <v>35</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C251" s="2">
@@ -6983,7 +7111,7 @@
       <c r="A252" t="s">
         <v>35</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C252" s="2">
@@ -7000,7 +7128,7 @@
       <c r="A253" t="s">
         <v>37</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C253" s="2">
@@ -7017,7 +7145,7 @@
       <c r="A254" t="s">
         <v>26</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C254" s="2">
@@ -7034,7 +7162,7 @@
       <c r="A255" t="s">
         <v>84</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C255" s="2">
@@ -7051,7 +7179,7 @@
       <c r="A256" t="s">
         <v>19</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C256" s="2">
@@ -7068,7 +7196,7 @@
       <c r="A257" t="s">
         <v>5</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C257" s="2">
@@ -7085,7 +7213,7 @@
       <c r="A258" t="s">
         <v>37</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C258" s="2">
@@ -7102,7 +7230,7 @@
       <c r="A259" t="s">
         <v>41</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C259" s="2">
@@ -7119,7 +7247,7 @@
       <c r="A260" t="s">
         <v>84</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C260" s="2">
@@ -7136,7 +7264,7 @@
       <c r="A261" t="s">
         <v>24</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="3" t="s">
         <v>294</v>
       </c>
       <c r="C261" s="2">
@@ -7153,7 +7281,7 @@
       <c r="A262" t="s">
         <v>24</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="3" t="s">
         <v>295</v>
       </c>
       <c r="C262" s="2">
@@ -7170,7 +7298,7 @@
       <c r="A263" t="s">
         <v>22</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="3" t="s">
         <v>297</v>
       </c>
       <c r="C263" s="2">
@@ -7187,7 +7315,7 @@
       <c r="A264" t="s">
         <v>22</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="3" t="s">
         <v>299</v>
       </c>
       <c r="C264" s="2">
@@ -7204,7 +7332,7 @@
       <c r="A265" t="s">
         <v>17</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C265" s="2">
@@ -7221,7 +7349,7 @@
       <c r="A266" t="s">
         <v>17</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C266" s="2">
@@ -7238,7 +7366,7 @@
       <c r="A267" t="s">
         <v>39</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="3" t="s">
         <v>301</v>
       </c>
       <c r="C267" s="2">
@@ -7255,7 +7383,7 @@
       <c r="A268" t="s">
         <v>37</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C268" s="2">
@@ -7272,7 +7400,7 @@
       <c r="A269" t="s">
         <v>6</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="3" t="s">
         <v>302</v>
       </c>
       <c r="C269" s="2">
@@ -7289,7 +7417,7 @@
       <c r="A270" t="s">
         <v>6</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C270" s="2">
@@ -7306,7 +7434,7 @@
       <c r="A271" t="s">
         <v>84</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="3" t="s">
         <v>307</v>
       </c>
       <c r="C271" s="2">
@@ -7323,7 +7451,7 @@
       <c r="A272" t="s">
         <v>41</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="3" t="s">
         <v>305</v>
       </c>
       <c r="C272" s="2">
@@ -7340,7 +7468,7 @@
       <c r="A273" t="s">
         <v>41</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C273" s="2">
@@ -7357,7 +7485,7 @@
       <c r="A274" t="s">
         <v>22</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="3" t="s">
         <v>303</v>
       </c>
       <c r="C274" s="2">
@@ -7374,7 +7502,7 @@
       <c r="A275" t="s">
         <v>22</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="3" t="s">
         <v>309</v>
       </c>
       <c r="C275" s="2">
@@ -7391,7 +7519,7 @@
       <c r="A276" t="s">
         <v>9</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="3" t="s">
         <v>308</v>
       </c>
       <c r="C276" s="2">
@@ -7408,7 +7536,7 @@
       <c r="A277" t="s">
         <v>22</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="3" t="s">
         <v>310</v>
       </c>
       <c r="C277" s="2">
@@ -7425,7 +7553,7 @@
       <c r="A278" t="s">
         <v>22</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="3" t="s">
         <v>311</v>
       </c>
       <c r="C278" s="2">
@@ -7442,7 +7570,7 @@
       <c r="A279" t="s">
         <v>6</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C279" s="2">
@@ -7459,7 +7587,7 @@
       <c r="A280" t="s">
         <v>84</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="3" t="s">
         <v>313</v>
       </c>
       <c r="C280" s="2">
@@ -7476,7 +7604,7 @@
       <c r="A281" t="s">
         <v>15</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="3" t="s">
         <v>314</v>
       </c>
       <c r="C281" s="2">
@@ -7493,7 +7621,7 @@
       <c r="A282" t="s">
         <v>39</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="3" t="s">
         <v>315</v>
       </c>
       <c r="C282" s="2">
@@ -7510,7 +7638,7 @@
       <c r="A283" t="s">
         <v>43</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C283" s="2">
@@ -7527,7 +7655,7 @@
       <c r="A284" t="s">
         <v>9</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C284" s="2">
@@ -7544,7 +7672,7 @@
       <c r="A285" t="s">
         <v>24</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C285" s="2">
@@ -7561,7 +7689,7 @@
       <c r="A286" t="s">
         <v>19</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C286" s="2">
@@ -7578,7 +7706,7 @@
       <c r="A287" t="s">
         <v>19</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C287" s="2">
@@ -7595,7 +7723,7 @@
       <c r="A288" t="s">
         <v>17</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="3" t="s">
         <v>321</v>
       </c>
       <c r="C288" s="2">
@@ -7612,7 +7740,7 @@
       <c r="A289" t="s">
         <v>84</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="3" t="s">
         <v>322</v>
       </c>
       <c r="C289" s="2">
@@ -7629,7 +7757,7 @@
       <c r="A290" t="s">
         <v>9</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C290" s="2">
@@ -7646,7 +7774,7 @@
       <c r="A291" t="s">
         <v>41</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="3" t="s">
         <v>324</v>
       </c>
       <c r="C291" s="2">
@@ -7663,7 +7791,7 @@
       <c r="A292" t="s">
         <v>27</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C292" s="2">
@@ -7680,7 +7808,7 @@
       <c r="A293" t="s">
         <v>41</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="3" t="s">
         <v>326</v>
       </c>
       <c r="C293" s="2">
@@ -7697,7 +7825,7 @@
       <c r="A294" t="s">
         <v>17</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="3" t="s">
         <v>327</v>
       </c>
       <c r="C294" s="2">
@@ -7714,7 +7842,7 @@
       <c r="A295" t="s">
         <v>35</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C295" s="2">
@@ -7731,7 +7859,7 @@
       <c r="A296" t="s">
         <v>27</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="3" t="s">
         <v>329</v>
       </c>
       <c r="C296" s="2">
@@ -7748,7 +7876,7 @@
       <c r="A297" t="s">
         <v>35</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C297" s="2">
@@ -7765,7 +7893,7 @@
       <c r="A298" t="s">
         <v>19</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="3" t="s">
         <v>331</v>
       </c>
       <c r="C298" s="2">
@@ -7782,7 +7910,7 @@
       <c r="A299" t="s">
         <v>27</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="3" t="s">
         <v>333</v>
       </c>
       <c r="C299" s="2">
@@ -7799,7 +7927,7 @@
       <c r="A300" t="s">
         <v>6</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C300" s="2">
@@ -7816,7 +7944,7 @@
       <c r="A301" t="s">
         <v>22</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="3" t="s">
         <v>334</v>
       </c>
       <c r="C301" s="2">
@@ -7833,7 +7961,7 @@
       <c r="A302" t="s">
         <v>45</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="3" t="s">
         <v>335</v>
       </c>
       <c r="C302" s="2">
@@ -7850,7 +7978,7 @@
       <c r="A303" t="s">
         <v>9</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="3" t="s">
         <v>336</v>
       </c>
       <c r="C303" s="2">
@@ -7867,7 +7995,7 @@
       <c r="A304" t="s">
         <v>24</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C304" s="2">
@@ -7884,7 +8012,7 @@
       <c r="A305" t="s">
         <v>12</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="3" t="s">
         <v>338</v>
       </c>
       <c r="C305" s="2">
@@ -7901,7 +8029,7 @@
       <c r="A306" t="s">
         <v>84</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="3" t="s">
         <v>339</v>
       </c>
       <c r="C306" s="2">
@@ -7918,7 +8046,7 @@
       <c r="A307" t="s">
         <v>24</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C307" s="2">
@@ -7935,7 +8063,7 @@
       <c r="A308" t="s">
         <v>12</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C308" s="2">
@@ -7952,7 +8080,7 @@
       <c r="A309" t="s">
         <v>37</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="3" t="s">
         <v>342</v>
       </c>
       <c r="C309" s="2">
@@ -7969,7 +8097,7 @@
       <c r="A310" t="s">
         <v>5</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="3" t="s">
         <v>343</v>
       </c>
       <c r="C310" s="2">
@@ -7986,7 +8114,7 @@
       <c r="A311" t="s">
         <v>27</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="3" t="s">
         <v>344</v>
       </c>
       <c r="C311" s="2">
@@ -8003,7 +8131,7 @@
       <c r="A312" t="s">
         <v>5</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C312" s="2">
@@ -8020,7 +8148,7 @@
       <c r="A313" t="s">
         <v>15</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C313" s="2">
@@ -8037,7 +8165,7 @@
       <c r="A314" t="s">
         <v>27</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="3" t="s">
         <v>347</v>
       </c>
       <c r="C314" s="2">
@@ -8054,7 +8182,7 @@
       <c r="A315" t="s">
         <v>9</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C315" s="2">
@@ -8071,7 +8199,7 @@
       <c r="A316" t="s">
         <v>17</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="3" t="s">
         <v>349</v>
       </c>
       <c r="C316" s="2">
@@ -9856,7 +9984,7 @@
       <c r="A421" t="s">
         <v>45</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="3" t="s">
         <v>453</v>
       </c>
       <c r="C421" s="2">
@@ -9873,7 +10001,7 @@
       <c r="A422" t="s">
         <v>5</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C422" s="2">
@@ -9890,7 +10018,7 @@
       <c r="A423" t="s">
         <v>6</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="3" t="s">
         <v>455</v>
       </c>
       <c r="C423" s="2">
@@ -9907,7 +10035,7 @@
       <c r="A424" t="s">
         <v>43</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="3" t="s">
         <v>456</v>
       </c>
       <c r="C424" s="2">
@@ -9924,7 +10052,7 @@
       <c r="A425" t="s">
         <v>26</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="3" t="s">
         <v>457</v>
       </c>
       <c r="C425" s="2">
@@ -9941,7 +10069,7 @@
       <c r="A426" t="s">
         <v>45</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="3" t="s">
         <v>458</v>
       </c>
       <c r="C426" s="2">
@@ -9958,7 +10086,7 @@
       <c r="A427" t="s">
         <v>35</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="3" t="s">
         <v>459</v>
       </c>
       <c r="C427" s="2">
@@ -9975,7 +10103,7 @@
       <c r="A428" t="s">
         <v>19</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="3" t="s">
         <v>460</v>
       </c>
       <c r="C428" s="2">
@@ -9992,7 +10120,7 @@
       <c r="A429" t="s">
         <v>24</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="3" t="s">
         <v>462</v>
       </c>
       <c r="C429" s="2">
@@ -10009,7 +10137,7 @@
       <c r="A430" t="s">
         <v>37</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="3" t="s">
         <v>463</v>
       </c>
       <c r="C430" s="2">
@@ -10026,7 +10154,7 @@
       <c r="A431" t="s">
         <v>15</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="3" t="s">
         <v>464</v>
       </c>
       <c r="C431" s="2">
@@ -10043,7 +10171,7 @@
       <c r="A432" t="s">
         <v>26</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="3" t="s">
         <v>465</v>
       </c>
       <c r="C432" s="2">
@@ -10060,7 +10188,7 @@
       <c r="A433" t="s">
         <v>39</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="3" t="s">
         <v>466</v>
       </c>
       <c r="C433" s="2">
@@ -10077,7 +10205,7 @@
       <c r="A434" t="s">
         <v>24</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="3" t="s">
         <v>461</v>
       </c>
       <c r="C434" s="2">
@@ -10094,7 +10222,7 @@
       <c r="A435" t="s">
         <v>6</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="3" t="s">
         <v>467</v>
       </c>
       <c r="C435" s="2">
@@ -10111,7 +10239,7 @@
       <c r="A436" t="s">
         <v>12</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="3" t="s">
         <v>468</v>
       </c>
       <c r="C436" s="2">
@@ -10128,7 +10256,7 @@
       <c r="A437" t="s">
         <v>26</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="3" t="s">
         <v>469</v>
       </c>
       <c r="C437" s="2">
@@ -10145,7 +10273,7 @@
       <c r="A438" t="s">
         <v>35</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="3" t="s">
         <v>470</v>
       </c>
       <c r="C438" s="2">
@@ -10162,7 +10290,7 @@
       <c r="A439" t="s">
         <v>35</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="3" t="s">
         <v>471</v>
       </c>
       <c r="C439" s="2">
@@ -10179,7 +10307,7 @@
       <c r="A440" t="s">
         <v>19</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="3" t="s">
         <v>472</v>
       </c>
       <c r="C440" s="2">
@@ -10196,7 +10324,7 @@
       <c r="A441" t="s">
         <v>12</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="3" t="s">
         <v>477</v>
       </c>
       <c r="C441" s="2">
@@ -10213,7 +10341,7 @@
       <c r="A442" t="s">
         <v>26</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="3" t="s">
         <v>473</v>
       </c>
       <c r="C442" s="2">
@@ -10230,7 +10358,7 @@
       <c r="A443" t="s">
         <v>15</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="3" t="s">
         <v>474</v>
       </c>
       <c r="C443" s="2">
@@ -10247,7 +10375,7 @@
       <c r="A444" t="s">
         <v>26</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="3" t="s">
         <v>475</v>
       </c>
       <c r="C444" s="2">
@@ -10264,7 +10392,7 @@
       <c r="A445" t="s">
         <v>45</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="3" t="s">
         <v>476</v>
       </c>
       <c r="C445" s="2">
@@ -10281,7 +10409,7 @@
       <c r="A446" t="s">
         <v>5</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="3" t="s">
         <v>478</v>
       </c>
       <c r="C446" s="2">
@@ -10298,7 +10426,7 @@
       <c r="A447" t="s">
         <v>39</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="3" t="s">
         <v>479</v>
       </c>
       <c r="C447" s="2">
@@ -10315,7 +10443,7 @@
       <c r="A448" t="s">
         <v>15</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C448" s="2">
@@ -10332,7 +10460,7 @@
       <c r="A449" t="s">
         <v>26</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="3" t="s">
         <v>481</v>
       </c>
       <c r="C449" s="2">
@@ -10349,7 +10477,7 @@
       <c r="A450" t="s">
         <v>35</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="3" t="s">
         <v>482</v>
       </c>
       <c r="C450" s="2">
@@ -10366,7 +10494,7 @@
       <c r="A451" t="s">
         <v>26</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="3" t="s">
         <v>483</v>
       </c>
       <c r="C451" s="2">
@@ -10383,7 +10511,7 @@
       <c r="A452" t="s">
         <v>12</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="3" t="s">
         <v>484</v>
       </c>
       <c r="C452" s="2">
@@ -10400,7 +10528,7 @@
       <c r="A453" t="s">
         <v>37</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C453" s="2">
@@ -10417,7 +10545,7 @@
       <c r="A454" t="s">
         <v>24</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="3" t="s">
         <v>486</v>
       </c>
       <c r="C454" s="2">
@@ -10434,7 +10562,7 @@
       <c r="A455" t="s">
         <v>45</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="3" t="s">
         <v>487</v>
       </c>
       <c r="C455" s="2">
@@ -10451,7 +10579,7 @@
       <c r="A456" t="s">
         <v>5</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="3" t="s">
         <v>488</v>
       </c>
       <c r="C456" s="2">
@@ -10468,7 +10596,7 @@
       <c r="A457" t="s">
         <v>39</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="3" t="s">
         <v>489</v>
       </c>
       <c r="C457" s="2">
@@ -10485,7 +10613,7 @@
       <c r="A458" t="s">
         <v>26</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="3" t="s">
         <v>490</v>
       </c>
       <c r="C458" s="2">
@@ -10502,7 +10630,7 @@
       <c r="A459" t="s">
         <v>43</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="3" t="s">
         <v>502</v>
       </c>
       <c r="C459" s="2">
@@ -10519,7 +10647,7 @@
       <c r="A460" t="s">
         <v>19</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="3" t="s">
         <v>491</v>
       </c>
       <c r="C460" s="2">
@@ -10536,7 +10664,7 @@
       <c r="A461" t="s">
         <v>39</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="3" t="s">
         <v>492</v>
       </c>
       <c r="C461" s="2">
@@ -10553,7 +10681,7 @@
       <c r="A462" t="s">
         <v>24</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="3" t="s">
         <v>501</v>
       </c>
       <c r="C462" s="2">
@@ -10570,7 +10698,7 @@
       <c r="A463" t="s">
         <v>5</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="3" t="s">
         <v>493</v>
       </c>
       <c r="C463" s="2">
@@ -10587,7 +10715,7 @@
       <c r="A464" t="s">
         <v>39</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="3" t="s">
         <v>494</v>
       </c>
       <c r="C464" s="2">
@@ -10604,7 +10732,7 @@
       <c r="A465" t="s">
         <v>43</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="3" t="s">
         <v>495</v>
       </c>
       <c r="C465" s="2">
@@ -10621,7 +10749,7 @@
       <c r="A466" t="s">
         <v>43</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="3" t="s">
         <v>496</v>
       </c>
       <c r="C466" s="2">
@@ -10638,7 +10766,7 @@
       <c r="A467" t="s">
         <v>37</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="3" t="s">
         <v>497</v>
       </c>
       <c r="C467" s="2">
@@ -10655,7 +10783,7 @@
       <c r="A468" t="s">
         <v>24</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="3" t="s">
         <v>498</v>
       </c>
       <c r="C468" s="2">
@@ -10672,7 +10800,7 @@
       <c r="A469" t="s">
         <v>5</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="3" t="s">
         <v>499</v>
       </c>
       <c r="C469" s="2">
@@ -10689,7 +10817,7 @@
       <c r="A470" t="s">
         <v>39</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="3" t="s">
         <v>500</v>
       </c>
       <c r="C470" s="2">
@@ -10706,7 +10834,7 @@
       <c r="A471" t="s">
         <v>26</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="3" t="s">
         <v>506</v>
       </c>
       <c r="C471" s="2">
@@ -10723,7 +10851,7 @@
       <c r="A472" t="s">
         <v>43</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="3" t="s">
         <v>505</v>
       </c>
       <c r="C472" s="2">
@@ -10740,7 +10868,7 @@
       <c r="A473" t="s">
         <v>39</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="3" t="s">
         <v>503</v>
       </c>
       <c r="C473" s="2">
@@ -10757,7 +10885,7 @@
       <c r="A474" t="s">
         <v>43</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="3" t="s">
         <v>504</v>
       </c>
       <c r="C474" s="2">
@@ -10774,7 +10902,7 @@
       <c r="A475" t="s">
         <v>19</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="3" t="s">
         <v>507</v>
       </c>
       <c r="C475" s="2">
@@ -10791,7 +10919,7 @@
       <c r="A476" t="s">
         <v>15</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="3" t="s">
         <v>508</v>
       </c>
       <c r="C476" s="2">
@@ -10808,7 +10936,7 @@
       <c r="A477" t="s">
         <v>6</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="3" t="s">
         <v>509</v>
       </c>
       <c r="C477" s="2">
@@ -10825,7 +10953,7 @@
       <c r="A478" t="s">
         <v>17</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="3" t="s">
         <v>602</v>
       </c>
       <c r="C478" s="2">
@@ -10842,7 +10970,7 @@
       <c r="A479" t="s">
         <v>45</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="3" t="s">
         <v>510</v>
       </c>
       <c r="C479" s="2">
@@ -10859,7 +10987,7 @@
       <c r="A480" t="s">
         <v>17</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="3" t="s">
         <v>511</v>
       </c>
       <c r="C480" s="2">
@@ -10876,7 +11004,7 @@
       <c r="A481" t="s">
         <v>6</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="3" t="s">
         <v>512</v>
       </c>
       <c r="C481" s="2">
@@ -10893,7 +11021,7 @@
       <c r="A482" t="s">
         <v>15</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="3" t="s">
         <v>513</v>
       </c>
       <c r="C482" s="2">
@@ -10910,7 +11038,7 @@
       <c r="A483" t="s">
         <v>26</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="3" t="s">
         <v>514</v>
       </c>
       <c r="C483" s="2">
@@ -10927,7 +11055,7 @@
       <c r="A484" t="s">
         <v>19</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="3" t="s">
         <v>515</v>
       </c>
       <c r="C484" s="2">
@@ -10944,7 +11072,7 @@
       <c r="A485" t="s">
         <v>37</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="3" t="s">
         <v>516</v>
       </c>
       <c r="C485" s="2">
@@ -10961,7 +11089,7 @@
       <c r="A486" t="s">
         <v>9</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="3" t="s">
         <v>517</v>
       </c>
       <c r="C486" s="2">
@@ -10978,7 +11106,7 @@
       <c r="A487" t="s">
         <v>5</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="3" t="s">
         <v>518</v>
       </c>
       <c r="C487" s="2">
@@ -10995,7 +11123,7 @@
       <c r="A488" t="s">
         <v>35</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="3" t="s">
         <v>519</v>
       </c>
       <c r="C488" s="2">
@@ -11012,7 +11140,7 @@
       <c r="A489" t="s">
         <v>26</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="3" t="s">
         <v>532</v>
       </c>
       <c r="C489" s="2">
@@ -11029,7 +11157,7 @@
       <c r="A490" t="s">
         <v>12</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="3" t="s">
         <v>520</v>
       </c>
       <c r="C490" s="2">
@@ -11046,7 +11174,7 @@
       <c r="A491" t="s">
         <v>39</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="3" t="s">
         <v>521</v>
       </c>
       <c r="C491" s="2">
@@ -11063,7 +11191,7 @@
       <c r="A492" t="s">
         <v>15</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="3" t="s">
         <v>522</v>
       </c>
       <c r="C492" s="2">
@@ -11080,7 +11208,7 @@
       <c r="A493" t="s">
         <v>35</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="3" t="s">
         <v>523</v>
       </c>
       <c r="C493" s="2">
@@ -11097,7 +11225,7 @@
       <c r="A494" t="s">
         <v>22</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="3" t="s">
         <v>524</v>
       </c>
       <c r="C494" s="2">
@@ -11114,7 +11242,7 @@
       <c r="A495" t="s">
         <v>19</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="3" t="s">
         <v>525</v>
       </c>
       <c r="C495" s="2">
@@ -11131,7 +11259,7 @@
       <c r="A496" t="s">
         <v>37</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="3" t="s">
         <v>526</v>
       </c>
       <c r="C496" s="2">
@@ -11148,7 +11276,7 @@
       <c r="A497" t="s">
         <v>6</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="3" t="s">
         <v>527</v>
       </c>
       <c r="C497" s="2">
@@ -11165,7 +11293,7 @@
       <c r="A498" t="s">
         <v>17</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="3" t="s">
         <v>528</v>
       </c>
       <c r="C498" s="2">
@@ -11182,7 +11310,7 @@
       <c r="A499" t="s">
         <v>24</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="3" t="s">
         <v>529</v>
       </c>
       <c r="C499" s="2">
@@ -11199,7 +11327,7 @@
       <c r="A500" t="s">
         <v>15</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="3" t="s">
         <v>530</v>
       </c>
       <c r="C500" s="2">
@@ -11216,7 +11344,7 @@
       <c r="A501" t="s">
         <v>41</v>
       </c>
-      <c r="B501" s="4" t="s">
+      <c r="B501" s="3" t="s">
         <v>533</v>
       </c>
       <c r="C501" s="2">
@@ -11233,7 +11361,7 @@
       <c r="A502" t="s">
         <v>43</v>
       </c>
-      <c r="B502" s="4" t="s">
+      <c r="B502" s="3" t="s">
         <v>534</v>
       </c>
       <c r="C502" s="2">
@@ -11250,7 +11378,7 @@
       <c r="A503" t="s">
         <v>19</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="3" t="s">
         <v>535</v>
       </c>
       <c r="C503" s="2">
@@ -11267,7 +11395,7 @@
       <c r="A504" t="s">
         <v>41</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="3" t="s">
         <v>536</v>
       </c>
       <c r="C504" s="2">
@@ -11284,7 +11412,7 @@
       <c r="A505" t="s">
         <v>45</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="3" t="s">
         <v>540</v>
       </c>
       <c r="C505" s="2">
@@ -11301,7 +11429,7 @@
       <c r="A506" t="s">
         <v>24</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="3" t="s">
         <v>537</v>
       </c>
       <c r="C506" s="2">
@@ -11318,7 +11446,7 @@
       <c r="A507" t="s">
         <v>17</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="3" t="s">
         <v>538</v>
       </c>
       <c r="C507" s="2">
@@ -11335,7 +11463,7 @@
       <c r="A508" t="s">
         <v>6</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="3" t="s">
         <v>539</v>
       </c>
       <c r="C508" s="2">
@@ -11352,7 +11480,7 @@
       <c r="A509" t="s">
         <v>84</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="3" t="s">
         <v>541</v>
       </c>
       <c r="C509" s="2">
@@ -11369,7 +11497,7 @@
       <c r="A510" t="s">
         <v>19</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="3" t="s">
         <v>595</v>
       </c>
       <c r="C510" s="2">
@@ -11386,7 +11514,7 @@
       <c r="A511" t="s">
         <v>22</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="3" t="s">
         <v>542</v>
       </c>
       <c r="C511" s="2">
@@ -11403,7 +11531,7 @@
       <c r="A512" t="s">
         <v>27</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="3" t="s">
         <v>543</v>
       </c>
       <c r="C512" s="2">
@@ -11420,7 +11548,7 @@
       <c r="A513" t="s">
         <v>15</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C513" s="2">
@@ -11437,7 +11565,7 @@
       <c r="A514" t="s">
         <v>43</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="3" t="s">
         <v>545</v>
       </c>
       <c r="C514" s="2">
@@ -11454,7 +11582,7 @@
       <c r="A515" t="s">
         <v>12</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="3" t="s">
         <v>596</v>
       </c>
       <c r="C515" s="2">
@@ -11471,7 +11599,7 @@
       <c r="A516" t="s">
         <v>26</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="3" t="s">
         <v>546</v>
       </c>
       <c r="C516" s="2">
@@ -11488,7 +11616,7 @@
       <c r="A517" t="s">
         <v>19</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="3" t="s">
         <v>547</v>
       </c>
       <c r="C517" s="2">
@@ -11505,7 +11633,7 @@
       <c r="A518" t="s">
         <v>5</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="3" t="s">
         <v>548</v>
       </c>
       <c r="C518" s="2">
@@ -11522,7 +11650,7 @@
       <c r="A519" t="s">
         <v>9</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="3" t="s">
         <v>549</v>
       </c>
       <c r="C519" s="2">
@@ -11539,7 +11667,7 @@
       <c r="A520" t="s">
         <v>37</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="3" t="s">
         <v>550</v>
       </c>
       <c r="C520" s="2">
@@ -11556,7 +11684,7 @@
       <c r="A521" t="s">
         <v>37</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="3" t="s">
         <v>593</v>
       </c>
       <c r="C521" s="2">
@@ -11573,7 +11701,7 @@
       <c r="A522" t="s">
         <v>9</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="3" t="s">
         <v>551</v>
       </c>
       <c r="C522" s="2">
@@ -11590,7 +11718,7 @@
       <c r="A523" t="s">
         <v>5</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="3" t="s">
         <v>552</v>
       </c>
       <c r="C523" s="2">
@@ -11607,7 +11735,7 @@
       <c r="A524" t="s">
         <v>19</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="3" t="s">
         <v>553</v>
       </c>
       <c r="C524" s="2">
@@ -11624,7 +11752,7 @@
       <c r="A525" t="s">
         <v>26</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="3" t="s">
         <v>554</v>
       </c>
       <c r="C525" s="2">
@@ -11641,7 +11769,7 @@
       <c r="A526" t="s">
         <v>12</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B526" s="3" t="s">
         <v>555</v>
       </c>
       <c r="C526" s="2">
@@ -11658,7 +11786,7 @@
       <c r="A527" t="s">
         <v>39</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="3" t="s">
         <v>556</v>
       </c>
       <c r="C527" s="2">
@@ -11675,7 +11803,7 @@
       <c r="A528" t="s">
         <v>15</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="3" t="s">
         <v>557</v>
       </c>
       <c r="C528" s="2">
@@ -11692,7 +11820,7 @@
       <c r="A529" t="s">
         <v>27</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="3" t="s">
         <v>558</v>
       </c>
       <c r="C529" s="2">
@@ -11709,7 +11837,7 @@
       <c r="A530" t="s">
         <v>22</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B530" s="3" t="s">
         <v>559</v>
       </c>
       <c r="C530" s="2">
@@ -11726,7 +11854,7 @@
       <c r="A531" t="s">
         <v>27</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531" s="3" t="s">
         <v>560</v>
       </c>
       <c r="C531" s="2">
@@ -11743,7 +11871,7 @@
       <c r="A532" t="s">
         <v>84</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B532" s="3" t="s">
         <v>581</v>
       </c>
       <c r="C532" s="2">
@@ -11760,7 +11888,7 @@
       <c r="A533" t="s">
         <v>6</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="3" t="s">
         <v>582</v>
       </c>
       <c r="C533" s="2">
@@ -11777,7 +11905,7 @@
       <c r="A534" t="s">
         <v>17</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="3" t="s">
         <v>583</v>
       </c>
       <c r="C534" s="2">
@@ -11794,7 +11922,7 @@
       <c r="A535" t="s">
         <v>24</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="3" t="s">
         <v>580</v>
       </c>
       <c r="C535" s="2">
@@ -11811,7 +11939,7 @@
       <c r="A536" t="s">
         <v>45</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536" s="3" t="s">
         <v>579</v>
       </c>
       <c r="C536" s="2">
@@ -11828,7 +11956,7 @@
       <c r="A537" t="s">
         <v>41</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="3" t="s">
         <v>577</v>
       </c>
       <c r="C537" s="2">
@@ -11845,7 +11973,7 @@
       <c r="A538" t="s">
         <v>43</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="3" t="s">
         <v>578</v>
       </c>
       <c r="C538" s="2">
@@ -11862,7 +11990,7 @@
       <c r="A539" t="s">
         <v>39</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="3" t="s">
         <v>597</v>
       </c>
       <c r="C539" s="2">
@@ -11879,7 +12007,7 @@
       <c r="A540" t="s">
         <v>41</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540" s="3" t="s">
         <v>561</v>
       </c>
       <c r="C540" s="2">
@@ -11896,7 +12024,7 @@
       <c r="A541" t="s">
         <v>45</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="3" t="s">
         <v>562</v>
       </c>
       <c r="C541" s="2">
@@ -11913,7 +12041,7 @@
       <c r="A542" t="s">
         <v>24</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B542" s="3" t="s">
         <v>563</v>
       </c>
       <c r="C542" s="2">
@@ -11930,7 +12058,7 @@
       <c r="A543" t="s">
         <v>17</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B543" s="3" t="s">
         <v>564</v>
       </c>
       <c r="C543" s="2">
@@ -11947,7 +12075,7 @@
       <c r="A544" t="s">
         <v>6</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B544" s="3" t="s">
         <v>565</v>
       </c>
       <c r="C544" s="2">
@@ -11964,7 +12092,7 @@
       <c r="A545" t="s">
         <v>84</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B545" s="3" t="s">
         <v>566</v>
       </c>
       <c r="C545" s="2">
@@ -11981,7 +12109,7 @@
       <c r="A546" t="s">
         <v>35</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B546" s="3" t="s">
         <v>567</v>
       </c>
       <c r="C546" s="2">
@@ -11998,7 +12126,7 @@
       <c r="A547" t="s">
         <v>22</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547" s="3" t="s">
         <v>568</v>
       </c>
       <c r="C547" s="2">
@@ -12015,7 +12143,7 @@
       <c r="A548" t="s">
         <v>27</v>
       </c>
-      <c r="B548" t="s">
+      <c r="B548" s="3" t="s">
         <v>569</v>
       </c>
       <c r="C548" s="2">
@@ -12032,7 +12160,7 @@
       <c r="A549" t="s">
         <v>45</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B549" s="3" t="s">
         <v>570</v>
       </c>
       <c r="C549" s="2">
@@ -12049,7 +12177,7 @@
       <c r="A550" t="s">
         <v>39</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B550" s="3" t="s">
         <v>576</v>
       </c>
       <c r="C550" s="2">
@@ -12066,7 +12194,7 @@
       <c r="A551" t="s">
         <v>12</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B551" s="3" t="s">
         <v>571</v>
       </c>
       <c r="C551" s="2">
@@ -12083,7 +12211,7 @@
       <c r="A552" t="s">
         <v>26</v>
       </c>
-      <c r="B552" t="s">
+      <c r="B552" s="3" t="s">
         <v>599</v>
       </c>
       <c r="C552" s="2">
@@ -12100,7 +12228,7 @@
       <c r="A553" t="s">
         <v>43</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553" s="3" t="s">
         <v>572</v>
       </c>
       <c r="C553" s="2">
@@ -12117,7 +12245,7 @@
       <c r="A554" t="s">
         <v>5</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B554" s="3" t="s">
         <v>573</v>
       </c>
       <c r="C554" s="2">
@@ -12134,7 +12262,7 @@
       <c r="A555" t="s">
         <v>9</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B555" s="3" t="s">
         <v>574</v>
       </c>
       <c r="C555" s="2">
@@ -12151,7 +12279,7 @@
       <c r="A556" t="s">
         <v>84</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B556" s="3" t="s">
         <v>575</v>
       </c>
       <c r="C556" s="2">
@@ -12168,7 +12296,7 @@
       <c r="A557" t="s">
         <v>37</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B557" s="3" t="s">
         <v>598</v>
       </c>
       <c r="C557" s="2">
@@ -12185,7 +12313,7 @@
       <c r="A558" t="s">
         <v>9</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558" s="3" t="s">
         <v>592</v>
       </c>
       <c r="C558" s="2">
@@ -12197,13 +12325,13 @@
       <c r="E558" s="1">
         <v>43530</v>
       </c>
-      <c r="F558" s="5"/>
+      <c r="F558" s="4"/>
     </row>
     <row r="559" spans="1:6">
       <c r="A559" t="s">
         <v>39</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B559" s="3" t="s">
         <v>584</v>
       </c>
       <c r="C559" s="2">
@@ -12220,7 +12348,7 @@
       <c r="A560" t="s">
         <v>35</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B560" s="3" t="s">
         <v>585</v>
       </c>
       <c r="C560" s="2">
@@ -12237,7 +12365,7 @@
       <c r="A561" t="s">
         <v>26</v>
       </c>
-      <c r="B561" t="s">
+      <c r="B561" s="3" t="s">
         <v>586</v>
       </c>
       <c r="C561" s="2">
@@ -12254,7 +12382,7 @@
       <c r="A562" t="s">
         <v>12</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562" s="3" t="s">
         <v>600</v>
       </c>
       <c r="C562" s="2">
@@ -12271,7 +12399,7 @@
       <c r="A563" t="s">
         <v>5</v>
       </c>
-      <c r="B563" t="s">
+      <c r="B563" s="3" t="s">
         <v>594</v>
       </c>
       <c r="C563" s="2">
@@ -12288,7 +12416,7 @@
       <c r="A564" t="s">
         <v>43</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B564" s="3" t="s">
         <v>587</v>
       </c>
       <c r="C564" s="2">
@@ -12305,7 +12433,7 @@
       <c r="A565" t="s">
         <v>27</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B565" s="3" t="s">
         <v>588</v>
       </c>
       <c r="C565" s="2">
@@ -12322,7 +12450,7 @@
       <c r="A566" t="s">
         <v>22</v>
       </c>
-      <c r="B566" t="s">
+      <c r="B566" s="3" t="s">
         <v>589</v>
       </c>
       <c r="C566" s="2">
@@ -12339,7 +12467,7 @@
       <c r="A567" t="s">
         <v>35</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B567" s="3" t="s">
         <v>601</v>
       </c>
       <c r="C567" s="2">
@@ -12356,7 +12484,7 @@
       <c r="A568" t="s">
         <v>84</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B568" s="3" t="s">
         <v>590</v>
       </c>
       <c r="C568" s="2">
@@ -12373,7 +12501,7 @@
       <c r="A569" t="s">
         <v>6</v>
       </c>
-      <c r="B569" t="s">
+      <c r="B569" s="3" t="s">
         <v>591</v>
       </c>
       <c r="C569" s="2">
@@ -12390,8 +12518,8 @@
       <c r="A570" t="s">
         <v>17</v>
       </c>
-      <c r="B570" t="s">
-        <v>531</v>
+      <c r="B570" s="3" t="s">
+        <v>603</v>
       </c>
       <c r="C570" s="2">
         <v>0</v>
@@ -12399,14 +12527,16 @@
       <c r="D570" t="s">
         <v>48</v>
       </c>
-      <c r="E570" s="1"/>
+      <c r="E570" s="1">
+        <v>43532</v>
+      </c>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" t="s">
         <v>24</v>
       </c>
-      <c r="B571" t="s">
-        <v>531</v>
+      <c r="B571" s="3" t="s">
+        <v>604</v>
       </c>
       <c r="C571" s="2">
         <v>0</v>
@@ -12414,14 +12544,16 @@
       <c r="D571" t="s">
         <v>48</v>
       </c>
-      <c r="E571" s="1"/>
+      <c r="E571" s="1">
+        <v>43532</v>
+      </c>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" t="s">
         <v>45</v>
       </c>
-      <c r="B572" t="s">
-        <v>531</v>
+      <c r="B572" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="C572" s="2">
         <v>0</v>
@@ -12429,14 +12561,16 @@
       <c r="D572" t="s">
         <v>48</v>
       </c>
-      <c r="E572" s="1"/>
+      <c r="E572" s="1">
+        <v>43532</v>
+      </c>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" t="s">
         <v>41</v>
       </c>
-      <c r="B573" t="s">
-        <v>531</v>
+      <c r="B573" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="C573" s="2">
         <v>0</v>
@@ -12444,14 +12578,16 @@
       <c r="D573" t="s">
         <v>48</v>
       </c>
-      <c r="E573" s="1"/>
+      <c r="E573" s="1">
+        <v>43532</v>
+      </c>
     </row>
     <row r="574" spans="1:5">
       <c r="A574" t="s">
         <v>43</v>
       </c>
-      <c r="B574" t="s">
-        <v>531</v>
+      <c r="B574" s="3" t="s">
+        <v>607</v>
       </c>
       <c r="C574" s="2">
         <v>0</v>
@@ -12459,14 +12595,16 @@
       <c r="D574" t="s">
         <v>48</v>
       </c>
-      <c r="E574" s="1"/>
+      <c r="E574" s="1">
+        <v>43532</v>
+      </c>
     </row>
     <row r="575" spans="1:5">
       <c r="A575" t="s">
         <v>43</v>
       </c>
-      <c r="B575" t="s">
-        <v>531</v>
+      <c r="B575" s="3" t="s">
+        <v>608</v>
       </c>
       <c r="C575" s="2">
         <v>0</v>
@@ -12474,14 +12612,16 @@
       <c r="D575" t="s">
         <v>48</v>
       </c>
-      <c r="E575" s="1"/>
+      <c r="E575" s="1">
+        <v>43532</v>
+      </c>
     </row>
     <row r="576" spans="1:5">
       <c r="A576" t="s">
         <v>41</v>
       </c>
-      <c r="B576" t="s">
-        <v>531</v>
+      <c r="B576" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="C576" s="2">
         <v>0</v>
@@ -12489,14 +12629,16 @@
       <c r="D576" t="s">
         <v>48</v>
       </c>
-      <c r="E576" s="1"/>
+      <c r="E576" s="1">
+        <v>43532</v>
+      </c>
     </row>
     <row r="577" spans="1:5">
       <c r="A577" t="s">
         <v>45</v>
       </c>
-      <c r="B577" t="s">
-        <v>531</v>
+      <c r="B577" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="C577" s="2">
         <v>0</v>
@@ -12504,14 +12646,16 @@
       <c r="D577" t="s">
         <v>48</v>
       </c>
-      <c r="E577" s="1"/>
+      <c r="E577" s="1">
+        <v>43532</v>
+      </c>
     </row>
     <row r="578" spans="1:5">
       <c r="A578" t="s">
         <v>24</v>
       </c>
-      <c r="B578" t="s">
-        <v>531</v>
+      <c r="B578" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="C578" s="2">
         <v>0</v>
@@ -12519,14 +12663,16 @@
       <c r="D578" t="s">
         <v>48</v>
       </c>
-      <c r="E578" s="1"/>
+      <c r="E578" s="1">
+        <v>43532</v>
+      </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" t="s">
         <v>17</v>
       </c>
-      <c r="B579" t="s">
-        <v>531</v>
+      <c r="B579" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="C579" s="2">
         <v>0</v>
@@ -12534,14 +12680,16 @@
       <c r="D579" t="s">
         <v>48</v>
       </c>
-      <c r="E579" s="1"/>
+      <c r="E579" s="1">
+        <v>43532</v>
+      </c>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" t="s">
         <v>6</v>
       </c>
-      <c r="B580" t="s">
-        <v>531</v>
+      <c r="B580" s="3" t="s">
+        <v>614</v>
       </c>
       <c r="C580" s="2">
         <v>0</v>
@@ -12549,14 +12697,16 @@
       <c r="D580" t="s">
         <v>48</v>
       </c>
-      <c r="E580" s="1"/>
+      <c r="E580" s="1">
+        <v>43533</v>
+      </c>
     </row>
     <row r="581" spans="1:5">
       <c r="A581" t="s">
         <v>84</v>
       </c>
-      <c r="B581" t="s">
-        <v>531</v>
+      <c r="B581" s="3" t="s">
+        <v>612</v>
       </c>
       <c r="C581" s="2">
         <v>0</v>
@@ -12564,14 +12714,16 @@
       <c r="D581" t="s">
         <v>48</v>
       </c>
-      <c r="E581" s="1"/>
+      <c r="E581" s="1">
+        <v>43534</v>
+      </c>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" t="s">
         <v>35</v>
       </c>
-      <c r="B582" t="s">
-        <v>531</v>
+      <c r="B582" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="C582" s="2">
         <v>0</v>
@@ -12579,14 +12731,16 @@
       <c r="D582" t="s">
         <v>48</v>
       </c>
-      <c r="E582" s="1"/>
+      <c r="E582" s="1">
+        <v>43533</v>
+      </c>
     </row>
     <row r="583" spans="1:5">
       <c r="A583" t="s">
         <v>22</v>
       </c>
-      <c r="B583" t="s">
-        <v>531</v>
+      <c r="B583" s="3" t="s">
+        <v>615</v>
       </c>
       <c r="C583" s="2">
         <v>0</v>
@@ -12594,14 +12748,16 @@
       <c r="D583" t="s">
         <v>48</v>
       </c>
-      <c r="E583" s="1"/>
+      <c r="E583" s="1">
+        <v>43534</v>
+      </c>
     </row>
     <row r="584" spans="1:5">
       <c r="A584" t="s">
         <v>27</v>
       </c>
-      <c r="B584" t="s">
-        <v>531</v>
+      <c r="B584" s="3" t="s">
+        <v>616</v>
       </c>
       <c r="C584" s="2">
         <v>0</v>
@@ -12609,14 +12765,16 @@
       <c r="D584" t="s">
         <v>48</v>
       </c>
-      <c r="E584" s="1"/>
+      <c r="E584" s="1">
+        <v>43534</v>
+      </c>
     </row>
     <row r="585" spans="1:5">
       <c r="A585" t="s">
         <v>43</v>
       </c>
-      <c r="B585" t="s">
-        <v>531</v>
+      <c r="B585" s="3" t="s">
+        <v>617</v>
       </c>
       <c r="C585" s="2">
         <v>0</v>
@@ -12624,14 +12782,16 @@
       <c r="D585" t="s">
         <v>48</v>
       </c>
-      <c r="E585" s="1"/>
+      <c r="E585" s="1">
+        <v>43535</v>
+      </c>
     </row>
     <row r="586" spans="1:5">
       <c r="A586" t="s">
         <v>5</v>
       </c>
-      <c r="B586" t="s">
-        <v>531</v>
+      <c r="B586" s="3" t="s">
+        <v>618</v>
       </c>
       <c r="C586" s="2">
         <v>0</v>
@@ -12639,14 +12799,16 @@
       <c r="D586" t="s">
         <v>48</v>
       </c>
-      <c r="E586" s="1"/>
+      <c r="E586" s="1">
+        <v>43535</v>
+      </c>
     </row>
     <row r="587" spans="1:5">
       <c r="A587" t="s">
         <v>12</v>
       </c>
-      <c r="B587" t="s">
-        <v>531</v>
+      <c r="B587" s="3" t="s">
+        <v>619</v>
       </c>
       <c r="C587" s="2">
         <v>0</v>
@@ -12654,14 +12816,16 @@
       <c r="D587" t="s">
         <v>48</v>
       </c>
-      <c r="E587" s="1"/>
+      <c r="E587" s="1">
+        <v>43535</v>
+      </c>
     </row>
     <row r="588" spans="1:5">
       <c r="A588" t="s">
         <v>26</v>
       </c>
-      <c r="B588" t="s">
-        <v>531</v>
+      <c r="B588" s="3" t="s">
+        <v>620</v>
       </c>
       <c r="C588" s="2">
         <v>0</v>
@@ -12669,14 +12833,16 @@
       <c r="D588" t="s">
         <v>48</v>
       </c>
-      <c r="E588" s="1"/>
+      <c r="E588" s="1">
+        <v>43535</v>
+      </c>
     </row>
     <row r="589" spans="1:5">
       <c r="A589" t="s">
         <v>19</v>
       </c>
-      <c r="B589" t="s">
-        <v>531</v>
+      <c r="B589" s="3" t="s">
+        <v>621</v>
       </c>
       <c r="C589" s="2">
         <v>0</v>
@@ -12684,14 +12850,16 @@
       <c r="D589" t="s">
         <v>48</v>
       </c>
-      <c r="E589" s="1"/>
+      <c r="E589" s="1">
+        <v>43535</v>
+      </c>
     </row>
     <row r="590" spans="1:5">
       <c r="A590" t="s">
         <v>39</v>
       </c>
-      <c r="B590" t="s">
-        <v>531</v>
+      <c r="B590" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="C590" s="2">
         <v>0</v>
@@ -12699,14 +12867,16 @@
       <c r="D590" t="s">
         <v>48</v>
       </c>
-      <c r="E590" s="1"/>
+      <c r="E590" s="1">
+        <v>43535</v>
+      </c>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" t="s">
         <v>9</v>
       </c>
-      <c r="B591" t="s">
-        <v>531</v>
+      <c r="B591" s="3" t="s">
+        <v>623</v>
       </c>
       <c r="C591" s="2">
         <v>0</v>
@@ -12714,22 +12884,596 @@
       <c r="D591" t="s">
         <v>48</v>
       </c>
-      <c r="E591" s="1"/>
+      <c r="E591" s="1">
+        <v>43535</v>
+      </c>
     </row>
     <row r="592" spans="1:5">
       <c r="A592" t="s">
         <v>37</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B592" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C592" s="2">
+        <v>0</v>
+      </c>
+      <c r="D592" t="s">
+        <v>48</v>
+      </c>
+      <c r="E592" s="1">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" t="s">
+        <v>37</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C593" s="2">
+        <v>0</v>
+      </c>
+      <c r="D593" t="s">
+        <v>48</v>
+      </c>
+      <c r="E593" s="1">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" t="s">
+        <v>9</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C594" s="2">
+        <v>0</v>
+      </c>
+      <c r="D594" t="s">
+        <v>48</v>
+      </c>
+      <c r="E594" s="1">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" t="s">
+        <v>5</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C595" s="2">
+        <v>0</v>
+      </c>
+      <c r="D595" t="s">
+        <v>48</v>
+      </c>
+      <c r="E595" s="1">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" t="s">
+        <v>19</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C596" s="2">
+        <v>0</v>
+      </c>
+      <c r="D596" t="s">
+        <v>48</v>
+      </c>
+      <c r="E596" s="1">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" t="s">
+        <v>26</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C597" s="2">
+        <v>0</v>
+      </c>
+      <c r="D597" t="s">
+        <v>48</v>
+      </c>
+      <c r="E597" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" t="s">
+        <v>12</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C598" s="2">
+        <v>0</v>
+      </c>
+      <c r="D598" t="s">
+        <v>48</v>
+      </c>
+      <c r="E598" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" t="s">
+        <v>39</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C599" s="2">
+        <v>0</v>
+      </c>
+      <c r="D599" t="s">
+        <v>48</v>
+      </c>
+      <c r="E599" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" t="s">
+        <v>15</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C600" s="2">
+        <v>0</v>
+      </c>
+      <c r="D600" t="s">
+        <v>48</v>
+      </c>
+      <c r="E600" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" t="s">
+        <v>27</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C601" s="2">
+        <v>0</v>
+      </c>
+      <c r="D601" t="s">
+        <v>48</v>
+      </c>
+      <c r="E601" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" t="s">
+        <v>22</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C602" s="2">
+        <v>0</v>
+      </c>
+      <c r="D602" t="s">
+        <v>48</v>
+      </c>
+      <c r="E602" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" t="s">
+        <v>39</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C603" s="2">
+        <v>0</v>
+      </c>
+      <c r="D603" t="s">
+        <v>48</v>
+      </c>
+      <c r="E603" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" t="s">
+        <v>84</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C604" s="2">
+        <v>0</v>
+      </c>
+      <c r="D604" t="s">
+        <v>48</v>
+      </c>
+      <c r="E604" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" t="s">
+        <v>6</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C605" s="2">
+        <v>0</v>
+      </c>
+      <c r="D605" t="s">
+        <v>48</v>
+      </c>
+      <c r="E605" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" t="s">
+        <v>17</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C606" s="2">
+        <v>0</v>
+      </c>
+      <c r="D606" t="s">
+        <v>48</v>
+      </c>
+      <c r="E606" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" t="s">
+        <v>24</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C607" s="2">
+        <v>0</v>
+      </c>
+      <c r="D607" t="s">
+        <v>48</v>
+      </c>
+      <c r="E607" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" t="s">
+        <v>45</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C608" s="2">
+        <v>0</v>
+      </c>
+      <c r="D608" t="s">
+        <v>48</v>
+      </c>
+      <c r="E608" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" t="s">
+        <v>41</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C609" s="2">
+        <v>0</v>
+      </c>
+      <c r="D609" t="s">
+        <v>48</v>
+      </c>
+      <c r="E609" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" t="s">
+        <v>15</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C610" s="2">
+        <v>0</v>
+      </c>
+      <c r="D610" t="s">
+        <v>48</v>
+      </c>
+      <c r="E610" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" t="s">
+        <v>15</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C611" s="2">
+        <v>0</v>
+      </c>
+      <c r="D611" t="s">
+        <v>48</v>
+      </c>
+      <c r="E611" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" t="s">
+        <v>41</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C612" s="2">
+        <v>0</v>
+      </c>
+      <c r="D612" t="s">
+        <v>48</v>
+      </c>
+      <c r="E612" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" t="s">
+        <v>45</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C613" s="2">
+        <v>0</v>
+      </c>
+      <c r="D613" t="s">
+        <v>48</v>
+      </c>
+      <c r="E613" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" t="s">
+        <v>24</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C614" s="2">
+        <v>0</v>
+      </c>
+      <c r="D614" t="s">
+        <v>48</v>
+      </c>
+      <c r="E614" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" t="s">
+        <v>17</v>
+      </c>
+      <c r="B615" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C592" s="2">
-        <v>0</v>
-      </c>
-      <c r="D592" t="s">
-        <v>48</v>
-      </c>
-      <c r="E592" s="1"/>
+      <c r="C615" s="2">
+        <v>0</v>
+      </c>
+      <c r="D615" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" t="s">
+        <v>6</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C616" s="2">
+        <v>0</v>
+      </c>
+      <c r="D616" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" t="s">
+        <v>84</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C617" s="2">
+        <v>0</v>
+      </c>
+      <c r="D617" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" t="s">
+        <v>35</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C618" s="2">
+        <v>0</v>
+      </c>
+      <c r="D618" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" t="s">
+        <v>22</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C619" s="2">
+        <v>0</v>
+      </c>
+      <c r="D619" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" t="s">
+        <v>27</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C620" s="2">
+        <v>0</v>
+      </c>
+      <c r="D620" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" t="s">
+        <v>43</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C621" s="2">
+        <v>0</v>
+      </c>
+      <c r="D621" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" t="s">
+        <v>39</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C622" s="2">
+        <v>0</v>
+      </c>
+      <c r="D622" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" t="s">
+        <v>12</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C623" s="2">
+        <v>0</v>
+      </c>
+      <c r="D623" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" t="s">
+        <v>26</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C624" s="2">
+        <v>0</v>
+      </c>
+      <c r="D624" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4">
+      <c r="A625" t="s">
+        <v>19</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C625" s="2">
+        <v>0</v>
+      </c>
+      <c r="D625" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4">
+      <c r="A626" t="s">
+        <v>5</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C626" s="2">
+        <v>0</v>
+      </c>
+      <c r="D626" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4">
+      <c r="A627" t="s">
+        <v>9</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C627" s="2">
+        <v>0</v>
+      </c>
+      <c r="D627" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" t="s">
+        <v>37</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C628" s="2">
+        <v>0</v>
+      </c>
+      <c r="D628" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A261:E276">

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRDUser\Desktop\fantasy2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21721"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="13770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="13780"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
     <sheet name="teams" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
   <si>
     <t>team</t>
   </si>
@@ -255,6 +253,168 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Nick Madrigal</t>
+  </si>
+  <si>
+    <t>Vladimir Guerrero Jr.</t>
+  </si>
+  <si>
+    <t>Alec Bohm</t>
+  </si>
+  <si>
+    <t>Whit Merrifield</t>
+  </si>
+  <si>
+    <t>Byron Buxton</t>
+  </si>
+  <si>
+    <t>Franmil Reyes</t>
+  </si>
+  <si>
+    <t>Adley Rutschman</t>
+  </si>
+  <si>
+    <t>Royce Lewis</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Blake Snell</t>
+  </si>
+  <si>
+    <t>Noah Syndergaard</t>
+  </si>
+  <si>
+    <t>Keston Hiura</t>
+  </si>
+  <si>
+    <t>Miguel Sano</t>
+  </si>
+  <si>
+    <t>Francisco Lindor</t>
+  </si>
+  <si>
+    <t>Kyle Tucker</t>
+  </si>
+  <si>
+    <t>Jarred Kelenic</t>
+  </si>
+  <si>
+    <t>Jose Berrios</t>
+  </si>
+  <si>
+    <t>Shane Bieber</t>
+  </si>
+  <si>
+    <t>Brendan McKay</t>
+  </si>
+  <si>
+    <t>Mike Soroka</t>
+  </si>
+  <si>
+    <t>Hector Neris</t>
+  </si>
+  <si>
+    <t>Mike Moustakas</t>
+  </si>
+  <si>
+    <t>Marcus Semien</t>
+  </si>
+  <si>
+    <t>C.J. Cron</t>
+  </si>
+  <si>
+    <t>Ryan McMahon</t>
+  </si>
+  <si>
+    <t>Seth Beer</t>
+  </si>
+  <si>
+    <t>Jonathan India</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Dallas Keuchel</t>
+  </si>
+  <si>
+    <t>Joey Lucchesi</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Jonathan Villar</t>
+  </si>
+  <si>
+    <t>Joey Gallo</t>
+  </si>
+  <si>
+    <t>Ramon Laureano</t>
+  </si>
+  <si>
+    <t>Danny Santana</t>
+  </si>
+  <si>
+    <t>Luis Robert</t>
+  </si>
+  <si>
+    <t>Kristian Robinson</t>
+  </si>
+  <si>
+    <t>Lance Lynn</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Brandon Woodruff</t>
+  </si>
+  <si>
+    <t>Josh Hader</t>
+  </si>
+  <si>
+    <t>Kirby Yates</t>
+  </si>
+  <si>
+    <t>Howie Kendrick</t>
+  </si>
+  <si>
+    <t>Didi Gregorius</t>
+  </si>
+  <si>
+    <t>Andrew Benintendi</t>
+  </si>
+  <si>
+    <t>Charlie Blackmon</t>
+  </si>
+  <si>
+    <t>Brett Gardner</t>
+  </si>
+  <si>
+    <t>Tommy Pham</t>
+  </si>
+  <si>
+    <t>Yordan Alvarez</t>
+  </si>
+  <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
+    <t>Roberto Osuna</t>
+  </si>
+  <si>
+    <t>Matt Manning</t>
   </si>
 </sst>
 </file>
@@ -262,9 +422,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +564,22 @@
       <color theme="1"/>
       <name val="Material Icons"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -702,7 +878,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -745,17 +921,53 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="78">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -784,11 +996,47 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -855,7 +1103,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -907,7 +1155,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1101,7 +1349,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1109,18 +1357,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F569"/>
+  <dimension ref="A1:F622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1550,10 +1798,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
@@ -1567,16 +1815,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1">
         <v>43830</v>
@@ -1584,16 +1832,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E28" s="1">
         <v>43830</v>
@@ -1601,16 +1849,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1">
         <v>43830</v>
@@ -1618,16 +1866,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E30" s="1">
         <v>43830</v>
@@ -1635,16 +1883,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1">
         <v>43830</v>
@@ -1652,16 +1900,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E32" s="1">
         <v>43830</v>
@@ -1669,16 +1917,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C33" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1">
         <v>43830</v>
@@ -1686,16 +1934,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1">
         <v>43830</v>
@@ -1703,16 +1951,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1">
         <v>43830</v>
@@ -1720,16 +1968,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1">
         <v>43830</v>
@@ -1737,13 +1985,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
         <v>37</v>
@@ -1754,16 +2002,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1">
         <v>43830</v>
@@ -1771,16 +2019,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1">
         <v>43830</v>
@@ -1788,33 +2036,939 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="2">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2">
         <v>5</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="2">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="2">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="2">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="2">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="2">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="2">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="2">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="2">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="2">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="2">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="2">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="2">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="2">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="2">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="2">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="2">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="2">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="2">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="2">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="2">
+        <v>27</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="2">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="2">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="2">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="2">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="2">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="2">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="2">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="2">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="2">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="2">
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="2">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="2">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="2">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="2">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C93" s="2">
         <v>12</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D93" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="1">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" customHeight="1"/>
-    <row r="95" ht="24" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="569" spans="6:6">
-      <c r="F569" s="4"/>
+      <c r="E93" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="148" ht="24" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="622" spans="6:6" ht="15">
+      <c r="F622" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A261:E276">
     <sortCondition ref="E261:E276"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1826,7 +2980,7 @@
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1920,5 +3074,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="250">
   <si>
     <t>team</t>
   </si>
@@ -415,6 +415,366 @@
   </si>
   <si>
     <t>Matt Manning</t>
+  </si>
+  <si>
+    <t>Nolan Arenado</t>
+  </si>
+  <si>
+    <t>Xander Bogaerts</t>
+  </si>
+  <si>
+    <t>Corey Seager</t>
+  </si>
+  <si>
+    <t>David Fletcher</t>
+  </si>
+  <si>
+    <t>Mookie Betts</t>
+  </si>
+  <si>
+    <t>Avisail Garcia</t>
+  </si>
+  <si>
+    <t>Miguel Andujar</t>
+  </si>
+  <si>
+    <t>Frankie Montas</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Vidal Brujan</t>
+  </si>
+  <si>
+    <t>Triston Casas</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Michael Chavis</t>
+  </si>
+  <si>
+    <t>Tommy Edman</t>
+  </si>
+  <si>
+    <t>Dansby Swanson</t>
+  </si>
+  <si>
+    <t>Javier Baez</t>
+  </si>
+  <si>
+    <t>Max Kepler</t>
+  </si>
+  <si>
+    <t>Nolan Gorman</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Julio Urias</t>
+  </si>
+  <si>
+    <t>Luke Weaver</t>
+  </si>
+  <si>
+    <t>Archie Bradley</t>
+  </si>
+  <si>
+    <t>Sixto Sanchez</t>
+  </si>
+  <si>
+    <t>Yuli Gurriel</t>
+  </si>
+  <si>
+    <t>Paul DeJong</t>
+  </si>
+  <si>
+    <t>Nick Ahmed</t>
+  </si>
+  <si>
+    <t>Mark Canha</t>
+  </si>
+  <si>
+    <t>Yoenis Cespedes</t>
+  </si>
+  <si>
+    <t>Lourdes Gurriel Jr.</t>
+  </si>
+  <si>
+    <t>Daulton Varsho</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Stephen Strasburg</t>
+  </si>
+  <si>
+    <t>Justin Verlander</t>
+  </si>
+  <si>
+    <t>Trea Turner</t>
+  </si>
+  <si>
+    <t>Cavan Biggio</t>
+  </si>
+  <si>
+    <t>Hunter Dozier</t>
+  </si>
+  <si>
+    <t>Christian Yelich</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Mike Clevinger</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Sean Doolittle</t>
+  </si>
+  <si>
+    <t>Emilio Pagan</t>
+  </si>
+  <si>
+    <t>Luis Patino</t>
+  </si>
+  <si>
+    <t>Jose Ramirez</t>
+  </si>
+  <si>
+    <t>Elvis Andrus</t>
+  </si>
+  <si>
+    <t>Fernando Tatis Jr.</t>
+  </si>
+  <si>
+    <t>Austin Meadows</t>
+  </si>
+  <si>
+    <t>George Springer</t>
+  </si>
+  <si>
+    <t>Marco Luciano</t>
+  </si>
+  <si>
+    <t>Monte Harrison</t>
+  </si>
+  <si>
+    <t>Gerrit Cole</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>German Marquez</t>
+  </si>
+  <si>
+    <t>Alex Colome</t>
+  </si>
+  <si>
+    <t>Matt Olson</t>
+  </si>
+  <si>
+    <t>Yandy Diaz</t>
+  </si>
+  <si>
+    <t>Carlos Correa</t>
+  </si>
+  <si>
+    <t>J.D. Davis</t>
+  </si>
+  <si>
+    <t>J.D. Martinez</t>
+  </si>
+  <si>
+    <t>Victor Robles</t>
+  </si>
+  <si>
+    <t>Griffin Canning</t>
+  </si>
+  <si>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
+    <t>Taylor Rogers</t>
+  </si>
+  <si>
+    <t>Michael Kopech</t>
+  </si>
+  <si>
+    <t>Casey Mize</t>
+  </si>
+  <si>
+    <t>Nate Lowe</t>
+  </si>
+  <si>
+    <t>Anthony Rendon</t>
+  </si>
+  <si>
+    <t>Tim Anderson</t>
+  </si>
+  <si>
+    <t>Brian Anderson</t>
+  </si>
+  <si>
+    <t>Aaron Hicks</t>
+  </si>
+  <si>
+    <t>Austin Riley</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>Mike Minor</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>Ian Anderson</t>
+  </si>
+  <si>
+    <t>Nate Pearson</t>
+  </si>
+  <si>
+    <t>Christian Walker</t>
+  </si>
+  <si>
+    <t>DJ LeMahieu</t>
+  </si>
+  <si>
+    <t>Gio Urshela</t>
+  </si>
+  <si>
+    <t>Cody Bellinger</t>
+  </si>
+  <si>
+    <t>Alex Verdugo</t>
+  </si>
+  <si>
+    <t>Mike Yastrzemski</t>
+  </si>
+  <si>
+    <t>Keibert Ruiz</t>
+  </si>
+  <si>
+    <t>Gavin Lux</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Hyun-Jin Ryu</t>
+  </si>
+  <si>
+    <t>Brandon Workman</t>
+  </si>
+  <si>
+    <t>Trevor Story</t>
+  </si>
+  <si>
+    <t>Alex Bregman</t>
+  </si>
+  <si>
+    <t>Aaron Judge</t>
+  </si>
+  <si>
+    <t>Juan Soto</t>
+  </si>
+  <si>
+    <t>Wander Franco</t>
+  </si>
+  <si>
+    <t>Jo Adell</t>
+  </si>
+  <si>
+    <t>Trevor Bauer</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Lance McCullers</t>
+  </si>
+  <si>
+    <t>Jose Leclerc</t>
+  </si>
+  <si>
+    <t>Kevin Newman</t>
+  </si>
+  <si>
+    <t>Max Muncy</t>
+  </si>
+  <si>
+    <t>Bo Bichette</t>
+  </si>
+  <si>
+    <t>Brandon Lowe</t>
+  </si>
+  <si>
+    <t>Scott Kingery</t>
+  </si>
+  <si>
+    <t>Ronald Acuna Jr.</t>
+  </si>
+  <si>
+    <t>Jeff McNeil</t>
+  </si>
+  <si>
+    <t>Bryan Reynolds</t>
+  </si>
+  <si>
+    <t>Mike Trout</t>
+  </si>
+  <si>
+    <t>Xavier Edwards</t>
+  </si>
+  <si>
+    <t>Alex Kirilloff</t>
+  </si>
+  <si>
+    <t>Adalberto Mondesi</t>
+  </si>
+  <si>
+    <t>Aristides Aquino</t>
+  </si>
+  <si>
+    <t>Willie Calhoun</t>
+  </si>
+  <si>
+    <t>Oscar Mercado</t>
+  </si>
+  <si>
+    <t>Eddie Rosario</t>
+  </si>
+  <si>
+    <t>Nick Senzel</t>
+  </si>
+  <si>
+    <t>Andrew Vaughn</t>
+  </si>
+  <si>
+    <t>Carter Kieboom</t>
+  </si>
+  <si>
+    <t>Tyler Glasnow</t>
+  </si>
+  <si>
+    <t>Dinelson Lamet</t>
+  </si>
+  <si>
+    <t>James Paxton</t>
   </si>
 </sst>
 </file>
@@ -422,7 +782,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -878,7 +1238,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -957,17 +1317,91 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="78">
+  <cellStyles count="152">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1014,6 +1448,43 @@
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1037,6 +1508,43 @@
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1357,17 +1865,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F622"/>
+  <dimension ref="A1:F729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4"/>
     <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1375,10 +1883,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1392,10 +1900,10 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>19</v>
       </c>
       <c r="D2" t="s">
@@ -1409,10 +1917,10 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>12</v>
       </c>
       <c r="D3" t="s">
@@ -1426,10 +1934,10 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -1443,10 +1951,10 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>12</v>
       </c>
       <c r="D5" t="s">
@@ -1460,10 +1968,10 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>11</v>
       </c>
       <c r="D6" t="s">
@@ -1477,10 +1985,10 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>9</v>
       </c>
       <c r="D7" t="s">
@@ -1494,10 +2002,10 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>22</v>
       </c>
       <c r="D8" t="s">
@@ -1511,10 +2019,10 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" t="s">
@@ -1528,10 +2036,10 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>5</v>
       </c>
       <c r="D10" t="s">
@@ -1545,10 +2053,10 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>9</v>
       </c>
       <c r="D11" t="s">
@@ -1562,10 +2070,10 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" t="s">
@@ -1579,10 +2087,10 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>8</v>
       </c>
       <c r="D13" t="s">
@@ -1596,10 +2104,10 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>8</v>
       </c>
       <c r="D14" t="s">
@@ -1613,10 +2121,10 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>9</v>
       </c>
       <c r="D15" t="s">
@@ -1630,10 +2138,10 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>12</v>
       </c>
       <c r="D16" t="s">
@@ -1647,10 +2155,10 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" t="s">
@@ -1664,10 +2172,10 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>7</v>
       </c>
       <c r="D18" t="s">
@@ -1681,10 +2189,10 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>22</v>
       </c>
       <c r="D19" t="s">
@@ -1698,10 +2206,10 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" t="s">
@@ -1715,10 +2223,10 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>13</v>
       </c>
       <c r="D21" t="s">
@@ -1732,10 +2240,10 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>7</v>
       </c>
       <c r="D22" t="s">
@@ -1749,10 +2257,10 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>12</v>
       </c>
       <c r="D23" t="s">
@@ -1766,10 +2274,10 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>1</v>
       </c>
       <c r="D24" t="s">
@@ -1783,10 +2291,10 @@
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>17</v>
       </c>
       <c r="D25" t="s">
@@ -1800,10 +2308,10 @@
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>5</v>
       </c>
       <c r="D26" t="s">
@@ -1817,10 +2325,10 @@
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>5</v>
       </c>
       <c r="D27" t="s">
@@ -1834,10 +2342,10 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>5</v>
       </c>
       <c r="D28" t="s">
@@ -1851,10 +2359,10 @@
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>22</v>
       </c>
       <c r="D29" t="s">
@@ -1868,10 +2376,10 @@
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>19</v>
       </c>
       <c r="D30" t="s">
@@ -1885,10 +2393,10 @@
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>9</v>
       </c>
       <c r="D31" t="s">
@@ -1902,10 +2410,10 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>0</v>
       </c>
       <c r="D32" t="s">
@@ -1919,10 +2427,10 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>0</v>
       </c>
       <c r="D33" t="s">
@@ -1936,10 +2444,10 @@
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>7</v>
       </c>
       <c r="D34" t="s">
@@ -1953,10 +2461,10 @@
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>23</v>
       </c>
       <c r="D35" t="s">
@@ -1970,10 +2478,10 @@
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>22</v>
       </c>
       <c r="D36" t="s">
@@ -1987,10 +2495,10 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>5</v>
       </c>
       <c r="D37" t="s">
@@ -2004,10 +2512,10 @@
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>5</v>
       </c>
       <c r="D38" t="s">
@@ -2021,10 +2529,10 @@
       <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>15</v>
       </c>
       <c r="D39" t="s">
@@ -2038,10 +2546,10 @@
       <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>22</v>
       </c>
       <c r="D40" t="s">
@@ -2055,10 +2563,10 @@
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>5</v>
       </c>
       <c r="D41" t="s">
@@ -2072,10 +2580,10 @@
       <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>0</v>
       </c>
       <c r="D42" t="s">
@@ -2089,10 +2597,10 @@
       <c r="A43" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>17</v>
       </c>
       <c r="D43" t="s">
@@ -2106,10 +2614,10 @@
       <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>17</v>
       </c>
       <c r="D44" t="s">
@@ -2123,10 +2631,10 @@
       <c r="A45" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>9</v>
       </c>
       <c r="D45" t="s">
@@ -2140,10 +2648,10 @@
       <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>10</v>
       </c>
       <c r="D46" t="s">
@@ -2157,10 +2665,10 @@
       <c r="A47" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="4">
         <v>5</v>
       </c>
       <c r="D47" t="s">
@@ -2174,10 +2682,10 @@
       <c r="A48" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>8</v>
       </c>
       <c r="D48" t="s">
@@ -2191,10 +2699,10 @@
       <c r="A49" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>23</v>
       </c>
       <c r="D49" t="s">
@@ -2208,10 +2716,10 @@
       <c r="A50" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="4">
         <v>13</v>
       </c>
       <c r="D50" t="s">
@@ -2225,10 +2733,10 @@
       <c r="A51" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>9</v>
       </c>
       <c r="D51" t="s">
@@ -2242,10 +2750,10 @@
       <c r="A52" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="4">
         <v>8</v>
       </c>
       <c r="D52" t="s">
@@ -2259,10 +2767,10 @@
       <c r="A53" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>5</v>
       </c>
       <c r="D53" t="s">
@@ -2276,10 +2784,10 @@
       <c r="A54" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="4">
         <v>0</v>
       </c>
       <c r="D54" t="s">
@@ -2293,10 +2801,10 @@
       <c r="A55" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="4">
         <v>7</v>
       </c>
       <c r="D55" t="s">
@@ -2310,10 +2818,10 @@
       <c r="A56" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="4">
         <v>20</v>
       </c>
       <c r="D56" t="s">
@@ -2327,10 +2835,10 @@
       <c r="A57" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="4">
         <v>9</v>
       </c>
       <c r="D57" t="s">
@@ -2344,10 +2852,10 @@
       <c r="A58" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="4">
         <v>14</v>
       </c>
       <c r="D58" t="s">
@@ -2361,10 +2869,10 @@
       <c r="A59" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="4">
         <v>0</v>
       </c>
       <c r="D59" t="s">
@@ -2378,10 +2886,10 @@
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="4">
         <v>11</v>
       </c>
       <c r="D60" t="s">
@@ -2395,10 +2903,10 @@
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>17</v>
       </c>
       <c r="D61" t="s">
@@ -2412,10 +2920,10 @@
       <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="4">
         <v>17</v>
       </c>
       <c r="D62" t="s">
@@ -2429,10 +2937,10 @@
       <c r="A63" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="4">
         <v>12</v>
       </c>
       <c r="D63" t="s">
@@ -2446,10 +2954,10 @@
       <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="4">
         <v>6</v>
       </c>
       <c r="D64" t="s">
@@ -2463,10 +2971,10 @@
       <c r="A65" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="4">
         <v>0</v>
       </c>
       <c r="D65" t="s">
@@ -2480,10 +2988,10 @@
       <c r="A66" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="4">
         <v>0</v>
       </c>
       <c r="D66" t="s">
@@ -2497,10 +3005,10 @@
       <c r="A67" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="4">
         <v>5</v>
       </c>
       <c r="D67" t="s">
@@ -2514,10 +3022,10 @@
       <c r="A68" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="4">
         <v>12</v>
       </c>
       <c r="D68" t="s">
@@ -2531,10 +3039,10 @@
       <c r="A69" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="4">
         <v>10</v>
       </c>
       <c r="D69" t="s">
@@ -2548,10 +3056,10 @@
       <c r="A70" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="4">
         <v>13</v>
       </c>
       <c r="D70" t="s">
@@ -2565,10 +3073,10 @@
       <c r="A71" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="4">
         <v>9</v>
       </c>
       <c r="D71" t="s">
@@ -2582,10 +3090,10 @@
       <c r="A72" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="4">
         <v>11</v>
       </c>
       <c r="D72" t="s">
@@ -2599,10 +3107,10 @@
       <c r="A73" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="4">
         <v>7</v>
       </c>
       <c r="D73" t="s">
@@ -2616,10 +3124,10 @@
       <c r="A74" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="4">
         <v>16</v>
       </c>
       <c r="D74" t="s">
@@ -2633,10 +3141,10 @@
       <c r="A75" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="4">
         <v>12</v>
       </c>
       <c r="D75" t="s">
@@ -2650,10 +3158,10 @@
       <c r="A76" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="4">
         <v>27</v>
       </c>
       <c r="D76" t="s">
@@ -2667,10 +3175,10 @@
       <c r="A77" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="4">
         <v>6</v>
       </c>
       <c r="D77" t="s">
@@ -2684,10 +3192,10 @@
       <c r="A78" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="4">
         <v>26</v>
       </c>
       <c r="D78" t="s">
@@ -2701,10 +3209,10 @@
       <c r="A79" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="4">
         <v>5</v>
       </c>
       <c r="D79" t="s">
@@ -2718,10 +3226,10 @@
       <c r="A80" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="4">
         <v>6</v>
       </c>
       <c r="D80" t="s">
@@ -2735,10 +3243,10 @@
       <c r="A81" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="4">
         <v>23</v>
       </c>
       <c r="D81" t="s">
@@ -2752,10 +3260,10 @@
       <c r="A82" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="4">
         <v>0</v>
       </c>
       <c r="D82" t="s">
@@ -2769,10 +3277,10 @@
       <c r="A83" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="4">
         <v>5</v>
       </c>
       <c r="D83" t="s">
@@ -2784,16 +3292,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" s="2">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="4">
+        <v>32</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E84" s="1">
         <v>43830</v>
@@ -2801,16 +3309,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C85" s="2">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="4">
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E85" s="1">
         <v>43830</v>
@@ -2818,16 +3326,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C86" s="2">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="4">
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="E86" s="1">
         <v>43830</v>
@@ -2835,16 +3343,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" s="2">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="4">
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E87" s="1">
         <v>43830</v>
@@ -2852,16 +3360,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="4">
         <v>41</v>
       </c>
-      <c r="C88" s="2">
-        <v>24</v>
-      </c>
       <c r="D88" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E88" s="1">
         <v>43830</v>
@@ -2869,16 +3377,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C89" s="2">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="4">
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1">
         <v>43830</v>
@@ -2886,16 +3394,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="2">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="4">
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="E90" s="1">
         <v>43830</v>
@@ -2903,16 +3411,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" s="2">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="4">
+        <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E91" s="1">
         <v>43830</v>
@@ -2920,16 +3428,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" s="2">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="4">
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E92" s="1">
         <v>43830</v>
@@ -2937,26 +3445,2049 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="4">
         <v>5</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="D95" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="4">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="4">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="4">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="4">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="4">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>75</v>
+      </c>
+      <c r="E101" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="4">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="4">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" s="4">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="4">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>61</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="4">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="4">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C109" s="4">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="4">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" s="4">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="4">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>75</v>
+      </c>
+      <c r="E114" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" s="4">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" s="4">
+        <v>32</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="4">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="4">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" s="4">
+        <v>19</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C120" s="4">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>108</v>
+      </c>
+      <c r="E120" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" s="4">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C122" s="4">
+        <v>33</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C123" s="4">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" s="4">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" s="4">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" s="4">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="4">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="4">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" s="4">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" s="4">
+        <v>21</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" s="4">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>108</v>
+      </c>
+      <c r="E132" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C134" s="4">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>75</v>
+      </c>
+      <c r="E135" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="4">
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>75</v>
+      </c>
+      <c r="E136" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" s="4">
+        <v>33</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C138" s="4">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C139" s="4">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C140" s="4">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>29</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" s="4">
+        <v>24</v>
+      </c>
+      <c r="D141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C142" s="4">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>33</v>
+      </c>
+      <c r="E142" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>29</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C143" s="4">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>29</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C144" s="4">
+        <v>22</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>29</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" s="4">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C146" s="4">
+        <v>32</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>29</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C147" s="4">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C148" s="4">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C149" s="4">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C150" s="4">
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>29</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C151" s="4">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>75</v>
+      </c>
+      <c r="E151" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>29</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C152" s="4">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>75</v>
+      </c>
+      <c r="E152" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>62</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" s="4">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>26</v>
+      </c>
+      <c r="E153" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>62</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C154" s="4">
+        <v>5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>33</v>
+      </c>
+      <c r="E154" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>62</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C155" s="4">
+        <v>32</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>62</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C156" s="4">
+        <v>17</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>62</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C157" s="4">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>62</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C158" s="4">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>62</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C159" s="4">
+        <v>5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>62</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C160" s="4">
+        <v>9</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>62</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C161" s="4">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>62</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C162" s="4">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>62</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="4">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>75</v>
+      </c>
+      <c r="E163" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>62</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C164" s="4">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>75</v>
+      </c>
+      <c r="E164" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="4">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>37</v>
+      </c>
+      <c r="E165" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C166" s="4">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>33</v>
+      </c>
+      <c r="E166" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C167" s="4">
+        <v>14</v>
+      </c>
+      <c r="D167" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C168" s="4">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C169" s="4">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C170" s="4">
+        <v>12</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C171" s="4">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C172" s="4">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>75</v>
+      </c>
+      <c r="E172" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C173" s="4">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>75</v>
+      </c>
+      <c r="E173" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C174" s="4">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C175" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C176" s="4">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>28</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177" s="4">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>28</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C178" s="4">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>28</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C179" s="4">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>108</v>
+      </c>
+      <c r="E179" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>28</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C180" s="4">
+        <v>12</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>28</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C181" s="4">
+        <v>9</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>28</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C182" s="4">
+        <v>8</v>
+      </c>
+      <c r="D182" t="s">
+        <v>75</v>
+      </c>
+      <c r="E182" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C183" s="4">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>75</v>
+      </c>
+      <c r="E183" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C184" s="4">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>28</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C185" s="4">
+        <v>27</v>
+      </c>
+      <c r="D185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C186" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>28</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C187" s="4">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>28</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C188" s="4">
+        <v>9</v>
+      </c>
+      <c r="D188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" s="4">
+        <v>13</v>
+      </c>
+      <c r="D189" t="s">
+        <v>33</v>
+      </c>
+      <c r="E189" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C190" s="4">
+        <v>8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>23</v>
+      </c>
+      <c r="E190" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C191" s="4">
+        <v>14</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C192" s="4">
+        <v>7</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>27</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C193" s="4">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>108</v>
+      </c>
+      <c r="E193" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>27</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C194" s="4">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C195" s="4">
+        <v>9</v>
+      </c>
+      <c r="D195" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>27</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C196" s="4">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>27</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C197" s="4">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>27</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C198" s="4">
+        <v>52</v>
+      </c>
+      <c r="D198" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>27</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C199" s="4">
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>75</v>
+      </c>
+      <c r="E199" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>27</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C200" s="4">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>75</v>
+      </c>
+      <c r="E200" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C201" s="4">
         <v>12</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D201" t="s">
         <v>23</v>
       </c>
-      <c r="E93" s="1">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="106" ht="16.5" customHeight="1"/>
-    <row r="148" ht="24" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="622" spans="6:6" ht="15">
-      <c r="F622" s="4"/>
+      <c r="E201" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C202" s="4">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C203" s="4">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C204" s="4">
+        <v>9</v>
+      </c>
+      <c r="D204" t="s">
+        <v>13</v>
+      </c>
+      <c r="E204" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C205" s="4">
+        <v>5</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C206" s="4">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C207" s="4">
+        <v>8</v>
+      </c>
+      <c r="D207" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C208" s="4">
+        <v>0</v>
+      </c>
+      <c r="D208" t="s">
+        <v>75</v>
+      </c>
+      <c r="E208" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C209" s="4">
+        <v>0</v>
+      </c>
+      <c r="D209" t="s">
+        <v>75</v>
+      </c>
+      <c r="E209" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C210" s="4">
+        <v>12</v>
+      </c>
+      <c r="D210" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C211" s="4">
+        <v>5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C212" s="4">
+        <v>19</v>
+      </c>
+      <c r="D212" t="s">
+        <v>18</v>
+      </c>
+      <c r="E212" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="255" ht="24" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="729" spans="6:6" ht="15">
+      <c r="F729" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A261:E276">

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="290">
   <si>
     <t>team</t>
   </si>
@@ -216,9 +216,6 @@
     <t>perpetual</t>
   </si>
   <si>
-    <t>Pete Alonso</t>
-  </si>
-  <si>
     <t>Salvador Perez</t>
   </si>
   <si>
@@ -705,9 +702,6 @@
     <t>Jack Flaherty</t>
   </si>
   <si>
-    <t>Lance McCullers</t>
-  </si>
-  <si>
     <t>Jose Leclerc</t>
   </si>
   <si>
@@ -775,6 +769,132 @@
   </si>
   <si>
     <t>James Paxton</t>
+  </si>
+  <si>
+    <t>Manny Machado</t>
+  </si>
+  <si>
+    <t>Alex Reyes</t>
+  </si>
+  <si>
+    <t>Max Scherzer</t>
+  </si>
+  <si>
+    <t>Aaron Nola</t>
+  </si>
+  <si>
+    <t>Jesse Winker</t>
+  </si>
+  <si>
+    <t>Michael Brantley</t>
+  </si>
+  <si>
+    <t>Jose Altuve</t>
+  </si>
+  <si>
+    <t>Yasmani Grandal</t>
+  </si>
+  <si>
+    <t>Kris Bryant</t>
+  </si>
+  <si>
+    <t>Garrett Hampson</t>
+  </si>
+  <si>
+    <t>Willson Contreras</t>
+  </si>
+  <si>
+    <t>Zack Greinke</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>Buster Posey</t>
+  </si>
+  <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
+    <t>Zach Davies</t>
+  </si>
+  <si>
+    <t>Starling Marte</t>
+  </si>
+  <si>
+    <t>Paul Goldschmidt</t>
+  </si>
+  <si>
+    <t>Bryce Harper</t>
+  </si>
+  <si>
+    <t>Nomar Mazara</t>
+  </si>
+  <si>
+    <t>Starlin Castro</t>
+  </si>
+  <si>
+    <t>Yu Darvish</t>
+  </si>
+  <si>
+    <t>Dakota Hudson</t>
+  </si>
+  <si>
+    <t>Giancarlo Stanton</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Yadier Molina</t>
+  </si>
+  <si>
+    <t>Kenley Jansen</t>
+  </si>
+  <si>
+    <t>Josh Donaldson</t>
+  </si>
+  <si>
+    <t>Wilson Ramos</t>
+  </si>
+  <si>
+    <t>Aroldis Chapman</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Jorge Polanco</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Jason Heyward</t>
+  </si>
+  <si>
+    <t>Corey Kluber</t>
+  </si>
+  <si>
+    <t>Raisel Iglesias</t>
+  </si>
+  <si>
+    <t>Travis Shaw</t>
+  </si>
+  <si>
+    <t>Luis Arraez</t>
+  </si>
+  <si>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
+    <t>Lance McCullers Jr.</t>
+  </si>
+  <si>
+    <t>Peter Alonso</t>
+  </si>
+  <si>
+    <t>Freddie Freeman</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1358,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="152">
+  <cellStyleXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1391,6 +1511,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1401,7 +1543,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="152">
+  <cellStyles count="174">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1485,6 +1627,17 @@
     <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1545,6 +1698,17 @@
     <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1867,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2105,7 +2269,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4">
         <v>8</v>
@@ -2122,7 +2286,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4">
         <v>9</v>
@@ -2139,7 +2303,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4">
         <v>12</v>
@@ -2156,7 +2320,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
@@ -2173,7 +2337,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4">
         <v>7</v>
@@ -2190,7 +2354,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4">
         <v>22</v>
@@ -2207,13 +2371,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1">
         <v>43830</v>
@@ -2224,7 +2388,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4">
         <v>13</v>
@@ -2241,7 +2405,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4">
         <v>7</v>
@@ -2258,7 +2422,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4">
         <v>12</v>
@@ -2275,7 +2439,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -2309,7 +2473,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="4">
         <v>5</v>
@@ -2326,7 +2490,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="4">
         <v>5</v>
@@ -2343,7 +2507,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="4">
         <v>5</v>
@@ -2360,7 +2524,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="4">
         <v>22</v>
@@ -2377,7 +2541,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="4">
         <v>19</v>
@@ -2394,7 +2558,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4">
         <v>9</v>
@@ -2411,13 +2575,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1">
         <v>43830</v>
@@ -2428,13 +2592,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1">
         <v>43830</v>
@@ -2445,7 +2609,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4">
         <v>7</v>
@@ -2462,7 +2626,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="4">
         <v>23</v>
@@ -2479,7 +2643,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="4">
         <v>22</v>
@@ -2513,7 +2677,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="4">
         <v>5</v>
@@ -2530,7 +2694,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="4">
         <v>15</v>
@@ -2547,7 +2711,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="4">
         <v>22</v>
@@ -2564,7 +2728,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4">
         <v>5</v>
@@ -2581,13 +2745,13 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="1">
         <v>43830</v>
@@ -2598,7 +2762,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="4">
         <v>17</v>
@@ -2615,7 +2779,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="4">
         <v>17</v>
@@ -2632,7 +2796,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="4">
         <v>9</v>
@@ -2649,7 +2813,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="4">
         <v>10</v>
@@ -2666,7 +2830,7 @@
         <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="4">
         <v>5</v>
@@ -2700,7 +2864,7 @@
         <v>30</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="4">
         <v>23</v>
@@ -2717,7 +2881,7 @@
         <v>30</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="4">
         <v>13</v>
@@ -2734,7 +2898,7 @@
         <v>30</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="4">
         <v>9</v>
@@ -2751,13 +2915,13 @@
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="4">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" s="1">
         <v>43830</v>
@@ -2768,7 +2932,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="4">
         <v>5</v>
@@ -2785,13 +2949,13 @@
         <v>30</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E54" s="1">
         <v>43830</v>
@@ -2802,7 +2966,7 @@
         <v>30</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="4">
         <v>7</v>
@@ -2819,7 +2983,7 @@
         <v>30</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="4">
         <v>20</v>
@@ -2836,7 +3000,7 @@
         <v>30</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="4">
         <v>9</v>
@@ -2853,7 +3017,7 @@
         <v>30</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="4">
         <v>14</v>
@@ -2870,13 +3034,13 @@
         <v>30</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E59" s="1">
         <v>43830</v>
@@ -2904,7 +3068,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="4">
         <v>17</v>
@@ -2921,7 +3085,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" s="4">
         <v>17</v>
@@ -2938,7 +3102,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="4">
         <v>12</v>
@@ -2955,7 +3119,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="4">
         <v>6</v>
@@ -2972,13 +3136,13 @@
         <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E65" s="1">
         <v>43830</v>
@@ -2989,13 +3153,13 @@
         <v>60</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E66" s="1">
         <v>43830</v>
@@ -3006,7 +3170,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="4">
         <v>5</v>
@@ -3023,7 +3187,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="4">
         <v>12</v>
@@ -3040,7 +3204,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="4">
         <v>10</v>
@@ -3057,7 +3221,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" s="4">
         <v>13</v>
@@ -3074,7 +3238,7 @@
         <v>60</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C71" s="4">
         <v>9</v>
@@ -3108,7 +3272,7 @@
         <v>21</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C73" s="4">
         <v>7</v>
@@ -3125,7 +3289,7 @@
         <v>21</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="4">
         <v>16</v>
@@ -3142,7 +3306,7 @@
         <v>21</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C75" s="4">
         <v>12</v>
@@ -3159,7 +3323,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C76" s="4">
         <v>27</v>
@@ -3176,7 +3340,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77" s="4">
         <v>6</v>
@@ -3193,7 +3357,7 @@
         <v>21</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C78" s="4">
         <v>26</v>
@@ -3210,7 +3374,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" s="4">
         <v>5</v>
@@ -3227,7 +3391,7 @@
         <v>21</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C80" s="4">
         <v>6</v>
@@ -3244,7 +3408,7 @@
         <v>21</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81" s="4">
         <v>23</v>
@@ -3261,13 +3425,13 @@
         <v>21</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E82" s="1">
         <v>43830</v>
@@ -3295,7 +3459,7 @@
         <v>20</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C84" s="4">
         <v>32</v>
@@ -3312,7 +3476,7 @@
         <v>20</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" s="4">
         <v>24</v>
@@ -3329,13 +3493,13 @@
         <v>20</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C86" s="4">
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86" s="1">
         <v>43830</v>
@@ -3346,7 +3510,7 @@
         <v>20</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C87" s="4">
         <v>5</v>
@@ -3363,7 +3527,7 @@
         <v>20</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C88" s="4">
         <v>41</v>
@@ -3380,7 +3544,7 @@
         <v>20</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C89" s="4">
         <v>12</v>
@@ -3397,13 +3561,13 @@
         <v>20</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90" s="4">
         <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E90" s="1">
         <v>43830</v>
@@ -3414,7 +3578,7 @@
         <v>20</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C91" s="4">
         <v>5</v>
@@ -3431,7 +3595,7 @@
         <v>20</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92" s="4">
         <v>22</v>
@@ -3448,13 +3612,13 @@
         <v>20</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E93" s="1">
         <v>43830</v>
@@ -3465,13 +3629,13 @@
         <v>20</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" s="4">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E94" s="1">
         <v>43830</v>
@@ -3499,7 +3663,7 @@
         <v>61</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" s="4">
         <v>5</v>
@@ -3516,7 +3680,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="4">
         <v>7</v>
@@ -3533,7 +3697,7 @@
         <v>61</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C98" s="4">
         <v>10</v>
@@ -3550,13 +3714,13 @@
         <v>61</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" s="4">
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E99" s="1">
         <v>43830</v>
@@ -3567,7 +3731,7 @@
         <v>61</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C100" s="4">
         <v>18</v>
@@ -3584,13 +3748,13 @@
         <v>61</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E101" s="1">
         <v>43830</v>
@@ -3601,7 +3765,7 @@
         <v>61</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C102" s="4">
         <v>14</v>
@@ -3618,7 +3782,7 @@
         <v>61</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C103" s="4">
         <v>12</v>
@@ -3635,7 +3799,7 @@
         <v>61</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C104" s="4">
         <v>13</v>
@@ -3652,7 +3816,7 @@
         <v>61</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C105" s="4">
         <v>16</v>
@@ -3669,13 +3833,13 @@
         <v>61</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E106" s="1">
         <v>43830</v>
@@ -3703,7 +3867,7 @@
         <v>16</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C108" s="4">
         <v>13</v>
@@ -3720,7 +3884,7 @@
         <v>16</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C109" s="4">
         <v>14</v>
@@ -3737,13 +3901,13 @@
         <v>16</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C110" s="4">
         <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E110" s="1">
         <v>43830</v>
@@ -3754,7 +3918,7 @@
         <v>16</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C111" s="4">
         <v>6</v>
@@ -3771,7 +3935,7 @@
         <v>16</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C112" s="4">
         <v>6</v>
@@ -3788,7 +3952,7 @@
         <v>16</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C113" s="4">
         <v>11</v>
@@ -3805,13 +3969,13 @@
         <v>16</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E114" s="1">
         <v>43830</v>
@@ -3822,7 +3986,7 @@
         <v>16</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C115" s="4">
         <v>8</v>
@@ -3839,7 +4003,7 @@
         <v>16</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C116" s="4">
         <v>32</v>
@@ -3856,7 +4020,7 @@
         <v>16</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C117" s="4">
         <v>28</v>
@@ -3890,7 +4054,7 @@
         <v>14</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C119" s="4">
         <v>19</v>
@@ -3907,13 +4071,13 @@
         <v>14</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C120" s="4">
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E120" s="1">
         <v>43830</v>
@@ -3924,7 +4088,7 @@
         <v>14</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C121" s="4">
         <v>5</v>
@@ -3941,7 +4105,7 @@
         <v>14</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C122" s="4">
         <v>33</v>
@@ -3958,7 +4122,7 @@
         <v>14</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C123" s="4">
         <v>17</v>
@@ -3975,7 +4139,7 @@
         <v>14</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C124" s="4">
         <v>15</v>
@@ -3992,7 +4156,7 @@
         <v>14</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C125" s="4">
         <v>12</v>
@@ -4009,7 +4173,7 @@
         <v>14</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C126" s="4">
         <v>12</v>
@@ -4026,7 +4190,7 @@
         <v>14</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C127" s="4">
         <v>13</v>
@@ -4043,7 +4207,7 @@
         <v>14</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
@@ -4077,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C130" s="4">
         <v>17</v>
@@ -4094,7 +4258,7 @@
         <v>11</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C131" s="4">
         <v>21</v>
@@ -4111,13 +4275,13 @@
         <v>11</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C132" s="4">
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E132" s="1">
         <v>43830</v>
@@ -4128,7 +4292,7 @@
         <v>11</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C133" s="4">
         <v>11</v>
@@ -4145,7 +4309,7 @@
         <v>11</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C134" s="4">
         <v>27</v>
@@ -4162,13 +4326,13 @@
         <v>11</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C135" s="4">
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E135" s="1">
         <v>43830</v>
@@ -4179,13 +4343,13 @@
         <v>11</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C136" s="4">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E136" s="1">
         <v>43830</v>
@@ -4196,7 +4360,7 @@
         <v>11</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C137" s="4">
         <v>33</v>
@@ -4213,7 +4377,7 @@
         <v>11</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C138" s="4">
         <v>12</v>
@@ -4230,7 +4394,7 @@
         <v>11</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C139" s="4">
         <v>10</v>
@@ -4247,7 +4411,7 @@
         <v>11</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C140" s="4">
         <v>9</v>
@@ -4281,7 +4445,7 @@
         <v>29</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C142" s="4">
         <v>12</v>
@@ -4298,7 +4462,7 @@
         <v>29</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C143" s="4">
         <v>5</v>
@@ -4315,7 +4479,7 @@
         <v>29</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C144" s="4">
         <v>22</v>
@@ -4332,7 +4496,7 @@
         <v>29</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C145" s="4">
         <v>5</v>
@@ -4349,7 +4513,7 @@
         <v>29</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C146" s="4">
         <v>32</v>
@@ -4366,7 +4530,7 @@
         <v>29</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C147" s="4">
         <v>5</v>
@@ -4383,7 +4547,7 @@
         <v>29</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C148" s="4">
         <v>5</v>
@@ -4400,7 +4564,7 @@
         <v>29</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C149" s="4">
         <v>15</v>
@@ -4417,7 +4581,7 @@
         <v>29</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C150" s="4">
         <v>5</v>
@@ -4434,13 +4598,13 @@
         <v>29</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E151" s="1">
         <v>43830</v>
@@ -4451,13 +4615,13 @@
         <v>29</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E152" s="1">
         <v>43830</v>
@@ -4485,7 +4649,7 @@
         <v>62</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C154" s="4">
         <v>5</v>
@@ -4502,7 +4666,7 @@
         <v>62</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C155" s="4">
         <v>32</v>
@@ -4519,7 +4683,7 @@
         <v>62</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C156" s="4">
         <v>17</v>
@@ -4536,7 +4700,7 @@
         <v>62</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C157" s="4">
         <v>9</v>
@@ -4553,7 +4717,7 @@
         <v>62</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C158" s="4">
         <v>12</v>
@@ -4570,7 +4734,7 @@
         <v>62</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C159" s="4">
         <v>5</v>
@@ -4587,7 +4751,7 @@
         <v>62</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C160" s="4">
         <v>9</v>
@@ -4604,7 +4768,7 @@
         <v>62</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C161" s="4">
         <v>5</v>
@@ -4621,7 +4785,7 @@
         <v>62</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C162" s="4">
         <v>17</v>
@@ -4638,13 +4802,13 @@
         <v>62</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C163" s="4">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E163" s="1">
         <v>43830</v>
@@ -4655,13 +4819,13 @@
         <v>62</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C164" s="4">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E164" s="1">
         <v>43830</v>
@@ -4689,7 +4853,7 @@
         <v>9</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C166" s="4">
         <v>5</v>
@@ -4706,7 +4870,7 @@
         <v>9</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C167" s="4">
         <v>14</v>
@@ -4723,7 +4887,7 @@
         <v>9</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C168" s="4">
         <v>6</v>
@@ -4740,7 +4904,7 @@
         <v>9</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C169" s="4">
         <v>12</v>
@@ -4757,7 +4921,7 @@
         <v>9</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C170" s="4">
         <v>12</v>
@@ -4774,7 +4938,7 @@
         <v>9</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C171" s="4">
         <v>6</v>
@@ -4791,13 +4955,13 @@
         <v>9</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C172" s="4">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E172" s="1">
         <v>43830</v>
@@ -4808,13 +4972,13 @@
         <v>9</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C173" s="4">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E173" s="1">
         <v>43830</v>
@@ -4825,7 +4989,7 @@
         <v>9</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C174" s="4">
         <v>15</v>
@@ -4842,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C175" s="4">
         <v>11</v>
@@ -4859,7 +5023,7 @@
         <v>9</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C176" s="4">
         <v>5</v>
@@ -4893,7 +5057,7 @@
         <v>28</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C178" s="4">
         <v>17</v>
@@ -4910,13 +5074,13 @@
         <v>28</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C179" s="4">
         <v>17</v>
       </c>
       <c r="D179" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E179" s="1">
         <v>43830</v>
@@ -4927,7 +5091,7 @@
         <v>28</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C180" s="4">
         <v>12</v>
@@ -4944,7 +5108,7 @@
         <v>28</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C181" s="4">
         <v>9</v>
@@ -4961,13 +5125,13 @@
         <v>28</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C182" s="4">
         <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E182" s="1">
         <v>43830</v>
@@ -4978,13 +5142,13 @@
         <v>28</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C183" s="4">
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E183" s="1">
         <v>43830</v>
@@ -4995,7 +5159,7 @@
         <v>28</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C184" s="4">
         <v>12</v>
@@ -5012,7 +5176,7 @@
         <v>28</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C185" s="4">
         <v>27</v>
@@ -5029,7 +5193,7 @@
         <v>28</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C186" s="4">
         <v>11</v>
@@ -5046,7 +5210,7 @@
         <v>28</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="C187" s="4">
         <v>5</v>
@@ -5063,7 +5227,7 @@
         <v>28</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C188" s="4">
         <v>9</v>
@@ -5080,7 +5244,7 @@
         <v>27</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="C189" s="4">
         <v>13</v>
@@ -5097,7 +5261,7 @@
         <v>27</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C190" s="4">
         <v>8</v>
@@ -5114,7 +5278,7 @@
         <v>27</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C191" s="4">
         <v>14</v>
@@ -5131,7 +5295,7 @@
         <v>27</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C192" s="4">
         <v>7</v>
@@ -5148,13 +5312,13 @@
         <v>27</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C193" s="4">
         <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E193" s="1">
         <v>43830</v>
@@ -5165,7 +5329,7 @@
         <v>27</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C194" s="4">
         <v>6</v>
@@ -5182,7 +5346,7 @@
         <v>27</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C195" s="4">
         <v>9</v>
@@ -5199,7 +5363,7 @@
         <v>27</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C196" s="4">
         <v>6</v>
@@ -5216,7 +5380,7 @@
         <v>27</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C197" s="4">
         <v>8</v>
@@ -5233,7 +5397,7 @@
         <v>27</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C198" s="4">
         <v>52</v>
@@ -5250,13 +5414,13 @@
         <v>27</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E199" s="1">
         <v>43830</v>
@@ -5267,13 +5431,13 @@
         <v>27</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C200" s="4">
         <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E200" s="1">
         <v>43830</v>
@@ -5301,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C202" s="4">
         <v>9</v>
@@ -5318,7 +5482,7 @@
         <v>5</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C203" s="4">
         <v>5</v>
@@ -5335,7 +5499,7 @@
         <v>5</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C204" s="4">
         <v>9</v>
@@ -5352,7 +5516,7 @@
         <v>5</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C205" s="4">
         <v>5</v>
@@ -5369,7 +5533,7 @@
         <v>5</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C206" s="4">
         <v>15</v>
@@ -5386,7 +5550,7 @@
         <v>5</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C207" s="4">
         <v>8</v>
@@ -5403,13 +5567,13 @@
         <v>5</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
       </c>
       <c r="D208" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E208" s="1">
         <v>43830</v>
@@ -5420,13 +5584,13 @@
         <v>5</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
       </c>
       <c r="D209" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E209" s="1">
         <v>43830</v>
@@ -5437,7 +5601,7 @@
         <v>5</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C210" s="4">
         <v>12</v>
@@ -5454,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C211" s="4">
         <v>5</v>
@@ -5471,7 +5635,7 @@
         <v>5</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C212" s="4">
         <v>19</v>
@@ -5483,8 +5647,687 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="255" ht="24" customHeight="1"/>
+    <row r="213" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A213" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C213" s="4">
+        <v>29</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" s="1">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>22</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C214" s="4">
+        <v>4</v>
+      </c>
+      <c r="D214" t="s">
+        <v>18</v>
+      </c>
+      <c r="E214" s="1">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C215" s="4">
+        <v>34</v>
+      </c>
+      <c r="D215" t="s">
+        <v>33</v>
+      </c>
+      <c r="E215" s="1">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>60</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C216" s="4">
+        <v>39</v>
+      </c>
+      <c r="D216" t="s">
+        <v>18</v>
+      </c>
+      <c r="E216" s="1">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C217" s="4">
+        <v>30</v>
+      </c>
+      <c r="D217" t="s">
+        <v>18</v>
+      </c>
+      <c r="E217" s="1">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C218" s="4">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" s="1">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C219" s="4">
+        <v>19</v>
+      </c>
+      <c r="D219" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" s="1">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>29</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C220" s="4">
+        <v>25</v>
+      </c>
+      <c r="D220" t="s">
+        <v>23</v>
+      </c>
+      <c r="E220" s="1">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>30</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C221" s="4">
+        <v>23</v>
+      </c>
+      <c r="D221" t="s">
+        <v>37</v>
+      </c>
+      <c r="E221" s="1">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C222" s="4">
+        <v>29</v>
+      </c>
+      <c r="D222" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" s="1">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>28</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C223" s="4">
+        <v>10</v>
+      </c>
+      <c r="D223" t="s">
+        <v>23</v>
+      </c>
+      <c r="E223" s="1">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>28</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C224" s="4">
+        <v>18</v>
+      </c>
+      <c r="D224" t="s">
+        <v>37</v>
+      </c>
+      <c r="E224" s="1">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C225" s="4">
+        <v>23</v>
+      </c>
+      <c r="D225" t="s">
+        <v>18</v>
+      </c>
+      <c r="E225" s="1">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C226" s="4">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>18</v>
+      </c>
+      <c r="E226" s="1">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C227" s="4">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>37</v>
+      </c>
+      <c r="E227" s="1">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C228" s="4">
+        <v>33</v>
+      </c>
+      <c r="D228" t="s">
+        <v>18</v>
+      </c>
+      <c r="E228" s="1">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>30</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C229" s="4">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>18</v>
+      </c>
+      <c r="E229" s="1">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>36</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C230" s="4">
+        <v>31</v>
+      </c>
+      <c r="D230" t="s">
+        <v>13</v>
+      </c>
+      <c r="E230" s="1">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>32</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C231" s="4">
+        <v>24</v>
+      </c>
+      <c r="D231" t="s">
+        <v>33</v>
+      </c>
+      <c r="E231" s="1">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C232" s="4">
+        <v>34</v>
+      </c>
+      <c r="D232" t="s">
+        <v>13</v>
+      </c>
+      <c r="E232" s="1">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>36</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C233" s="4">
+        <v>16</v>
+      </c>
+      <c r="D233" t="s">
+        <v>13</v>
+      </c>
+      <c r="E233" s="1">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C234" s="4">
+        <v>8</v>
+      </c>
+      <c r="D234" t="s">
+        <v>107</v>
+      </c>
+      <c r="E234" s="1">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>27</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C235" s="4">
+        <v>24</v>
+      </c>
+      <c r="D235" t="s">
+        <v>18</v>
+      </c>
+      <c r="E235" s="1">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C236" s="4">
+        <v>8</v>
+      </c>
+      <c r="D236" t="s">
+        <v>18</v>
+      </c>
+      <c r="E236" s="1">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C237" s="4">
+        <v>34</v>
+      </c>
+      <c r="D237" t="s">
+        <v>13</v>
+      </c>
+      <c r="E237" s="1">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C238" s="4">
+        <v>29</v>
+      </c>
+      <c r="D238" t="s">
+        <v>33</v>
+      </c>
+      <c r="E238" s="1">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C239" s="4">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>37</v>
+      </c>
+      <c r="E239" s="1">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C240" s="4">
+        <v>20</v>
+      </c>
+      <c r="D240" t="s">
+        <v>18</v>
+      </c>
+      <c r="E240" s="1">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>16</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C241" s="4">
+        <v>24</v>
+      </c>
+      <c r="D241" t="s">
+        <v>26</v>
+      </c>
+      <c r="E241" s="1">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C242" s="4">
+        <v>13</v>
+      </c>
+      <c r="D242" t="s">
+        <v>37</v>
+      </c>
+      <c r="E242" s="1">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>27</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C243" s="4">
+        <v>26</v>
+      </c>
+      <c r="D243" t="s">
+        <v>18</v>
+      </c>
+      <c r="E243" s="1">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C244" s="4">
+        <v>20</v>
+      </c>
+      <c r="D244" t="s">
+        <v>18</v>
+      </c>
+      <c r="E244" s="1">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C245" s="4">
+        <v>15</v>
+      </c>
+      <c r="D245" t="s">
+        <v>8</v>
+      </c>
+      <c r="E245" s="1">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>29</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C246" s="4">
+        <v>16</v>
+      </c>
+      <c r="D246" t="s">
+        <v>18</v>
+      </c>
+      <c r="E246" s="1">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>36</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C247" s="4">
+        <v>7</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+      <c r="E247" s="1">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>16</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C248" s="4">
+        <v>21</v>
+      </c>
+      <c r="D248" t="s">
+        <v>18</v>
+      </c>
+      <c r="E248" s="1">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>27</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C249" s="4">
+        <v>22</v>
+      </c>
+      <c r="D249" t="s">
+        <v>18</v>
+      </c>
+      <c r="E249" s="1">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C250" s="4">
+        <v>6</v>
+      </c>
+      <c r="D250" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250" s="1">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>32</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C251" s="4">
+        <v>9</v>
+      </c>
+      <c r="D251" t="s">
+        <v>107</v>
+      </c>
+      <c r="E251" s="1">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C252" s="4">
+        <v>19</v>
+      </c>
+      <c r="D252" t="s">
+        <v>33</v>
+      </c>
+      <c r="E252" s="1">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="24" customHeight="1"/>
     <row r="362" ht="15.75" customHeight="1"/>
     <row r="729" spans="6:6" ht="15">
       <c r="F729" s="3"/>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4329,7 +4329,7 @@
         <v>177</v>
       </c>
       <c r="C135" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="s">
         <v>74</v>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21721"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRDUser\Desktop\fantasy2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="13780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8985" windowHeight="13785"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="298">
   <si>
     <t>team</t>
   </si>
@@ -895,6 +900,30 @@
   </si>
   <si>
     <t>Freddie Freeman</t>
+  </si>
+  <si>
+    <t>Madison Bumgarner</t>
+  </si>
+  <si>
+    <t>Tommy La Stella</t>
+  </si>
+  <si>
+    <t>Khris Davis</t>
+  </si>
+  <si>
+    <t>Jean Segura</t>
+  </si>
+  <si>
+    <t>Craig Kimbrel</t>
+  </si>
+  <si>
+    <t>Lorenzo Cain</t>
+  </si>
+  <si>
+    <t>Edwin Diaz</t>
+  </si>
+  <si>
+    <t>Jorge Alfaro</t>
   </si>
 </sst>
 </file>
@@ -904,7 +933,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2021,7 +2050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2031,16 +2060,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="4"/>
-    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2442,10 +2471,10 @@
         <v>73</v>
       </c>
       <c r="C24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1">
         <v>43830</v>
@@ -6327,9 +6356,144 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="24" customHeight="1"/>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C253" s="4">
+        <v>17</v>
+      </c>
+      <c r="D253" t="s">
+        <v>18</v>
+      </c>
+      <c r="E253" s="1">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C254" s="4">
+        <v>8</v>
+      </c>
+      <c r="D254" t="s">
+        <v>23</v>
+      </c>
+      <c r="E254" s="1">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="24" customHeight="1">
+      <c r="A255" t="s">
+        <v>14</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C255" s="4">
+        <v>17</v>
+      </c>
+      <c r="D255" t="s">
+        <v>44</v>
+      </c>
+      <c r="E255" s="1">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>36</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C256" s="4">
+        <v>13</v>
+      </c>
+      <c r="D256" t="s">
+        <v>107</v>
+      </c>
+      <c r="E256" s="1">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C257" s="4">
+        <v>20</v>
+      </c>
+      <c r="D257" t="s">
+        <v>18</v>
+      </c>
+      <c r="E257" s="1">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>36</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C258" s="4">
+        <v>16</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" s="1">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>61</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C259" s="4">
+        <v>20</v>
+      </c>
+      <c r="D259" t="s">
+        <v>18</v>
+      </c>
+      <c r="E259" s="1">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>16</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C260" s="4">
+        <v>15</v>
+      </c>
+      <c r="D260" t="s">
+        <v>37</v>
+      </c>
+      <c r="E260" s="1">
+        <v>43843</v>
+      </c>
+    </row>
     <row r="362" ht="15.75" customHeight="1"/>
-    <row r="729" spans="6:6" ht="15">
+    <row r="729" spans="6:6">
       <c r="F729" s="3"/>
     </row>
   </sheetData>
@@ -6337,7 +6501,7 @@
     <sortCondition ref="E261:E276"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6354,7 +6518,7 @@
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRDUser\Desktop\fantasy2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8985" windowHeight="13785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14200" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="306">
   <si>
     <t>team</t>
   </si>
@@ -924,6 +919,30 @@
   </si>
   <si>
     <t>Jorge Alfaro</t>
+  </si>
+  <si>
+    <t>Liam Hendriks</t>
+  </si>
+  <si>
+    <t>Marcell Ozuna</t>
+  </si>
+  <si>
+    <t>Jose Abreu</t>
+  </si>
+  <si>
+    <t>Kenta Maeda</t>
+  </si>
+  <si>
+    <t>Jon Berti</t>
+  </si>
+  <si>
+    <t>Andrelton Simmons</t>
+  </si>
+  <si>
+    <t>Joc Pederson</t>
+  </si>
+  <si>
+    <t>Eric Hosmer</t>
   </si>
 </sst>
 </file>
@@ -933,7 +952,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1387,7 +1406,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="174">
+  <cellStyleXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1562,6 +1581,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1572,7 +1597,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="174">
+  <cellStyles count="180">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1667,6 +1692,9 @@
     <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1738,6 +1766,9 @@
     <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2050,7 +2081,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2060,16 +2091,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="4"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6492,8 +6523,144 @@
         <v>43843</v>
       </c>
     </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>21</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C261" s="4">
+        <v>24</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E261" s="1">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>62</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C262" s="4">
+        <v>26</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" s="1">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>62</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C263" s="4">
+        <v>35</v>
+      </c>
+      <c r="D263" t="s">
+        <v>44</v>
+      </c>
+      <c r="E263" s="1">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C264" s="4">
+        <v>17</v>
+      </c>
+      <c r="D264" t="s">
+        <v>18</v>
+      </c>
+      <c r="E264" s="1">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C265" s="4">
+        <v>7</v>
+      </c>
+      <c r="D265" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" s="1">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C266" s="4">
+        <v>10</v>
+      </c>
+      <c r="D266" t="s">
+        <v>107</v>
+      </c>
+      <c r="E266" s="1">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>61</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C267" s="4">
+        <v>27</v>
+      </c>
+      <c r="D267" t="s">
+        <v>13</v>
+      </c>
+      <c r="E267" s="1">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>20</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C268" s="4">
+        <v>16</v>
+      </c>
+      <c r="D268" t="s">
+        <v>26</v>
+      </c>
+      <c r="E268" s="1">
+        <v>43844</v>
+      </c>
+    </row>
     <row r="362" ht="15.75" customHeight="1"/>
-    <row r="729" spans="6:6">
+    <row r="729" spans="6:6" ht="15">
       <c r="F729" s="3"/>
     </row>
   </sheetData>
@@ -6501,7 +6668,7 @@
     <sortCondition ref="E261:E276"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6518,7 +6685,7 @@
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14200" windowHeight="15820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="314">
   <si>
     <t>team</t>
   </si>
@@ -943,6 +943,30 @@
   </si>
   <si>
     <t>Eric Hosmer</t>
+  </si>
+  <si>
+    <t>David Price</t>
+  </si>
+  <si>
+    <t>Jose Quintana</t>
+  </si>
+  <si>
+    <t>Nicholas Castellanos</t>
+  </si>
+  <si>
+    <t>Corey Knebel</t>
+  </si>
+  <si>
+    <t>Ryon Healy</t>
+  </si>
+  <si>
+    <t>Jose Urquidy</t>
+  </si>
+  <si>
+    <t>David Dahl</t>
+  </si>
+  <si>
+    <t>Tom Murphy</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1430,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="180">
+  <cellStyleXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1587,6 +1611,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1597,7 +1633,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="180">
+  <cellStyles count="192">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1695,6 +1731,12 @@
     <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1769,6 +1811,12 @@
     <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2092,7 +2140,7 @@
   <dimension ref="A1:F729"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269"/>
+      <selection activeCell="D272" sqref="D272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6657,6 +6705,142 @@
       </c>
       <c r="E268" s="1">
         <v>43844</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>29</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C269" s="4">
+        <v>16</v>
+      </c>
+      <c r="D269" t="s">
+        <v>18</v>
+      </c>
+      <c r="E269" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C270" s="4">
+        <v>24</v>
+      </c>
+      <c r="D270" t="s">
+        <v>13</v>
+      </c>
+      <c r="E270" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>22</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C271" s="4">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>33</v>
+      </c>
+      <c r="E271" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C272" s="4">
+        <v>13</v>
+      </c>
+      <c r="D272" t="s">
+        <v>18</v>
+      </c>
+      <c r="E272" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C273" s="4">
+        <v>20</v>
+      </c>
+      <c r="D273" t="s">
+        <v>13</v>
+      </c>
+      <c r="E273" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>61</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C274" s="4">
+        <v>9</v>
+      </c>
+      <c r="D274" t="s">
+        <v>37</v>
+      </c>
+      <c r="E274" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>21</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C275" s="4">
+        <v>7</v>
+      </c>
+      <c r="D275" t="s">
+        <v>18</v>
+      </c>
+      <c r="E275" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>20</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C276" s="4">
+        <v>5</v>
+      </c>
+      <c r="D276" t="s">
+        <v>18</v>
+      </c>
+      <c r="E276" s="1">
+        <v>43845</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1"/>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15820"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="19200" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="322">
   <si>
     <t>team</t>
   </si>
@@ -967,6 +967,30 @@
   </si>
   <si>
     <t>Tom Murphy</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Reese McGuire</t>
+  </si>
+  <si>
+    <t>Carlos Martinez</t>
+  </si>
+  <si>
+    <t>Ken Giles</t>
+  </si>
+  <si>
+    <t>A.J. Pollock</t>
+  </si>
+  <si>
+    <t>Dee Gordon</t>
+  </si>
+  <si>
+    <t>Ryan Braun</t>
+  </si>
+  <si>
+    <t>Mallex Smith</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1454,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="192">
+  <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1623,6 +1647,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1633,7 +1661,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="192">
+  <cellStyles count="196">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1737,6 +1765,8 @@
     <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1817,6 +1847,8 @@
     <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2129,7 +2161,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2139,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D272" sqref="D272"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="E278" sqref="E278:E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6841,6 +6873,142 @@
       </c>
       <c r="E276" s="1">
         <v>43845</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>21</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C277" s="4">
+        <v>15</v>
+      </c>
+      <c r="D277" t="s">
+        <v>18</v>
+      </c>
+      <c r="E277" s="1">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>36</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C278" s="4">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>37</v>
+      </c>
+      <c r="E278" s="1">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C279" s="4">
+        <v>16</v>
+      </c>
+      <c r="D279" t="s">
+        <v>18</v>
+      </c>
+      <c r="E279" s="1">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>32</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C280" s="4">
+        <v>19</v>
+      </c>
+      <c r="D280" t="s">
+        <v>18</v>
+      </c>
+      <c r="E280" s="1">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C281" s="4">
+        <v>14</v>
+      </c>
+      <c r="D281" t="s">
+        <v>13</v>
+      </c>
+      <c r="E281" s="1">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C282" s="4">
+        <v>5</v>
+      </c>
+      <c r="D282" t="s">
+        <v>23</v>
+      </c>
+      <c r="E282" s="1">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>16</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C283" s="4">
+        <v>17</v>
+      </c>
+      <c r="D283" t="s">
+        <v>13</v>
+      </c>
+      <c r="E283" s="1">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>29</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C284" s="4">
+        <v>17</v>
+      </c>
+      <c r="D284" t="s">
+        <v>13</v>
+      </c>
+      <c r="E284" s="1">
+        <v>43846</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1"/>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="328">
   <si>
     <t xml:space="preserve">team</t>
   </si>
@@ -360,9 +360,6 @@
   </si>
   <si>
     <t xml:space="preserve">Miguel Andujar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UT</t>
   </si>
   <si>
     <t xml:space="preserve">Frankie Montas</t>
@@ -1121,8 +1118,8 @@
   </sheetPr>
   <dimension ref="A1:E729"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A266" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B289" activeCellId="0" sqref="B289"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A269" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B297" activeCellId="0" sqref="B297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1131,7 +1128,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
   </cols>
   <sheetData>
@@ -2659,7 +2656,7 @@
         <v>10</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E90" s="3" t="n">
         <v>43830</v>
@@ -2670,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>5</v>
@@ -2687,7 +2684,7 @@
         <v>104</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>22</v>
@@ -2704,7 +2701,7 @@
         <v>104</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>0</v>
@@ -2721,7 +2718,7 @@
         <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>0</v>
@@ -2735,10 +2732,10 @@
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>5</v>
@@ -2752,10 +2749,10 @@
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>5</v>
@@ -2769,10 +2766,10 @@
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>7</v>
@@ -2786,10 +2783,10 @@
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>10</v>
@@ -2803,10 +2800,10 @@
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>26</v>
@@ -2820,10 +2817,10 @@
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>18</v>
@@ -2837,10 +2834,10 @@
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>0</v>
@@ -2854,10 +2851,10 @@
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>14</v>
@@ -2871,10 +2868,10 @@
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>12</v>
@@ -2888,10 +2885,10 @@
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>13</v>
@@ -2905,10 +2902,10 @@
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>16</v>
@@ -2922,10 +2919,10 @@
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
@@ -2939,10 +2936,10 @@
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>5</v>
@@ -2956,10 +2953,10 @@
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>13</v>
@@ -2973,10 +2970,10 @@
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>14</v>
@@ -2990,10 +2987,10 @@
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>6</v>
@@ -3007,10 +3004,10 @@
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>6</v>
@@ -3024,10 +3021,10 @@
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>6</v>
@@ -3041,10 +3038,10 @@
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>11</v>
@@ -3058,10 +3055,10 @@
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>1</v>
@@ -3075,10 +3072,10 @@
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>8</v>
@@ -3092,10 +3089,10 @@
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>32</v>
@@ -3109,10 +3106,10 @@
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>28</v>
@@ -3126,10 +3123,10 @@
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>17</v>
@@ -3143,10 +3140,10 @@
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>19</v>
@@ -3160,10 +3157,10 @@
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>5</v>
@@ -3177,10 +3174,10 @@
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>5</v>
@@ -3194,10 +3191,10 @@
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>33</v>
@@ -3211,10 +3208,10 @@
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>17</v>
@@ -3228,10 +3225,10 @@
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>15</v>
@@ -3245,10 +3242,10 @@
     </row>
     <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>12</v>
@@ -3262,10 +3259,10 @@
     </row>
     <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>12</v>
@@ -3279,10 +3276,10 @@
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>13</v>
@@ -3296,10 +3293,10 @@
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>0</v>
@@ -3313,10 +3310,10 @@
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>12</v>
@@ -3330,10 +3327,10 @@
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>17</v>
@@ -3347,10 +3344,10 @@
     </row>
     <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>21</v>
@@ -3364,10 +3361,10 @@
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>12</v>
@@ -3381,10 +3378,10 @@
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>11</v>
@@ -3398,10 +3395,10 @@
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>27</v>
@@ -3415,10 +3412,10 @@
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>1</v>
@@ -3432,10 +3429,10 @@
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>0</v>
@@ -3449,10 +3446,10 @@
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>33</v>
@@ -3466,10 +3463,10 @@
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>12</v>
@@ -3483,10 +3480,10 @@
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>10</v>
@@ -3500,10 +3497,10 @@
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>9</v>
@@ -3517,10 +3514,10 @@
     </row>
     <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>24</v>
@@ -3534,10 +3531,10 @@
     </row>
     <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>12</v>
@@ -3551,10 +3548,10 @@
     </row>
     <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>5</v>
@@ -3568,10 +3565,10 @@
     </row>
     <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>22</v>
@@ -3585,10 +3582,10 @@
     </row>
     <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>5</v>
@@ -3602,10 +3599,10 @@
     </row>
     <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>32</v>
@@ -3619,10 +3616,10 @@
     </row>
     <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>5</v>
@@ -3636,10 +3633,10 @@
     </row>
     <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>5</v>
@@ -3653,10 +3650,10 @@
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>15</v>
@@ -3670,10 +3667,10 @@
     </row>
     <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>5</v>
@@ -3687,10 +3684,10 @@
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>1</v>
@@ -3704,10 +3701,10 @@
     </row>
     <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>0</v>
@@ -3721,10 +3718,10 @@
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>5</v>
@@ -3738,10 +3735,10 @@
     </row>
     <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>5</v>
@@ -3755,10 +3752,10 @@
     </row>
     <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>32</v>
@@ -3772,10 +3769,10 @@
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>17</v>
@@ -3789,10 +3786,10 @@
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>9</v>
@@ -3806,10 +3803,10 @@
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C158" s="2" t="n">
         <v>12</v>
@@ -3823,10 +3820,10 @@
     </row>
     <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>5</v>
@@ -3840,10 +3837,10 @@
     </row>
     <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C160" s="2" t="n">
         <v>9</v>
@@ -3857,10 +3854,10 @@
     </row>
     <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C161" s="2" t="n">
         <v>5</v>
@@ -3874,10 +3871,10 @@
     </row>
     <row r="162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C162" s="2" t="n">
         <v>17</v>
@@ -3891,10 +3888,10 @@
     </row>
     <row r="163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>0</v>
@@ -3908,10 +3905,10 @@
     </row>
     <row r="164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C164" s="2" t="n">
         <v>0</v>
@@ -3925,10 +3922,10 @@
     </row>
     <row r="165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>6</v>
@@ -3942,10 +3939,10 @@
     </row>
     <row r="166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>5</v>
@@ -3959,10 +3956,10 @@
     </row>
     <row r="167" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C167" s="2" t="n">
         <v>14</v>
@@ -3976,10 +3973,10 @@
     </row>
     <row r="168" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C168" s="2" t="n">
         <v>6</v>
@@ -3993,10 +3990,10 @@
     </row>
     <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C169" s="2" t="n">
         <v>12</v>
@@ -4010,10 +4007,10 @@
     </row>
     <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C170" s="2" t="n">
         <v>12</v>
@@ -4027,10 +4024,10 @@
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>6</v>
@@ -4044,10 +4041,10 @@
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C172" s="2" t="n">
         <v>0</v>
@@ -4061,10 +4058,10 @@
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C173" s="2" t="n">
         <v>0</v>
@@ -4078,10 +4075,10 @@
     </row>
     <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C174" s="2" t="n">
         <v>15</v>
@@ -4095,10 +4092,10 @@
     </row>
     <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C175" s="2" t="n">
         <v>11</v>
@@ -4112,10 +4109,10 @@
     </row>
     <row r="176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C176" s="2" t="n">
         <v>5</v>
@@ -4129,10 +4126,10 @@
     </row>
     <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C177" s="2" t="n">
         <v>12</v>
@@ -4146,10 +4143,10 @@
     </row>
     <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C178" s="2" t="n">
         <v>17</v>
@@ -4163,10 +4160,10 @@
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C179" s="2" t="n">
         <v>17</v>
@@ -4180,10 +4177,10 @@
     </row>
     <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C180" s="2" t="n">
         <v>12</v>
@@ -4197,10 +4194,10 @@
     </row>
     <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C181" s="2" t="n">
         <v>9</v>
@@ -4214,10 +4211,10 @@
     </row>
     <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C182" s="2" t="n">
         <v>8</v>
@@ -4231,10 +4228,10 @@
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C183" s="2" t="n">
         <v>5</v>
@@ -4248,10 +4245,10 @@
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C184" s="2" t="n">
         <v>12</v>
@@ -4265,10 +4262,10 @@
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C185" s="2" t="n">
         <v>27</v>
@@ -4282,10 +4279,10 @@
     </row>
     <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C186" s="2" t="n">
         <v>11</v>
@@ -4299,10 +4296,10 @@
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C187" s="2" t="n">
         <v>5</v>
@@ -4316,10 +4313,10 @@
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C188" s="2" t="n">
         <v>9</v>
@@ -4333,10 +4330,10 @@
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="C189" s="2" t="n">
         <v>13</v>
@@ -4350,10 +4347,10 @@
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C190" s="2" t="n">
         <v>8</v>
@@ -4367,10 +4364,10 @@
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C191" s="2" t="n">
         <v>14</v>
@@ -4384,10 +4381,10 @@
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C192" s="2" t="n">
         <v>7</v>
@@ -4401,10 +4398,10 @@
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C193" s="2" t="n">
         <v>5</v>
@@ -4418,10 +4415,10 @@
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C194" s="2" t="n">
         <v>6</v>
@@ -4435,10 +4432,10 @@
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C195" s="2" t="n">
         <v>9</v>
@@ -4452,10 +4449,10 @@
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C196" s="2" t="n">
         <v>6</v>
@@ -4469,10 +4466,10 @@
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C197" s="2" t="n">
         <v>8</v>
@@ -4486,10 +4483,10 @@
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C198" s="2" t="n">
         <v>52</v>
@@ -4503,10 +4500,10 @@
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C199" s="2" t="n">
         <v>0</v>
@@ -4520,10 +4517,10 @@
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C200" s="2" t="n">
         <v>2</v>
@@ -4537,10 +4534,10 @@
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C201" s="2" t="n">
         <v>12</v>
@@ -4554,10 +4551,10 @@
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C202" s="2" t="n">
         <v>9</v>
@@ -4571,10 +4568,10 @@
     </row>
     <row r="203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C203" s="2" t="n">
         <v>5</v>
@@ -4588,10 +4585,10 @@
     </row>
     <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C204" s="2" t="n">
         <v>9</v>
@@ -4605,10 +4602,10 @@
     </row>
     <row r="205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C205" s="2" t="n">
         <v>5</v>
@@ -4622,10 +4619,10 @@
     </row>
     <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C206" s="2" t="n">
         <v>15</v>
@@ -4639,10 +4636,10 @@
     </row>
     <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C207" s="2" t="n">
         <v>8</v>
@@ -4656,10 +4653,10 @@
     </row>
     <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C208" s="2" t="n">
         <v>0</v>
@@ -4673,10 +4670,10 @@
     </row>
     <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C209" s="2" t="n">
         <v>0</v>
@@ -4690,10 +4687,10 @@
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C210" s="2" t="n">
         <v>12</v>
@@ -4707,10 +4704,10 @@
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C211" s="2" t="n">
         <v>5</v>
@@ -4724,10 +4721,10 @@
     </row>
     <row r="212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C212" s="2" t="n">
         <v>19</v>
@@ -4744,7 +4741,7 @@
         <v>39</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C213" s="2" t="n">
         <v>29</v>
@@ -4761,7 +4758,7 @@
         <v>23</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C214" s="2" t="n">
         <v>4</v>
@@ -4775,10 +4772,10 @@
     </row>
     <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C215" s="2" t="n">
         <v>34</v>
@@ -4795,7 +4792,7 @@
         <v>78</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C216" s="2" t="n">
         <v>39</v>
@@ -4812,7 +4809,7 @@
         <v>91</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C217" s="2" t="n">
         <v>30</v>
@@ -4826,10 +4823,10 @@
     </row>
     <row r="218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C218" s="2" t="n">
         <v>6</v>
@@ -4846,7 +4843,7 @@
         <v>23</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C219" s="2" t="n">
         <v>19</v>
@@ -4860,10 +4857,10 @@
     </row>
     <row r="220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C220" s="2" t="n">
         <v>25</v>
@@ -4880,7 +4877,7 @@
         <v>64</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C221" s="2" t="n">
         <v>23</v>
@@ -4894,10 +4891,10 @@
     </row>
     <row r="222" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C222" s="2" t="n">
         <v>29</v>
@@ -4911,10 +4908,10 @@
     </row>
     <row r="223" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C223" s="2" t="n">
         <v>10</v>
@@ -4928,10 +4925,10 @@
     </row>
     <row r="224" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C224" s="2" t="n">
         <v>18</v>
@@ -4948,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C225" s="2" t="n">
         <v>23</v>
@@ -4965,7 +4962,7 @@
         <v>23</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C226" s="2" t="n">
         <v>28</v>
@@ -4982,7 +4979,7 @@
         <v>104</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C227" s="2" t="n">
         <v>8</v>
@@ -4996,10 +4993,10 @@
     </row>
     <row r="228" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C228" s="2" t="n">
         <v>33</v>
@@ -5016,7 +5013,7 @@
         <v>64</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C229" s="2" t="n">
         <v>1</v>
@@ -5033,7 +5030,7 @@
         <v>52</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C230" s="2" t="n">
         <v>31</v>
@@ -5050,7 +5047,7 @@
         <v>39</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C231" s="2" t="n">
         <v>24</v>
@@ -5067,7 +5064,7 @@
         <v>78</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C232" s="2" t="n">
         <v>34</v>
@@ -5084,7 +5081,7 @@
         <v>52</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C233" s="2" t="n">
         <v>16</v>
@@ -5101,7 +5098,7 @@
         <v>23</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C234" s="2" t="n">
         <v>8</v>
@@ -5115,10 +5112,10 @@
     </row>
     <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C235" s="2" t="n">
         <v>24</v>
@@ -5135,7 +5132,7 @@
         <v>23</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C236" s="2" t="n">
         <v>8</v>
@@ -5149,10 +5146,10 @@
     </row>
     <row r="237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C237" s="2" t="n">
         <v>34</v>
@@ -5169,7 +5166,7 @@
         <v>104</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C238" s="2" t="n">
         <v>29</v>
@@ -5183,10 +5180,10 @@
     </row>
     <row r="239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C239" s="2" t="n">
         <v>8</v>
@@ -5200,10 +5197,10 @@
     </row>
     <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C240" s="2" t="n">
         <v>20</v>
@@ -5217,10 +5214,10 @@
     </row>
     <row r="241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C241" s="2" t="n">
         <v>24</v>
@@ -5237,7 +5234,7 @@
         <v>104</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C242" s="2" t="n">
         <v>13</v>
@@ -5251,10 +5248,10 @@
     </row>
     <row r="243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C243" s="2" t="n">
         <v>26</v>
@@ -5271,7 +5268,7 @@
         <v>5</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C244" s="2" t="n">
         <v>20</v>
@@ -5285,10 +5282,10 @@
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C245" s="2" t="n">
         <v>15</v>
@@ -5302,10 +5299,10 @@
     </row>
     <row r="246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C246" s="2" t="n">
         <v>16</v>
@@ -5322,7 +5319,7 @@
         <v>52</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C247" s="2" t="n">
         <v>7</v>
@@ -5336,10 +5333,10 @@
     </row>
     <row r="248" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C248" s="2" t="n">
         <v>21</v>
@@ -5353,10 +5350,10 @@
     </row>
     <row r="249" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C249" s="2" t="n">
         <v>22</v>
@@ -5370,10 +5367,10 @@
     </row>
     <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C250" s="2" t="n">
         <v>6</v>
@@ -5390,7 +5387,7 @@
         <v>39</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C251" s="2" t="n">
         <v>9</v>
@@ -5404,10 +5401,10 @@
     </row>
     <row r="252" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C252" s="2" t="n">
         <v>19</v>
@@ -5424,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C253" s="2" t="n">
         <v>17</v>
@@ -5438,10 +5435,10 @@
     </row>
     <row r="254" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C254" s="2" t="n">
         <v>8</v>
@@ -5455,10 +5452,10 @@
     </row>
     <row r="255" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C255" s="2" t="n">
         <v>17</v>
@@ -5475,7 +5472,7 @@
         <v>52</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C256" s="2" t="n">
         <v>13</v>
@@ -5489,10 +5486,10 @@
     </row>
     <row r="257" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C257" s="2" t="n">
         <v>20</v>
@@ -5509,7 +5506,7 @@
         <v>52</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C258" s="2" t="n">
         <v>16</v>
@@ -5523,10 +5520,10 @@
     </row>
     <row r="259" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C259" s="2" t="n">
         <v>20</v>
@@ -5540,10 +5537,10 @@
     </row>
     <row r="260" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C260" s="2" t="n">
         <v>15</v>
@@ -5560,7 +5557,7 @@
         <v>91</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C261" s="2" t="n">
         <v>24</v>
@@ -5574,10 +5571,10 @@
     </row>
     <row r="262" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C262" s="2" t="n">
         <v>26</v>
@@ -5591,10 +5588,10 @@
     </row>
     <row r="263" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C263" s="2" t="n">
         <v>35</v>
@@ -5608,10 +5605,10 @@
     </row>
     <row r="264" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C264" s="2" t="n">
         <v>17</v>
@@ -5628,7 +5625,7 @@
         <v>23</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C265" s="2" t="n">
         <v>7</v>
@@ -5642,10 +5639,10 @@
     </row>
     <row r="266" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C266" s="2" t="n">
         <v>10</v>
@@ -5659,10 +5656,10 @@
     </row>
     <row r="267" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C267" s="2" t="n">
         <v>27</v>
@@ -5679,7 +5676,7 @@
         <v>104</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C268" s="2" t="n">
         <v>16</v>
@@ -5693,10 +5690,10 @@
     </row>
     <row r="269" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C269" s="2" t="n">
         <v>16</v>
@@ -5713,7 +5710,7 @@
         <v>5</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C270" s="2" t="n">
         <v>24</v>
@@ -5730,13 +5727,13 @@
         <v>23</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C271" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="E271" s="3" t="n">
         <v>43845</v>
@@ -5744,10 +5741,10 @@
     </row>
     <row r="272" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C272" s="2" t="n">
         <v>13</v>
@@ -5761,10 +5758,10 @@
     </row>
     <row r="273" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C273" s="2" t="n">
         <v>20</v>
@@ -5778,10 +5775,10 @@
     </row>
     <row r="274" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C274" s="2" t="n">
         <v>9</v>
@@ -5798,7 +5795,7 @@
         <v>91</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C275" s="2" t="n">
         <v>7</v>
@@ -5815,7 +5812,7 @@
         <v>104</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C276" s="2" t="n">
         <v>5</v>
@@ -5832,7 +5829,7 @@
         <v>91</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C277" s="2" t="n">
         <v>15</v>
@@ -5849,7 +5846,7 @@
         <v>52</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C278" s="2" t="n">
         <v>2</v>
@@ -5866,7 +5863,7 @@
         <v>91</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C279" s="2" t="n">
         <v>16</v>
@@ -5883,7 +5880,7 @@
         <v>39</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C280" s="2" t="n">
         <v>19</v>
@@ -5897,10 +5894,10 @@
     </row>
     <row r="281" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C281" s="2" t="n">
         <v>14</v>
@@ -5914,10 +5911,10 @@
     </row>
     <row r="282" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C282" s="2" t="n">
         <v>5</v>
@@ -5931,10 +5928,10 @@
     </row>
     <row r="283" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C283" s="2" t="n">
         <v>17</v>
@@ -5948,10 +5945,10 @@
     </row>
     <row r="284" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C284" s="2" t="n">
         <v>17</v>
@@ -5968,7 +5965,7 @@
         <v>23</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C285" s="2" t="n">
         <v>24</v>
@@ -5982,10 +5979,10 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C286" s="2" t="n">
         <v>20</v>
@@ -5999,10 +5996,10 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C287" s="2" t="n">
         <v>11</v>
@@ -6019,7 +6016,7 @@
         <v>78</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C288" s="2" t="n">
         <v>11</v>
@@ -6033,10 +6030,10 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C289" s="2" t="n">
         <v>13</v>
@@ -6050,10 +6047,10 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C290" s="2" t="n">
         <v>8</v>
@@ -6070,7 +6067,7 @@
         <v>52</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C291" s="2" t="n">
         <v>26</v>
@@ -6087,7 +6084,7 @@
         <v>39</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C292" s="2" t="n">
         <v>14</v>
@@ -6130,37 +6127,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,7 +6177,7 @@
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6190,17 +6187,17 @@
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6210,7 +6207,7 @@
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRDUser\Desktop\fantasy2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28C22D4-DE95-4216-8DEB-950BFF66F95E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="17925" yWindow="1845" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="344">
   <si>
     <t>team</t>
   </si>
@@ -366,9 +367,6 @@
     <t>Miguel Andujar</t>
   </si>
   <si>
-    <t>UT</t>
-  </si>
-  <si>
     <t>Frankie Montas</t>
   </si>
   <si>
@@ -1036,22 +1034,51 @@
   </si>
   <si>
     <t>Chris Archer</t>
+  </si>
+  <si>
+    <t>Mike Ford</t>
+  </si>
+  <si>
+    <t>Joe Musgrove</t>
+  </si>
+  <si>
+    <t>Robinson Chirinos</t>
+  </si>
+  <si>
+    <t>Ian Kennedy</t>
+  </si>
+  <si>
+    <t>Harrison Bader</t>
+  </si>
+  <si>
+    <t>Scott Oberg</t>
+  </si>
+  <si>
+    <t>Kyle Seager</t>
+  </si>
+  <si>
+    <t>Lewis Brinson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0;[Red]\$#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Material Icons"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1074,13 +1101,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,14 +1393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E302" sqref="E302:E308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125"/>
     <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
@@ -1377,7 +1410,7 @@
     <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1444,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1428,7 +1461,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +1478,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1462,7 +1495,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1512,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1496,7 +1529,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1513,7 +1546,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1530,7 +1563,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1580,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1564,7 +1597,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1581,7 +1614,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1598,7 +1631,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1615,7 +1648,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1632,7 +1665,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1649,7 +1682,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1666,7 +1699,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1683,7 +1716,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1700,7 +1733,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1717,7 +1750,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1734,7 +1767,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +1784,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1768,7 +1801,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1785,7 +1818,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1802,7 +1835,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1819,7 +1852,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1836,7 +1869,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1853,7 +1886,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1870,7 +1903,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1887,7 +1920,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1904,7 +1937,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1921,7 +1954,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1938,7 +1971,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1955,7 +1988,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1972,7 +2005,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1989,7 +2022,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2006,7 +2039,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2023,7 +2056,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2040,7 +2073,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -2057,7 +2090,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2074,7 +2107,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2091,7 +2124,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2108,7 +2141,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2125,7 +2158,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2142,7 +2175,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2159,7 +2192,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2176,7 +2209,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2193,7 +2226,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2210,7 +2243,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2227,7 +2260,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2244,7 +2277,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -2261,7 +2294,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2278,7 +2311,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2295,7 +2328,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2312,7 +2345,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2329,7 +2362,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2346,7 +2379,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2363,7 +2396,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2380,7 +2413,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2397,7 +2430,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2414,7 +2447,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2431,7 +2464,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2448,7 +2481,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -2465,7 +2498,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2482,7 +2515,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -2499,7 +2532,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -2516,7 +2549,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -2533,7 +2566,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2550,7 +2583,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2567,7 +2600,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2584,7 +2617,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -2601,7 +2634,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -2618,7 +2651,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -2635,7 +2668,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -2652,7 +2685,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2669,7 +2702,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -2686,7 +2719,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -2703,7 +2736,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -2720,7 +2753,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -2737,7 +2770,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -2754,7 +2787,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -2771,7 +2804,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -2788,7 +2821,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -2805,7 +2838,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -2822,7 +2855,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -2839,7 +2872,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -2856,7 +2889,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -2873,7 +2906,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2890,7 +2923,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -2901,18 +2934,18 @@
         <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E90" s="3">
         <v>43830</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2">
         <v>5</v>
@@ -2924,12 +2957,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>104</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C92" s="2">
         <v>22</v>
@@ -2941,12 +2974,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>104</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -2958,12 +2991,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -2975,12 +3008,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C95" s="2">
         <v>5</v>
@@ -2992,12 +3025,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" s="2">
         <v>5</v>
@@ -3009,12 +3042,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C97" s="2">
         <v>7</v>
@@ -3026,12 +3059,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2">
         <v>10</v>
@@ -3043,12 +3076,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C99" s="2">
         <v>26</v>
@@ -3060,12 +3093,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C100" s="2">
         <v>18</v>
@@ -3077,12 +3110,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -3094,12 +3127,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2">
         <v>14</v>
@@ -3111,12 +3144,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C103" s="2">
         <v>12</v>
@@ -3128,29 +3161,29 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="2">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="3">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C104" s="2">
-        <v>13</v>
-      </c>
-      <c r="D104" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="3">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>118</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C105" s="2">
         <v>16</v>
@@ -3162,12 +3195,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -3179,12 +3212,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C107" s="2">
         <v>5</v>
@@ -3196,12 +3229,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2">
         <v>13</v>
@@ -3213,12 +3246,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C109" s="2">
         <v>14</v>
@@ -3230,12 +3263,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C110" s="2">
         <v>6</v>
@@ -3247,12 +3280,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C111" s="2">
         <v>6</v>
@@ -3264,12 +3297,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C112" s="2">
         <v>6</v>
@@ -3281,12 +3314,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C113" s="2">
         <v>11</v>
@@ -3298,12 +3331,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C114" s="2">
         <v>1</v>
@@ -3315,12 +3348,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C115" s="2">
         <v>8</v>
@@ -3332,12 +3365,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2">
         <v>32</v>
@@ -3349,12 +3382,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2">
         <v>28</v>
@@ -3366,12 +3399,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C118" s="2">
         <v>17</v>
@@ -3383,12 +3416,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C119" s="2">
         <v>19</v>
@@ -3400,12 +3433,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C120" s="2">
         <v>5</v>
@@ -3417,12 +3450,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121" s="2">
         <v>5</v>
@@ -3434,12 +3467,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C122" s="2">
         <v>33</v>
@@ -3451,12 +3484,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C123" s="2">
         <v>17</v>
@@ -3468,12 +3501,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C124" s="2">
         <v>15</v>
@@ -3485,12 +3518,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C125" s="2">
         <v>12</v>
@@ -3502,12 +3535,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C126" s="2">
         <v>12</v>
@@ -3519,46 +3552,46 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" s="2">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="3">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C127" s="2">
-        <v>13</v>
-      </c>
-      <c r="D127" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" s="3">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>143</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E128" s="3">
         <v>43830</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C129" s="2">
         <v>12</v>
@@ -3570,12 +3603,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C130" s="2">
         <v>17</v>
@@ -3587,12 +3620,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C131" s="2">
         <v>21</v>
@@ -3604,12 +3637,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C132" s="2">
         <v>12</v>
@@ -3621,12 +3654,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C133" s="2">
         <v>11</v>
@@ -3638,12 +3671,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C134" s="2">
         <v>27</v>
@@ -3655,12 +3688,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C135" s="2">
         <v>1</v>
@@ -3672,12 +3705,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -3689,12 +3722,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C137" s="2">
         <v>33</v>
@@ -3706,12 +3739,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C138" s="2">
         <v>12</v>
@@ -3723,12 +3756,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C139" s="2">
         <v>10</v>
@@ -3740,12 +3773,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C140" s="2">
         <v>9</v>
@@ -3757,12 +3790,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
+        <v>167</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C141" s="2">
         <v>24</v>
@@ -3774,12 +3807,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C142" s="2">
         <v>12</v>
@@ -3791,12 +3824,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C143" s="2">
         <v>5</v>
@@ -3808,12 +3841,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C144" s="2">
         <v>22</v>
@@ -3825,12 +3858,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C145" s="2">
         <v>5</v>
@@ -3842,12 +3875,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C146" s="2">
         <v>32</v>
@@ -3859,12 +3892,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C147" s="2">
         <v>5</v>
@@ -3876,12 +3909,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C148" s="2">
         <v>5</v>
@@ -3893,12 +3926,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C149" s="2">
         <v>15</v>
@@ -3910,12 +3943,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C150" s="2">
         <v>5</v>
@@ -3927,12 +3960,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C151" s="2">
         <v>1</v>
@@ -3944,12 +3977,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -3961,12 +3994,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C153" s="2">
         <v>5</v>
@@ -3978,12 +4011,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C154" s="2">
         <v>5</v>
@@ -3995,12 +4028,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C155" s="2">
         <v>32</v>
@@ -4012,12 +4045,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C156" s="2">
         <v>17</v>
@@ -4029,12 +4062,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C157" s="2">
         <v>9</v>
@@ -4046,12 +4079,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C158" s="2">
         <v>12</v>
@@ -4063,12 +4096,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C159" s="2">
         <v>5</v>
@@ -4080,12 +4113,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C160" s="2">
         <v>9</v>
@@ -4097,12 +4130,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C161" s="2">
         <v>5</v>
@@ -4114,12 +4147,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C162" s="2">
         <v>17</v>
@@ -4131,12 +4164,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -4148,12 +4181,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -4165,12 +4198,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
+        <v>193</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C165" s="2">
         <v>6</v>
@@ -4182,12 +4215,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C166" s="2">
         <v>5</v>
@@ -4199,12 +4232,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C167" s="2">
         <v>14</v>
@@ -4216,12 +4249,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C168" s="2">
         <v>6</v>
@@ -4233,12 +4266,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C169" s="2">
         <v>12</v>
@@ -4250,12 +4283,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C170" s="2">
         <v>12</v>
@@ -4267,12 +4300,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C171" s="2">
         <v>6</v>
@@ -4284,12 +4317,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -4301,12 +4334,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -4318,12 +4351,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C174" s="2">
         <v>15</v>
@@ -4335,12 +4368,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C175" s="2">
         <v>11</v>
@@ -4352,12 +4385,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C176" s="2">
         <v>5</v>
@@ -4369,12 +4402,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
+        <v>206</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C177" s="2">
         <v>12</v>
@@ -4386,12 +4419,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C178" s="2">
         <v>17</v>
@@ -4403,12 +4436,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C179" s="2">
         <v>17</v>
@@ -4420,12 +4453,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C180" s="2">
         <v>12</v>
@@ -4437,12 +4470,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C181" s="2">
         <v>9</v>
@@ -4454,12 +4487,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C182" s="2">
         <v>8</v>
@@ -4471,12 +4504,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C183" s="2">
         <v>5</v>
@@ -4488,12 +4521,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C184" s="2">
         <v>12</v>
@@ -4505,12 +4538,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C185" s="2">
         <v>27</v>
@@ -4522,12 +4555,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C186" s="2">
         <v>11</v>
@@ -4539,12 +4572,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C187" s="2">
         <v>5</v>
@@ -4556,12 +4589,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C188" s="2">
         <v>9</v>
@@ -4573,12 +4606,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
+        <v>219</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="C189" s="2">
         <v>13</v>
@@ -4590,12 +4623,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C190" s="2">
         <v>8</v>
@@ -4607,12 +4640,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C191" s="2">
         <v>14</v>
@@ -4624,12 +4657,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C192" s="2">
         <v>7</v>
@@ -4641,12 +4674,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C193" s="2">
         <v>5</v>
@@ -4658,12 +4691,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C194" s="2">
         <v>6</v>
@@ -4675,12 +4708,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C195" s="2">
         <v>9</v>
@@ -4692,12 +4725,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C196" s="2">
         <v>6</v>
@@ -4709,12 +4742,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C197" s="2">
         <v>8</v>
@@ -4726,12 +4759,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C198" s="2">
         <v>52</v>
@@ -4743,12 +4776,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -4760,12 +4793,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C200" s="2">
         <v>2</v>
@@ -4777,12 +4810,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
+        <v>232</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C201" s="2">
         <v>12</v>
@@ -4794,12 +4827,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C202" s="2">
         <v>9</v>
@@ -4811,12 +4844,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C203" s="2">
         <v>5</v>
@@ -4828,12 +4861,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C204" s="2">
         <v>9</v>
@@ -4845,12 +4878,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C205" s="2">
         <v>5</v>
@@ -4862,12 +4895,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C206" s="2">
         <v>15</v>
@@ -4879,12 +4912,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C207" s="2">
         <v>8</v>
@@ -4896,12 +4929,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -4913,12 +4946,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -4930,12 +4963,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C210" s="2">
         <v>12</v>
@@ -4947,12 +4980,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C211" s="2">
         <v>5</v>
@@ -4964,12 +4997,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C212" s="2">
         <v>19</v>
@@ -4981,12 +5014,12 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="16.5" customHeight="1">
       <c r="A213" t="s">
         <v>39</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C213" s="2">
         <v>29</v>
@@ -4998,12 +5031,12 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>23</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C214" s="2">
         <v>4</v>
@@ -5015,12 +5048,12 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C215" s="2">
         <v>34</v>
@@ -5032,12 +5065,12 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>78</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C216" s="2">
         <v>39</v>
@@ -5049,12 +5082,12 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>91</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C217" s="2">
         <v>30</v>
@@ -5066,12 +5099,12 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C218" s="2">
         <v>6</v>
@@ -5083,12 +5116,12 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>23</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C219" s="2">
         <v>19</v>
@@ -5100,12 +5133,12 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C220" s="2">
         <v>25</v>
@@ -5117,12 +5150,12 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>64</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C221" s="2">
         <v>23</v>
@@ -5134,12 +5167,12 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C222" s="2">
         <v>29</v>
@@ -5151,12 +5184,12 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C223" s="2">
         <v>10</v>
@@ -5168,12 +5201,12 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C224" s="2">
         <v>18</v>
@@ -5185,12 +5218,12 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>23</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C225" s="2">
         <v>23</v>
@@ -5202,12 +5235,12 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>23</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C226" s="2">
         <v>28</v>
@@ -5219,12 +5252,12 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>104</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C227" s="2">
         <v>8</v>
@@ -5236,12 +5269,12 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C228" s="2">
         <v>33</v>
@@ -5253,12 +5286,12 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>64</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
@@ -5270,12 +5303,12 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>52</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C230" s="2">
         <v>31</v>
@@ -5287,12 +5320,12 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>39</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C231" s="2">
         <v>24</v>
@@ -5304,12 +5337,12 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>78</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C232" s="2">
         <v>34</v>
@@ -5321,12 +5354,12 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>52</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C233" s="2">
         <v>16</v>
@@ -5338,12 +5371,12 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>23</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C234" s="2">
         <v>8</v>
@@ -5355,12 +5388,12 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C235" s="2">
         <v>24</v>
@@ -5372,12 +5405,12 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>23</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C236" s="2">
         <v>8</v>
@@ -5389,12 +5422,12 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C237" s="2">
         <v>34</v>
@@ -5406,12 +5439,12 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>104</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C238" s="2">
         <v>29</v>
@@ -5423,12 +5456,12 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C239" s="2">
         <v>8</v>
@@ -5440,12 +5473,12 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C240" s="2">
         <v>20</v>
@@ -5457,12 +5490,12 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C241" s="2">
         <v>24</v>
@@ -5474,12 +5507,12 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>104</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C242" s="2">
         <v>13</v>
@@ -5491,12 +5524,12 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C243" s="2">
         <v>26</v>
@@ -5508,12 +5541,12 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>5</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C244" s="2">
         <v>20</v>
@@ -5525,12 +5558,12 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C245" s="2">
         <v>15</v>
@@ -5542,12 +5575,12 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C246" s="2">
         <v>16</v>
@@ -5559,12 +5592,12 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>52</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C247" s="2">
         <v>7</v>
@@ -5576,12 +5609,12 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C248" s="2">
         <v>21</v>
@@ -5593,12 +5626,12 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C249" s="2">
         <v>22</v>
@@ -5610,12 +5643,12 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C250" s="2">
         <v>6</v>
@@ -5627,12 +5660,12 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>39</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C251" s="2">
         <v>9</v>
@@ -5644,12 +5677,12 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C252" s="2">
         <v>19</v>
@@ -5661,12 +5694,12 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>5</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C253" s="2">
         <v>17</v>
@@ -5678,12 +5711,12 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C254" s="2">
         <v>8</v>
@@ -5695,12 +5728,12 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="24" customHeight="1">
       <c r="A255" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C255" s="2">
         <v>17</v>
@@ -5712,12 +5745,12 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>52</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C256" s="2">
         <v>13</v>
@@ -5729,12 +5762,12 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C257" s="2">
         <v>20</v>
@@ -5746,12 +5779,12 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>52</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C258" s="2">
         <v>16</v>
@@ -5763,12 +5796,12 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C259" s="2">
         <v>20</v>
@@ -5780,12 +5813,12 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C260" s="2">
         <v>15</v>
@@ -5797,12 +5830,12 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>91</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C261" s="2">
         <v>24</v>
@@ -5814,12 +5847,12 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C262" s="2">
         <v>26</v>
@@ -5831,12 +5864,12 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C263" s="2">
         <v>35</v>
@@ -5848,12 +5881,12 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C264" s="2">
         <v>17</v>
@@ -5865,12 +5898,12 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>23</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C265" s="2">
         <v>7</v>
@@ -5882,12 +5915,12 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C266" s="2">
         <v>10</v>
@@ -5899,12 +5932,12 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C267" s="2">
         <v>27</v>
@@ -5916,12 +5949,12 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>104</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C268" s="2">
         <v>16</v>
@@ -5933,12 +5966,12 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C269" s="2">
         <v>16</v>
@@ -5950,12 +5983,12 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>5</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C270" s="2">
         <v>24</v>
@@ -5967,29 +6000,29 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>23</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C271" s="2">
         <v>2</v>
       </c>
       <c r="D271" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="E271" s="3">
         <v>43845</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C272" s="2">
         <v>13</v>
@@ -6001,12 +6034,12 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C273" s="2">
         <v>20</v>
@@ -6018,12 +6051,12 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C274" s="2">
         <v>9</v>
@@ -6035,12 +6068,12 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>91</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C275" s="2">
         <v>7</v>
@@ -6052,12 +6085,12 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>104</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C276" s="2">
         <v>5</v>
@@ -6069,12 +6102,12 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>91</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C277" s="2">
         <v>15</v>
@@ -6086,12 +6119,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>52</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C278" s="2">
         <v>2</v>
@@ -6103,12 +6136,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>91</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C279" s="2">
         <v>16</v>
@@ -6120,12 +6153,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>39</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C280" s="2">
         <v>19</v>
@@ -6137,12 +6170,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C281" s="2">
         <v>14</v>
@@ -6154,12 +6187,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C282" s="2">
         <v>5</v>
@@ -6171,12 +6204,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C283" s="2">
         <v>17</v>
@@ -6188,12 +6221,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C284" s="2">
         <v>17</v>
@@ -6205,12 +6238,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>23</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C285" s="2">
         <v>24</v>
@@ -6222,12 +6255,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C286" s="2">
         <v>20</v>
@@ -6239,12 +6272,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C287" s="2">
         <v>11</v>
@@ -6256,12 +6289,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>78</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C288" s="2">
         <v>11</v>
@@ -6273,12 +6306,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C289" s="2">
         <v>13</v>
@@ -6290,12 +6323,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C290" s="2">
         <v>8</v>
@@ -6307,12 +6340,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>52</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C291" s="2">
         <v>26</v>
@@ -6324,12 +6357,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>39</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C292" s="2">
         <v>14</v>
@@ -6341,12 +6374,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C293" s="2">
         <v>5</v>
@@ -6358,12 +6391,12 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C294" s="2">
         <v>10</v>
@@ -6375,12 +6408,12 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>64</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C295" s="2">
         <v>19</v>
@@ -6392,12 +6425,12 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C296" s="2">
         <v>4</v>
@@ -6409,12 +6442,12 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>64</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C297" s="2">
         <v>26</v>
@@ -6426,12 +6459,12 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C298" s="2">
         <v>23</v>
@@ -6443,12 +6476,12 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>5</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C299" s="2">
         <v>11</v>
@@ -6460,12 +6493,12 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C300" s="2">
         <v>12</v>
@@ -6477,7 +6510,149 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>64</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C301" s="2">
+        <v>3</v>
+      </c>
+      <c r="D301" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>78</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C302" s="2">
+        <v>9</v>
+      </c>
+      <c r="D302" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C303" s="2">
+        <v>9</v>
+      </c>
+      <c r="D303" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>130</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C304" s="2">
+        <v>5</v>
+      </c>
+      <c r="D304" t="s">
+        <v>13</v>
+      </c>
+      <c r="E304" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>193</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C305" s="2">
+        <v>10</v>
+      </c>
+      <c r="D305" t="s">
+        <v>19</v>
+      </c>
+      <c r="E305" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>154</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C306" s="2">
+        <v>7</v>
+      </c>
+      <c r="D306" t="s">
+        <v>25</v>
+      </c>
+      <c r="E306" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>5</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C307" s="2">
+        <v>12</v>
+      </c>
+      <c r="D307" t="s">
+        <v>19</v>
+      </c>
+      <c r="E307" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>193</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C308" s="2">
+        <v>4</v>
+      </c>
+      <c r="D308" t="s">
+        <v>17</v>
+      </c>
+      <c r="E308" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="B309" s="4"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="B310" s="5"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6485,102 +6660,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>39</v>
       </c>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRDUser\Desktop\fantasy2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28C22D4-DE95-4216-8DEB-950BFF66F95E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17925" yWindow="1845" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17925" yWindow="1845" windowWidth="21600" windowHeight="11385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="352">
   <si>
     <t>team</t>
   </si>
@@ -1058,27 +1057,46 @@
   </si>
   <si>
     <t>Lewis Brinson</t>
+  </si>
+  <si>
+    <t>Shin-Soo Choo</t>
+  </si>
+  <si>
+    <t>Kolten Wong</t>
+  </si>
+  <si>
+    <t>Enrique Hernandez</t>
+  </si>
+  <si>
+    <t>Tyler Beede</t>
+  </si>
+  <si>
+    <t>Cole Hamels</t>
+  </si>
+  <si>
+    <t>Travis d'Arnaud</t>
+  </si>
+  <si>
+    <t>Mike Foltynewicz</t>
+  </si>
+  <si>
+    <t>Masahiro Tanaka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0;[Red]\$#,##0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Material Icons"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1101,19 +1119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,14 +1405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E302" sqref="E302:E308"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E314" sqref="E314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125"/>
     <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
@@ -1410,7 +1422,7 @@
     <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1461,7 +1473,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1524,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1529,7 +1541,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1563,7 +1575,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1597,7 +1609,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1631,7 +1643,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +1677,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1682,7 +1694,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1699,7 +1711,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1733,7 +1745,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1767,7 +1779,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1784,7 +1796,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1818,7 +1830,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1835,7 +1847,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1852,7 +1864,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1869,7 +1881,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1886,7 +1898,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1903,7 +1915,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1954,7 +1966,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1971,7 +1983,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2039,7 +2051,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2056,7 +2068,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2073,7 +2085,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -2090,7 +2102,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2107,7 +2119,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2124,7 +2136,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2141,7 +2153,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2175,7 +2187,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2192,7 +2204,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2209,7 +2221,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2226,7 +2238,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2243,7 +2255,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2260,7 +2272,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2277,7 +2289,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2345,7 +2357,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2362,7 +2374,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2413,7 +2425,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2430,7 +2442,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2447,7 +2459,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2464,7 +2476,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2481,7 +2493,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2515,7 +2527,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -2532,7 +2544,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -2549,7 +2561,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -2566,7 +2578,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2583,7 +2595,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2600,7 +2612,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -2634,7 +2646,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -2651,7 +2663,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -2668,7 +2680,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -2685,7 +2697,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2702,7 +2714,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -2719,7 +2731,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -2753,7 +2765,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -2770,7 +2782,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -2787,7 +2799,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -2804,7 +2816,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -2821,7 +2833,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -2838,7 +2850,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -2855,7 +2867,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -2872,7 +2884,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -2889,7 +2901,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -2906,7 +2918,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2923,7 +2935,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -2940,7 +2952,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -2974,7 +2986,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -2991,7 +3003,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -3008,7 +3020,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -3025,7 +3037,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -3042,7 +3054,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -3059,7 +3071,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -3076,7 +3088,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -3093,7 +3105,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -3110,7 +3122,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -3127,7 +3139,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -3144,7 +3156,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -3178,7 +3190,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -3195,7 +3207,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -3212,7 +3224,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>130</v>
       </c>
@@ -3229,7 +3241,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -3263,7 +3275,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>130</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3314,7 +3326,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -3331,7 +3343,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -3348,7 +3360,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -3365,7 +3377,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -3382,7 +3394,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -3399,7 +3411,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>142</v>
       </c>
@@ -3416,7 +3428,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -3433,7 +3445,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -3450,7 +3462,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -3467,7 +3479,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>142</v>
       </c>
@@ -3484,7 +3496,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -3501,7 +3513,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -3518,7 +3530,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -3535,7 +3547,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -3552,7 +3564,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -3569,7 +3581,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -3586,7 +3598,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>154</v>
       </c>
@@ -3603,7 +3615,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>154</v>
       </c>
@@ -3620,7 +3632,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>154</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>154</v>
       </c>
@@ -3654,7 +3666,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>154</v>
       </c>
@@ -3671,7 +3683,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>154</v>
       </c>
@@ -3688,7 +3700,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -3705,7 +3717,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>154</v>
       </c>
@@ -3722,7 +3734,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -3739,7 +3751,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -3756,7 +3768,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -3773,7 +3785,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -3790,7 +3802,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>167</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -3824,7 +3836,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>167</v>
       </c>
@@ -3841,7 +3853,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -3858,7 +3870,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -3875,7 +3887,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -3892,7 +3904,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -3909,7 +3921,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -3926,7 +3938,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -3943,7 +3955,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -3960,7 +3972,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>167</v>
       </c>
@@ -3994,7 +4006,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>180</v>
       </c>
@@ -4011,7 +4023,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -4028,7 +4040,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>180</v>
       </c>
@@ -4045,7 +4057,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -4062,7 +4074,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>180</v>
       </c>
@@ -4079,7 +4091,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>180</v>
       </c>
@@ -4096,7 +4108,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>180</v>
       </c>
@@ -4113,7 +4125,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -4130,7 +4142,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>180</v>
       </c>
@@ -4147,7 +4159,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>180</v>
       </c>
@@ -4164,7 +4176,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -4181,7 +4193,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -4198,7 +4210,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>193</v>
       </c>
@@ -4215,7 +4227,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>193</v>
       </c>
@@ -4232,7 +4244,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>193</v>
       </c>
@@ -4249,7 +4261,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>193</v>
       </c>
@@ -4266,7 +4278,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>193</v>
       </c>
@@ -4283,7 +4295,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>193</v>
       </c>
@@ -4300,7 +4312,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>193</v>
       </c>
@@ -4317,7 +4329,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>193</v>
       </c>
@@ -4334,7 +4346,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -4351,7 +4363,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>193</v>
       </c>
@@ -4368,7 +4380,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>193</v>
       </c>
@@ -4385,7 +4397,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>193</v>
       </c>
@@ -4402,7 +4414,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>206</v>
       </c>
@@ -4419,7 +4431,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>206</v>
       </c>
@@ -4436,7 +4448,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>206</v>
       </c>
@@ -4453,7 +4465,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>206</v>
       </c>
@@ -4470,7 +4482,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>206</v>
       </c>
@@ -4487,7 +4499,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>206</v>
       </c>
@@ -4504,7 +4516,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>206</v>
       </c>
@@ -4521,7 +4533,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -4538,7 +4550,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>206</v>
       </c>
@@ -4555,7 +4567,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>206</v>
       </c>
@@ -4572,7 +4584,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -4589,7 +4601,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>206</v>
       </c>
@@ -4606,7 +4618,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>219</v>
       </c>
@@ -4623,7 +4635,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>219</v>
       </c>
@@ -4640,7 +4652,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>219</v>
       </c>
@@ -4657,7 +4669,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>219</v>
       </c>
@@ -4674,7 +4686,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>219</v>
       </c>
@@ -4691,7 +4703,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>219</v>
       </c>
@@ -4708,7 +4720,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>219</v>
       </c>
@@ -4725,7 +4737,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -4742,7 +4754,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>219</v>
       </c>
@@ -4759,7 +4771,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -4776,7 +4788,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>219</v>
       </c>
@@ -4793,7 +4805,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>219</v>
       </c>
@@ -4810,7 +4822,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>232</v>
       </c>
@@ -4827,7 +4839,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>232</v>
       </c>
@@ -4844,7 +4856,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>232</v>
       </c>
@@ -4861,7 +4873,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>232</v>
       </c>
@@ -4878,7 +4890,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>232</v>
       </c>
@@ -4895,7 +4907,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>232</v>
       </c>
@@ -4912,7 +4924,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>232</v>
       </c>
@@ -4929,7 +4941,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>232</v>
       </c>
@@ -4946,7 +4958,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -4963,7 +4975,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>232</v>
       </c>
@@ -4980,7 +4992,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -4997,7 +5009,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>232</v>
       </c>
@@ -5014,7 +5026,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.5" customHeight="1">
+    <row r="213" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>39</v>
       </c>
@@ -5031,7 +5043,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -5048,7 +5060,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>142</v>
       </c>
@@ -5065,7 +5077,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>78</v>
       </c>
@@ -5082,7 +5094,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -5099,7 +5111,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>193</v>
       </c>
@@ -5116,7 +5128,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -5133,7 +5145,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>167</v>
       </c>
@@ -5150,7 +5162,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>64</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>117</v>
       </c>
@@ -5184,7 +5196,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>206</v>
       </c>
@@ -5201,7 +5213,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>206</v>
       </c>
@@ -5218,7 +5230,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -5235,7 +5247,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -5252,7 +5264,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>104</v>
       </c>
@@ -5269,7 +5281,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>130</v>
       </c>
@@ -5286,7 +5298,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>64</v>
       </c>
@@ -5303,7 +5315,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>52</v>
       </c>
@@ -5320,7 +5332,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>39</v>
       </c>
@@ -5337,7 +5349,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>78</v>
       </c>
@@ -5354,7 +5366,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>52</v>
       </c>
@@ -5371,7 +5383,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -5388,7 +5400,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>219</v>
       </c>
@@ -5405,7 +5417,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -5422,7 +5434,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>232</v>
       </c>
@@ -5439,7 +5451,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>104</v>
       </c>
@@ -5456,7 +5468,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>232</v>
       </c>
@@ -5473,7 +5485,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>193</v>
       </c>
@@ -5490,7 +5502,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>130</v>
       </c>
@@ -5507,7 +5519,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>104</v>
       </c>
@@ -5524,7 +5536,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>219</v>
       </c>
@@ -5541,7 +5553,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -5558,7 +5570,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>193</v>
       </c>
@@ -5575,7 +5587,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>167</v>
       </c>
@@ -5592,7 +5604,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>52</v>
       </c>
@@ -5609,7 +5621,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>130</v>
       </c>
@@ -5626,7 +5638,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>219</v>
       </c>
@@ -5643,7 +5655,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>232</v>
       </c>
@@ -5660,7 +5672,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -5677,7 +5689,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>232</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -5711,7 +5723,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>130</v>
       </c>
@@ -5728,7 +5740,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="24" customHeight="1">
+    <row r="255" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>142</v>
       </c>
@@ -5745,7 +5757,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>52</v>
       </c>
@@ -5762,7 +5774,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>232</v>
       </c>
@@ -5779,7 +5791,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>52</v>
       </c>
@@ -5796,7 +5808,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>117</v>
       </c>
@@ -5813,7 +5825,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>193</v>
       </c>
@@ -5830,7 +5842,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -5847,7 +5859,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>180</v>
       </c>
@@ -5864,7 +5876,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>180</v>
       </c>
@@ -5881,7 +5893,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>193</v>
       </c>
@@ -5898,7 +5910,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -5915,7 +5927,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>193</v>
       </c>
@@ -5932,7 +5944,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>117</v>
       </c>
@@ -5949,7 +5961,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>104</v>
       </c>
@@ -5966,7 +5978,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>167</v>
       </c>
@@ -5983,7 +5995,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -6000,7 +6012,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>23</v>
       </c>
@@ -6017,7 +6029,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>232</v>
       </c>
@@ -6034,7 +6046,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>154</v>
       </c>
@@ -6051,7 +6063,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>117</v>
       </c>
@@ -6068,7 +6080,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>91</v>
       </c>
@@ -6085,7 +6097,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>104</v>
       </c>
@@ -6102,7 +6114,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>91</v>
       </c>
@@ -6119,7 +6131,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>52</v>
       </c>
@@ -6136,7 +6148,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>91</v>
       </c>
@@ -6153,7 +6165,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>39</v>
       </c>
@@ -6170,7 +6182,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>193</v>
       </c>
@@ -6187,7 +6199,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>154</v>
       </c>
@@ -6204,7 +6216,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>130</v>
       </c>
@@ -6221,7 +6233,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>167</v>
       </c>
@@ -6238,7 +6250,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -6255,7 +6267,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>193</v>
       </c>
@@ -6272,7 +6284,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>117</v>
       </c>
@@ -6289,7 +6301,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>78</v>
       </c>
@@ -6306,7 +6318,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>206</v>
       </c>
@@ -6323,7 +6335,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>193</v>
       </c>
@@ -6340,7 +6352,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>52</v>
       </c>
@@ -6357,7 +6369,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>39</v>
       </c>
@@ -6374,7 +6386,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>130</v>
       </c>
@@ -6391,7 +6403,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>167</v>
       </c>
@@ -6408,7 +6420,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>64</v>
       </c>
@@ -6425,7 +6437,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>154</v>
       </c>
@@ -6442,7 +6454,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>64</v>
       </c>
@@ -6459,7 +6471,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>117</v>
       </c>
@@ -6476,7 +6488,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -6493,7 +6505,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>232</v>
       </c>
@@ -6510,7 +6522,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>64</v>
       </c>
@@ -6527,7 +6539,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>78</v>
       </c>
@@ -6544,7 +6556,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -6561,7 +6573,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>130</v>
       </c>
@@ -6578,7 +6590,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>193</v>
       </c>
@@ -6595,7 +6607,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>154</v>
       </c>
@@ -6612,7 +6624,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -6629,7 +6641,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>193</v>
       </c>
@@ -6646,13 +6658,143 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
-      <c r="B309" s="4"/>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="B310" s="5"/>
-    </row>
-    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>232</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C309" s="2">
+        <v>16</v>
+      </c>
+      <c r="D309" t="s">
+        <v>17</v>
+      </c>
+      <c r="E309" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>206</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C310" s="2">
+        <v>8</v>
+      </c>
+      <c r="D310" t="s">
+        <v>70</v>
+      </c>
+      <c r="E310" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>193</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C311" s="2">
+        <v>3</v>
+      </c>
+      <c r="D311" t="s">
+        <v>13</v>
+      </c>
+      <c r="E311" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C312" s="2">
+        <v>3</v>
+      </c>
+      <c r="D312" t="s">
+        <v>19</v>
+      </c>
+      <c r="E312" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>232</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C313" s="2">
+        <v>8</v>
+      </c>
+      <c r="D313" t="s">
+        <v>19</v>
+      </c>
+      <c r="E313" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>180</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C314" s="2">
+        <v>8</v>
+      </c>
+      <c r="D314" t="s">
+        <v>25</v>
+      </c>
+      <c r="E314" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>154</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C315" s="2">
+        <v>14</v>
+      </c>
+      <c r="D315" t="s">
+        <v>19</v>
+      </c>
+      <c r="E315" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>180</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C316" s="2">
+        <v>9</v>
+      </c>
+      <c r="D316" t="s">
+        <v>19</v>
+      </c>
+      <c r="E316" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6660,102 +6802,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="360">
   <si>
     <t>team</t>
   </si>
@@ -573,9 +573,6 @@
     <t>Ji-Man Choi</t>
   </si>
   <si>
-    <t>Nate Lowe</t>
-  </si>
-  <si>
     <t>Anthony Rendon</t>
   </si>
   <si>
@@ -1081,6 +1078,33 @@
   </si>
   <si>
     <t>Masahiro Tanaka</t>
+  </si>
+  <si>
+    <t>Ross Stripling</t>
+  </si>
+  <si>
+    <t>Corey Dickerson</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Justin Upton</t>
+  </si>
+  <si>
+    <t>Daniel Murphy</t>
+  </si>
+  <si>
+    <t>Anthony Santander</t>
+  </si>
+  <si>
+    <t>Joey Votto</t>
+  </si>
+  <si>
+    <t>Rougned Odor</t>
+  </si>
+  <si>
+    <t>Nathaniel Lowe</t>
   </si>
 </sst>
 </file>
@@ -1408,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E314" sqref="E314"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,7 +4052,7 @@
         <v>180</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="C154" s="2">
         <v>5</v>
@@ -4045,7 +4069,7 @@
         <v>180</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C155" s="2">
         <v>32</v>
@@ -4062,7 +4086,7 @@
         <v>180</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C156" s="2">
         <v>17</v>
@@ -4079,7 +4103,7 @@
         <v>180</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C157" s="2">
         <v>9</v>
@@ -4096,7 +4120,7 @@
         <v>180</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C158" s="2">
         <v>12</v>
@@ -4113,7 +4137,7 @@
         <v>180</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C159" s="2">
         <v>5</v>
@@ -4130,7 +4154,7 @@
         <v>180</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C160" s="2">
         <v>9</v>
@@ -4147,7 +4171,7 @@
         <v>180</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C161" s="2">
         <v>5</v>
@@ -4164,7 +4188,7 @@
         <v>180</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C162" s="2">
         <v>17</v>
@@ -4181,7 +4205,7 @@
         <v>180</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -4198,7 +4222,7 @@
         <v>180</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -4212,10 +4236,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>192</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="C165" s="2">
         <v>6</v>
@@ -4229,10 +4253,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C166" s="2">
         <v>5</v>
@@ -4246,10 +4270,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C167" s="2">
         <v>14</v>
@@ -4263,10 +4287,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C168" s="2">
         <v>6</v>
@@ -4280,10 +4304,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C169" s="2">
         <v>12</v>
@@ -4297,10 +4321,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C170" s="2">
         <v>12</v>
@@ -4314,10 +4338,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C171" s="2">
         <v>6</v>
@@ -4331,10 +4355,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -4348,10 +4372,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -4365,10 +4389,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C174" s="2">
         <v>15</v>
@@ -4382,10 +4406,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C175" s="2">
         <v>11</v>
@@ -4399,10 +4423,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C176" s="2">
         <v>5</v>
@@ -4416,10 +4440,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>205</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="C177" s="2">
         <v>12</v>
@@ -4433,10 +4457,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C178" s="2">
         <v>17</v>
@@ -4450,10 +4474,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C179" s="2">
         <v>17</v>
@@ -4467,10 +4491,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C180" s="2">
         <v>12</v>
@@ -4484,10 +4508,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C181" s="2">
         <v>9</v>
@@ -4501,10 +4525,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C182" s="2">
         <v>8</v>
@@ -4518,10 +4542,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C183" s="2">
         <v>5</v>
@@ -4535,10 +4559,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C184" s="2">
         <v>12</v>
@@ -4552,10 +4576,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C185" s="2">
         <v>27</v>
@@ -4569,10 +4593,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C186" s="2">
         <v>11</v>
@@ -4586,10 +4610,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C187" s="2">
         <v>5</v>
@@ -4603,10 +4627,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C188" s="2">
         <v>9</v>
@@ -4620,10 +4644,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>218</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="C189" s="2">
         <v>13</v>
@@ -4637,10 +4661,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C190" s="2">
         <v>8</v>
@@ -4654,10 +4678,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C191" s="2">
         <v>14</v>
@@ -4671,10 +4695,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C192" s="2">
         <v>7</v>
@@ -4688,10 +4712,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C193" s="2">
         <v>5</v>
@@ -4705,10 +4729,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C194" s="2">
         <v>6</v>
@@ -4722,10 +4746,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C195" s="2">
         <v>9</v>
@@ -4739,10 +4763,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C196" s="2">
         <v>6</v>
@@ -4756,10 +4780,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C197" s="2">
         <v>8</v>
@@ -4773,10 +4797,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C198" s="2">
         <v>52</v>
@@ -4790,10 +4814,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -4807,10 +4831,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C200" s="2">
         <v>2</v>
@@ -4824,10 +4848,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>231</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="C201" s="2">
         <v>12</v>
@@ -4841,10 +4865,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C202" s="2">
         <v>9</v>
@@ -4858,10 +4882,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C203" s="2">
         <v>5</v>
@@ -4875,10 +4899,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C204" s="2">
         <v>9</v>
@@ -4892,10 +4916,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C205" s="2">
         <v>5</v>
@@ -4909,10 +4933,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C206" s="2">
         <v>15</v>
@@ -4926,10 +4950,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C207" s="2">
         <v>8</v>
@@ -4943,10 +4967,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -4960,10 +4984,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -4977,10 +5001,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C210" s="2">
         <v>12</v>
@@ -4994,10 +5018,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C211" s="2">
         <v>5</v>
@@ -5011,10 +5035,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C212" s="2">
         <v>19</v>
@@ -5031,7 +5055,7 @@
         <v>39</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C213" s="2">
         <v>29</v>
@@ -5048,7 +5072,7 @@
         <v>23</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C214" s="2">
         <v>4</v>
@@ -5065,7 +5089,7 @@
         <v>142</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C215" s="2">
         <v>34</v>
@@ -5082,7 +5106,7 @@
         <v>78</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C216" s="2">
         <v>39</v>
@@ -5099,7 +5123,7 @@
         <v>91</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C217" s="2">
         <v>30</v>
@@ -5113,10 +5137,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C218" s="2">
         <v>6</v>
@@ -5133,7 +5157,7 @@
         <v>23</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C219" s="2">
         <v>19</v>
@@ -5150,7 +5174,7 @@
         <v>167</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C220" s="2">
         <v>25</v>
@@ -5167,7 +5191,7 @@
         <v>64</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C221" s="2">
         <v>23</v>
@@ -5184,7 +5208,7 @@
         <v>117</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C222" s="2">
         <v>29</v>
@@ -5198,10 +5222,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C223" s="2">
         <v>10</v>
@@ -5215,10 +5239,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C224" s="2">
         <v>18</v>
@@ -5235,7 +5259,7 @@
         <v>23</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C225" s="2">
         <v>23</v>
@@ -5252,7 +5276,7 @@
         <v>23</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C226" s="2">
         <v>28</v>
@@ -5269,7 +5293,7 @@
         <v>104</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C227" s="2">
         <v>8</v>
@@ -5286,7 +5310,7 @@
         <v>130</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C228" s="2">
         <v>33</v>
@@ -5303,7 +5327,7 @@
         <v>64</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
@@ -5320,7 +5344,7 @@
         <v>52</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C230" s="2">
         <v>31</v>
@@ -5337,7 +5361,7 @@
         <v>39</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C231" s="2">
         <v>24</v>
@@ -5354,7 +5378,7 @@
         <v>78</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C232" s="2">
         <v>34</v>
@@ -5371,7 +5395,7 @@
         <v>52</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C233" s="2">
         <v>16</v>
@@ -5388,7 +5412,7 @@
         <v>23</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C234" s="2">
         <v>8</v>
@@ -5402,10 +5426,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C235" s="2">
         <v>24</v>
@@ -5422,7 +5446,7 @@
         <v>23</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C236" s="2">
         <v>8</v>
@@ -5436,10 +5460,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C237" s="2">
         <v>34</v>
@@ -5456,7 +5480,7 @@
         <v>104</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C238" s="2">
         <v>29</v>
@@ -5470,10 +5494,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C239" s="2">
         <v>8</v>
@@ -5487,10 +5511,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C240" s="2">
         <v>20</v>
@@ -5507,7 +5531,7 @@
         <v>130</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C241" s="2">
         <v>24</v>
@@ -5524,7 +5548,7 @@
         <v>104</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C242" s="2">
         <v>13</v>
@@ -5538,10 +5562,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C243" s="2">
         <v>26</v>
@@ -5558,7 +5582,7 @@
         <v>5</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C244" s="2">
         <v>20</v>
@@ -5572,10 +5596,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C245" s="2">
         <v>15</v>
@@ -5592,7 +5616,7 @@
         <v>167</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C246" s="2">
         <v>16</v>
@@ -5609,7 +5633,7 @@
         <v>52</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C247" s="2">
         <v>7</v>
@@ -5626,7 +5650,7 @@
         <v>130</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C248" s="2">
         <v>21</v>
@@ -5640,10 +5664,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C249" s="2">
         <v>22</v>
@@ -5657,10 +5681,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C250" s="2">
         <v>6</v>
@@ -5677,7 +5701,7 @@
         <v>39</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C251" s="2">
         <v>9</v>
@@ -5691,10 +5715,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C252" s="2">
         <v>19</v>
@@ -5711,7 +5735,7 @@
         <v>5</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C253" s="2">
         <v>17</v>
@@ -5728,7 +5752,7 @@
         <v>130</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C254" s="2">
         <v>8</v>
@@ -5745,7 +5769,7 @@
         <v>142</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C255" s="2">
         <v>17</v>
@@ -5762,7 +5786,7 @@
         <v>52</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C256" s="2">
         <v>13</v>
@@ -5776,10 +5800,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C257" s="2">
         <v>20</v>
@@ -5796,7 +5820,7 @@
         <v>52</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C258" s="2">
         <v>16</v>
@@ -5813,7 +5837,7 @@
         <v>117</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C259" s="2">
         <v>20</v>
@@ -5827,10 +5851,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C260" s="2">
         <v>15</v>
@@ -5847,7 +5871,7 @@
         <v>91</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C261" s="2">
         <v>24</v>
@@ -5864,7 +5888,7 @@
         <v>180</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C262" s="2">
         <v>26</v>
@@ -5881,7 +5905,7 @@
         <v>180</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C263" s="2">
         <v>35</v>
@@ -5895,10 +5919,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C264" s="2">
         <v>17</v>
@@ -5915,7 +5939,7 @@
         <v>23</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C265" s="2">
         <v>7</v>
@@ -5929,10 +5953,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C266" s="2">
         <v>10</v>
@@ -5949,7 +5973,7 @@
         <v>117</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C267" s="2">
         <v>27</v>
@@ -5966,7 +5990,7 @@
         <v>104</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C268" s="2">
         <v>16</v>
@@ -5983,7 +6007,7 @@
         <v>167</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C269" s="2">
         <v>16</v>
@@ -6000,7 +6024,7 @@
         <v>5</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C270" s="2">
         <v>24</v>
@@ -6017,7 +6041,7 @@
         <v>23</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C271" s="2">
         <v>2</v>
@@ -6031,10 +6055,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C272" s="2">
         <v>13</v>
@@ -6051,7 +6075,7 @@
         <v>154</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C273" s="2">
         <v>20</v>
@@ -6068,7 +6092,7 @@
         <v>117</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C274" s="2">
         <v>9</v>
@@ -6085,7 +6109,7 @@
         <v>91</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C275" s="2">
         <v>7</v>
@@ -6102,7 +6126,7 @@
         <v>104</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C276" s="2">
         <v>5</v>
@@ -6119,7 +6143,7 @@
         <v>91</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C277" s="2">
         <v>15</v>
@@ -6136,7 +6160,7 @@
         <v>52</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C278" s="2">
         <v>2</v>
@@ -6153,7 +6177,7 @@
         <v>91</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C279" s="2">
         <v>16</v>
@@ -6170,7 +6194,7 @@
         <v>39</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C280" s="2">
         <v>19</v>
@@ -6184,10 +6208,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C281" s="2">
         <v>14</v>
@@ -6204,7 +6228,7 @@
         <v>154</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C282" s="2">
         <v>5</v>
@@ -6221,7 +6245,7 @@
         <v>130</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C283" s="2">
         <v>17</v>
@@ -6238,7 +6262,7 @@
         <v>167</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C284" s="2">
         <v>17</v>
@@ -6255,7 +6279,7 @@
         <v>23</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C285" s="2">
         <v>24</v>
@@ -6269,10 +6293,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C286" s="2">
         <v>20</v>
@@ -6289,7 +6313,7 @@
         <v>117</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C287" s="2">
         <v>11</v>
@@ -6306,7 +6330,7 @@
         <v>78</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C288" s="2">
         <v>11</v>
@@ -6320,10 +6344,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C289" s="2">
         <v>13</v>
@@ -6337,10 +6361,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C290" s="2">
         <v>8</v>
@@ -6357,7 +6381,7 @@
         <v>52</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C291" s="2">
         <v>26</v>
@@ -6374,7 +6398,7 @@
         <v>39</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C292" s="2">
         <v>14</v>
@@ -6391,7 +6415,7 @@
         <v>130</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C293" s="2">
         <v>5</v>
@@ -6408,7 +6432,7 @@
         <v>167</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C294" s="2">
         <v>10</v>
@@ -6425,7 +6449,7 @@
         <v>64</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C295" s="2">
         <v>19</v>
@@ -6442,7 +6466,7 @@
         <v>154</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C296" s="2">
         <v>4</v>
@@ -6459,7 +6483,7 @@
         <v>64</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C297" s="2">
         <v>26</v>
@@ -6476,7 +6500,7 @@
         <v>117</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C298" s="2">
         <v>23</v>
@@ -6493,7 +6517,7 @@
         <v>5</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C299" s="2">
         <v>11</v>
@@ -6507,10 +6531,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C300" s="2">
         <v>12</v>
@@ -6527,7 +6551,7 @@
         <v>64</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C301" s="2">
         <v>3</v>
@@ -6544,7 +6568,7 @@
         <v>78</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C302" s="2">
         <v>9</v>
@@ -6561,7 +6585,7 @@
         <v>23</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C303" s="2">
         <v>9</v>
@@ -6578,7 +6602,7 @@
         <v>130</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C304" s="2">
         <v>5</v>
@@ -6592,10 +6616,10 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C305" s="2">
         <v>10</v>
@@ -6612,7 +6636,7 @@
         <v>154</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C306" s="2">
         <v>7</v>
@@ -6629,7 +6653,7 @@
         <v>5</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C307" s="2">
         <v>12</v>
@@ -6643,10 +6667,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C308" s="2">
         <v>4</v>
@@ -6660,10 +6684,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C309" s="2">
         <v>16</v>
@@ -6677,16 +6701,16 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C310" s="2">
         <v>8</v>
       </c>
       <c r="D310" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E310" s="3">
         <v>43852</v>
@@ -6694,10 +6718,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C311" s="2">
         <v>3</v>
@@ -6714,7 +6738,7 @@
         <v>5</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C312" s="2">
         <v>3</v>
@@ -6728,10 +6752,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C313" s="2">
         <v>8</v>
@@ -6748,7 +6772,7 @@
         <v>180</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C314" s="2">
         <v>8</v>
@@ -6765,7 +6789,7 @@
         <v>154</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C315" s="2">
         <v>14</v>
@@ -6782,7 +6806,7 @@
         <v>180</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C316" s="2">
         <v>9</v>
@@ -6792,6 +6816,142 @@
       </c>
       <c r="E316" s="3">
         <v>43852</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>205</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C317" s="2">
+        <v>9</v>
+      </c>
+      <c r="D317" t="s">
+        <v>19</v>
+      </c>
+      <c r="E317" s="3">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>142</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C318" s="2">
+        <v>12</v>
+      </c>
+      <c r="D318" t="s">
+        <v>13</v>
+      </c>
+      <c r="E318" s="3">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>64</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C319" s="2">
+        <v>5</v>
+      </c>
+      <c r="D319" t="s">
+        <v>19</v>
+      </c>
+      <c r="E319" s="3">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>205</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C320" s="2">
+        <v>17</v>
+      </c>
+      <c r="D320" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" s="3">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>205</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C321" s="2">
+        <v>10</v>
+      </c>
+      <c r="D321" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321" s="3">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>64</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C322" s="2">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s">
+        <v>13</v>
+      </c>
+      <c r="E322" s="3">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>52</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C323" s="2">
+        <v>8</v>
+      </c>
+      <c r="D323" t="s">
+        <v>11</v>
+      </c>
+      <c r="E323" s="3">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>78</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C324" s="2">
+        <v>13</v>
+      </c>
+      <c r="D324" t="s">
+        <v>70</v>
+      </c>
+      <c r="E324" s="3">
+        <v>43853</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6814,12 +6974,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -6834,7 +6994,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -6844,7 +7004,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -6864,7 +7024,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -6874,12 +7034,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -6894,7 +7054,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRDUser\Desktop\fantasy2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813468D8-8340-46A5-A690-084CD2273F0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17925" yWindow="1845" windowWidth="21600" windowHeight="11385" tabRatio="500"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="376">
   <si>
     <t>team</t>
   </si>
@@ -1105,12 +1106,60 @@
   </si>
   <si>
     <t>Nathaniel Lowe</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Matt Carpenter</t>
+  </si>
+  <si>
+    <t>Evan White</t>
+  </si>
+  <si>
+    <t>Mauricio Dubon</t>
+  </si>
+  <si>
+    <t>Alex Wood</t>
+  </si>
+  <si>
+    <t>Jacoby Jones</t>
+  </si>
+  <si>
+    <t>Ryan Yarbrough</t>
+  </si>
+  <si>
+    <t>Jacob Stallings</t>
+  </si>
+  <si>
+    <t>Robinson Cano</t>
+  </si>
+  <si>
+    <t>Joe Jimenez</t>
+  </si>
+  <si>
+    <t>David Peralta</t>
+  </si>
+  <si>
+    <t>Kevin Kiermaier</t>
+  </si>
+  <si>
+    <t>Hanser Alberto</t>
+  </si>
+  <si>
+    <t>John Means</t>
+  </si>
+  <si>
+    <t>Yoshitomo Tsutsugo</t>
+  </si>
+  <si>
+    <t>Justus Sheffield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0;[Red]\$#,##0"/>
   </numFmts>
@@ -1429,24 +1478,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A323" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125"/>
-    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
+    <col min="6" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +1529,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1497,7 +1546,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1514,7 +1563,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1580,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1597,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1565,7 +1614,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1582,7 +1631,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1599,7 +1648,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1616,7 +1665,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1682,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1699,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1667,7 +1716,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1684,7 +1733,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1750,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1718,7 +1767,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1735,7 +1784,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1752,7 +1801,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1769,7 +1818,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1786,7 +1835,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1803,7 +1852,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1820,7 +1869,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1837,7 +1886,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1854,7 +1903,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1871,7 +1920,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1888,7 +1937,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1905,7 +1954,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1922,7 +1971,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1939,7 +1988,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1956,7 +2005,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1973,7 +2022,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1990,7 +2039,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2007,7 +2056,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2024,7 +2073,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2041,7 +2090,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2058,7 +2107,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2075,7 +2124,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2092,7 +2141,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2109,7 +2158,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -2126,7 +2175,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2143,7 +2192,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2160,7 +2209,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2177,7 +2226,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2194,7 +2243,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2211,7 +2260,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2228,7 +2277,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2245,7 +2294,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2262,7 +2311,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2279,7 +2328,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2296,7 +2345,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2313,7 +2362,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -2330,7 +2379,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2347,7 +2396,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2364,7 +2413,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2381,7 +2430,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2398,7 +2447,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2415,7 +2464,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2432,7 +2481,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2449,7 +2498,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2466,7 +2515,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2483,7 +2532,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2500,7 +2549,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2517,7 +2566,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -2534,7 +2583,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2551,7 +2600,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -2568,7 +2617,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -2585,7 +2634,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -2602,7 +2651,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2619,7 +2668,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2636,7 +2685,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2653,7 +2702,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -2670,7 +2719,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -2687,7 +2736,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -2704,7 +2753,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -2721,7 +2770,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2738,7 +2787,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -2755,7 +2804,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -2772,7 +2821,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -2789,7 +2838,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -2806,7 +2855,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -2823,7 +2872,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -2840,7 +2889,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -2857,7 +2906,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -2874,7 +2923,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -2891,7 +2940,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -2908,7 +2957,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -2925,7 +2974,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -2942,7 +2991,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2959,7 +3008,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -2976,7 +3025,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -2993,7 +3042,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -3010,7 +3059,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -3027,7 +3076,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -3044,7 +3093,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -3061,7 +3110,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -3078,7 +3127,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -3095,7 +3144,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -3112,7 +3161,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -3129,7 +3178,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -3146,7 +3195,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -3163,7 +3212,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -3180,7 +3229,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -3197,7 +3246,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -3214,7 +3263,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -3231,7 +3280,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -3248,7 +3297,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>130</v>
       </c>
@@ -3265,7 +3314,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -3282,7 +3331,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -3299,7 +3348,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>130</v>
       </c>
@@ -3316,7 +3365,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -3333,7 +3382,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3350,7 +3399,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -3367,7 +3416,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -3384,7 +3433,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -3401,7 +3450,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -3418,7 +3467,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -3435,7 +3484,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>142</v>
       </c>
@@ -3452,7 +3501,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -3469,7 +3518,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -3486,7 +3535,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -3503,7 +3552,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>142</v>
       </c>
@@ -3520,7 +3569,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -3537,7 +3586,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -3554,7 +3603,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -3571,7 +3620,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -3588,7 +3637,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -3605,7 +3654,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -3622,7 +3671,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>154</v>
       </c>
@@ -3639,7 +3688,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>154</v>
       </c>
@@ -3656,7 +3705,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>154</v>
       </c>
@@ -3673,7 +3722,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>154</v>
       </c>
@@ -3690,7 +3739,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>154</v>
       </c>
@@ -3707,7 +3756,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>154</v>
       </c>
@@ -3724,7 +3773,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -3741,7 +3790,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>154</v>
       </c>
@@ -3758,7 +3807,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -3775,7 +3824,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -3792,7 +3841,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -3809,7 +3858,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -3826,7 +3875,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>167</v>
       </c>
@@ -3843,7 +3892,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -3860,7 +3909,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>167</v>
       </c>
@@ -3877,7 +3926,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -3894,7 +3943,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -3911,7 +3960,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -3928,7 +3977,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -3945,7 +3994,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -3962,7 +4011,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -3979,7 +4028,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -3996,7 +4045,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -4013,7 +4062,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>167</v>
       </c>
@@ -4030,7 +4079,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>180</v>
       </c>
@@ -4047,7 +4096,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -4064,7 +4113,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>180</v>
       </c>
@@ -4081,7 +4130,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -4098,7 +4147,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>180</v>
       </c>
@@ -4115,7 +4164,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>180</v>
       </c>
@@ -4132,7 +4181,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>180</v>
       </c>
@@ -4149,7 +4198,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -4166,7 +4215,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>180</v>
       </c>
@@ -4183,7 +4232,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>180</v>
       </c>
@@ -4200,7 +4249,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -4217,7 +4266,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -4234,7 +4283,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>192</v>
       </c>
@@ -4251,7 +4300,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>192</v>
       </c>
@@ -4268,7 +4317,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>192</v>
       </c>
@@ -4285,7 +4334,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>192</v>
       </c>
@@ -4302,7 +4351,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>192</v>
       </c>
@@ -4319,7 +4368,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>192</v>
       </c>
@@ -4336,7 +4385,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>192</v>
       </c>
@@ -4353,7 +4402,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -4370,7 +4419,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>192</v>
       </c>
@@ -4387,7 +4436,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -4404,7 +4453,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>192</v>
       </c>
@@ -4421,7 +4470,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -4438,7 +4487,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>205</v>
       </c>
@@ -4455,7 +4504,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>205</v>
       </c>
@@ -4472,7 +4521,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>205</v>
       </c>
@@ -4489,7 +4538,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>205</v>
       </c>
@@ -4506,7 +4555,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>205</v>
       </c>
@@ -4523,7 +4572,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>205</v>
       </c>
@@ -4540,7 +4589,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -4557,7 +4606,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>205</v>
       </c>
@@ -4574,7 +4623,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>205</v>
       </c>
@@ -4591,7 +4640,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>205</v>
       </c>
@@ -4608,7 +4657,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>205</v>
       </c>
@@ -4625,7 +4674,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>205</v>
       </c>
@@ -4642,7 +4691,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>218</v>
       </c>
@@ -4659,7 +4708,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>218</v>
       </c>
@@ -4676,7 +4725,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>218</v>
       </c>
@@ -4693,7 +4742,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>218</v>
       </c>
@@ -4710,7 +4759,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>218</v>
       </c>
@@ -4727,7 +4776,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>218</v>
       </c>
@@ -4744,7 +4793,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -4761,7 +4810,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>218</v>
       </c>
@@ -4778,7 +4827,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>218</v>
       </c>
@@ -4795,7 +4844,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -4812,7 +4861,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>218</v>
       </c>
@@ -4829,7 +4878,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>218</v>
       </c>
@@ -4846,7 +4895,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>231</v>
       </c>
@@ -4863,7 +4912,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>231</v>
       </c>
@@ -4880,7 +4929,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>231</v>
       </c>
@@ -4897,7 +4946,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>231</v>
       </c>
@@ -4914,7 +4963,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>231</v>
       </c>
@@ -4931,7 +4980,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>231</v>
       </c>
@@ -4948,7 +4997,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>231</v>
       </c>
@@ -4965,7 +5014,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -4982,7 +5031,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>231</v>
       </c>
@@ -4999,7 +5048,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -5016,7 +5065,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>231</v>
       </c>
@@ -5033,7 +5082,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>231</v>
       </c>
@@ -5050,7 +5099,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>39</v>
       </c>
@@ -5067,7 +5116,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -5084,7 +5133,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>142</v>
       </c>
@@ -5101,7 +5150,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>78</v>
       </c>
@@ -5118,7 +5167,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -5135,7 +5184,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>192</v>
       </c>
@@ -5152,7 +5201,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -5169,7 +5218,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>167</v>
       </c>
@@ -5186,7 +5235,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>64</v>
       </c>
@@ -5203,7 +5252,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>117</v>
       </c>
@@ -5220,7 +5269,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>205</v>
       </c>
@@ -5237,7 +5286,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>205</v>
       </c>
@@ -5254,7 +5303,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -5271,7 +5320,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -5288,7 +5337,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>104</v>
       </c>
@@ -5305,7 +5354,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>130</v>
       </c>
@@ -5322,7 +5371,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>64</v>
       </c>
@@ -5339,7 +5388,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>52</v>
       </c>
@@ -5356,7 +5405,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>39</v>
       </c>
@@ -5373,7 +5422,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>78</v>
       </c>
@@ -5390,7 +5439,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>52</v>
       </c>
@@ -5407,7 +5456,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -5424,7 +5473,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>218</v>
       </c>
@@ -5441,7 +5490,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -5458,7 +5507,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>231</v>
       </c>
@@ -5475,7 +5524,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>104</v>
       </c>
@@ -5492,7 +5541,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>231</v>
       </c>
@@ -5509,7 +5558,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>192</v>
       </c>
@@ -5526,7 +5575,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>130</v>
       </c>
@@ -5543,7 +5592,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>104</v>
       </c>
@@ -5560,7 +5609,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>218</v>
       </c>
@@ -5577,7 +5626,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -5594,7 +5643,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>192</v>
       </c>
@@ -5611,7 +5660,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>167</v>
       </c>
@@ -5628,7 +5677,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>52</v>
       </c>
@@ -5645,7 +5694,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>130</v>
       </c>
@@ -5662,7 +5711,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>218</v>
       </c>
@@ -5679,7 +5728,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>231</v>
       </c>
@@ -5696,7 +5745,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -5713,7 +5762,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>231</v>
       </c>
@@ -5730,7 +5779,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -5747,7 +5796,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>130</v>
       </c>
@@ -5764,7 +5813,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>142</v>
       </c>
@@ -5781,7 +5830,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>52</v>
       </c>
@@ -5798,7 +5847,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>231</v>
       </c>
@@ -5815,7 +5864,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>52</v>
       </c>
@@ -5832,7 +5881,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>117</v>
       </c>
@@ -5849,7 +5898,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>192</v>
       </c>
@@ -5866,7 +5915,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -5883,7 +5932,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>180</v>
       </c>
@@ -5900,7 +5949,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>180</v>
       </c>
@@ -5917,7 +5966,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>192</v>
       </c>
@@ -5934,7 +5983,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -5951,7 +6000,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>192</v>
       </c>
@@ -5968,7 +6017,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>117</v>
       </c>
@@ -5985,7 +6034,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>104</v>
       </c>
@@ -6002,7 +6051,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>167</v>
       </c>
@@ -6019,7 +6068,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -6036,7 +6085,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>23</v>
       </c>
@@ -6053,7 +6102,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>231</v>
       </c>
@@ -6070,7 +6119,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>154</v>
       </c>
@@ -6087,7 +6136,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>117</v>
       </c>
@@ -6104,7 +6153,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>91</v>
       </c>
@@ -6121,7 +6170,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>104</v>
       </c>
@@ -6138,7 +6187,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>91</v>
       </c>
@@ -6155,7 +6204,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>52</v>
       </c>
@@ -6172,7 +6221,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>91</v>
       </c>
@@ -6189,7 +6238,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>39</v>
       </c>
@@ -6206,7 +6255,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>192</v>
       </c>
@@ -6223,7 +6272,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>154</v>
       </c>
@@ -6240,7 +6289,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>130</v>
       </c>
@@ -6257,7 +6306,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>167</v>
       </c>
@@ -6274,7 +6323,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -6291,7 +6340,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>192</v>
       </c>
@@ -6308,7 +6357,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>117</v>
       </c>
@@ -6325,7 +6374,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>78</v>
       </c>
@@ -6342,7 +6391,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>205</v>
       </c>
@@ -6359,7 +6408,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -6376,7 +6425,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>52</v>
       </c>
@@ -6393,7 +6442,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>39</v>
       </c>
@@ -6410,7 +6459,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>130</v>
       </c>
@@ -6427,7 +6476,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>167</v>
       </c>
@@ -6444,7 +6493,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>64</v>
       </c>
@@ -6461,7 +6510,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>154</v>
       </c>
@@ -6478,7 +6527,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>64</v>
       </c>
@@ -6495,7 +6544,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>117</v>
       </c>
@@ -6512,7 +6561,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -6529,7 +6578,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>231</v>
       </c>
@@ -6546,7 +6595,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>64</v>
       </c>
@@ -6563,7 +6612,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>78</v>
       </c>
@@ -6580,7 +6629,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -6597,7 +6646,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>130</v>
       </c>
@@ -6614,7 +6663,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>192</v>
       </c>
@@ -6631,7 +6680,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>154</v>
       </c>
@@ -6648,7 +6697,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -6665,7 +6714,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>192</v>
       </c>
@@ -6682,7 +6731,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>231</v>
       </c>
@@ -6699,7 +6748,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>205</v>
       </c>
@@ -6716,7 +6765,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>192</v>
       </c>
@@ -6733,7 +6782,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -6750,7 +6799,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>231</v>
       </c>
@@ -6767,7 +6816,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>180</v>
       </c>
@@ -6784,7 +6833,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>154</v>
       </c>
@@ -6801,7 +6850,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>180</v>
       </c>
@@ -6818,7 +6867,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>205</v>
       </c>
@@ -6835,7 +6884,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>142</v>
       </c>
@@ -6852,7 +6901,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>64</v>
       </c>
@@ -6869,7 +6918,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>205</v>
       </c>
@@ -6886,7 +6935,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>205</v>
       </c>
@@ -6903,7 +6952,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>64</v>
       </c>
@@ -6920,7 +6969,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>52</v>
       </c>
@@ -6937,7 +6986,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>78</v>
       </c>
@@ -6954,7 +7003,279 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>192</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C325" s="2">
+        <v>7</v>
+      </c>
+      <c r="D325" t="s">
+        <v>19</v>
+      </c>
+      <c r="E325" s="3">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>91</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C326" s="2">
+        <v>8</v>
+      </c>
+      <c r="D326" t="s">
+        <v>11</v>
+      </c>
+      <c r="E326" s="3">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>64</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C327" s="2">
+        <v>8</v>
+      </c>
+      <c r="D327" t="s">
+        <v>93</v>
+      </c>
+      <c r="E327" s="3">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>78</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C328" s="2">
+        <v>5</v>
+      </c>
+      <c r="D328" t="s">
+        <v>17</v>
+      </c>
+      <c r="E328" s="3">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>192</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C329" s="2">
+        <v>4</v>
+      </c>
+      <c r="D329" t="s">
+        <v>19</v>
+      </c>
+      <c r="E329" s="3">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>130</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C330" s="2">
+        <v>6</v>
+      </c>
+      <c r="D330" t="s">
+        <v>13</v>
+      </c>
+      <c r="E330" s="3">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>154</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C331" s="2">
+        <v>5</v>
+      </c>
+      <c r="D331" t="s">
+        <v>19</v>
+      </c>
+      <c r="E331" s="3">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>180</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C332" s="2">
+        <v>3</v>
+      </c>
+      <c r="D332" t="s">
+        <v>25</v>
+      </c>
+      <c r="E332" s="3">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>91</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C333" s="2">
+        <v>4</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="3">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>218</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C334" s="2">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s">
+        <v>19</v>
+      </c>
+      <c r="E334" s="3">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>142</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C335" s="2">
+        <v>8</v>
+      </c>
+      <c r="D335" t="s">
+        <v>13</v>
+      </c>
+      <c r="E335" s="3">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>142</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C336" s="2">
+        <v>8</v>
+      </c>
+      <c r="D336" t="s">
+        <v>13</v>
+      </c>
+      <c r="E336" s="3">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>64</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C337" s="2">
+        <v>8</v>
+      </c>
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
+      <c r="E337" s="3">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>192</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C338" s="2">
+        <v>10</v>
+      </c>
+      <c r="D338" t="s">
+        <v>19</v>
+      </c>
+      <c r="E338" s="3">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>154</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C339" s="2">
+        <v>7</v>
+      </c>
+      <c r="D339" t="s">
+        <v>13</v>
+      </c>
+      <c r="E339" s="3">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>23</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C340" s="2">
+        <v>3</v>
+      </c>
+      <c r="D340" t="s">
+        <v>19</v>
+      </c>
+      <c r="E340" s="3">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6962,102 +7283,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813468D8-8340-46A5-A690-084CD2273F0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9FADCC-9086-4B89-B97E-4F40BDD6B7E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="3324" windowWidth="23040" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="384">
   <si>
     <t>team</t>
   </si>
@@ -1123,9 +1123,6 @@
     <t>Alex Wood</t>
   </si>
   <si>
-    <t>Jacoby Jones</t>
-  </si>
-  <si>
     <t>Ryan Yarbrough</t>
   </si>
   <si>
@@ -1154,6 +1151,33 @@
   </si>
   <si>
     <t>Justus Sheffield</t>
+  </si>
+  <si>
+    <t>Ender Inciarte</t>
+  </si>
+  <si>
+    <t>Giovanny Gallegos</t>
+  </si>
+  <si>
+    <t>Keone Kela</t>
+  </si>
+  <si>
+    <t>Rick Porcello</t>
+  </si>
+  <si>
+    <t>Anthony DeSclafani</t>
+  </si>
+  <si>
+    <t>Gregory Polanco</t>
+  </si>
+  <si>
+    <t>Jon Gray</t>
+  </si>
+  <si>
+    <t>Dylan Bundy</t>
+  </si>
+  <si>
+    <t>JaCoby Jones</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1506,7 @@
   <dimension ref="A1:E362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A323" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G330" sqref="G330"/>
+      <selection activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7093,7 +7117,7 @@
         <v>130</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="C330" s="2">
         <v>6</v>
@@ -7110,7 +7134,7 @@
         <v>154</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C331" s="2">
         <v>5</v>
@@ -7127,7 +7151,7 @@
         <v>180</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C332" s="2">
         <v>3</v>
@@ -7144,7 +7168,7 @@
         <v>91</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C333" s="2">
         <v>4</v>
@@ -7161,7 +7185,7 @@
         <v>218</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C334" s="2">
         <v>11</v>
@@ -7178,7 +7202,7 @@
         <v>142</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C335" s="2">
         <v>8</v>
@@ -7195,7 +7219,7 @@
         <v>142</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C336" s="2">
         <v>8</v>
@@ -7212,7 +7236,7 @@
         <v>64</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C337" s="2">
         <v>8</v>
@@ -7229,7 +7253,7 @@
         <v>192</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C338" s="2">
         <v>10</v>
@@ -7246,7 +7270,7 @@
         <v>154</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C339" s="2">
         <v>7</v>
@@ -7263,7 +7287,7 @@
         <v>23</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C340" s="2">
         <v>3</v>
@@ -7273,6 +7297,142 @@
       </c>
       <c r="E340" s="3">
         <v>43855</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>205</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C341" s="2">
+        <v>12</v>
+      </c>
+      <c r="D341" t="s">
+        <v>19</v>
+      </c>
+      <c r="E341" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>39</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C342" s="2">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s">
+        <v>19</v>
+      </c>
+      <c r="E342" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>180</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C343" s="2">
+        <v>4</v>
+      </c>
+      <c r="D343" t="s">
+        <v>19</v>
+      </c>
+      <c r="E343" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>154</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C344" s="2">
+        <v>10</v>
+      </c>
+      <c r="D344" t="s">
+        <v>19</v>
+      </c>
+      <c r="E344" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>180</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C345" s="2">
+        <v>8</v>
+      </c>
+      <c r="D345" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>78</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C346" s="2">
+        <v>10</v>
+      </c>
+      <c r="D346" t="s">
+        <v>19</v>
+      </c>
+      <c r="E346" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>218</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C347" s="2">
+        <v>5</v>
+      </c>
+      <c r="D347" t="s">
+        <v>19</v>
+      </c>
+      <c r="E347" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>5</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C348" s="2">
+        <v>5</v>
+      </c>
+      <c r="D348" t="s">
+        <v>13</v>
+      </c>
+      <c r="E348" s="3">
+        <v>43858</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9FADCC-9086-4B89-B97E-4F40BDD6B7E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED106B8-0B16-4585-AD1A-7247571F7FD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="3324" windowWidth="23040" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14328" yWindow="2256" windowWidth="14172" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="400">
   <si>
     <t>team</t>
   </si>
@@ -1178,6 +1178,54 @@
   </si>
   <si>
     <t>JaCoby Jones</t>
+  </si>
+  <si>
+    <t>Matt Barnes</t>
+  </si>
+  <si>
+    <t>Mark Melancon</t>
+  </si>
+  <si>
+    <t>Adam Frazier</t>
+  </si>
+  <si>
+    <t>Jon Lester</t>
+  </si>
+  <si>
+    <t>Hunter Renfroe</t>
+  </si>
+  <si>
+    <t>Brandon Kintzler</t>
+  </si>
+  <si>
+    <t>Niko Goodrum</t>
+  </si>
+  <si>
+    <t>Randal Grichuk</t>
+  </si>
+  <si>
+    <t>Jonathan Schoop</t>
+  </si>
+  <si>
+    <t>Julio Rodriguez</t>
+  </si>
+  <si>
+    <t>Domingo Santana</t>
+  </si>
+  <si>
+    <t>Steven Matz</t>
+  </si>
+  <si>
+    <t>Matt Magill</t>
+  </si>
+  <si>
+    <t>Jackie Bradley Jr.</t>
+  </si>
+  <si>
+    <t>Evan Longoria</t>
+  </si>
+  <si>
+    <t>Sean Murphy</t>
   </si>
 </sst>
 </file>
@@ -1503,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E362"/>
+  <dimension ref="A1:E364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B328" sqref="B328"/>
+    <sheetView tabSelected="1" topLeftCell="A351" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D365" sqref="D365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7004,7 +7052,7 @@
         <v>8</v>
       </c>
       <c r="D323" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="E323" s="3">
         <v>43853</v>
@@ -7435,7 +7483,278 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>5</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C349" s="2">
+        <v>13</v>
+      </c>
+      <c r="D349" t="s">
+        <v>19</v>
+      </c>
+      <c r="E349" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>180</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C350" s="2">
+        <v>5</v>
+      </c>
+      <c r="D350" t="s">
+        <v>28</v>
+      </c>
+      <c r="E350" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>180</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C351" s="2">
+        <v>5</v>
+      </c>
+      <c r="D351" t="s">
+        <v>19</v>
+      </c>
+      <c r="E351" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>154</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C352" s="2">
+        <v>10</v>
+      </c>
+      <c r="D352" t="s">
+        <v>13</v>
+      </c>
+      <c r="E352" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>180</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C353" s="2">
+        <v>8</v>
+      </c>
+      <c r="D353" t="s">
+        <v>19</v>
+      </c>
+      <c r="E353" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>64</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C354" s="2">
+        <v>7</v>
+      </c>
+      <c r="D354" t="s">
+        <v>13</v>
+      </c>
+      <c r="E354" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>180</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C355" s="2">
+        <v>10</v>
+      </c>
+      <c r="D355" t="s">
+        <v>13</v>
+      </c>
+      <c r="E355" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>52</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C356" s="2">
+        <v>3</v>
+      </c>
+      <c r="D356" t="s">
+        <v>19</v>
+      </c>
+      <c r="E356" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>142</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C357" s="2">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>13</v>
+      </c>
+      <c r="E357" s="3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>104</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C358" s="2">
+        <v>4</v>
+      </c>
+      <c r="D358" t="s">
+        <v>13</v>
+      </c>
+      <c r="E358" s="3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>180</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C359" s="2">
+        <v>3</v>
+      </c>
+      <c r="D359" t="s">
+        <v>19</v>
+      </c>
+      <c r="E359" s="3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>218</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C360" s="2">
+        <v>4</v>
+      </c>
+      <c r="D360" t="s">
+        <v>19</v>
+      </c>
+      <c r="E360" s="3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>39</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C361" s="2">
+        <v>4</v>
+      </c>
+      <c r="D361" t="s">
+        <v>13</v>
+      </c>
+      <c r="E361" s="3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>52</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C362" s="2">
+        <v>4</v>
+      </c>
+      <c r="D362" t="s">
+        <v>11</v>
+      </c>
+      <c r="E362" s="3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>78</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C363" s="2">
+        <v>8</v>
+      </c>
+      <c r="D363" t="s">
+        <v>25</v>
+      </c>
+      <c r="E363" s="3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>180</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C364" s="2">
+        <v>8</v>
+      </c>
+      <c r="D364" t="s">
+        <v>70</v>
+      </c>
+      <c r="E364" s="3">
+        <v>43859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED106B8-0B16-4585-AD1A-7247571F7FD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44656ED-69E8-4FBF-8CBC-306A9DDBE46A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14328" yWindow="2256" windowWidth="14172" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
     <sheet name="teams" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="432">
   <si>
     <t>team</t>
   </si>
@@ -616,9 +617,6 @@
     <t>DJ LeMahieu</t>
   </si>
   <si>
-    <t>Gio Urshela</t>
-  </si>
-  <si>
     <t>Cody Bellinger</t>
   </si>
   <si>
@@ -1226,6 +1224,105 @@
   </si>
   <si>
     <t>Sean Murphy</t>
+  </si>
+  <si>
+    <t>Daniel Vogelbach</t>
+  </si>
+  <si>
+    <t>Tony Gonsolin</t>
+  </si>
+  <si>
+    <t>Kole Calhoun</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Domingo German</t>
+  </si>
+  <si>
+    <t>Manuel Margot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dellin Betances </t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Roberto Perez</t>
+  </si>
+  <si>
+    <t>Jesus Aguilar</t>
+  </si>
+  <si>
+    <t>Jose Martinez</t>
+  </si>
+  <si>
+    <t>Forrest Whitley</t>
+  </si>
+  <si>
+    <t>Tony Watson</t>
+  </si>
+  <si>
+    <t>Michael Pineda</t>
+  </si>
+  <si>
+    <t>Tyler O'Neill</t>
+  </si>
+  <si>
+    <t>Nick Solak</t>
+  </si>
+  <si>
+    <t>Giovanny Urshela</t>
+  </si>
+  <si>
+    <t>Danny Jansen</t>
+  </si>
+  <si>
+    <t>Tyler Flowers</t>
+  </si>
+  <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Julio Teheran</t>
+  </si>
+  <si>
+    <t>Marwin Gonzalez</t>
+  </si>
+  <si>
+    <t>Wil Myers</t>
+  </si>
+  <si>
+    <t>Maikel Franco</t>
+  </si>
+  <si>
+    <t>Jaylin Davis</t>
+  </si>
+  <si>
+    <t>Sean Newcomb</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Victor Reyes</t>
+  </si>
+  <si>
+    <t>Austin Hays</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Marco Gonzales</t>
+  </si>
+  <si>
+    <t>Trent Grisham</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E364"/>
+  <dimension ref="A1:E396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D365" sqref="D365"/>
+    <sheetView tabSelected="1" topLeftCell="A355" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L384" sqref="L384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3618,7 +3715,7 @@
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E121" s="3">
         <v>43830</v>
@@ -4173,7 +4270,7 @@
         <v>180</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C154" s="2">
         <v>5</v>
@@ -4411,7 +4508,7 @@
         <v>192</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>196</v>
+        <v>415</v>
       </c>
       <c r="C168" s="2">
         <v>6</v>
@@ -4428,7 +4525,7 @@
         <v>192</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C169" s="2">
         <v>12</v>
@@ -4445,7 +4542,7 @@
         <v>192</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C170" s="2">
         <v>12</v>
@@ -4462,7 +4559,7 @@
         <v>192</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C171" s="2">
         <v>6</v>
@@ -4479,7 +4576,7 @@
         <v>192</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -4496,7 +4593,7 @@
         <v>192</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -4513,7 +4610,7 @@
         <v>192</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C174" s="2">
         <v>15</v>
@@ -4530,7 +4627,7 @@
         <v>192</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C175" s="2">
         <v>11</v>
@@ -4547,7 +4644,7 @@
         <v>192</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C176" s="2">
         <v>5</v>
@@ -4561,10 +4658,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>204</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C177" s="2">
         <v>12</v>
@@ -4578,10 +4675,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C178" s="2">
         <v>17</v>
@@ -4595,10 +4692,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C179" s="2">
         <v>17</v>
@@ -4612,10 +4709,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C180" s="2">
         <v>12</v>
@@ -4629,10 +4726,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C181" s="2">
         <v>9</v>
@@ -4646,10 +4743,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C182" s="2">
         <v>8</v>
@@ -4663,10 +4760,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C183" s="2">
         <v>5</v>
@@ -4680,10 +4777,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C184" s="2">
         <v>12</v>
@@ -4697,10 +4794,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C185" s="2">
         <v>27</v>
@@ -4714,10 +4811,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C186" s="2">
         <v>11</v>
@@ -4731,10 +4828,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C187" s="2">
         <v>5</v>
@@ -4748,10 +4845,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C188" s="2">
         <v>9</v>
@@ -4765,10 +4862,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>217</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="C189" s="2">
         <v>13</v>
@@ -4782,10 +4879,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C190" s="2">
         <v>8</v>
@@ -4799,10 +4896,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C191" s="2">
         <v>14</v>
@@ -4816,10 +4913,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C192" s="2">
         <v>7</v>
@@ -4833,10 +4930,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C193" s="2">
         <v>5</v>
@@ -4850,10 +4947,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C194" s="2">
         <v>6</v>
@@ -4867,10 +4964,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C195" s="2">
         <v>9</v>
@@ -4884,10 +4981,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C196" s="2">
         <v>6</v>
@@ -4901,10 +4998,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C197" s="2">
         <v>8</v>
@@ -4918,10 +5015,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C198" s="2">
         <v>52</v>
@@ -4935,10 +5032,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -4952,10 +5049,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C200" s="2">
         <v>2</v>
@@ -4969,10 +5066,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>230</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C201" s="2">
         <v>12</v>
@@ -4986,10 +5083,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C202" s="2">
         <v>9</v>
@@ -5003,10 +5100,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C203" s="2">
         <v>5</v>
@@ -5020,10 +5117,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C204" s="2">
         <v>9</v>
@@ -5037,10 +5134,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C205" s="2">
         <v>5</v>
@@ -5054,10 +5151,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C206" s="2">
         <v>15</v>
@@ -5071,10 +5168,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C207" s="2">
         <v>8</v>
@@ -5088,10 +5185,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -5105,10 +5202,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -5122,10 +5219,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C210" s="2">
         <v>12</v>
@@ -5139,10 +5236,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C211" s="2">
         <v>5</v>
@@ -5156,10 +5253,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C212" s="2">
         <v>19</v>
@@ -5176,7 +5273,7 @@
         <v>39</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C213" s="2">
         <v>29</v>
@@ -5193,7 +5290,7 @@
         <v>23</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C214" s="2">
         <v>4</v>
@@ -5210,7 +5307,7 @@
         <v>142</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C215" s="2">
         <v>34</v>
@@ -5227,7 +5324,7 @@
         <v>78</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C216" s="2">
         <v>39</v>
@@ -5244,7 +5341,7 @@
         <v>91</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C217" s="2">
         <v>30</v>
@@ -5261,7 +5358,7 @@
         <v>192</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C218" s="2">
         <v>6</v>
@@ -5278,7 +5375,7 @@
         <v>23</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C219" s="2">
         <v>19</v>
@@ -5295,7 +5392,7 @@
         <v>167</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C220" s="2">
         <v>25</v>
@@ -5312,7 +5409,7 @@
         <v>64</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C221" s="2">
         <v>23</v>
@@ -5329,7 +5426,7 @@
         <v>117</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C222" s="2">
         <v>29</v>
@@ -5343,10 +5440,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C223" s="2">
         <v>10</v>
@@ -5360,10 +5457,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C224" s="2">
         <v>18</v>
@@ -5380,7 +5477,7 @@
         <v>23</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C225" s="2">
         <v>23</v>
@@ -5397,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C226" s="2">
         <v>28</v>
@@ -5414,7 +5511,7 @@
         <v>104</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C227" s="2">
         <v>8</v>
@@ -5431,7 +5528,7 @@
         <v>130</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C228" s="2">
         <v>33</v>
@@ -5448,7 +5545,7 @@
         <v>64</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
@@ -5465,7 +5562,7 @@
         <v>52</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C230" s="2">
         <v>31</v>
@@ -5482,7 +5579,7 @@
         <v>39</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C231" s="2">
         <v>24</v>
@@ -5499,7 +5596,7 @@
         <v>78</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C232" s="2">
         <v>34</v>
@@ -5516,7 +5613,7 @@
         <v>52</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C233" s="2">
         <v>16</v>
@@ -5533,7 +5630,7 @@
         <v>23</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C234" s="2">
         <v>8</v>
@@ -5547,10 +5644,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C235" s="2">
         <v>24</v>
@@ -5567,7 +5664,7 @@
         <v>23</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C236" s="2">
         <v>8</v>
@@ -5581,10 +5678,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C237" s="2">
         <v>34</v>
@@ -5601,7 +5698,7 @@
         <v>104</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C238" s="2">
         <v>29</v>
@@ -5615,10 +5712,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C239" s="2">
         <v>8</v>
@@ -5635,7 +5732,7 @@
         <v>192</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C240" s="2">
         <v>20</v>
@@ -5652,7 +5749,7 @@
         <v>130</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C241" s="2">
         <v>24</v>
@@ -5669,7 +5766,7 @@
         <v>104</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C242" s="2">
         <v>13</v>
@@ -5683,10 +5780,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C243" s="2">
         <v>26</v>
@@ -5703,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C244" s="2">
         <v>20</v>
@@ -5720,7 +5817,7 @@
         <v>192</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C245" s="2">
         <v>15</v>
@@ -5737,7 +5834,7 @@
         <v>167</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C246" s="2">
         <v>16</v>
@@ -5754,7 +5851,7 @@
         <v>52</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C247" s="2">
         <v>7</v>
@@ -5771,7 +5868,7 @@
         <v>130</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C248" s="2">
         <v>21</v>
@@ -5785,10 +5882,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C249" s="2">
         <v>22</v>
@@ -5802,10 +5899,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C250" s="2">
         <v>6</v>
@@ -5822,7 +5919,7 @@
         <v>39</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C251" s="2">
         <v>9</v>
@@ -5836,10 +5933,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C252" s="2">
         <v>19</v>
@@ -5856,7 +5953,7 @@
         <v>5</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C253" s="2">
         <v>17</v>
@@ -5873,7 +5970,7 @@
         <v>130</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C254" s="2">
         <v>8</v>
@@ -5890,7 +5987,7 @@
         <v>142</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C255" s="2">
         <v>17</v>
@@ -5907,7 +6004,7 @@
         <v>52</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C256" s="2">
         <v>13</v>
@@ -5921,10 +6018,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C257" s="2">
         <v>20</v>
@@ -5941,7 +6038,7 @@
         <v>52</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C258" s="2">
         <v>16</v>
@@ -5958,7 +6055,7 @@
         <v>117</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C259" s="2">
         <v>20</v>
@@ -5975,7 +6072,7 @@
         <v>192</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C260" s="2">
         <v>15</v>
@@ -5992,7 +6089,7 @@
         <v>91</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C261" s="2">
         <v>24</v>
@@ -6009,7 +6106,7 @@
         <v>180</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C262" s="2">
         <v>26</v>
@@ -6026,7 +6123,7 @@
         <v>180</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C263" s="2">
         <v>35</v>
@@ -6043,7 +6140,7 @@
         <v>192</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C264" s="2">
         <v>17</v>
@@ -6060,7 +6157,7 @@
         <v>23</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C265" s="2">
         <v>7</v>
@@ -6077,7 +6174,7 @@
         <v>192</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C266" s="2">
         <v>10</v>
@@ -6094,7 +6191,7 @@
         <v>117</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C267" s="2">
         <v>27</v>
@@ -6111,7 +6208,7 @@
         <v>104</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C268" s="2">
         <v>16</v>
@@ -6128,7 +6225,7 @@
         <v>167</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C269" s="2">
         <v>16</v>
@@ -6145,7 +6242,7 @@
         <v>5</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C270" s="2">
         <v>24</v>
@@ -6162,7 +6259,7 @@
         <v>23</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C271" s="2">
         <v>2</v>
@@ -6176,10 +6273,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C272" s="2">
         <v>13</v>
@@ -6196,7 +6293,7 @@
         <v>154</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C273" s="2">
         <v>20</v>
@@ -6213,7 +6310,7 @@
         <v>117</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C274" s="2">
         <v>9</v>
@@ -6230,7 +6327,7 @@
         <v>91</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C275" s="2">
         <v>7</v>
@@ -6247,7 +6344,7 @@
         <v>104</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C276" s="2">
         <v>5</v>
@@ -6264,7 +6361,7 @@
         <v>91</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C277" s="2">
         <v>15</v>
@@ -6281,7 +6378,7 @@
         <v>52</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C278" s="2">
         <v>2</v>
@@ -6298,7 +6395,7 @@
         <v>91</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C279" s="2">
         <v>16</v>
@@ -6315,7 +6412,7 @@
         <v>39</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C280" s="2">
         <v>19</v>
@@ -6332,7 +6429,7 @@
         <v>192</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C281" s="2">
         <v>14</v>
@@ -6349,7 +6446,7 @@
         <v>154</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C282" s="2">
         <v>5</v>
@@ -6366,7 +6463,7 @@
         <v>130</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C283" s="2">
         <v>17</v>
@@ -6383,7 +6480,7 @@
         <v>167</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C284" s="2">
         <v>17</v>
@@ -6400,7 +6497,7 @@
         <v>23</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C285" s="2">
         <v>24</v>
@@ -6417,7 +6514,7 @@
         <v>192</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C286" s="2">
         <v>20</v>
@@ -6451,7 +6548,7 @@
         <v>78</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C288" s="2">
         <v>11</v>
@@ -6465,10 +6562,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C289" s="2">
         <v>13</v>
@@ -6485,7 +6582,7 @@
         <v>192</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C290" s="2">
         <v>8</v>
@@ -6502,7 +6599,7 @@
         <v>52</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C291" s="2">
         <v>26</v>
@@ -6519,7 +6616,7 @@
         <v>39</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C292" s="2">
         <v>14</v>
@@ -6536,7 +6633,7 @@
         <v>130</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C293" s="2">
         <v>5</v>
@@ -6553,7 +6650,7 @@
         <v>167</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C294" s="2">
         <v>10</v>
@@ -6570,7 +6667,7 @@
         <v>64</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C295" s="2">
         <v>19</v>
@@ -6587,7 +6684,7 @@
         <v>154</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C296" s="2">
         <v>4</v>
@@ -6604,7 +6701,7 @@
         <v>64</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C297" s="2">
         <v>26</v>
@@ -6621,7 +6718,7 @@
         <v>117</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C298" s="2">
         <v>23</v>
@@ -6638,7 +6735,7 @@
         <v>5</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C299" s="2">
         <v>11</v>
@@ -6652,10 +6749,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C300" s="2">
         <v>12</v>
@@ -6672,7 +6769,7 @@
         <v>64</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C301" s="2">
         <v>3</v>
@@ -6689,7 +6786,7 @@
         <v>78</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C302" s="2">
         <v>9</v>
@@ -6706,7 +6803,7 @@
         <v>23</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C303" s="2">
         <v>9</v>
@@ -6723,7 +6820,7 @@
         <v>130</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C304" s="2">
         <v>5</v>
@@ -6740,7 +6837,7 @@
         <v>192</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C305" s="2">
         <v>10</v>
@@ -6757,7 +6854,7 @@
         <v>154</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C306" s="2">
         <v>7</v>
@@ -6774,7 +6871,7 @@
         <v>5</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C307" s="2">
         <v>12</v>
@@ -6791,7 +6888,7 @@
         <v>192</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C308" s="2">
         <v>4</v>
@@ -6805,10 +6902,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C309" s="2">
         <v>16</v>
@@ -6822,10 +6919,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C310" s="2">
         <v>8</v>
@@ -6842,7 +6939,7 @@
         <v>192</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C311" s="2">
         <v>3</v>
@@ -6859,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C312" s="2">
         <v>3</v>
@@ -6873,10 +6970,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C313" s="2">
         <v>8</v>
@@ -6893,7 +6990,7 @@
         <v>180</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C314" s="2">
         <v>8</v>
@@ -6910,7 +7007,7 @@
         <v>154</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C315" s="2">
         <v>14</v>
@@ -6927,7 +7024,7 @@
         <v>180</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C316" s="2">
         <v>9</v>
@@ -6941,10 +7038,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C317" s="2">
         <v>9</v>
@@ -6961,7 +7058,7 @@
         <v>142</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C318" s="2">
         <v>12</v>
@@ -6978,7 +7075,7 @@
         <v>64</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C319" s="2">
         <v>5</v>
@@ -6992,10 +7089,10 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C320" s="2">
         <v>17</v>
@@ -7009,10 +7106,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C321" s="2">
         <v>10</v>
@@ -7029,7 +7126,7 @@
         <v>64</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C322" s="2">
         <v>11</v>
@@ -7046,7 +7143,7 @@
         <v>52</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C323" s="2">
         <v>8</v>
@@ -7063,7 +7160,7 @@
         <v>78</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C324" s="2">
         <v>13</v>
@@ -7080,7 +7177,7 @@
         <v>192</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C325" s="2">
         <v>7</v>
@@ -7097,7 +7194,7 @@
         <v>91</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C326" s="2">
         <v>8</v>
@@ -7114,7 +7211,7 @@
         <v>64</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C327" s="2">
         <v>8</v>
@@ -7131,7 +7228,7 @@
         <v>78</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C328" s="2">
         <v>5</v>
@@ -7148,7 +7245,7 @@
         <v>192</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C329" s="2">
         <v>4</v>
@@ -7165,7 +7262,7 @@
         <v>130</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C330" s="2">
         <v>6</v>
@@ -7182,7 +7279,7 @@
         <v>154</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C331" s="2">
         <v>5</v>
@@ -7199,7 +7296,7 @@
         <v>180</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C332" s="2">
         <v>3</v>
@@ -7216,7 +7313,7 @@
         <v>91</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C333" s="2">
         <v>4</v>
@@ -7230,10 +7327,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C334" s="2">
         <v>11</v>
@@ -7250,7 +7347,7 @@
         <v>142</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C335" s="2">
         <v>8</v>
@@ -7267,7 +7364,7 @@
         <v>142</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C336" s="2">
         <v>8</v>
@@ -7284,7 +7381,7 @@
         <v>64</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C337" s="2">
         <v>8</v>
@@ -7301,7 +7398,7 @@
         <v>192</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C338" s="2">
         <v>10</v>
@@ -7318,7 +7415,7 @@
         <v>154</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C339" s="2">
         <v>7</v>
@@ -7335,7 +7432,7 @@
         <v>23</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C340" s="2">
         <v>3</v>
@@ -7349,10 +7446,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C341" s="2">
         <v>12</v>
@@ -7369,7 +7466,7 @@
         <v>39</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C342" s="2">
         <v>11</v>
@@ -7386,7 +7483,7 @@
         <v>180</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C343" s="2">
         <v>4</v>
@@ -7403,7 +7500,7 @@
         <v>154</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C344" s="2">
         <v>10</v>
@@ -7420,7 +7517,7 @@
         <v>180</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C345" s="2">
         <v>8</v>
@@ -7437,7 +7534,7 @@
         <v>78</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C346" s="2">
         <v>10</v>
@@ -7451,10 +7548,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C347" s="2">
         <v>5</v>
@@ -7471,7 +7568,7 @@
         <v>5</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C348" s="2">
         <v>5</v>
@@ -7488,7 +7585,7 @@
         <v>5</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C349" s="2">
         <v>13</v>
@@ -7505,7 +7602,7 @@
         <v>180</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C350" s="2">
         <v>5</v>
@@ -7522,7 +7619,7 @@
         <v>180</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C351" s="2">
         <v>5</v>
@@ -7539,7 +7636,7 @@
         <v>154</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C352" s="2">
         <v>10</v>
@@ -7556,7 +7653,7 @@
         <v>180</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C353" s="2">
         <v>8</v>
@@ -7573,7 +7670,7 @@
         <v>64</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C354" s="2">
         <v>7</v>
@@ -7590,7 +7687,7 @@
         <v>180</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C355" s="2">
         <v>10</v>
@@ -7607,7 +7704,7 @@
         <v>52</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C356" s="2">
         <v>3</v>
@@ -7624,7 +7721,7 @@
         <v>142</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C357" s="2">
         <v>6</v>
@@ -7641,7 +7738,7 @@
         <v>104</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C358" s="2">
         <v>4</v>
@@ -7658,7 +7755,7 @@
         <v>180</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C359" s="2">
         <v>3</v>
@@ -7672,10 +7769,10 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C360" s="2">
         <v>4</v>
@@ -7692,7 +7789,7 @@
         <v>39</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C361" s="2">
         <v>4</v>
@@ -7709,7 +7806,7 @@
         <v>52</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C362" s="2">
         <v>4</v>
@@ -7726,7 +7823,7 @@
         <v>78</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C363" s="2">
         <v>8</v>
@@ -7743,7 +7840,7 @@
         <v>180</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C364" s="2">
         <v>8</v>
@@ -7753,6 +7850,550 @@
       </c>
       <c r="E364" s="3">
         <v>43859</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>64</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C365" s="2">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>19</v>
+      </c>
+      <c r="E365" s="3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>142</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C366" s="2">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>13</v>
+      </c>
+      <c r="E366" s="3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>180</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C367" s="2">
+        <v>8</v>
+      </c>
+      <c r="D367" t="s">
+        <v>19</v>
+      </c>
+      <c r="E367" s="3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>204</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C368" s="2">
+        <v>3</v>
+      </c>
+      <c r="D368" t="s">
+        <v>19</v>
+      </c>
+      <c r="E368" s="3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C369" s="2">
+        <v>3</v>
+      </c>
+      <c r="D369" t="s">
+        <v>13</v>
+      </c>
+      <c r="E369" s="3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>78</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C370" s="2">
+        <v>5</v>
+      </c>
+      <c r="D370" t="s">
+        <v>19</v>
+      </c>
+      <c r="E370" s="3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>142</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C371" s="2">
+        <v>2</v>
+      </c>
+      <c r="D371" t="s">
+        <v>19</v>
+      </c>
+      <c r="E371" s="3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>64</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C372" s="2">
+        <v>3</v>
+      </c>
+      <c r="D372" t="s">
+        <v>17</v>
+      </c>
+      <c r="E372" s="3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>142</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C373" s="2">
+        <v>3</v>
+      </c>
+      <c r="D373" t="s">
+        <v>25</v>
+      </c>
+      <c r="E373" s="3">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>204</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C374" s="2">
+        <v>4</v>
+      </c>
+      <c r="D374" t="s">
+        <v>93</v>
+      </c>
+      <c r="E374" s="3">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>204</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C375" s="2">
+        <v>3</v>
+      </c>
+      <c r="D375" t="s">
+        <v>13</v>
+      </c>
+      <c r="E375" s="3">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>167</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C376" s="2">
+        <v>6</v>
+      </c>
+      <c r="D376" t="s">
+        <v>19</v>
+      </c>
+      <c r="E376" s="3">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>5</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C377" s="2">
+        <v>5</v>
+      </c>
+      <c r="D377" t="s">
+        <v>19</v>
+      </c>
+      <c r="E377" s="3">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>130</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C378" s="2">
+        <v>5</v>
+      </c>
+      <c r="D378" t="s">
+        <v>19</v>
+      </c>
+      <c r="E378" s="3">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>154</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C379" s="2">
+        <v>5</v>
+      </c>
+      <c r="D379" t="s">
+        <v>13</v>
+      </c>
+      <c r="E379" s="3">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>23</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C380" s="2">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
+        <v>17</v>
+      </c>
+      <c r="E380" s="3">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>217</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C381" s="2">
+        <v>4</v>
+      </c>
+      <c r="D381" t="s">
+        <v>25</v>
+      </c>
+      <c r="E381" s="3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C382" s="2">
+        <v>1</v>
+      </c>
+      <c r="D382" t="s">
+        <v>25</v>
+      </c>
+      <c r="E382" s="3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>64</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C383" s="2">
+        <v>7</v>
+      </c>
+      <c r="D383" t="s">
+        <v>19</v>
+      </c>
+      <c r="E383" s="3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>64</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C384" s="2">
+        <v>2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>19</v>
+      </c>
+      <c r="E384" s="3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>91</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C385" s="2">
+        <v>1</v>
+      </c>
+      <c r="D385" t="s">
+        <v>13</v>
+      </c>
+      <c r="E385" s="3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>204</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C386" s="2">
+        <v>6</v>
+      </c>
+      <c r="D386" t="s">
+        <v>13</v>
+      </c>
+      <c r="E386" s="3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>217</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C387" s="2">
+        <v>7</v>
+      </c>
+      <c r="D387" t="s">
+        <v>11</v>
+      </c>
+      <c r="E387" s="3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>52</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C388" s="2">
+        <v>1</v>
+      </c>
+      <c r="D388" t="s">
+        <v>13</v>
+      </c>
+      <c r="E388" s="3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>78</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C389" s="2">
+        <v>2</v>
+      </c>
+      <c r="D389" t="s">
+        <v>19</v>
+      </c>
+      <c r="E389" s="3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>130</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C390" s="2">
+        <v>1</v>
+      </c>
+      <c r="D390" t="s">
+        <v>19</v>
+      </c>
+      <c r="E390" s="3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>64</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C391" s="2">
+        <v>4</v>
+      </c>
+      <c r="D391" t="s">
+        <v>19</v>
+      </c>
+      <c r="E391" s="3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>104</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C392" s="2">
+        <v>2</v>
+      </c>
+      <c r="D392" t="s">
+        <v>13</v>
+      </c>
+      <c r="E392" s="3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>217</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C393" s="2">
+        <v>5</v>
+      </c>
+      <c r="D393" t="s">
+        <v>13</v>
+      </c>
+      <c r="E393" s="3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>5</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C394" s="2">
+        <v>7</v>
+      </c>
+      <c r="D394" t="s">
+        <v>19</v>
+      </c>
+      <c r="E394" s="3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>180</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C395" s="2">
+        <v>2</v>
+      </c>
+      <c r="D395" t="s">
+        <v>19</v>
+      </c>
+      <c r="E395" s="3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>167</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C396" s="2">
+        <v>3</v>
+      </c>
+      <c r="D396" t="s">
+        <v>13</v>
+      </c>
+      <c r="E396" s="3">
+        <v>43866</v>
       </c>
     </row>
   </sheetData>
@@ -7774,7 +8415,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -7794,7 +8435,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -7804,7 +8445,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -7824,7 +8465,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -7834,12 +8475,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -7854,7 +8495,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44656ED-69E8-4FBF-8CBC-306A9DDBE46A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638FA773-3A01-4C21-8611-0DE17F67B0C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6300" yWindow="4764" windowWidth="14172" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
     <sheet name="teams" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="440">
   <si>
     <t>team</t>
   </si>
@@ -1323,6 +1322,30 @@
   </si>
   <si>
     <t>Trent Grisham</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Kevin Pillar</t>
+  </si>
+  <si>
+    <t>Josh Lindblom</t>
+  </si>
+  <si>
+    <t>Austin Hedges</t>
+  </si>
+  <si>
+    <t>Garrett Richards</t>
+  </si>
+  <si>
+    <t>Mike Tauchman</t>
+  </si>
+  <si>
+    <t>Shogo Akiyama</t>
+  </si>
+  <si>
+    <t>Stephen Piscotty</t>
   </si>
 </sst>
 </file>
@@ -1648,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E396"/>
+  <dimension ref="A1:E404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L384" sqref="L384"/>
+    <sheetView tabSelected="1" topLeftCell="A367" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D404" sqref="D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8394,6 +8417,142 @@
       </c>
       <c r="E396" s="3">
         <v>43866</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>39</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C397" s="2">
+        <v>1</v>
+      </c>
+      <c r="D397" t="s">
+        <v>13</v>
+      </c>
+      <c r="E397" s="3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>217</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C398" s="2">
+        <v>4</v>
+      </c>
+      <c r="D398" t="s">
+        <v>19</v>
+      </c>
+      <c r="E398" s="3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>5</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C399" s="2">
+        <v>1</v>
+      </c>
+      <c r="D399" t="s">
+        <v>25</v>
+      </c>
+      <c r="E399" s="3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>52</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C400" s="2">
+        <v>6</v>
+      </c>
+      <c r="D400" t="s">
+        <v>19</v>
+      </c>
+      <c r="E400" s="3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>91</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C401" s="2">
+        <v>1</v>
+      </c>
+      <c r="D401" t="s">
+        <v>13</v>
+      </c>
+      <c r="E401" s="3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>78</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C402" s="2">
+        <v>5</v>
+      </c>
+      <c r="D402" t="s">
+        <v>13</v>
+      </c>
+      <c r="E402" s="3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>117</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C403" s="2">
+        <v>3</v>
+      </c>
+      <c r="D403" t="s">
+        <v>13</v>
+      </c>
+      <c r="E403" s="3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>52</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C404" s="2">
+        <v>3</v>
+      </c>
+      <c r="D404" t="s">
+        <v>19</v>
+      </c>
+      <c r="E404" s="3">
+        <v>43867</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRDUser\Desktop\fantasy2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638FA773-3A01-4C21-8611-0DE17F67B0C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6300" yWindow="4764" windowWidth="14172" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6300" yWindow="4770" windowWidth="14175" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="448">
   <si>
     <t>team</t>
   </si>
@@ -1346,12 +1345,36 @@
   </si>
   <si>
     <t>Stephen Piscotty</t>
+  </si>
+  <si>
+    <t>Mychal Givens</t>
+  </si>
+  <si>
+    <t>James McCann</t>
+  </si>
+  <si>
+    <t>Yonny Chirinos</t>
+  </si>
+  <si>
+    <t>Teoscar Hernandez</t>
+  </si>
+  <si>
+    <t>Victor Caratini</t>
+  </si>
+  <si>
+    <t>Kurt Suzuki</t>
+  </si>
+  <si>
+    <t>Jeff Samardzija</t>
+  </si>
+  <si>
+    <t>Ryne Stanek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0;[Red]\$#,##0"/>
   </numFmts>
@@ -1670,24 +1693,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E404"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D404" sqref="D404"/>
+    <sheetView tabSelected="1" topLeftCell="A405" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D407" sqref="D407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
-    <col min="6" max="1025" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125"/>
+    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1721,7 +1744,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1761,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1755,7 +1778,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1772,7 +1795,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +1812,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +1829,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1846,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1863,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +1880,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1874,7 +1897,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1891,7 +1914,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1908,7 +1931,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1925,7 +1948,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1942,7 +1965,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1959,7 +1982,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1976,7 +1999,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1993,7 +2016,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2010,7 +2033,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2027,7 +2050,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2044,7 +2067,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2061,7 +2084,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2078,7 +2101,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2095,7 +2118,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2112,7 +2135,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2129,7 +2152,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2146,7 +2169,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2163,7 +2186,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2180,7 +2203,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2197,7 +2220,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2214,7 +2237,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2231,7 +2254,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2248,7 +2271,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2265,7 +2288,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2282,7 +2305,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2299,7 +2322,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2316,7 +2339,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2333,7 +2356,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2350,7 +2373,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -2367,7 +2390,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2384,7 +2407,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2401,7 +2424,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2418,7 +2441,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2435,7 +2458,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2452,7 +2475,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2469,7 +2492,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2486,7 +2509,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2503,7 +2526,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2520,7 +2543,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2537,7 +2560,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2554,7 +2577,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -2571,7 +2594,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2588,7 +2611,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2605,7 +2628,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2622,7 +2645,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2639,7 +2662,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2656,7 +2679,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2673,7 +2696,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2690,7 +2713,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2707,7 +2730,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2724,7 +2747,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2741,7 +2764,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2758,7 +2781,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -2775,7 +2798,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2792,7 +2815,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -2809,7 +2832,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -2826,7 +2849,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -2843,7 +2866,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2860,7 +2883,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2877,7 +2900,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2894,7 +2917,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -2911,7 +2934,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -2928,7 +2951,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -2945,7 +2968,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -2962,7 +2985,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2979,7 +3002,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -2996,7 +3019,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -3013,7 +3036,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -3030,7 +3053,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -3047,7 +3070,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -3064,7 +3087,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -3081,7 +3104,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -3098,7 +3121,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -3115,7 +3138,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -3132,7 +3155,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -3149,7 +3172,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -3166,7 +3189,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -3183,7 +3206,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -3200,7 +3223,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -3217,7 +3240,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -3234,7 +3257,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -3251,7 +3274,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -3268,7 +3291,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -3285,7 +3308,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -3302,7 +3325,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -3319,7 +3342,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -3336,7 +3359,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -3353,7 +3376,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -3370,7 +3393,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -3387,7 +3410,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -3404,7 +3427,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -3421,7 +3444,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -3438,7 +3461,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -3455,7 +3478,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -3472,7 +3495,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -3489,7 +3512,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>130</v>
       </c>
@@ -3506,7 +3529,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -3523,7 +3546,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -3540,7 +3563,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>130</v>
       </c>
@@ -3557,7 +3580,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -3574,7 +3597,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3591,7 +3614,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -3608,7 +3631,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -3625,7 +3648,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -3642,7 +3665,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -3659,7 +3682,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -3676,7 +3699,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>142</v>
       </c>
@@ -3693,7 +3716,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -3710,7 +3733,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -3727,7 +3750,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -3744,7 +3767,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>142</v>
       </c>
@@ -3761,7 +3784,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -3778,7 +3801,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -3795,7 +3818,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -3812,7 +3835,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -3829,7 +3852,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -3846,7 +3869,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -3863,7 +3886,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>154</v>
       </c>
@@ -3880,7 +3903,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>154</v>
       </c>
@@ -3897,7 +3920,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>154</v>
       </c>
@@ -3914,7 +3937,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>154</v>
       </c>
@@ -3931,7 +3954,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>154</v>
       </c>
@@ -3948,7 +3971,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>154</v>
       </c>
@@ -3965,7 +3988,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -3982,7 +4005,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>154</v>
       </c>
@@ -3999,7 +4022,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -4016,7 +4039,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -4033,7 +4056,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -4050,7 +4073,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -4067,7 +4090,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>167</v>
       </c>
@@ -4084,7 +4107,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -4101,7 +4124,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>167</v>
       </c>
@@ -4118,7 +4141,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -4135,7 +4158,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -4152,7 +4175,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -4169,7 +4192,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -4186,7 +4209,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -4203,7 +4226,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -4220,7 +4243,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -4237,7 +4260,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -4254,7 +4277,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>167</v>
       </c>
@@ -4271,7 +4294,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>180</v>
       </c>
@@ -4288,7 +4311,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -4305,7 +4328,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>180</v>
       </c>
@@ -4322,7 +4345,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -4339,7 +4362,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>180</v>
       </c>
@@ -4356,7 +4379,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>180</v>
       </c>
@@ -4373,7 +4396,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>180</v>
       </c>
@@ -4390,7 +4413,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -4407,7 +4430,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>180</v>
       </c>
@@ -4424,7 +4447,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>180</v>
       </c>
@@ -4441,7 +4464,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -4458,7 +4481,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -4475,7 +4498,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>192</v>
       </c>
@@ -4492,7 +4515,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>192</v>
       </c>
@@ -4509,7 +4532,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>192</v>
       </c>
@@ -4526,7 +4549,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>192</v>
       </c>
@@ -4543,7 +4566,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>192</v>
       </c>
@@ -4560,7 +4583,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>192</v>
       </c>
@@ -4577,7 +4600,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>192</v>
       </c>
@@ -4594,7 +4617,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -4611,7 +4634,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>192</v>
       </c>
@@ -4628,7 +4651,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -4645,7 +4668,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>192</v>
       </c>
@@ -4662,7 +4685,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -4679,7 +4702,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>204</v>
       </c>
@@ -4696,7 +4719,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>204</v>
       </c>
@@ -4713,7 +4736,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>204</v>
       </c>
@@ -4730,7 +4753,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>204</v>
       </c>
@@ -4747,7 +4770,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>204</v>
       </c>
@@ -4764,7 +4787,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>204</v>
       </c>
@@ -4781,7 +4804,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>204</v>
       </c>
@@ -4798,7 +4821,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>204</v>
       </c>
@@ -4815,7 +4838,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>204</v>
       </c>
@@ -4832,7 +4855,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -4849,7 +4872,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>204</v>
       </c>
@@ -4866,7 +4889,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -4883,7 +4906,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>217</v>
       </c>
@@ -4900,7 +4923,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>217</v>
       </c>
@@ -4917,7 +4940,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>217</v>
       </c>
@@ -4934,7 +4957,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>217</v>
       </c>
@@ -4951,7 +4974,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>217</v>
       </c>
@@ -4968,7 +4991,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -4985,7 +5008,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>217</v>
       </c>
@@ -5002,7 +5025,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>217</v>
       </c>
@@ -5019,7 +5042,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -5036,7 +5059,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>217</v>
       </c>
@@ -5053,7 +5076,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>217</v>
       </c>
@@ -5070,7 +5093,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>217</v>
       </c>
@@ -5087,7 +5110,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>230</v>
       </c>
@@ -5104,7 +5127,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>230</v>
       </c>
@@ -5121,7 +5144,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>230</v>
       </c>
@@ -5138,7 +5161,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>230</v>
       </c>
@@ -5155,7 +5178,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>230</v>
       </c>
@@ -5172,7 +5195,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>230</v>
       </c>
@@ -5189,7 +5212,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -5206,7 +5229,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>230</v>
       </c>
@@ -5223,7 +5246,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -5240,7 +5263,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>230</v>
       </c>
@@ -5257,7 +5280,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>230</v>
       </c>
@@ -5274,7 +5297,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>230</v>
       </c>
@@ -5291,7 +5314,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>39</v>
       </c>
@@ -5308,7 +5331,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -5325,7 +5348,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>142</v>
       </c>
@@ -5342,7 +5365,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>78</v>
       </c>
@@ -5359,7 +5382,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -5376,7 +5399,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>192</v>
       </c>
@@ -5393,7 +5416,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -5410,7 +5433,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>167</v>
       </c>
@@ -5427,7 +5450,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>64</v>
       </c>
@@ -5444,7 +5467,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>117</v>
       </c>
@@ -5461,7 +5484,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>204</v>
       </c>
@@ -5478,7 +5501,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>204</v>
       </c>
@@ -5495,7 +5518,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -5512,7 +5535,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -5529,7 +5552,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>104</v>
       </c>
@@ -5546,7 +5569,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>130</v>
       </c>
@@ -5563,7 +5586,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>64</v>
       </c>
@@ -5580,7 +5603,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>52</v>
       </c>
@@ -5597,7 +5620,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>39</v>
       </c>
@@ -5614,7 +5637,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>78</v>
       </c>
@@ -5631,7 +5654,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>52</v>
       </c>
@@ -5648,7 +5671,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -5665,7 +5688,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>217</v>
       </c>
@@ -5682,7 +5705,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -5699,7 +5722,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>230</v>
       </c>
@@ -5716,7 +5739,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>104</v>
       </c>
@@ -5733,7 +5756,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>230</v>
       </c>
@@ -5750,7 +5773,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>192</v>
       </c>
@@ -5767,7 +5790,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>130</v>
       </c>
@@ -5784,7 +5807,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>104</v>
       </c>
@@ -5801,7 +5824,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>217</v>
       </c>
@@ -5818,7 +5841,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -5835,7 +5858,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>192</v>
       </c>
@@ -5852,7 +5875,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>167</v>
       </c>
@@ -5869,7 +5892,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>52</v>
       </c>
@@ -5886,7 +5909,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>130</v>
       </c>
@@ -5903,7 +5926,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>217</v>
       </c>
@@ -5920,7 +5943,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>230</v>
       </c>
@@ -5937,7 +5960,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -5954,7 +5977,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>230</v>
       </c>
@@ -5971,7 +5994,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -5988,7 +6011,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>130</v>
       </c>
@@ -6005,7 +6028,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>142</v>
       </c>
@@ -6022,7 +6045,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>52</v>
       </c>
@@ -6039,7 +6062,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>230</v>
       </c>
@@ -6056,7 +6079,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>52</v>
       </c>
@@ -6073,7 +6096,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>117</v>
       </c>
@@ -6090,7 +6113,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>192</v>
       </c>
@@ -6107,7 +6130,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -6124,7 +6147,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>180</v>
       </c>
@@ -6141,7 +6164,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>180</v>
       </c>
@@ -6158,7 +6181,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>192</v>
       </c>
@@ -6175,7 +6198,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -6192,7 +6215,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>192</v>
       </c>
@@ -6209,7 +6232,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>117</v>
       </c>
@@ -6226,7 +6249,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>104</v>
       </c>
@@ -6243,7 +6266,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>167</v>
       </c>
@@ -6260,7 +6283,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -6277,7 +6300,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>23</v>
       </c>
@@ -6294,7 +6317,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>230</v>
       </c>
@@ -6311,7 +6334,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>154</v>
       </c>
@@ -6328,7 +6351,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>117</v>
       </c>
@@ -6345,7 +6368,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>91</v>
       </c>
@@ -6362,7 +6385,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>104</v>
       </c>
@@ -6379,7 +6402,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>91</v>
       </c>
@@ -6396,7 +6419,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>52</v>
       </c>
@@ -6413,7 +6436,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>91</v>
       </c>
@@ -6430,7 +6453,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>39</v>
       </c>
@@ -6447,7 +6470,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>192</v>
       </c>
@@ -6464,7 +6487,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>154</v>
       </c>
@@ -6481,7 +6504,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>130</v>
       </c>
@@ -6498,7 +6521,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>167</v>
       </c>
@@ -6515,7 +6538,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -6532,7 +6555,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>192</v>
       </c>
@@ -6549,7 +6572,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>117</v>
       </c>
@@ -6566,7 +6589,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>78</v>
       </c>
@@ -6583,7 +6606,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>204</v>
       </c>
@@ -6600,7 +6623,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -6617,7 +6640,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>52</v>
       </c>
@@ -6634,7 +6657,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>39</v>
       </c>
@@ -6651,7 +6674,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>130</v>
       </c>
@@ -6668,7 +6691,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>167</v>
       </c>
@@ -6685,7 +6708,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>64</v>
       </c>
@@ -6702,7 +6725,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>154</v>
       </c>
@@ -6719,7 +6742,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>64</v>
       </c>
@@ -6736,7 +6759,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>117</v>
       </c>
@@ -6753,7 +6776,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -6770,7 +6793,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>230</v>
       </c>
@@ -6787,7 +6810,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>64</v>
       </c>
@@ -6804,7 +6827,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>78</v>
       </c>
@@ -6821,7 +6844,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -6838,7 +6861,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>130</v>
       </c>
@@ -6855,7 +6878,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>192</v>
       </c>
@@ -6872,7 +6895,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>154</v>
       </c>
@@ -6889,7 +6912,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -6906,7 +6929,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>192</v>
       </c>
@@ -6923,7 +6946,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>230</v>
       </c>
@@ -6940,7 +6963,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>204</v>
       </c>
@@ -6957,7 +6980,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>192</v>
       </c>
@@ -6974,7 +6997,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -6991,7 +7014,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>230</v>
       </c>
@@ -7008,7 +7031,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>180</v>
       </c>
@@ -7025,7 +7048,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>154</v>
       </c>
@@ -7042,7 +7065,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>180</v>
       </c>
@@ -7059,7 +7082,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>204</v>
       </c>
@@ -7076,7 +7099,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>142</v>
       </c>
@@ -7093,7 +7116,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>64</v>
       </c>
@@ -7110,7 +7133,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>204</v>
       </c>
@@ -7127,7 +7150,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>204</v>
       </c>
@@ -7144,7 +7167,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>64</v>
       </c>
@@ -7161,7 +7184,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>52</v>
       </c>
@@ -7178,7 +7201,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>78</v>
       </c>
@@ -7195,7 +7218,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>192</v>
       </c>
@@ -7212,7 +7235,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>91</v>
       </c>
@@ -7229,7 +7252,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>64</v>
       </c>
@@ -7246,7 +7269,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -7263,7 +7286,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>192</v>
       </c>
@@ -7280,7 +7303,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>130</v>
       </c>
@@ -7297,7 +7320,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>154</v>
       </c>
@@ -7314,7 +7337,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>180</v>
       </c>
@@ -7331,7 +7354,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>91</v>
       </c>
@@ -7348,7 +7371,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>217</v>
       </c>
@@ -7365,7 +7388,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>142</v>
       </c>
@@ -7382,7 +7405,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>142</v>
       </c>
@@ -7399,7 +7422,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>64</v>
       </c>
@@ -7416,7 +7439,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>192</v>
       </c>
@@ -7433,7 +7456,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>154</v>
       </c>
@@ -7450,7 +7473,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>23</v>
       </c>
@@ -7467,7 +7490,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>204</v>
       </c>
@@ -7484,7 +7507,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>39</v>
       </c>
@@ -7501,7 +7524,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>180</v>
       </c>
@@ -7518,7 +7541,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>154</v>
       </c>
@@ -7535,7 +7558,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>180</v>
       </c>
@@ -7552,7 +7575,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>78</v>
       </c>
@@ -7569,7 +7592,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>217</v>
       </c>
@@ -7586,7 +7609,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -7603,7 +7626,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -7620,7 +7643,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>180</v>
       </c>
@@ -7637,7 +7660,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>180</v>
       </c>
@@ -7654,7 +7677,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>154</v>
       </c>
@@ -7671,7 +7694,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>180</v>
       </c>
@@ -7688,7 +7711,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>64</v>
       </c>
@@ -7705,7 +7728,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>180</v>
       </c>
@@ -7722,7 +7745,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>52</v>
       </c>
@@ -7739,7 +7762,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>142</v>
       </c>
@@ -7756,7 +7779,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>104</v>
       </c>
@@ -7773,7 +7796,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>180</v>
       </c>
@@ -7790,7 +7813,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>217</v>
       </c>
@@ -7807,7 +7830,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>39</v>
       </c>
@@ -7824,7 +7847,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>52</v>
       </c>
@@ -7841,7 +7864,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>78</v>
       </c>
@@ -7858,7 +7881,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>180</v>
       </c>
@@ -7875,7 +7898,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>64</v>
       </c>
@@ -7892,7 +7915,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>142</v>
       </c>
@@ -7909,7 +7932,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>180</v>
       </c>
@@ -7926,7 +7949,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>204</v>
       </c>
@@ -7943,7 +7966,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -7960,7 +7983,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>78</v>
       </c>
@@ -7977,7 +8000,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>142</v>
       </c>
@@ -7994,7 +8017,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>64</v>
       </c>
@@ -8011,7 +8034,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>142</v>
       </c>
@@ -8028,7 +8051,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>204</v>
       </c>
@@ -8045,7 +8068,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>204</v>
       </c>
@@ -8062,7 +8085,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>167</v>
       </c>
@@ -8079,7 +8102,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -8096,7 +8119,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>130</v>
       </c>
@@ -8113,7 +8136,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>154</v>
       </c>
@@ -8130,7 +8153,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>23</v>
       </c>
@@ -8147,7 +8170,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>217</v>
       </c>
@@ -8164,7 +8187,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -8181,7 +8204,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>64</v>
       </c>
@@ -8198,7 +8221,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>64</v>
       </c>
@@ -8215,7 +8238,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>91</v>
       </c>
@@ -8232,7 +8255,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>204</v>
       </c>
@@ -8249,7 +8272,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>217</v>
       </c>
@@ -8266,7 +8289,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>52</v>
       </c>
@@ -8283,7 +8306,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>78</v>
       </c>
@@ -8300,7 +8323,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>130</v>
       </c>
@@ -8317,7 +8340,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>64</v>
       </c>
@@ -8334,7 +8357,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>104</v>
       </c>
@@ -8351,7 +8374,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>217</v>
       </c>
@@ -8368,7 +8391,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -8385,7 +8408,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>180</v>
       </c>
@@ -8402,7 +8425,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>167</v>
       </c>
@@ -8419,7 +8442,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>39</v>
       </c>
@@ -8436,7 +8459,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>217</v>
       </c>
@@ -8453,7 +8476,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -8470,7 +8493,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>52</v>
       </c>
@@ -8487,7 +8510,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>91</v>
       </c>
@@ -8504,7 +8527,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>78</v>
       </c>
@@ -8521,7 +8544,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>117</v>
       </c>
@@ -8538,7 +8561,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>52</v>
       </c>
@@ -8553,6 +8576,142 @@
       </c>
       <c r="E404" s="3">
         <v>43867</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>130</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C405" s="2">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>25</v>
+      </c>
+      <c r="E405" s="3">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>154</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C406" s="2">
+        <v>4</v>
+      </c>
+      <c r="D406" t="s">
+        <v>19</v>
+      </c>
+      <c r="E406" s="3">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>23</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C407" s="2">
+        <v>2</v>
+      </c>
+      <c r="D407" t="s">
+        <v>13</v>
+      </c>
+      <c r="E407" s="3">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>39</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C408" s="2">
+        <v>2</v>
+      </c>
+      <c r="D408" t="s">
+        <v>25</v>
+      </c>
+      <c r="E408" s="3">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>142</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C409" s="2">
+        <v>3</v>
+      </c>
+      <c r="D409" t="s">
+        <v>25</v>
+      </c>
+      <c r="E409" s="3">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>154</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C410" s="2">
+        <v>2</v>
+      </c>
+      <c r="D410" t="s">
+        <v>19</v>
+      </c>
+      <c r="E410" s="3">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>117</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C411" s="2">
+        <v>1</v>
+      </c>
+      <c r="D411" t="s">
+        <v>19</v>
+      </c>
+      <c r="E411" s="3">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>167</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C412" s="2">
+        <v>5</v>
+      </c>
+      <c r="D412" t="s">
+        <v>19</v>
+      </c>
+      <c r="E412" s="3">
+        <v>43868</v>
       </c>
     </row>
   </sheetData>
@@ -8562,102 +8721,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="456">
   <si>
     <t>team</t>
   </si>
@@ -1369,6 +1369,30 @@
   </si>
   <si>
     <t>Ryne Stanek</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Wilmer Flores</t>
+  </si>
+  <si>
+    <t>Clint Frazier</t>
+  </si>
+  <si>
+    <t>Adrian Houser</t>
+  </si>
+  <si>
+    <t>Shed Long</t>
+  </si>
+  <si>
+    <t>Brandon Belt</t>
+  </si>
+  <si>
+    <t>Jasson Dominguez</t>
+  </si>
+  <si>
+    <t>Nick Anderson</t>
   </si>
 </sst>
 </file>
@@ -1694,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E412"/>
+  <dimension ref="A1:E420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D407" sqref="D407"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B422" sqref="B422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +1830,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
         <v>43830</v>
@@ -8712,6 +8736,142 @@
       </c>
       <c r="E412" s="3">
         <v>43868</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>230</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C413" s="2">
+        <v>1</v>
+      </c>
+      <c r="D413" t="s">
+        <v>70</v>
+      </c>
+      <c r="E413" s="3">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>5</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C414" s="2">
+        <v>3</v>
+      </c>
+      <c r="D414" t="s">
+        <v>13</v>
+      </c>
+      <c r="E414" s="3">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>217</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C415" s="2">
+        <v>5</v>
+      </c>
+      <c r="D415" t="s">
+        <v>19</v>
+      </c>
+      <c r="E415" s="3">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>117</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C416" s="2">
+        <v>2</v>
+      </c>
+      <c r="D416" t="s">
+        <v>13</v>
+      </c>
+      <c r="E416" s="3">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>117</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C417" s="2">
+        <v>2</v>
+      </c>
+      <c r="D417" t="s">
+        <v>11</v>
+      </c>
+      <c r="E417" s="3">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>217</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C418" s="2">
+        <v>1</v>
+      </c>
+      <c r="D418" t="s">
+        <v>17</v>
+      </c>
+      <c r="E418" s="3">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>230</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C419" s="2">
+        <v>13</v>
+      </c>
+      <c r="D419" t="s">
+        <v>19</v>
+      </c>
+      <c r="E419" s="3">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>39</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C420" s="2">
+        <v>3</v>
+      </c>
+      <c r="D420" t="s">
+        <v>19</v>
+      </c>
+      <c r="E420" s="3">
+        <v>43871</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="464">
   <si>
     <t>team</t>
   </si>
@@ -1393,6 +1393,30 @@
   </si>
   <si>
     <t>Nick Anderson</t>
+  </si>
+  <si>
+    <t>Johnny Cueto</t>
+  </si>
+  <si>
+    <t>Ian Happ</t>
+  </si>
+  <si>
+    <t>Sam Hilliard</t>
+  </si>
+  <si>
+    <t>Jason Castro</t>
+  </si>
+  <si>
+    <t>James Karinchak</t>
+  </si>
+  <si>
+    <t>Ryan Pressly</t>
+  </si>
+  <si>
+    <t>Justin Smoak</t>
+  </si>
+  <si>
+    <t>Josh James</t>
   </si>
 </sst>
 </file>
@@ -1718,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E420"/>
+  <dimension ref="A1:E428"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A408" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B422" sqref="B422"/>
+      <selection activeCell="D423" sqref="D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8872,6 +8896,142 @@
       </c>
       <c r="E420" s="3">
         <v>43871</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>39</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C421" s="2">
+        <v>4</v>
+      </c>
+      <c r="D421" t="s">
+        <v>17</v>
+      </c>
+      <c r="E421" s="3">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>167</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C422" s="2">
+        <v>4</v>
+      </c>
+      <c r="D422" t="s">
+        <v>13</v>
+      </c>
+      <c r="E422" s="3">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>204</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C423" s="2">
+        <v>1</v>
+      </c>
+      <c r="D423" t="s">
+        <v>25</v>
+      </c>
+      <c r="E423" s="3">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>142</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C424" s="2">
+        <v>4</v>
+      </c>
+      <c r="D424" t="s">
+        <v>19</v>
+      </c>
+      <c r="E424" s="3">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>52</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C425" s="2">
+        <v>3</v>
+      </c>
+      <c r="D425" t="s">
+        <v>19</v>
+      </c>
+      <c r="E425" s="3">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>5</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C426" s="2">
+        <v>3</v>
+      </c>
+      <c r="D426" t="s">
+        <v>93</v>
+      </c>
+      <c r="E426" s="3">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>167</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C427" s="2">
+        <v>5</v>
+      </c>
+      <c r="D427" t="s">
+        <v>19</v>
+      </c>
+      <c r="E427" s="3">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>230</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C428" s="2">
+        <v>1</v>
+      </c>
+      <c r="D428" t="s">
+        <v>19</v>
+      </c>
+      <c r="E428" s="3">
+        <v>43872</v>
       </c>
     </row>
   </sheetData>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRDUser\Desktop\fantasy2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F44987-AD0E-4FB4-93D4-368552BF91C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6300" yWindow="4770" windowWidth="14175" windowHeight="12210" tabRatio="500"/>
+    <workbookView xWindow="-6840" yWindow="4464" windowWidth="14172" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="480">
   <si>
     <t>team</t>
   </si>
@@ -1417,12 +1418,60 @@
   </si>
   <si>
     <t>Josh James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freddy Peralta </t>
+  </si>
+  <si>
+    <t>Kyle Gibson</t>
+  </si>
+  <si>
+    <t>Jose Peraza</t>
+  </si>
+  <si>
+    <t>Brandon Nimmo</t>
+  </si>
+  <si>
+    <t>Jordan Yamamoto</t>
+  </si>
+  <si>
+    <t>Kyle Crick</t>
+  </si>
+  <si>
+    <t>Willians Astudillo</t>
+  </si>
+  <si>
+    <t>Franchy Cordero</t>
+  </si>
+  <si>
+    <t>Kyle Lewis</t>
+  </si>
+  <si>
+    <t>Cesar Hernandez</t>
+  </si>
+  <si>
+    <t>J.A. Happ</t>
+  </si>
+  <si>
+    <t>Colin Moran</t>
+  </si>
+  <si>
+    <t>Drew Pomeranz</t>
+  </si>
+  <si>
+    <t>Eric Thames</t>
+  </si>
+  <si>
+    <t>Pablo Lopez</t>
+  </si>
+  <si>
+    <t>Jordan Hicks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0;[Red]\$#,##0"/>
   </numFmts>
@@ -1741,24 +1790,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E428"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E444"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A408" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D423" sqref="D423"/>
+      <selection activeCell="B445" sqref="B445"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125"/>
-    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
+    <col min="6" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1775,7 +1824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1841,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +1858,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +1875,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1843,7 +1892,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +1909,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1877,7 +1926,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1894,7 +1943,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1911,7 +1960,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1977,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1945,7 +1994,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1962,7 +2011,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1979,7 +2028,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1996,7 +2045,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2013,7 +2062,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2030,7 +2079,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2047,7 +2096,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2064,7 +2113,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2081,7 +2130,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2098,7 +2147,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2115,7 +2164,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2132,7 +2181,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2149,7 +2198,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2166,7 +2215,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2183,7 +2232,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2200,7 +2249,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2217,7 +2266,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2234,7 +2283,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2251,7 +2300,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2268,7 +2317,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2285,7 +2334,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2302,7 +2351,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2319,7 +2368,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2336,7 +2385,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2353,7 +2402,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2370,7 +2419,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2387,7 +2436,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2404,7 +2453,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2421,7 +2470,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -2438,7 +2487,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2455,7 +2504,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2472,7 +2521,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2489,7 +2538,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2506,7 +2555,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2523,7 +2572,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2540,7 +2589,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2557,7 +2606,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2574,7 +2623,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2591,7 +2640,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2608,7 +2657,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2625,7 +2674,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -2642,7 +2691,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2659,7 +2708,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2676,7 +2725,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2693,7 +2742,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2710,7 +2759,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2727,7 +2776,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2744,7 +2793,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2761,7 +2810,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2778,7 +2827,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2795,7 +2844,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2812,7 +2861,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2829,7 +2878,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -2846,7 +2895,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2863,7 +2912,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -2880,7 +2929,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -2897,7 +2946,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -2914,7 +2963,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2931,7 +2980,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2948,7 +2997,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2965,7 +3014,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -2982,7 +3031,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -2999,7 +3048,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -3016,7 +3065,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -3033,7 +3082,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -3050,7 +3099,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -3067,7 +3116,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -3084,7 +3133,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -3101,7 +3150,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -3118,7 +3167,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -3135,7 +3184,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -3152,7 +3201,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -3169,7 +3218,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -3186,7 +3235,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -3203,7 +3252,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -3220,7 +3269,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -3237,7 +3286,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -3254,7 +3303,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -3271,7 +3320,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -3288,7 +3337,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -3305,7 +3354,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -3322,7 +3371,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -3339,7 +3388,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -3356,7 +3405,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -3373,7 +3422,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -3390,7 +3439,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -3407,7 +3456,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -3424,7 +3473,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -3441,7 +3490,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -3458,7 +3507,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -3475,7 +3524,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -3492,7 +3541,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -3509,7 +3558,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -3526,7 +3575,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -3543,7 +3592,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -3560,7 +3609,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>130</v>
       </c>
@@ -3577,7 +3626,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -3594,7 +3643,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -3611,7 +3660,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>130</v>
       </c>
@@ -3628,7 +3677,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -3645,7 +3694,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3662,7 +3711,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -3679,7 +3728,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -3696,7 +3745,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -3713,7 +3762,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -3730,7 +3779,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -3747,7 +3796,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>142</v>
       </c>
@@ -3764,7 +3813,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -3781,7 +3830,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -3798,7 +3847,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -3815,7 +3864,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>142</v>
       </c>
@@ -3832,7 +3881,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -3849,7 +3898,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -3866,7 +3915,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -3883,7 +3932,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -3900,7 +3949,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -3917,7 +3966,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -3934,7 +3983,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>154</v>
       </c>
@@ -3951,7 +4000,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>154</v>
       </c>
@@ -3968,7 +4017,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>154</v>
       </c>
@@ -3985,7 +4034,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>154</v>
       </c>
@@ -4002,7 +4051,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>154</v>
       </c>
@@ -4019,7 +4068,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>154</v>
       </c>
@@ -4036,7 +4085,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -4053,7 +4102,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>154</v>
       </c>
@@ -4070,7 +4119,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -4087,7 +4136,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -4104,7 +4153,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -4121,7 +4170,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -4138,7 +4187,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>167</v>
       </c>
@@ -4155,7 +4204,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -4172,7 +4221,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>167</v>
       </c>
@@ -4189,7 +4238,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -4206,7 +4255,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -4223,7 +4272,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -4240,7 +4289,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -4257,7 +4306,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -4274,7 +4323,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -4291,7 +4340,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -4308,7 +4357,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -4325,7 +4374,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>167</v>
       </c>
@@ -4342,7 +4391,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>180</v>
       </c>
@@ -4359,7 +4408,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -4376,7 +4425,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>180</v>
       </c>
@@ -4393,7 +4442,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -4410,7 +4459,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>180</v>
       </c>
@@ -4427,7 +4476,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>180</v>
       </c>
@@ -4444,7 +4493,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>180</v>
       </c>
@@ -4461,7 +4510,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -4478,7 +4527,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>180</v>
       </c>
@@ -4495,7 +4544,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>180</v>
       </c>
@@ -4512,7 +4561,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -4529,7 +4578,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -4546,7 +4595,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>192</v>
       </c>
@@ -4563,7 +4612,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>192</v>
       </c>
@@ -4580,7 +4629,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>192</v>
       </c>
@@ -4597,7 +4646,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>192</v>
       </c>
@@ -4614,7 +4663,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>192</v>
       </c>
@@ -4631,7 +4680,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>192</v>
       </c>
@@ -4648,7 +4697,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>192</v>
       </c>
@@ -4665,7 +4714,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -4682,7 +4731,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>192</v>
       </c>
@@ -4699,7 +4748,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -4716,7 +4765,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>192</v>
       </c>
@@ -4733,7 +4782,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -4750,7 +4799,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>204</v>
       </c>
@@ -4767,7 +4816,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>204</v>
       </c>
@@ -4784,7 +4833,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>204</v>
       </c>
@@ -4801,7 +4850,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>204</v>
       </c>
@@ -4818,7 +4867,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>204</v>
       </c>
@@ -4835,7 +4884,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>204</v>
       </c>
@@ -4852,7 +4901,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>204</v>
       </c>
@@ -4869,7 +4918,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>204</v>
       </c>
@@ -4886,7 +4935,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>204</v>
       </c>
@@ -4903,7 +4952,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -4920,7 +4969,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>204</v>
       </c>
@@ -4937,7 +4986,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -4954,7 +5003,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>217</v>
       </c>
@@ -4971,7 +5020,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>217</v>
       </c>
@@ -4988,7 +5037,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>217</v>
       </c>
@@ -5005,7 +5054,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>217</v>
       </c>
@@ -5022,7 +5071,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>217</v>
       </c>
@@ -5039,7 +5088,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -5056,7 +5105,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>217</v>
       </c>
@@ -5073,7 +5122,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>217</v>
       </c>
@@ -5090,7 +5139,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -5107,7 +5156,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>217</v>
       </c>
@@ -5124,7 +5173,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>217</v>
       </c>
@@ -5141,7 +5190,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>217</v>
       </c>
@@ -5158,7 +5207,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>230</v>
       </c>
@@ -5175,7 +5224,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>230</v>
       </c>
@@ -5192,7 +5241,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>230</v>
       </c>
@@ -5209,7 +5258,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>230</v>
       </c>
@@ -5226,7 +5275,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>230</v>
       </c>
@@ -5243,7 +5292,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>230</v>
       </c>
@@ -5260,7 +5309,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -5277,7 +5326,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>230</v>
       </c>
@@ -5294,7 +5343,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -5311,7 +5360,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>230</v>
       </c>
@@ -5328,7 +5377,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>230</v>
       </c>
@@ -5345,7 +5394,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>230</v>
       </c>
@@ -5362,7 +5411,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>39</v>
       </c>
@@ -5379,7 +5428,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -5396,7 +5445,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>142</v>
       </c>
@@ -5413,7 +5462,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>78</v>
       </c>
@@ -5430,7 +5479,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -5447,7 +5496,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>192</v>
       </c>
@@ -5464,7 +5513,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -5481,7 +5530,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>167</v>
       </c>
@@ -5498,7 +5547,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>64</v>
       </c>
@@ -5515,7 +5564,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>117</v>
       </c>
@@ -5532,7 +5581,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>204</v>
       </c>
@@ -5549,7 +5598,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>204</v>
       </c>
@@ -5566,7 +5615,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -5583,7 +5632,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -5600,7 +5649,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>104</v>
       </c>
@@ -5617,7 +5666,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>130</v>
       </c>
@@ -5634,7 +5683,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>64</v>
       </c>
@@ -5651,7 +5700,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>52</v>
       </c>
@@ -5668,7 +5717,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>39</v>
       </c>
@@ -5685,7 +5734,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>78</v>
       </c>
@@ -5702,7 +5751,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>52</v>
       </c>
@@ -5719,7 +5768,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -5736,7 +5785,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>217</v>
       </c>
@@ -5753,7 +5802,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -5770,7 +5819,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>230</v>
       </c>
@@ -5787,7 +5836,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>104</v>
       </c>
@@ -5804,7 +5853,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>230</v>
       </c>
@@ -5821,7 +5870,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>192</v>
       </c>
@@ -5838,7 +5887,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>130</v>
       </c>
@@ -5855,7 +5904,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>104</v>
       </c>
@@ -5872,7 +5921,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>217</v>
       </c>
@@ -5889,7 +5938,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -5906,7 +5955,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>192</v>
       </c>
@@ -5923,7 +5972,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>167</v>
       </c>
@@ -5940,7 +5989,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>52</v>
       </c>
@@ -5957,7 +6006,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>130</v>
       </c>
@@ -5974,7 +6023,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>217</v>
       </c>
@@ -5991,7 +6040,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>230</v>
       </c>
@@ -6008,7 +6057,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -6025,7 +6074,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>230</v>
       </c>
@@ -6042,7 +6091,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -6059,7 +6108,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>130</v>
       </c>
@@ -6076,7 +6125,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>142</v>
       </c>
@@ -6093,7 +6142,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>52</v>
       </c>
@@ -6110,7 +6159,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>230</v>
       </c>
@@ -6127,7 +6176,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>52</v>
       </c>
@@ -6144,7 +6193,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>117</v>
       </c>
@@ -6161,7 +6210,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>192</v>
       </c>
@@ -6178,7 +6227,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -6195,7 +6244,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>180</v>
       </c>
@@ -6212,7 +6261,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>180</v>
       </c>
@@ -6229,7 +6278,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>192</v>
       </c>
@@ -6246,7 +6295,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -6263,7 +6312,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>192</v>
       </c>
@@ -6280,7 +6329,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>117</v>
       </c>
@@ -6297,7 +6346,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>104</v>
       </c>
@@ -6314,7 +6363,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>167</v>
       </c>
@@ -6331,7 +6380,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -6348,7 +6397,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>23</v>
       </c>
@@ -6365,7 +6414,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>230</v>
       </c>
@@ -6382,7 +6431,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>154</v>
       </c>
@@ -6399,7 +6448,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>117</v>
       </c>
@@ -6416,7 +6465,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>91</v>
       </c>
@@ -6433,7 +6482,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>104</v>
       </c>
@@ -6450,7 +6499,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>91</v>
       </c>
@@ -6467,7 +6516,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>52</v>
       </c>
@@ -6484,7 +6533,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>91</v>
       </c>
@@ -6501,7 +6550,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>39</v>
       </c>
@@ -6518,7 +6567,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>192</v>
       </c>
@@ -6535,7 +6584,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>154</v>
       </c>
@@ -6552,7 +6601,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>130</v>
       </c>
@@ -6569,7 +6618,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>167</v>
       </c>
@@ -6586,7 +6635,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -6603,7 +6652,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>192</v>
       </c>
@@ -6620,7 +6669,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>117</v>
       </c>
@@ -6637,7 +6686,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>78</v>
       </c>
@@ -6654,7 +6703,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>204</v>
       </c>
@@ -6671,7 +6720,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -6688,7 +6737,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>52</v>
       </c>
@@ -6705,7 +6754,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>39</v>
       </c>
@@ -6722,7 +6771,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>130</v>
       </c>
@@ -6739,7 +6788,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>167</v>
       </c>
@@ -6756,7 +6805,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>64</v>
       </c>
@@ -6773,7 +6822,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>154</v>
       </c>
@@ -6790,7 +6839,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>64</v>
       </c>
@@ -6807,7 +6856,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>117</v>
       </c>
@@ -6824,7 +6873,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -6841,7 +6890,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>230</v>
       </c>
@@ -6858,7 +6907,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>64</v>
       </c>
@@ -6875,7 +6924,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>78</v>
       </c>
@@ -6892,7 +6941,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -6909,7 +6958,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>130</v>
       </c>
@@ -6926,7 +6975,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>192</v>
       </c>
@@ -6943,7 +6992,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>154</v>
       </c>
@@ -6960,7 +7009,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -6977,7 +7026,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>192</v>
       </c>
@@ -6994,7 +7043,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>230</v>
       </c>
@@ -7011,7 +7060,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>204</v>
       </c>
@@ -7028,7 +7077,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>192</v>
       </c>
@@ -7045,7 +7094,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -7062,7 +7111,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>230</v>
       </c>
@@ -7079,7 +7128,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>180</v>
       </c>
@@ -7096,7 +7145,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>154</v>
       </c>
@@ -7113,7 +7162,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>180</v>
       </c>
@@ -7130,7 +7179,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>204</v>
       </c>
@@ -7147,7 +7196,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>142</v>
       </c>
@@ -7164,7 +7213,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>64</v>
       </c>
@@ -7181,7 +7230,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>204</v>
       </c>
@@ -7198,7 +7247,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>204</v>
       </c>
@@ -7215,7 +7264,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>64</v>
       </c>
@@ -7232,7 +7281,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>52</v>
       </c>
@@ -7249,7 +7298,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>78</v>
       </c>
@@ -7266,7 +7315,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>192</v>
       </c>
@@ -7283,7 +7332,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>91</v>
       </c>
@@ -7300,7 +7349,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>64</v>
       </c>
@@ -7317,7 +7366,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -7334,7 +7383,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>192</v>
       </c>
@@ -7351,7 +7400,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>130</v>
       </c>
@@ -7368,7 +7417,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>154</v>
       </c>
@@ -7385,7 +7434,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>180</v>
       </c>
@@ -7402,7 +7451,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>91</v>
       </c>
@@ -7419,7 +7468,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>217</v>
       </c>
@@ -7436,7 +7485,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>142</v>
       </c>
@@ -7453,7 +7502,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>142</v>
       </c>
@@ -7470,7 +7519,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>64</v>
       </c>
@@ -7487,7 +7536,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>192</v>
       </c>
@@ -7504,7 +7553,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>154</v>
       </c>
@@ -7521,7 +7570,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>23</v>
       </c>
@@ -7538,7 +7587,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>204</v>
       </c>
@@ -7555,7 +7604,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>39</v>
       </c>
@@ -7572,7 +7621,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>180</v>
       </c>
@@ -7589,7 +7638,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>154</v>
       </c>
@@ -7606,7 +7655,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>180</v>
       </c>
@@ -7623,7 +7672,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>78</v>
       </c>
@@ -7640,7 +7689,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>217</v>
       </c>
@@ -7657,7 +7706,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -7674,7 +7723,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -7691,7 +7740,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>180</v>
       </c>
@@ -7708,7 +7757,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>180</v>
       </c>
@@ -7725,7 +7774,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>154</v>
       </c>
@@ -7742,7 +7791,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>180</v>
       </c>
@@ -7759,7 +7808,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>64</v>
       </c>
@@ -7776,7 +7825,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>180</v>
       </c>
@@ -7793,7 +7842,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>52</v>
       </c>
@@ -7810,7 +7859,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>142</v>
       </c>
@@ -7827,7 +7876,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>104</v>
       </c>
@@ -7844,7 +7893,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>180</v>
       </c>
@@ -7861,7 +7910,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>217</v>
       </c>
@@ -7878,7 +7927,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>39</v>
       </c>
@@ -7895,7 +7944,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>52</v>
       </c>
@@ -7912,7 +7961,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>78</v>
       </c>
@@ -7929,7 +7978,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>180</v>
       </c>
@@ -7946,7 +7995,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>64</v>
       </c>
@@ -7963,7 +8012,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>142</v>
       </c>
@@ -7980,7 +8029,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>180</v>
       </c>
@@ -7997,7 +8046,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>204</v>
       </c>
@@ -8014,7 +8063,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -8031,7 +8080,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>78</v>
       </c>
@@ -8048,7 +8097,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>142</v>
       </c>
@@ -8065,7 +8114,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>64</v>
       </c>
@@ -8082,7 +8131,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>142</v>
       </c>
@@ -8099,7 +8148,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>204</v>
       </c>
@@ -8116,7 +8165,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>204</v>
       </c>
@@ -8133,7 +8182,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>167</v>
       </c>
@@ -8150,7 +8199,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -8167,7 +8216,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>130</v>
       </c>
@@ -8184,7 +8233,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>154</v>
       </c>
@@ -8201,7 +8250,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>23</v>
       </c>
@@ -8218,7 +8267,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>217</v>
       </c>
@@ -8235,7 +8284,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -8252,7 +8301,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>64</v>
       </c>
@@ -8269,7 +8318,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>64</v>
       </c>
@@ -8286,7 +8335,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>91</v>
       </c>
@@ -8303,7 +8352,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>204</v>
       </c>
@@ -8320,7 +8369,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>217</v>
       </c>
@@ -8337,7 +8386,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>52</v>
       </c>
@@ -8354,7 +8403,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>78</v>
       </c>
@@ -8371,7 +8420,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>130</v>
       </c>
@@ -8388,7 +8437,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>64</v>
       </c>
@@ -8405,7 +8454,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>104</v>
       </c>
@@ -8422,7 +8471,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>217</v>
       </c>
@@ -8439,7 +8488,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -8456,7 +8505,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>180</v>
       </c>
@@ -8473,7 +8522,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>167</v>
       </c>
@@ -8490,7 +8539,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>39</v>
       </c>
@@ -8507,7 +8556,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>217</v>
       </c>
@@ -8524,7 +8573,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -8541,7 +8590,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>52</v>
       </c>
@@ -8558,7 +8607,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>91</v>
       </c>
@@ -8575,7 +8624,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>78</v>
       </c>
@@ -8592,7 +8641,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>117</v>
       </c>
@@ -8609,7 +8658,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>52</v>
       </c>
@@ -8626,7 +8675,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>130</v>
       </c>
@@ -8643,7 +8692,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>154</v>
       </c>
@@ -8660,7 +8709,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>23</v>
       </c>
@@ -8677,7 +8726,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>39</v>
       </c>
@@ -8694,7 +8743,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>142</v>
       </c>
@@ -8711,7 +8760,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>154</v>
       </c>
@@ -8728,7 +8777,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>117</v>
       </c>
@@ -8745,7 +8794,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>167</v>
       </c>
@@ -8762,7 +8811,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>230</v>
       </c>
@@ -8779,7 +8828,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>5</v>
       </c>
@@ -8796,7 +8845,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>217</v>
       </c>
@@ -8813,7 +8862,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>117</v>
       </c>
@@ -8830,7 +8879,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>117</v>
       </c>
@@ -8847,7 +8896,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>217</v>
       </c>
@@ -8864,7 +8913,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>230</v>
       </c>
@@ -8881,7 +8930,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>39</v>
       </c>
@@ -8898,7 +8947,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>39</v>
       </c>
@@ -8915,7 +8964,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>167</v>
       </c>
@@ -8932,7 +8981,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>204</v>
       </c>
@@ -8949,7 +8998,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>142</v>
       </c>
@@ -8966,7 +9015,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>52</v>
       </c>
@@ -8983,7 +9032,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>5</v>
       </c>
@@ -9000,7 +9049,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>167</v>
       </c>
@@ -9017,7 +9066,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>230</v>
       </c>
@@ -9032,6 +9081,278 @@
       </c>
       <c r="E428" s="3">
         <v>43872</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>167</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C429" s="2">
+        <v>1</v>
+      </c>
+      <c r="D429" t="s">
+        <v>19</v>
+      </c>
+      <c r="E429" s="3">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>91</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C430" s="2">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>70</v>
+      </c>
+      <c r="E430" s="3">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>167</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C431" s="2">
+        <v>5</v>
+      </c>
+      <c r="D431" t="s">
+        <v>17</v>
+      </c>
+      <c r="E431" s="3">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>217</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C432" s="2">
+        <v>1</v>
+      </c>
+      <c r="D432" t="s">
+        <v>19</v>
+      </c>
+      <c r="E432" s="3">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>52</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C433" s="2">
+        <v>1</v>
+      </c>
+      <c r="D433" t="s">
+        <v>19</v>
+      </c>
+      <c r="E433" s="3">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>91</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C434" s="2">
+        <v>2</v>
+      </c>
+      <c r="D434" t="s">
+        <v>25</v>
+      </c>
+      <c r="E434" s="3">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>154</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C435" s="2">
+        <v>3</v>
+      </c>
+      <c r="D435" t="s">
+        <v>17</v>
+      </c>
+      <c r="E435" s="3">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>23</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C436" s="2">
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
+        <v>19</v>
+      </c>
+      <c r="E436" s="3">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>204</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C437" s="2">
+        <v>1</v>
+      </c>
+      <c r="D437" t="s">
+        <v>13</v>
+      </c>
+      <c r="E437" s="3">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>142</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C438" s="2">
+        <v>2</v>
+      </c>
+      <c r="D438" t="s">
+        <v>28</v>
+      </c>
+      <c r="E438" s="3">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>142</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C439" s="2">
+        <v>2</v>
+      </c>
+      <c r="D439" t="s">
+        <v>19</v>
+      </c>
+      <c r="E439" s="3">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>117</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C440" s="2">
+        <v>1</v>
+      </c>
+      <c r="D440" t="s">
+        <v>7</v>
+      </c>
+      <c r="E440" s="3">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>39</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C441" s="2">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>19</v>
+      </c>
+      <c r="E441" s="3">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>167</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C442" s="2">
+        <v>3</v>
+      </c>
+      <c r="D442" t="s">
+        <v>11</v>
+      </c>
+      <c r="E442" s="3">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>167</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C443" s="2">
+        <v>3</v>
+      </c>
+      <c r="D443" t="s">
+        <v>19</v>
+      </c>
+      <c r="E443" s="3">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>91</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C444" s="2">
+        <v>1</v>
+      </c>
+      <c r="D444" t="s">
+        <v>19</v>
+      </c>
+      <c r="E444" s="3">
+        <v>43874</v>
       </c>
     </row>
   </sheetData>
@@ -9041,102 +9362,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F44987-AD0E-4FB4-93D4-368552BF91C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6817AF-4B7B-4EFD-801D-74B6BDB7053F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6840" yWindow="4464" windowWidth="14172" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4464" windowWidth="14172" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="497">
   <si>
     <t>team</t>
   </si>
@@ -1466,6 +1466,57 @@
   </si>
   <si>
     <t>Jordan Hicks</t>
+  </si>
+  <si>
+    <t>Albert Pujols</t>
+  </si>
+  <si>
+    <t>Wade Davis</t>
+  </si>
+  <si>
+    <t>Austin Romine</t>
+  </si>
+  <si>
+    <t>Jake Bauers</t>
+  </si>
+  <si>
+    <t>Dexter Fowler</t>
+  </si>
+  <si>
+    <t>Mike Fiers</t>
+  </si>
+  <si>
+    <t>Daniel Hudson</t>
+  </si>
+  <si>
+    <t>Rich Hill</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Seranthony Dominguez</t>
+  </si>
+  <si>
+    <t>Andres Munoz</t>
+  </si>
+  <si>
+    <t>Stephen Vogt</t>
+  </si>
+  <si>
+    <t>Luis Urias</t>
+  </si>
+  <si>
+    <t>Jordan Montgomery</t>
+  </si>
+  <si>
+    <t>Ryan Mountcastle</t>
+  </si>
+  <si>
+    <t>Rowan Wick</t>
+  </si>
+  <si>
+    <t>Todd Frazier</t>
   </si>
 </sst>
 </file>
@@ -1791,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E444"/>
+  <dimension ref="A1:E463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B445" sqref="B445"/>
+    <sheetView tabSelected="1" topLeftCell="A440" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A461" sqref="A461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9354,6 +9405,298 @@
       <c r="E444" s="3">
         <v>43874</v>
       </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>78</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C445" s="2">
+        <v>1</v>
+      </c>
+      <c r="D445" t="s">
+        <v>93</v>
+      </c>
+      <c r="E445" s="3">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>230</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C446" s="2">
+        <v>7</v>
+      </c>
+      <c r="D446" t="s">
+        <v>19</v>
+      </c>
+      <c r="E446" s="3">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>91</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C447" s="2">
+        <v>5</v>
+      </c>
+      <c r="D447" t="s">
+        <v>25</v>
+      </c>
+      <c r="E447" s="3">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>154</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C448" s="2">
+        <v>1</v>
+      </c>
+      <c r="D448" t="s">
+        <v>11</v>
+      </c>
+      <c r="E448" s="3">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>117</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C449" s="2">
+        <v>2</v>
+      </c>
+      <c r="D449" t="s">
+        <v>17</v>
+      </c>
+      <c r="E449" s="3">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>204</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C450" s="2">
+        <v>1</v>
+      </c>
+      <c r="D450" t="s">
+        <v>19</v>
+      </c>
+      <c r="E450" s="3">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>142</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C451" s="2">
+        <v>1</v>
+      </c>
+      <c r="D451" t="s">
+        <v>19</v>
+      </c>
+      <c r="E451" s="3">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>104</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C452" s="2">
+        <v>1</v>
+      </c>
+      <c r="D452" t="s">
+        <v>19</v>
+      </c>
+      <c r="E452" s="3">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>117</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C453" s="2">
+        <v>2</v>
+      </c>
+      <c r="D453" t="s">
+        <v>19</v>
+      </c>
+      <c r="E453" s="3">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>117</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C454" s="2">
+        <v>1</v>
+      </c>
+      <c r="D454" t="s">
+        <v>19</v>
+      </c>
+      <c r="E454" s="3">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>39</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C455" s="2">
+        <v>1</v>
+      </c>
+      <c r="D455" t="s">
+        <v>19</v>
+      </c>
+      <c r="E455" s="3">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>230</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C456" s="2">
+        <v>1</v>
+      </c>
+      <c r="D456" t="s">
+        <v>25</v>
+      </c>
+      <c r="E456" s="3">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>167</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C457" s="2">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
+        <v>19</v>
+      </c>
+      <c r="E457" s="3">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>91</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C458" s="2">
+        <v>1</v>
+      </c>
+      <c r="D458" t="s">
+        <v>19</v>
+      </c>
+      <c r="E458" s="3">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>78</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C459" s="2">
+        <v>3</v>
+      </c>
+      <c r="D459" t="s">
+        <v>11</v>
+      </c>
+      <c r="E459" s="3">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>217</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C460" s="2">
+        <v>1</v>
+      </c>
+      <c r="D460" t="s">
+        <v>19</v>
+      </c>
+      <c r="E460" s="3">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>230</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C461" s="2">
+        <v>2</v>
+      </c>
+      <c r="D461" t="s">
+        <v>93</v>
+      </c>
+      <c r="E461" s="3">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRDUser\Desktop\fantasy2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6817AF-4B7B-4EFD-801D-74B6BDB7053F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4464" windowWidth="14172" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4470" windowWidth="14175" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="506">
   <si>
     <t>team</t>
   </si>
@@ -1517,12 +1516,39 @@
   </si>
   <si>
     <t>Todd Frazier</t>
+  </si>
+  <si>
+    <t>Adam Ottavino</t>
+  </si>
+  <si>
+    <t>Brad Keller </t>
+  </si>
+  <si>
+    <t>Christin Stewart</t>
+  </si>
+  <si>
+    <t>Spencer Howard</t>
+  </si>
+  <si>
+    <t>Reynaldo Lopez</t>
+  </si>
+  <si>
+    <t>Diego Castillo</t>
+  </si>
+  <si>
+    <t>Deivi Garcia</t>
+  </si>
+  <si>
+    <t>Ke'Bryan Hays</t>
+  </si>
+  <si>
+    <t>Mike Zunino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0;[Red]\$#,##0"/>
   </numFmts>
@@ -1841,24 +1867,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E463"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A461" sqref="A461"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D463" sqref="D463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
-    <col min="6" max="1025" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125"/>
+    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1918,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1909,7 +1935,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1926,7 +1952,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1943,7 +1969,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +1986,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1977,7 +2003,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1994,7 +2020,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2011,7 +2037,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2028,7 +2054,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2045,7 +2071,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2088,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2079,7 +2105,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2096,7 +2122,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2113,7 +2139,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2130,7 +2156,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2147,7 +2173,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2164,7 +2190,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2181,7 +2207,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2198,7 +2224,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2215,7 +2241,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2232,7 +2258,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2249,7 +2275,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2266,7 +2292,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2283,7 +2309,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2300,7 +2326,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2317,7 +2343,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2334,7 +2360,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2351,7 +2377,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2368,7 +2394,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2385,7 +2411,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2402,7 +2428,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2419,7 +2445,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2436,7 +2462,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2453,7 +2479,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2470,7 +2496,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2487,7 +2513,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2504,7 +2530,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2521,7 +2547,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -2538,7 +2564,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2555,7 +2581,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2572,7 +2598,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2589,7 +2615,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2606,7 +2632,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2623,7 +2649,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2640,7 +2666,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2657,7 +2683,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2674,7 +2700,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2691,7 +2717,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2708,7 +2734,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2725,7 +2751,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -2742,7 +2768,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2759,7 +2785,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2776,7 +2802,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2793,7 +2819,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2810,7 +2836,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2827,7 +2853,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2844,7 +2870,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2861,7 +2887,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2878,7 +2904,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2895,7 +2921,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2912,7 +2938,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2929,7 +2955,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -2946,7 +2972,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2957,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E65" s="3">
         <v>43830</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -2980,7 +3006,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -2997,7 +3023,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -3014,7 +3040,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -3031,7 +3057,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -3048,7 +3074,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -3065,7 +3091,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -3082,7 +3108,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -3099,7 +3125,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -3116,7 +3142,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -3133,7 +3159,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -3150,7 +3176,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -3167,7 +3193,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -3184,7 +3210,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -3201,7 +3227,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -3218,7 +3244,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -3235,7 +3261,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -3252,7 +3278,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -3269,7 +3295,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -3286,7 +3312,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -3303,7 +3329,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -3320,7 +3346,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -3337,7 +3363,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -3354,7 +3380,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -3371,7 +3397,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -3388,7 +3414,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -3405,7 +3431,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -3422,7 +3448,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -3439,7 +3465,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -3456,7 +3482,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -3473,7 +3499,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -3490,7 +3516,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -3507,7 +3533,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -3524,7 +3550,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -3541,7 +3567,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -3558,7 +3584,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -3575,7 +3601,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -3592,7 +3618,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -3609,7 +3635,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -3626,7 +3652,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -3643,7 +3669,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -3660,7 +3686,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>130</v>
       </c>
@@ -3677,7 +3703,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -3694,7 +3720,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -3711,7 +3737,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>130</v>
       </c>
@@ -3728,7 +3754,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -3745,7 +3771,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3762,7 +3788,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -3779,7 +3805,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -3796,7 +3822,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -3813,7 +3839,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -3830,7 +3856,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -3847,7 +3873,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>142</v>
       </c>
@@ -3864,7 +3890,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -3881,7 +3907,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -3898,7 +3924,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -3915,7 +3941,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>142</v>
       </c>
@@ -3932,7 +3958,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -3949,7 +3975,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -3966,7 +3992,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -3983,7 +4009,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -4000,7 +4026,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -4017,7 +4043,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -4034,7 +4060,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>154</v>
       </c>
@@ -4051,7 +4077,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>154</v>
       </c>
@@ -4068,7 +4094,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>154</v>
       </c>
@@ -4085,7 +4111,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>154</v>
       </c>
@@ -4102,7 +4128,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>154</v>
       </c>
@@ -4119,7 +4145,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>154</v>
       </c>
@@ -4136,7 +4162,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -4153,7 +4179,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>154</v>
       </c>
@@ -4170,7 +4196,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -4187,7 +4213,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -4204,7 +4230,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -4221,7 +4247,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -4238,7 +4264,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>167</v>
       </c>
@@ -4255,7 +4281,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -4272,7 +4298,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>167</v>
       </c>
@@ -4289,7 +4315,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -4306,7 +4332,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -4323,7 +4349,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -4340,7 +4366,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -4357,7 +4383,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -4374,7 +4400,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -4391,7 +4417,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -4408,7 +4434,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -4425,7 +4451,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>167</v>
       </c>
@@ -4442,7 +4468,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>180</v>
       </c>
@@ -4459,7 +4485,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -4476,7 +4502,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>180</v>
       </c>
@@ -4493,7 +4519,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -4510,7 +4536,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>180</v>
       </c>
@@ -4527,7 +4553,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>180</v>
       </c>
@@ -4544,7 +4570,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>180</v>
       </c>
@@ -4561,7 +4587,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -4578,7 +4604,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>180</v>
       </c>
@@ -4595,7 +4621,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>180</v>
       </c>
@@ -4612,7 +4638,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -4629,7 +4655,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -4646,7 +4672,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>192</v>
       </c>
@@ -4663,7 +4689,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>192</v>
       </c>
@@ -4680,7 +4706,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>192</v>
       </c>
@@ -4697,7 +4723,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>192</v>
       </c>
@@ -4714,7 +4740,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>192</v>
       </c>
@@ -4731,7 +4757,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>192</v>
       </c>
@@ -4748,7 +4774,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>192</v>
       </c>
@@ -4765,7 +4791,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -4782,7 +4808,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>192</v>
       </c>
@@ -4799,7 +4825,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -4816,7 +4842,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>192</v>
       </c>
@@ -4833,7 +4859,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -4850,7 +4876,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>204</v>
       </c>
@@ -4867,7 +4893,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>204</v>
       </c>
@@ -4884,7 +4910,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>204</v>
       </c>
@@ -4901,7 +4927,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>204</v>
       </c>
@@ -4918,7 +4944,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>204</v>
       </c>
@@ -4935,7 +4961,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>204</v>
       </c>
@@ -4952,7 +4978,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>204</v>
       </c>
@@ -4969,7 +4995,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>204</v>
       </c>
@@ -4986,7 +5012,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>204</v>
       </c>
@@ -5003,7 +5029,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -5020,7 +5046,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>204</v>
       </c>
@@ -5037,7 +5063,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -5054,7 +5080,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>217</v>
       </c>
@@ -5071,7 +5097,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>217</v>
       </c>
@@ -5088,7 +5114,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>217</v>
       </c>
@@ -5105,7 +5131,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>217</v>
       </c>
@@ -5122,7 +5148,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>217</v>
       </c>
@@ -5139,7 +5165,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -5156,7 +5182,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>217</v>
       </c>
@@ -5173,7 +5199,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>217</v>
       </c>
@@ -5190,7 +5216,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -5207,7 +5233,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>217</v>
       </c>
@@ -5224,7 +5250,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>217</v>
       </c>
@@ -5241,7 +5267,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>217</v>
       </c>
@@ -5258,7 +5284,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>230</v>
       </c>
@@ -5275,7 +5301,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>230</v>
       </c>
@@ -5292,7 +5318,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>230</v>
       </c>
@@ -5309,7 +5335,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>230</v>
       </c>
@@ -5326,7 +5352,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>230</v>
       </c>
@@ -5343,7 +5369,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>230</v>
       </c>
@@ -5360,7 +5386,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -5377,7 +5403,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>230</v>
       </c>
@@ -5394,7 +5420,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -5411,7 +5437,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>230</v>
       </c>
@@ -5428,7 +5454,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>230</v>
       </c>
@@ -5445,7 +5471,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>230</v>
       </c>
@@ -5462,7 +5488,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>39</v>
       </c>
@@ -5479,7 +5505,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -5496,7 +5522,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>142</v>
       </c>
@@ -5513,7 +5539,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>78</v>
       </c>
@@ -5530,7 +5556,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -5547,7 +5573,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>192</v>
       </c>
@@ -5564,7 +5590,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -5581,7 +5607,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>167</v>
       </c>
@@ -5598,7 +5624,7 @@
         <v>43836</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>64</v>
       </c>
@@ -5615,7 +5641,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>117</v>
       </c>
@@ -5632,7 +5658,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>204</v>
       </c>
@@ -5649,7 +5675,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>204</v>
       </c>
@@ -5666,7 +5692,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -5683,7 +5709,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -5700,7 +5726,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>104</v>
       </c>
@@ -5717,7 +5743,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>130</v>
       </c>
@@ -5734,7 +5760,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>64</v>
       </c>
@@ -5751,7 +5777,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>52</v>
       </c>
@@ -5768,7 +5794,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>39</v>
       </c>
@@ -5785,7 +5811,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>78</v>
       </c>
@@ -5802,7 +5828,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>52</v>
       </c>
@@ -5819,7 +5845,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -5836,7 +5862,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>217</v>
       </c>
@@ -5853,7 +5879,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -5870,7 +5896,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>230</v>
       </c>
@@ -5887,7 +5913,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>104</v>
       </c>
@@ -5904,7 +5930,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>230</v>
       </c>
@@ -5921,7 +5947,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>192</v>
       </c>
@@ -5938,7 +5964,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>130</v>
       </c>
@@ -5955,7 +5981,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>104</v>
       </c>
@@ -5972,7 +5998,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>217</v>
       </c>
@@ -5989,7 +6015,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -6006,7 +6032,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>192</v>
       </c>
@@ -6023,7 +6049,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>167</v>
       </c>
@@ -6040,7 +6066,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>52</v>
       </c>
@@ -6057,7 +6083,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>130</v>
       </c>
@@ -6074,7 +6100,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>217</v>
       </c>
@@ -6091,7 +6117,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>230</v>
       </c>
@@ -6108,7 +6134,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -6125,7 +6151,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>230</v>
       </c>
@@ -6142,7 +6168,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -6159,7 +6185,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>130</v>
       </c>
@@ -6176,7 +6202,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>142</v>
       </c>
@@ -6193,7 +6219,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>52</v>
       </c>
@@ -6210,7 +6236,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>230</v>
       </c>
@@ -6227,7 +6253,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>52</v>
       </c>
@@ -6244,7 +6270,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>117</v>
       </c>
@@ -6261,7 +6287,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>192</v>
       </c>
@@ -6278,7 +6304,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -6295,7 +6321,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>180</v>
       </c>
@@ -6312,7 +6338,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>180</v>
       </c>
@@ -6329,7 +6355,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>192</v>
       </c>
@@ -6346,7 +6372,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -6363,7 +6389,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>192</v>
       </c>
@@ -6380,7 +6406,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>117</v>
       </c>
@@ -6397,7 +6423,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>104</v>
       </c>
@@ -6414,7 +6440,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>167</v>
       </c>
@@ -6431,7 +6457,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -6448,7 +6474,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>23</v>
       </c>
@@ -6465,7 +6491,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>230</v>
       </c>
@@ -6482,7 +6508,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>154</v>
       </c>
@@ -6499,7 +6525,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>117</v>
       </c>
@@ -6516,7 +6542,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>91</v>
       </c>
@@ -6533,7 +6559,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>104</v>
       </c>
@@ -6550,7 +6576,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>91</v>
       </c>
@@ -6567,7 +6593,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>52</v>
       </c>
@@ -6584,7 +6610,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>91</v>
       </c>
@@ -6601,7 +6627,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>39</v>
       </c>
@@ -6618,7 +6644,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>192</v>
       </c>
@@ -6635,7 +6661,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>154</v>
       </c>
@@ -6652,7 +6678,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>130</v>
       </c>
@@ -6669,7 +6695,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>167</v>
       </c>
@@ -6686,7 +6712,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -6703,7 +6729,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>192</v>
       </c>
@@ -6720,7 +6746,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>117</v>
       </c>
@@ -6737,7 +6763,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>78</v>
       </c>
@@ -6754,7 +6780,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>204</v>
       </c>
@@ -6771,7 +6797,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -6788,7 +6814,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>52</v>
       </c>
@@ -6805,7 +6831,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>39</v>
       </c>
@@ -6822,7 +6848,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>130</v>
       </c>
@@ -6839,7 +6865,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>167</v>
       </c>
@@ -6856,7 +6882,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>64</v>
       </c>
@@ -6873,7 +6899,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>154</v>
       </c>
@@ -6890,7 +6916,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>64</v>
       </c>
@@ -6907,7 +6933,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>117</v>
       </c>
@@ -6924,7 +6950,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -6941,7 +6967,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>230</v>
       </c>
@@ -6958,7 +6984,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>64</v>
       </c>
@@ -6975,7 +7001,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>78</v>
       </c>
@@ -6992,7 +7018,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -7009,7 +7035,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>130</v>
       </c>
@@ -7026,7 +7052,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>192</v>
       </c>
@@ -7043,7 +7069,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>154</v>
       </c>
@@ -7060,7 +7086,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -7077,7 +7103,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>192</v>
       </c>
@@ -7094,7 +7120,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>230</v>
       </c>
@@ -7111,7 +7137,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>204</v>
       </c>
@@ -7128,7 +7154,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>192</v>
       </c>
@@ -7145,7 +7171,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -7162,7 +7188,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>230</v>
       </c>
@@ -7179,7 +7205,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>180</v>
       </c>
@@ -7196,7 +7222,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>154</v>
       </c>
@@ -7213,7 +7239,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>180</v>
       </c>
@@ -7230,7 +7256,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>204</v>
       </c>
@@ -7247,7 +7273,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>142</v>
       </c>
@@ -7264,7 +7290,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>64</v>
       </c>
@@ -7281,7 +7307,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>204</v>
       </c>
@@ -7298,7 +7324,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>204</v>
       </c>
@@ -7315,7 +7341,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>64</v>
       </c>
@@ -7332,7 +7358,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>52</v>
       </c>
@@ -7349,7 +7375,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>78</v>
       </c>
@@ -7366,7 +7392,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>192</v>
       </c>
@@ -7383,7 +7409,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>91</v>
       </c>
@@ -7400,7 +7426,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>64</v>
       </c>
@@ -7417,7 +7443,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -7434,7 +7460,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>192</v>
       </c>
@@ -7451,7 +7477,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>130</v>
       </c>
@@ -7468,7 +7494,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>154</v>
       </c>
@@ -7485,7 +7511,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>180</v>
       </c>
@@ -7502,7 +7528,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>91</v>
       </c>
@@ -7519,7 +7545,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>217</v>
       </c>
@@ -7536,7 +7562,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>142</v>
       </c>
@@ -7553,7 +7579,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>142</v>
       </c>
@@ -7570,7 +7596,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>64</v>
       </c>
@@ -7587,7 +7613,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>192</v>
       </c>
@@ -7604,7 +7630,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>154</v>
       </c>
@@ -7621,7 +7647,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>23</v>
       </c>
@@ -7638,7 +7664,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>204</v>
       </c>
@@ -7655,7 +7681,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>39</v>
       </c>
@@ -7672,7 +7698,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>180</v>
       </c>
@@ -7689,7 +7715,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>154</v>
       </c>
@@ -7706,7 +7732,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>180</v>
       </c>
@@ -7723,7 +7749,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>78</v>
       </c>
@@ -7740,7 +7766,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>217</v>
       </c>
@@ -7757,7 +7783,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -7774,7 +7800,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -7791,7 +7817,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>180</v>
       </c>
@@ -7808,7 +7834,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>180</v>
       </c>
@@ -7825,7 +7851,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>154</v>
       </c>
@@ -7842,7 +7868,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>180</v>
       </c>
@@ -7859,7 +7885,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>64</v>
       </c>
@@ -7876,7 +7902,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>180</v>
       </c>
@@ -7893,7 +7919,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>52</v>
       </c>
@@ -7910,7 +7936,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>142</v>
       </c>
@@ -7927,7 +7953,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>104</v>
       </c>
@@ -7944,7 +7970,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>180</v>
       </c>
@@ -7961,7 +7987,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>217</v>
       </c>
@@ -7978,7 +8004,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>39</v>
       </c>
@@ -7995,7 +8021,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>52</v>
       </c>
@@ -8012,7 +8038,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>78</v>
       </c>
@@ -8029,7 +8055,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>180</v>
       </c>
@@ -8046,7 +8072,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>64</v>
       </c>
@@ -8063,7 +8089,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>142</v>
       </c>
@@ -8080,7 +8106,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>180</v>
       </c>
@@ -8097,7 +8123,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>204</v>
       </c>
@@ -8114,7 +8140,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -8131,7 +8157,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>78</v>
       </c>
@@ -8148,7 +8174,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>142</v>
       </c>
@@ -8165,7 +8191,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>64</v>
       </c>
@@ -8182,7 +8208,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>142</v>
       </c>
@@ -8199,7 +8225,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>204</v>
       </c>
@@ -8216,7 +8242,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>204</v>
       </c>
@@ -8233,7 +8259,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>167</v>
       </c>
@@ -8250,7 +8276,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -8267,7 +8293,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>130</v>
       </c>
@@ -8284,7 +8310,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>154</v>
       </c>
@@ -8301,7 +8327,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>23</v>
       </c>
@@ -8318,7 +8344,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>217</v>
       </c>
@@ -8335,7 +8361,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -8352,7 +8378,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>64</v>
       </c>
@@ -8369,7 +8395,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>64</v>
       </c>
@@ -8386,7 +8412,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>91</v>
       </c>
@@ -8403,7 +8429,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>204</v>
       </c>
@@ -8420,7 +8446,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>217</v>
       </c>
@@ -8437,7 +8463,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>52</v>
       </c>
@@ -8454,7 +8480,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>78</v>
       </c>
@@ -8471,7 +8497,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>130</v>
       </c>
@@ -8488,7 +8514,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>64</v>
       </c>
@@ -8505,7 +8531,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>104</v>
       </c>
@@ -8522,7 +8548,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>217</v>
       </c>
@@ -8539,7 +8565,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -8556,7 +8582,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>180</v>
       </c>
@@ -8573,7 +8599,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>167</v>
       </c>
@@ -8590,7 +8616,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>39</v>
       </c>
@@ -8607,7 +8633,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>217</v>
       </c>
@@ -8624,7 +8650,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -8641,7 +8667,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>52</v>
       </c>
@@ -8658,7 +8684,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>91</v>
       </c>
@@ -8675,7 +8701,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>78</v>
       </c>
@@ -8686,13 +8712,13 @@
         <v>5</v>
       </c>
       <c r="D402" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E402" s="3">
         <v>43867</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>117</v>
       </c>
@@ -8709,7 +8735,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>52</v>
       </c>
@@ -8726,7 +8752,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>130</v>
       </c>
@@ -8743,7 +8769,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>154</v>
       </c>
@@ -8760,7 +8786,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.